--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\voc개선\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96F22FE-291E-4C51-BA39-DDD62335C363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4947DC58-9D7B-4AB1-A9F6-68EC7DEC45E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="129">
   <si>
     <t>아이디</t>
   </si>
@@ -386,6 +386,469 @@
     <t>배송중 파손</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>땅콩꼬부기</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(아웃바운드 시도했으나, 전화기가 꺼져 있어 다시 시도 예정,물류팀측으로도 리뷰 전달)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">상판의 경우 흠집이나 얼룩, 벗겨짐이 꽤 있는 상태로 배송되었고, 렉도 생각보다 무거운 주제에 이음새 부분이 너무 약합니다ㅠ 이음새에 기둥을 이어서 조립 후에도 계속 덜그럭거릴 정도에요.. 급한대로 그냥 쓰긴 하지만 배송이 한 달이 걸린데다가 이 정도 퀄리티라면...다음에 필요해도 재구매는 절대 절대 안할 겁니다. 그리고 배송사 변경하시는 게 좋지 않을까합니다. 천일택배던데 다른 지역은 모르겠으나 제가 있는 곳은 아주 최악이었어요. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>택배상자에 분명 모서리 찌그러지지 않게 주의하라고 적혀있던데 찌그러져서 왔구요.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 그래서 상판 테두리가 벗겨져 있었을 지도요? 암튼, 이거도 화나는데, 택배사가 주소 확인 제대로 안하고 멋대로 다른 집에 배송해놓고 전화로 사과도 없이 거기가 머냐하시더니 안멀면 저보고 직접 가서 가져오란 식으로 말해서 배송실수인데 이 무거운 걸 가지러 갔다오라는 건 좀 아닌 것같다, 다시 배송해달라 했더니 그럼 기다리셔야죠 뭐.이렇게 말해서 너무 화가 났습니다. 요새 수틀리면 해코지하는 사람들이 많아서 제 주소를 아는 이상 일단 전화로는 잘 부탁드린다고 했는데, 마음같아선 정말 너무 싫었습니다. 제가 안그래도 급한 물건인데 배송이 늦어진 거라 최대한 빨리 달라니까 그제서야 그럼 내일 라인돌면서 보고 갖다줄게요. 기다리세요. 이래서 무슨 제가 무리한 부탁을 하는 것처럼 구시는 게 참 짜증났어요. 미안하다고 찾아서 최대한 빨리 갖다주겠다하는 게 정상아닌가요? 참 요즘 배짱장사들 많다많다해도 이리 뻔뻔한 곳은 처음입니다. 이제 어느 물건을 사도 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>천일택배</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>면 구매 안할 거에요. 이렇게 사람 우습게 아는 곳은 있으면 안됩니다.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>철제 선반 경량랙 펜트리 베란다 선반장 무볼트 조립식 앵글 전사이즈 모음
+가로x깊이(설치시 여유공간확보): 가로1200x깊이600 / 높이(프레임색상): 1500 2단 (백색)</t>
+  </si>
+  <si>
+    <t>https://ohou.se/productions/436103/selling</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘의집</t>
+  </si>
+  <si>
+    <t>㈜스피드랙 온라인지점(추가5)</t>
+  </si>
+  <si>
+    <t>천일택배 영업소 상황 파악 진행. 고객에게 아웃바운드 시도 했으나 부재로 추후 재시도 예정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2y2k****</t>
+  </si>
+  <si>
+    <r>
+      <t>기존에 박스가 많은데 뾰족한 대안이 없어서 앵글을 구매함. 상담부터 배송 조립 등등 애로사항이 있었으나 그래도 마무리해서 리뷰 적어봄. 
+1. 배송</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(천일택배)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: 몇 번 오셨던분인데 왜 같은 내용을 또 물어보고 문앞 배송을 위해 부탁을 해야 하는지… 
+2. 상담: 주문전 우레탄망치는 필요없으니, 나사 하나(just one)만 달라고 상담사에게 말씀드렸는데 그게 그리 어려운 것이었는지… 
+3. 조립: 150*90*210 사이즈는 연결형이었는데, 상세페이지에 조립방법을 좀 더 구체적으로 적어주실 수 없었는지… 판매자는 매일 봐서 쉽지만 2번의 경량랙 조립 경험이 있던 나도 쉽지 않음
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>특히, 앵글에 보드 삽입할때 정말 말도 안되게 힘듦… 보드를 부수고 싶은 충동.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 이 내용은 상세페이지, 동영상 어디에도 안 보임. 
+4. 품질: 보드(지저분한 것들이 있었으나 그냥 사용함), 프레임(흰색 코팅 너무 잘 까짐), 보강대(불안정해서 개선이 필요함: 보드를 놓으면 계속 이탈함)
+** 설명동영상(배경과 프레임이 둘 다 흰색이라 구분이 잘 안됨)
+5. 고객센터 전화: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중간에 급히 문의할내용이 있어서 몇 차례 통화시도. 연결 안됨….</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+결론: 스피드랙이지만 스피디하지 못하다. 30만원 가량하는 상품을 구매하면서 이런 느낌은 처음이다. 정리해놓으니 깔끔하지만, 이런 대형 사이즈는 조립서비스(+박스 수거) 있으면 3만원~5만원이라도 지불하겠다. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(영업팀으로 전달)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로(폭)x세로(깊이)(mm): 1500x900 / 높이(mm): 2100 / (단수)12T양면강화합판: 5단(12T양면강화합판)</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/speedrackstore/products/8854765090</t>
+  </si>
+  <si>
+    <t>영업팀으로 구체적인 상황에 대해 확인 요청</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래처</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 응대</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>rapw***</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">책상 밑에 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데스크탑과 멀티탭을 깔끔하게 두고 싶어서 주문</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">했습니다. 600이라는 높이가 아슬아슬했는데, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가로 프레임 높이가 너무 높고 동봉된 플라스틱 받침대를 끼우려면 마지막 한칸을 쓸 수 없는 점 때문에 내부 높이 손실이 크네요.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 결국 상단 가로 프레임 하나는 빼고 쓰기로 했습니다. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나무판 기스도 아쉬운 부분이었습니다.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 하중을 낮추더라도 틈새 수납용으로는 가로 프레임 높이를 줄인 제품이 나오면 좋을 것 같습니다. -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연구개발에 확인했으나 스피드랙 하프 받침은 없는 것으로 파악</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로x깊이(설치시 여유공간확보): 가로200x깊이600 / 높이: 600 / 단수: 2단</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://brand.naver.com/speedrack/products/4831853679</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>스피드랙 온라인지점(추가6)</t>
+  </si>
+  <si>
+    <t>스피드랙 하프받침 샘플 사이즈 제작 여부 확인 완료</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>받침</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>받침 너비</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>won5***</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>재구매 입니다. 
+이전에는 퀵으로 받았었는데, 이번에 택배로 받으니까 상판이 찍힌 곳이 여러 곳 있네요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">.  
+이전에는 블랙으로 구입했었는데, 이번에 화이트로 구매하니까 칠 벗겨짐이 생각보다 잘 보입니다. 
+또한 높이가 2100이라 원기둥으로 주문했는데 모두 원기둥이 아닌 것으로 잘못 왔네요. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>( -&gt; 영업팀으로 전달하여, 거래처 처리 내용 확인)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로(폭)x세로(깊이)(mm): 1000x600 / 높이(mm): 2100 / (단수)12T양면강화합판: 5단(12T양면강화합판)</t>
+  </si>
+  <si>
+    <t>영업팀으로  거래처의 구체적 상황에 대해 확인 요청</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>파손</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>합판 모서리</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>성유미</t>
+  </si>
+  <si>
+    <t>2024-09-22</t>
+  </si>
+  <si>
+    <t>제가 가로 900 설치했는데 보강대는 필요없을 것 같아요. 그만큼 튼튼해요~  그리고 안좋은건 보강대를 끼워넣으면 선반이 보강대 끼운 부분이 뜹니다..</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>보강대: 600mm 백색</t>
+  </si>
+  <si>
+    <t>https://speedrack.co.kr/product/detailSimulator.html?product_no=135</t>
+  </si>
+  <si>
+    <t>자사몰</t>
+  </si>
+  <si>
+    <t>스피드랙 공식몰</t>
+  </si>
+  <si>
+    <t>보강대로 1개 설치로 인한 들뜸 발생</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>들뜸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>chan****</t>
+  </si>
+  <si>
+    <t>상판모서리가 조금씩 찍혀왔네요
+포장을 보강해야할것 같네요
+랙도 예전에 샀던거보단 조금 약해진 느낌도 드네요
+그래도 설치하고 정리했더니 좋습니다</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로(폭): 1200 / 세로(깊이): 400 / 높이(mm): 900(2단)</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/speedrackstore/products/8693661267</t>
+  </si>
+  <si>
+    <t>랙홈(추가)</t>
+  </si>
+  <si>
+    <t>아웃바운드 후 교환처리 완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>파손</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>합판 모서리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객지원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jewe***</t>
+  </si>
+  <si>
+    <t>한달째 가구 특유의 냄새가 나서 옷을 보관하기 힘들어요 (다른 가구회사의 제품 사진으로 정정 요청)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로x깊이: 가로1200x깊이500 / 높이: 1800(2.5단)</t>
+  </si>
+  <si>
+    <t>사진을 확인해보니 다른 가구 인점 확인.아웃바운드를 통해 정정요청</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 사유</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">고객 사유 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객지원파트</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>lt****</t>
+  </si>
+  <si>
+    <t>찍힌상품이배달왓어요</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로 x 깊이(설치시 여유공간확보): 가로1200 x 깊이500 / 높이mm: 높이1050 / 선반단수 / 행거봉: 2단 / 행거봉1</t>
+  </si>
+  <si>
+    <t>https://brand.naver.com/speedrack/products/4967519083</t>
+  </si>
+  <si>
+    <t>스피드랙 온라인지점(추가4)</t>
+  </si>
+  <si>
+    <t>행거</t>
+  </si>
+  <si>
+    <t>아웃 바운드 통해 합판 교환 완료</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>합판 찍힘</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -395,7 +858,7 @@
     <numFmt numFmtId="176" formatCode="_-[$₩-412]* #,##0_-;\-[$₩-412]* #,##0_-;_-[$₩-412]* \-??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -474,8 +937,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -485,6 +956,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,7 +1035,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -635,6 +1112,38 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -974,14 +1483,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
     <col min="4" max="4" width="88" customWidth="1"/>
     <col min="12" max="12" width="15.33203125" customWidth="1"/>
   </cols>
@@ -1328,6 +1838,402 @@
         <v>62</v>
       </c>
     </row>
+    <row r="8" spans="1:16" s="35" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+      <c r="A8" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="32">
+        <v>1</v>
+      </c>
+      <c r="C8" s="33">
+        <v>45557</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="34">
+        <v>857</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="O8" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="P8" s="37"/>
+    </row>
+    <row r="9" spans="1:16" ht="247.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="17">
+        <v>3</v>
+      </c>
+      <c r="C9" s="18">
+        <v>45559</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="19">
+        <v>702</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="O9" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="17">
+        <v>3</v>
+      </c>
+      <c r="C10" s="18">
+        <v>45558</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="19">
+        <v>269</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="99" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="17">
+        <v>2</v>
+      </c>
+      <c r="C11" s="18">
+        <v>45563</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="19">
+        <v>186</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="N11" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="O11" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="33" x14ac:dyDescent="0.3">
+      <c r="A12" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="28">
+        <v>1</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="19">
+        <v>84</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="O12" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" s="26"/>
+    </row>
+    <row r="13" spans="1:16" ht="66" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="17">
+        <v>3</v>
+      </c>
+      <c r="C13" s="18">
+        <v>45559</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="19">
+        <v>87</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" t="s">
+        <v>109</v>
+      </c>
+      <c r="K13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="N13" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="O13" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="P13" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="66" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="10">
+        <v>2</v>
+      </c>
+      <c r="C14" s="21">
+        <v>45560</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="19">
+        <v>55</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="N14" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="O14" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="P14" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="33" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="17">
+        <v>1</v>
+      </c>
+      <c r="C15" s="18">
+        <v>45560</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="19">
+        <v>10</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="L15" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="N15" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="O15" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:P7" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}"/>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4947DC58-9D7B-4AB1-A9F6-68EC7DEC45E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8D9ECC-2699-412C-981D-649887E7EA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -670,10 +670,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>받침</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>받침 너비</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -735,9 +731,6 @@
     <t>성유미</t>
   </si>
   <si>
-    <t>2024-09-22</t>
-  </si>
-  <si>
     <t>제가 가로 900 설치했는데 보강대는 필요없을 것 같아요. 그만큼 튼튼해요~  그리고 안좋은건 보강대를 끼워넣으면 선반이 보강대 끼운 부분이 뜹니다..</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -752,10 +745,6 @@
   </si>
   <si>
     <t>스피드랙 공식몰</t>
-  </si>
-  <si>
-    <t>보강대로 1개 설치로 인한 들뜸 발생</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>들뜸</t>
@@ -847,6 +836,18 @@
   </si>
   <si>
     <t>합판 찍힘</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>보강대로 1개 설치로 인한 들뜸 발생으로 파악</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타 부품</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1035,7 +1036,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1119,9 +1120,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1485,13 +1483,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="D9" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="11" customWidth="1"/>
     <col min="4" max="4" width="88" customWidth="1"/>
     <col min="12" max="12" width="15.33203125" customWidth="1"/>
   </cols>
@@ -1690,7 +1688,9 @@
       <c r="O4" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="P4" s="25"/>
+      <c r="P4" s="25" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="5" spans="1:16" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
@@ -1838,53 +1838,53 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="35" customFormat="1" ht="231" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
+    <row r="8" spans="1:16" s="34" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+      <c r="A8" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="31">
         <v>1</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="32">
         <v>45557</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="33">
         <v>857</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="H8" s="31" t="s">
+      <c r="H8" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="31" t="s">
+      <c r="I8" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="J8" s="31" t="s">
+      <c r="J8" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="K8" s="31" t="s">
+      <c r="K8" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="L8" s="36" t="s">
+      <c r="L8" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="M8" s="37" t="s">
+      <c r="M8" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="N8" s="37" t="s">
+      <c r="N8" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="O8" s="37" t="s">
+      <c r="O8" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="P8" s="37"/>
+      <c r="P8" s="36"/>
     </row>
     <row r="9" spans="1:16" ht="247.5" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
@@ -1974,10 +1974,10 @@
         <v>87</v>
       </c>
       <c r="M10" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="N10" s="22" t="s">
         <v>88</v>
-      </c>
-      <c r="N10" s="22" t="s">
-        <v>89</v>
       </c>
       <c r="O10" s="22" t="s">
         <v>46</v>
@@ -1986,9 +1986,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="99" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B11" s="17">
         <v>2</v>
@@ -1997,13 +1997,13 @@
         <v>45563</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E11" s="19">
         <v>186</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>78</v>
@@ -2021,13 +2021,13 @@
         <v>35</v>
       </c>
       <c r="L11" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="M11" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="M11" s="22" t="s">
+      <c r="N11" s="22" t="s">
         <v>94</v>
-      </c>
-      <c r="N11" s="22" t="s">
-        <v>95</v>
       </c>
       <c r="O11" s="22" t="s">
         <v>30</v>
@@ -2036,48 +2036,48 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B12" s="28">
         <v>1</v>
       </c>
-      <c r="C12" s="29" t="s">
-        <v>97</v>
+      <c r="C12" s="18">
+        <v>45557</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E12" s="19">
         <v>84</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H12" s="15" t="s">
         <v>22</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K12" s="15" t="s">
         <v>50</v>
       </c>
       <c r="L12" s="26" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="M12" s="26" t="s">
         <v>19</v>
       </c>
       <c r="N12" s="26" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O12" s="26" t="s">
         <v>46</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="13" spans="1:16" ht="66" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B13" s="17">
         <v>3</v>
@@ -2095,16 +2095,16 @@
         <v>45559</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E13" s="19">
         <v>87</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H13" t="s">
         <v>22</v>
@@ -2113,22 +2113,22 @@
         <v>23</v>
       </c>
       <c r="J13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K13" t="s">
         <v>35</v>
       </c>
       <c r="L13" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="N13" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="O13" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="M13" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="N13" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="O13" s="22" t="s">
-        <v>113</v>
       </c>
       <c r="P13" s="22" t="s">
         <v>62</v>
@@ -2136,7 +2136,7 @@
     </row>
     <row r="14" spans="1:16" ht="66" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B14" s="10">
         <v>2</v>
@@ -2144,14 +2144,14 @@
       <c r="C14" s="21">
         <v>45560</v>
       </c>
-      <c r="D14" s="30" t="s">
-        <v>115</v>
+      <c r="D14" s="29" t="s">
+        <v>112</v>
       </c>
       <c r="E14" s="19">
         <v>55</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>21</v>
@@ -2169,16 +2169,16 @@
         <v>25</v>
       </c>
       <c r="L14" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="N14" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="O14" s="26" t="s">
         <v>117</v>
-      </c>
-      <c r="M14" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="N14" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="O14" s="26" t="s">
-        <v>120</v>
       </c>
       <c r="P14" s="26" t="s">
         <v>61</v>
@@ -2186,7 +2186,7 @@
     </row>
     <row r="15" spans="1:16" ht="33" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B15" s="17">
         <v>1</v>
@@ -2195,16 +2195,16 @@
         <v>45560</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E15" s="19">
         <v>10</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H15" s="14" t="s">
         <v>22</v>
@@ -2213,19 +2213,19 @@
         <v>23</v>
       </c>
       <c r="J15" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L15" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="N15" s="22" t="s">
         <v>125</v>
-      </c>
-      <c r="K15" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="L15" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="M15" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="N15" s="22" t="s">
-        <v>128</v>
       </c>
       <c r="O15" s="22" t="s">
         <v>60</v>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8D9ECC-2699-412C-981D-649887E7EA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75519961-D1B8-4D5A-9DAD-AAB916031868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="201">
   <si>
     <t>아이디</t>
   </si>
@@ -850,6 +850,507 @@
     <t>기타 부품</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>gowl****</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">제품 배송 전 연락주셔서 사은품 확인도 해주시고 배송도 빨랐으며 조립+설치도 쉬운 편이었고 결과물도 튼튼하고 매우 마음에 듭니다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>단, 첫번째 사진처럼 선반 상판 하나에 칼집이 길게 나있더라구요. 꽤 신경쓰여서 반품할까 하다가 너무 번거로워서 그냥 품기로 했습니다. 새 상품인데 칼집 나 있는 건 조금 기분이 안좋네요 ㅠ 검수 꼼꼼하게 해주셔야 할 것 같아요.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(아웃바운드시 부재 재시도 예정)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로x깊이(설치시 여유공간확보): 가로900x깊이400 / 높이: 2100(2단)</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/estorehouse/products/691601700</t>
+  </si>
+  <si>
+    <t>스피드랙 온라인지점</t>
+  </si>
+  <si>
+    <t>아웃바운드 시도 했으나 부재로 추후 재시도 예정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>합판</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크레치</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>wjds*******</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">렉은참 좋습니다 근데 프레임 따로 상판따로 보내주셔야지 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">프레임 기스에 합포장 하니까 무게 때문에 상판 모서리 찍임 3개다  휴 그냥 귀찮아서 씁니다 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Pretendard"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+다른 판매자는 따로 보내주셨는데 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>좀 화가 나네요 (영업팀 전달 및 합판 관련 리뷰 취합 예정)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로(폭)x세로(깊이)(mm): 1200x400 / 높이(mm): 900 / 단수: 2단</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/speedrackstore/products/9168445246</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>영업팀 전달</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">박*숙 </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>봉길이가 프레임보다 긴게와서 조립이 안돼서 봉을 잘라서 설치했네요 검수 신경쓰셔야 할거같아요 (아웃바운드 통해 원인 파악예정)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+사이즈 딱 맞는 정사이즈예요
+디자인 보통이에요
+크기 적당해요
+견고함 보통이에요</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>화이트, 600x500x2100</t>
+  </si>
+  <si>
+    <t>https://www.coupang.com/vp/products/4395436917?itemId=6501937529&amp;vendorItemId=73796148798&amp;isAddedCart=</t>
+  </si>
+  <si>
+    <t>쿠팡</t>
+  </si>
+  <si>
+    <t>㈜스피드랙 온라인지점</t>
+  </si>
+  <si>
+    <t>아웃바운드 시도 예정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">행거봉 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이즈 오출고</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이버 페이 구매자</t>
+  </si>
+  <si>
+    <t>2024-10-01</t>
+  </si>
+  <si>
+    <t>선반 마감에는 신경을 좀 써야될꺼같아요. 코팅지가 일부 떨어져있어요 (아웃바운드 통해 교환 거부 -&gt; 커피쿠폰 전송 완료)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈던트하우스 12T 선반추가</t>
+  </si>
+  <si>
+    <t>https://speedrack.co.kr/product/detailSimulator.html?product_no=155</t>
+  </si>
+  <si>
+    <t>아웃바운드 통해 커피쿠폰 전송 완료</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>kmgb***</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">커튼크기가 딱맞는게아니라 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>커서 좀보기가 안좋은듯합니다.(금번 리뉴얼시 변경 예정)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 사이드 커튼도 같이주문한줄알았는데 정면만 사서 사이드 커튼 재주문해야하네요 에효</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품유형: 홈던트하우스 정면커튼 세트 / 사이즈: 정면커튼 2호(1200x1950) / 색상: 라이트 그레이</t>
+  </si>
+  <si>
+    <t>https://brand.naver.com/speedrack/products/5067114891</t>
+  </si>
+  <si>
+    <t>커튼 리뉴얼시 반영 예정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>커튼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이즈 불량</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산지원</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-09-30</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>합판 모서리 포장 보강</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Pretendard"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">해서 발송 부탁드립니다.찌그러져서 왔네요. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(아웃바운드시 부재 재시도 예정)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>스피드랙 조립식 철제선반 2단 깊이700 이상 모음</t>
+  </si>
+  <si>
+    <t>https://speedrack.co.kr/product/detailSimulator.html?product_no=126</t>
+  </si>
+  <si>
+    <t>cool****</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">튼튼하고 조립도 쉬웠어요 
+하지만 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">선반은(나무판자)  많이 아쉽네요 
+안찍힌게  없어요 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+ 반품귀찮아서 그냥 쓰지만  기분은 별루네요 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(영업팀 전달 및 합판 관련 리뷰 취합 예정)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로(폭)x세로(깊이)(mm): 1200x600(mm) / 높이(mm): 1950(mm) / 단수 / 행거봉: 선반3단(3개) / 행거봉 2개</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/firsteco/products/7642958603</t>
+  </si>
+  <si>
+    <t>퍼스트에코(추가5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">행거 </t>
+  </si>
+  <si>
+    <t>blue****</t>
+  </si>
+  <si>
+    <t>이거 어디서 반품된거 보낸거 처럼 조립했다 분해할때 나는 기스가 많았습니다. 중앙 구조물은 고정이 잘안되요</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로(폭)x세로(깊이)(mm): 1500x600 / 높이(mm): 1800 / 단수(스피드랙): 2단</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/speedrackstore/products/8805641337</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>영업팀 전달</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레임</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gsre*****</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">제품 조립은 아주 수월한데
+배송중 문제인지 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>선반마다 다 찍혀 왔음. (영업팀 전달 및 합판 관련 리뷰 취합 예정)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로(폭)x세로(깊이)(mm): 1200x600 / 높이(mm): 2100 / 단수(스피드랙): 3단</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/speedrackstore/products/8805641337</t>
+  </si>
+  <si>
+    <t>20****</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">프레임 하나가 심하게 휘어져 있었어요 .. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+그외는 괜찮습니다 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>( 답글 작성 및 아웃바운드 조치 완료)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로(폭): 600 / 세로(깊이): 300 / 높이(mm): 900(2단)</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/speedrackstore/products/8693661267</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>답글 작성 및 교환 완료 확인</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>휘어짐</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>hsst*******</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">판자가 모서리가 마모되서 왓네요 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Pretendard"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">ㅡㅡ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(영업팀 전달 및 합판 관련 리뷰 취합 예정)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로(폭)x세로(깊이)(mm): 900x300 / 높이(mm): 900 / 단수: 2단</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/firsteco/products/8816452635</t>
+  </si>
+  <si>
+    <t>에코퍼스트클로벌(추가7)</t>
+  </si>
+  <si>
+    <t>leh6***</t>
+  </si>
+  <si>
+    <t>제품 포장이 별로에요(영업팀 전달 및 합판 관련 리뷰 취합 예정)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로(mm) x 깊이(mm): 800 x 500 / 높이(mm): 2100 / 단수(합판갯수): 3단</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/nrshopping/products/8051763000</t>
+  </si>
+  <si>
+    <t>나라(추가5)</t>
+  </si>
 </sst>
 </file>
 
@@ -859,7 +1360,7 @@
     <numFmt numFmtId="176" formatCode="_-[$₩-412]* #,##0_-;\-[$₩-412]* #,##0_-;_-[$₩-412]* \-??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -943,6 +1444,13 @@
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -1036,7 +1544,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1143,6 +1651,25 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1481,10 +2008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D9" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1986,7 +2513,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="99" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>89</v>
       </c>
@@ -2233,6 +2760,588 @@
       <c r="P15" s="22" t="s">
         <v>61</v>
       </c>
+    </row>
+    <row r="16" spans="1:16" s="34" customFormat="1" ht="99" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="31">
+        <v>3</v>
+      </c>
+      <c r="C16" s="32">
+        <v>45569</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="33">
+        <v>221</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="K16" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="M16" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="N16" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="O16" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="P16" s="33"/>
+    </row>
+    <row r="17" spans="1:16" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="20">
+        <v>3</v>
+      </c>
+      <c r="C17" s="21">
+        <v>45570</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="19">
+        <v>136</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" t="s">
+        <v>140</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="P17" s="12"/>
+    </row>
+    <row r="18" spans="1:16" ht="99" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="17">
+        <v>3</v>
+      </c>
+      <c r="C18" s="18">
+        <v>45567</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E18" s="19">
+        <v>114</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="H18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" t="s">
+        <v>146</v>
+      </c>
+      <c r="J18" t="s">
+        <v>147</v>
+      </c>
+      <c r="K18" t="s">
+        <v>123</v>
+      </c>
+      <c r="L18" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="M18" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="N18" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="O18" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" s="19"/>
+    </row>
+    <row r="19" spans="1:16" ht="33" x14ac:dyDescent="0.3">
+      <c r="A19" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" s="28">
+        <v>3</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" s="19">
+        <v>68</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="H19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" t="s">
+        <v>99</v>
+      </c>
+      <c r="J19" t="s">
+        <v>100</v>
+      </c>
+      <c r="K19" t="s">
+        <v>50</v>
+      </c>
+      <c r="L19" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="M19" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="N19" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="O19" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" s="37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="33" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="17">
+        <v>3</v>
+      </c>
+      <c r="C20" s="18">
+        <v>45569</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="E20" s="19">
+        <v>90</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="H20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" t="s">
+        <v>133</v>
+      </c>
+      <c r="K20" t="s">
+        <v>50</v>
+      </c>
+      <c r="L20" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="N20" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="O20" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="P20" s="40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21" s="28">
+        <v>3</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="E21" s="19">
+        <v>54</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="H21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" t="s">
+        <v>99</v>
+      </c>
+      <c r="J21" t="s">
+        <v>100</v>
+      </c>
+      <c r="K21" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="M21" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="N21" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="O21" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" s="23"/>
+    </row>
+    <row r="22" spans="1:16" ht="66" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22" s="17">
+        <v>3</v>
+      </c>
+      <c r="C22" s="18">
+        <v>45566</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="E22" s="19">
+        <v>100</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="L22" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="M22" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="N22" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="O22" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="P22" s="19"/>
+    </row>
+    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B23" s="17">
+        <v>2</v>
+      </c>
+      <c r="C23" s="18">
+        <v>45569</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="E23" s="19">
+        <v>59</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="G23" t="s">
+        <v>178</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L23" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="M23" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="N23" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="O23" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="P23" s="22"/>
+    </row>
+    <row r="24" spans="1:16" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>181</v>
+      </c>
+      <c r="B24" s="10">
+        <v>3</v>
+      </c>
+      <c r="C24" s="21">
+        <v>45570</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="E24" s="19">
+        <v>63</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L24" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="M24" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="N24" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="O24" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="12"/>
+    </row>
+    <row r="25" spans="1:16" ht="33" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="B25" s="17">
+        <v>3</v>
+      </c>
+      <c r="C25" s="18">
+        <v>45564</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="E25" s="19">
+        <v>57</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="G25" t="s">
+        <v>188</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L25" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="M25" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="N25" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="O25" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" s="40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>191</v>
+      </c>
+      <c r="B26" s="10">
+        <v>3</v>
+      </c>
+      <c r="C26" s="21">
+        <v>45569</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="E26" s="19">
+        <v>46</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="H26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" t="s">
+        <v>195</v>
+      </c>
+      <c r="K26" t="s">
+        <v>35</v>
+      </c>
+      <c r="L26" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="M26" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="N26" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="O26" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="P26" s="23"/>
+    </row>
+    <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B27" s="17">
+        <v>1</v>
+      </c>
+      <c r="C27" s="18">
+        <v>45567</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="E27" s="19">
+        <v>36</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="K27" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L27" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="M27" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="N27" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="O27" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="22"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:P7" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}"/>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75519961-D1B8-4D5A-9DAD-AAB916031868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6080992-9660-4054-BC36-75E3EBBABF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="199">
   <si>
     <t>아이디</t>
   </si>
@@ -1022,9 +1022,6 @@
     <t>네이버 페이 구매자</t>
   </si>
   <si>
-    <t>2024-10-01</t>
-  </si>
-  <si>
     <t>선반 마감에는 신경을 좀 써야될꺼같아요. 코팅지가 일부 떨어져있어요 (아웃바운드 통해 교환 거부 -&gt; 커피쿠폰 전송 완료)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1088,9 +1085,6 @@
   <si>
     <t>생산지원</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024-09-30</t>
   </si>
   <si>
     <r>
@@ -2010,14 +2004,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="15.109375" style="11" customWidth="1"/>
     <col min="4" max="4" width="88" customWidth="1"/>
+    <col min="9" max="9" width="28.6640625" customWidth="1"/>
+    <col min="10" max="10" width="29" customWidth="1"/>
     <col min="12" max="12" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2513,7 +2509,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="99" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>89</v>
       </c>
@@ -2912,20 +2908,20 @@
       <c r="B19" s="28">
         <v>3</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="39">
+        <v>45566</v>
+      </c>
+      <c r="D19" s="26" t="s">
         <v>152</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>153</v>
       </c>
       <c r="E19" s="19">
         <v>68</v>
       </c>
       <c r="F19" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" s="27" t="s">
         <v>154</v>
-      </c>
-      <c r="G19" s="27" t="s">
-        <v>155</v>
       </c>
       <c r="H19" t="s">
         <v>22</v>
@@ -2940,7 +2936,7 @@
         <v>50</v>
       </c>
       <c r="L19" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M19" s="19" t="s">
         <v>135</v>
@@ -2957,7 +2953,7 @@
     </row>
     <row r="20" spans="1:16" ht="33" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B20" s="17">
         <v>3</v>
@@ -2966,16 +2962,16 @@
         <v>45569</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E20" s="19">
         <v>90</v>
       </c>
       <c r="F20" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="G20" s="15" t="s">
         <v>159</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>160</v>
       </c>
       <c r="H20" t="s">
         <v>22</v>
@@ -2990,16 +2986,16 @@
         <v>50</v>
       </c>
       <c r="L20" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="M20" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="M20" s="19" t="s">
+      <c r="N20" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="N20" s="19" t="s">
+      <c r="O20" s="19" t="s">
         <v>163</v>
-      </c>
-      <c r="O20" s="19" t="s">
-        <v>164</v>
       </c>
       <c r="P20" s="40" t="s">
         <v>61</v>
@@ -3012,20 +3008,20 @@
       <c r="B21" s="28">
         <v>3</v>
       </c>
-      <c r="C21" s="39" t="s">
-        <v>165</v>
+      <c r="C21" s="39">
+        <v>45565</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E21" s="19">
         <v>54</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H21" t="s">
         <v>33</v>
@@ -3055,7 +3051,7 @@
     </row>
     <row r="22" spans="1:16" ht="66" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B22" s="17">
         <v>3</v>
@@ -3064,16 +3060,16 @@
         <v>45566</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E22" s="19">
         <v>100</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H22" s="15" t="s">
         <v>22</v>
@@ -3082,10 +3078,10 @@
         <v>23</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L22" s="41" t="s">
         <v>141</v>
@@ -3103,7 +3099,7 @@
     </row>
     <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B23" s="17">
         <v>2</v>
@@ -3112,16 +3108,16 @@
         <v>45569</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E23" s="19">
         <v>59</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H23" s="15" t="s">
         <v>33</v>
@@ -3136,10 +3132,10 @@
         <v>35</v>
       </c>
       <c r="L23" s="42" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M23" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N23" s="22" t="s">
         <v>136</v>
@@ -3151,7 +3147,7 @@
     </row>
     <row r="24" spans="1:16" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B24" s="10">
         <v>3</v>
@@ -3160,16 +3156,16 @@
         <v>45570</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E24" s="19">
         <v>63</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H24" s="15" t="s">
         <v>33</v>
@@ -3199,7 +3195,7 @@
     </row>
     <row r="25" spans="1:16" ht="33" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B25" s="17">
         <v>3</v>
@@ -3208,16 +3204,16 @@
         <v>45564</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E25" s="19">
         <v>57</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H25" s="15" t="s">
         <v>22</v>
@@ -3232,13 +3228,13 @@
         <v>35</v>
       </c>
       <c r="L25" s="40" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M25" s="19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N25" s="19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O25" s="19" t="s">
         <v>60</v>
@@ -3249,7 +3245,7 @@
     </row>
     <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B26" s="10">
         <v>3</v>
@@ -3258,16 +3254,16 @@
         <v>45569</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E26" s="19">
         <v>46</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H26" t="s">
         <v>22</v>
@@ -3276,7 +3272,7 @@
         <v>23</v>
       </c>
       <c r="J26" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K26" t="s">
         <v>35</v>
@@ -3297,7 +3293,7 @@
     </row>
     <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B27" s="17">
         <v>1</v>
@@ -3306,16 +3302,16 @@
         <v>45567</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E27" s="19">
         <v>36</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H27" s="15" t="s">
         <v>33</v>
@@ -3324,7 +3320,7 @@
         <v>23</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K27" s="15" t="s">
         <v>35</v>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6080992-9660-4054-BC36-75E3EBBABF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753DA38B-D654-4B73-A000-A414F24399F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="공식몰날짜재입력필요" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">공식몰날짜재입력필요!$A$1:$P$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="203">
   <si>
     <t>아이디</t>
   </si>
@@ -904,14 +904,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>합판</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>스크레치</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>wjds*******</t>
   </si>
   <si>
@@ -1011,10 +1003,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">행거봉 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>사이즈 오출고</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1344,6 +1332,34 @@
   </si>
   <si>
     <t>나라(추가5)</t>
+  </si>
+  <si>
+    <t>합판 스크래치</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>행거봉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>합판 코팅</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크래치</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>영업팀, 물류팀 전달</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>포장</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>포장 불만</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2005,7 +2021,7 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2015,6 +2031,7 @@
     <col min="9" max="9" width="28.6640625" customWidth="1"/>
     <col min="10" max="10" width="29" customWidth="1"/>
     <col min="12" max="12" width="15.33203125" customWidth="1"/>
+    <col min="13" max="14" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="9" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -2795,10 +2812,10 @@
         <v>134</v>
       </c>
       <c r="M16" s="33" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="N16" s="33" t="s">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c r="O16" s="33" t="s">
         <v>64</v>
@@ -2807,7 +2824,7 @@
     </row>
     <row r="17" spans="1:16" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B17" s="20">
         <v>3</v>
@@ -2816,16 +2833,16 @@
         <v>45570</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E17" s="19">
         <v>136</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H17" s="14" t="s">
         <v>22</v>
@@ -2840,13 +2857,13 @@
         <v>35</v>
       </c>
       <c r="L17" s="38" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M17" s="19" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="N17" s="19" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="O17" s="19" t="s">
         <v>30</v>
@@ -2855,7 +2872,7 @@
     </row>
     <row r="18" spans="1:16" ht="99" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B18" s="17">
         <v>3</v>
@@ -2864,37 +2881,37 @@
         <v>45567</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E18" s="19">
         <v>114</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H18" t="s">
         <v>33</v>
       </c>
       <c r="I18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K18" t="s">
         <v>123</v>
       </c>
       <c r="L18" s="37" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M18" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N18" s="19" t="s">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="O18" s="19" t="s">
         <v>60</v>
@@ -2903,7 +2920,7 @@
     </row>
     <row r="19" spans="1:16" ht="33" x14ac:dyDescent="0.3">
       <c r="A19" s="27" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B19" s="28">
         <v>3</v>
@@ -2912,16 +2929,16 @@
         <v>45566</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E19" s="19">
         <v>68</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H19" t="s">
         <v>22</v>
@@ -2936,13 +2953,13 @@
         <v>50</v>
       </c>
       <c r="L19" s="37" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M19" s="19" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="N19" s="19" t="s">
-        <v>93</v>
+        <v>198</v>
       </c>
       <c r="O19" s="19" t="s">
         <v>60</v>
@@ -2953,7 +2970,7 @@
     </row>
     <row r="20" spans="1:16" ht="33" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B20" s="17">
         <v>3</v>
@@ -2962,16 +2979,16 @@
         <v>45569</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E20" s="19">
         <v>90</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H20" t="s">
         <v>22</v>
@@ -2986,16 +3003,16 @@
         <v>50</v>
       </c>
       <c r="L20" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="N20" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="O20" s="19" t="s">
         <v>160</v>
-      </c>
-      <c r="M20" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="N20" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="O20" s="19" t="s">
-        <v>163</v>
       </c>
       <c r="P20" s="40" t="s">
         <v>61</v>
@@ -3003,7 +3020,7 @@
     </row>
     <row r="21" spans="1:16" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B21" s="28">
         <v>3</v>
@@ -3012,16 +3029,16 @@
         <v>45565</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E21" s="19">
         <v>54</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H21" t="s">
         <v>33</v>
@@ -3039,10 +3056,10 @@
         <v>134</v>
       </c>
       <c r="M21" s="22" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="N21" s="22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O21" s="22" t="s">
         <v>60</v>
@@ -3051,7 +3068,7 @@
     </row>
     <row r="22" spans="1:16" ht="66" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B22" s="17">
         <v>3</v>
@@ -3060,16 +3077,16 @@
         <v>45566</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E22" s="19">
         <v>100</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H22" s="15" t="s">
         <v>22</v>
@@ -3078,19 +3095,19 @@
         <v>23</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L22" s="41" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M22" s="22" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="N22" s="22" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="O22" s="22" t="s">
         <v>30</v>
@@ -3099,7 +3116,7 @@
     </row>
     <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B23" s="17">
         <v>2</v>
@@ -3108,16 +3125,16 @@
         <v>45569</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E23" s="19">
         <v>59</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G23" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H23" s="15" t="s">
         <v>33</v>
@@ -3132,13 +3149,13 @@
         <v>35</v>
       </c>
       <c r="L23" s="42" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M23" s="22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="N23" s="22" t="s">
-        <v>136</v>
+        <v>199</v>
       </c>
       <c r="O23" s="19" t="s">
         <v>64</v>
@@ -3147,7 +3164,7 @@
     </row>
     <row r="24" spans="1:16" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B24" s="10">
         <v>3</v>
@@ -3156,16 +3173,16 @@
         <v>45570</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E24" s="19">
         <v>63</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H24" s="15" t="s">
         <v>33</v>
@@ -3180,13 +3197,13 @@
         <v>35</v>
       </c>
       <c r="L24" s="41" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M24" s="22" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="N24" s="22" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="O24" s="19" t="s">
         <v>30</v>
@@ -3195,7 +3212,7 @@
     </row>
     <row r="25" spans="1:16" ht="33" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B25" s="17">
         <v>3</v>
@@ -3204,16 +3221,16 @@
         <v>45564</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E25" s="19">
         <v>57</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G25" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H25" s="15" t="s">
         <v>22</v>
@@ -3228,13 +3245,13 @@
         <v>35</v>
       </c>
       <c r="L25" s="40" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M25" s="19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="N25" s="19" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O25" s="19" t="s">
         <v>60</v>
@@ -3245,7 +3262,7 @@
     </row>
     <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B26" s="10">
         <v>3</v>
@@ -3254,16 +3271,16 @@
         <v>45569</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E26" s="19">
         <v>46</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H26" t="s">
         <v>22</v>
@@ -3272,19 +3289,19 @@
         <v>23</v>
       </c>
       <c r="J26" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K26" t="s">
         <v>35</v>
       </c>
       <c r="L26" s="41" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M26" s="22" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="N26" s="22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O26" s="19" t="s">
         <v>30</v>
@@ -3293,7 +3310,7 @@
     </row>
     <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B27" s="17">
         <v>1</v>
@@ -3302,16 +3319,16 @@
         <v>45567</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E27" s="19">
         <v>36</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H27" s="15" t="s">
         <v>33</v>
@@ -3320,22 +3337,22 @@
         <v>23</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K27" s="15" t="s">
         <v>35</v>
       </c>
       <c r="L27" s="38" t="s">
-        <v>141</v>
+        <v>200</v>
       </c>
       <c r="M27" s="22" t="s">
-        <v>135</v>
+        <v>201</v>
       </c>
       <c r="N27" s="22" t="s">
-        <v>93</v>
+        <v>202</v>
       </c>
       <c r="O27" s="19" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="P27" s="22"/>
     </row>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753DA38B-D654-4B73-A000-A414F24399F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C437A86-8524-46BA-829C-A39B41745893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="261">
   <si>
     <t>아이디</t>
   </si>
@@ -808,10 +808,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>고객지원파트</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>lt****</t>
   </si>
   <si>
@@ -1360,6 +1356,448 @@
   <si>
     <t>포장 불만</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp****</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">작은 선반이라 그런지 모르겠르나 포장이 잘못됐습니다. 도장된 철제프레임들을 아무런 보호 없이 그냥 보내셔서 박스안에서 자기들끼리 긁히고 부딪쳐 스크래치가 잔뜩 났습니다. 다른분 후기보니 랩핑테이프 감아 보낸것도 있던데 포장에 편차가 있으면 안되겠죠. 제품은 만족하나 포장은 틀렸습니다. 
+홈던트 제품에 개인적으로 아쉬운 점은 이중프레임을 단일사이즈로 길게 판매하지 않는 점입니다. 타공이 드러나는 싱글프레임의 경우 어쩔수 없이 주문크기와 동일한 길이로 오는데 이 제품은 단지 포장 및 배송의 이점을 위해 짧은 프레임을 연결해 써야 하죠..
+이중프레임의 장점인 깔끔한 외형을 연결부분으로 상당히 해친다는 점이 아쉽습니다. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(물류팀 전달)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로(설치시 여유공간확보): 600 / 깊이(mm): 500 / 높이(mm): 1200(기본2단)</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/estorehouse/products/4924889751</t>
+  </si>
+  <si>
+    <t>포장 방법 개선
+이 필요 사항 점검</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>포장 방법 불만</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jong*****</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">전체 부품의 1/3을 누락시켰어요
+문의 남겼는데 업체에서 뭐가 누락됐는지 확인할 생각은 안 하고 저한테 알아서 확인하고 알려달라고 하더라구요
+저도 처음엔 직접 누락품 확인해서 보내려고 했는데 너무 많이 누락돼서 뭐가 누락된 건지 확인하기도 어려웠거든요
+주문서는 복잡한데 주문내역 뭐 하나가 누락된 게 아니라 섞여서 군데군데 빠져있으니까요
+진짜 속 터집니다
+결국 누락된 부품 중 기둥 높이를 제가 잘못 확인해서 하나만 높이가 다르긴 한데 그냥 쓰려고요
+그건 제 잘못인데 어쩌겠어요 업체에선 귀찮은지 뭔지 확인하려고도 안 하니...
+일 똑바로 하세요 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(영업팀 전달)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로(폭)x세로(깊이)(mm): 400x500(mm) / 높이(mm): 1950(mm) / 단수 / 행거봉: 선반3단(3개) / 행거봉 1개</t>
+  </si>
+  <si>
+    <t>비욘드 앳홈의 응대와 관련해 대표에게 피드백 후 담당자에게 피드백 완료</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">고객 응대 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">고객 응대 불만 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>getb****</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">포장은 정말 꼼꼼하게 잘 해주시네요. 철제 중간중간 종이와 나무로 덧대서 기스도 안 나게 해 주고 빨간장갑도 넣어주셨네요.
+ 앵글이 가로 150cm로 무거운거 놓으니까 선반이 빠져서....선반을 받치는 앵글이 좁아서 더 그런것 같아요. 
+집에 3군데 업체에서 제작한 앵글이 있는데 여기는 선반 받치는 부분이 제일 좁아서 무거운 건 불안해서 못 놓겠어요… </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(영업팀 전달 후 고객과 연락가능한지 확인)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로 x 폭(깊이): 가로150cm x 폭40cm / 높이(기둥): 높이210cm / 단수(합판장수): 5단 올코팅선반5장 9T</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/angle/products/262649205</t>
+  </si>
+  <si>
+    <t>마스타앵글</t>
+  </si>
+  <si>
+    <t>답글 조치</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">빠짐 발생 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>한해동</t>
+  </si>
+  <si>
+    <t>2024-10-07</t>
+  </si>
+  <si>
+    <r>
+      <t>품질 좋고, 배송 좋고, 가격 합리적이면서 이런 오점은 왜 남깁니까?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 옵션에 대놓고 있으면서 문의하니 선반 화이트, 블랙 구분 없다고 주문자가 잘 확인을 안한거 처럼 하는거 의아합니다. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Pretendard"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">애초에 배치 할 곳의 배색 다 고려해서 주문한건데 제거 직접 페인트 칠 해서 사용해야겠네요. 주문하실 분들 참고하셔요. 선반은 화이트밖에 없다고 합니다. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(영업팀과 블랙프레임도 우드&amp;흰색 합판인 점을 인지시킬 수 있는 방안에 대해 협의 예정)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈던트하우스 12T 선반 단추가: 가로1000x깊이400 검정</t>
+  </si>
+  <si>
+    <t>내용 확인 및 사전에 인지할 수 있도록 변경 예정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">제품 구성 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">합판 색상 불만 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bowm********</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">앵그리선반에서 재주문을 꽤 많이 했는데, 이번에는 영 실망스럽습니다.
+대놓고 중고 상품을 보내주셨네요.
+합판 긁힘 다수, 기둥 결합 흔적 등 누가봐도 반품된 상품입니다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+차라리 리퍼or중고 상품으로 등록된 물건이라면 모를까, 가격도 인상됐는데 너무하네요.
+타지 근무 중이라 교환환불이 어려워서 그냥 사용합니다.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> (영업팀 전달 후 고객과 연락가능한지 확인)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로사이즈 (mm): 가로1200mm / 깊이(폭)사이즈 (mm): 깊이(폭)500mm / 높이(기둥)사이즈 (mm) + 단수: 높이(기둥)1800mm(4단)</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/sunbanstory/products/6411923042</t>
+  </si>
+  <si>
+    <t>앵그리선반(추가)</t>
+  </si>
+  <si>
+    <t>프레임,합판</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크레치</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">장*진 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">추석주간 택배물량증가로 그 담주 회수해간다더니 아직 연락도 없고 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회수 안해가네요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+애초에 상품 검수 꼼꼼하게 해서 보냈음 기다렸다 교환할일도 없었을텐데 말이죠
+구멍 하나 불량으로 여러 고생했네요
+내구성 보통이에요
+용량/수납 보통이에요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> (택배사 회수 지연으로 재연락 드려 사과 후 재접수)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200x400, 2100_3단, 블랙, 1개</t>
+  </si>
+  <si>
+    <t>https://www.coupang.com/vp/products/5541569307?itemId=8729224415&amp;isAddedCart=</t>
+  </si>
+  <si>
+    <t>세탁기선반</t>
+  </si>
+  <si>
+    <t>아웃바운드 후 
+택배사 회수 재요청</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">회수 지연 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-10-10</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">상품은 튼튼해서 좋은데
+배송 문제인지, 상품이 문제인지
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>건조기를 올려놓는 상판이 좀 휘어 있네요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Pretendard"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+제가 보기에 사용하는데는 큰 문제는 없어보입니다
+(2024-10-09 21:14:39 에 등록된 네이버 페이 구매평)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>스피드랙 건조기선반 W800xD800xH1200</t>
+  </si>
+  <si>
+    <t>https://speedrack.co.kr/product/detailSimulator.html?product_no=114</t>
+  </si>
+  <si>
+    <t>건조기선반</t>
+  </si>
+  <si>
+    <t>아웃바운드 후 회수 없이 출고완료</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>xarg******</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">양면코팅이라고 해서 뭔가 했더니...
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">무늬목에 시트지입혔네요,... </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>합판으로 옵션을 넣으시지... 두께가 얇아서 나중에 다 휠텐데... 완전 실망입니다.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>스피드랙 단수: 스피드랙 5단 / 가로세로: 1500㎜ x 300㎜ (가로 x 세로) / 전체높이: 1800㎜</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/anglenara/products/4432801178</t>
+  </si>
+  <si>
+    <t>아웃바운드 후 
+보강대 추천 드렸으나 거부</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fl****</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">보강대를 설치하긴했는데 뭔가 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">보강대가 딱 들어맞는다기보다는 살짝 헐렁한감이 있어요.. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">영상보고 설치자료 보고 제대로 설치를 했는데.. ㅡㅡ;; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(아웃바운드를 시도했으나 부재)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>규격: 500 / 색상: 화이트</t>
+  </si>
+  <si>
+    <t>https://brand.naver.com/speedrack/products/7763975326</t>
+  </si>
+  <si>
+    <t>아웃바운드 시도 했으나 부재 추후 시도 예정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>합판</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>코팅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>보강대</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1554,7 +1992,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1679,6 +2117,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2018,10 +2459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="B33" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2229,7 +2670,7 @@
         <v>64</v>
       </c>
       <c r="P4" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2514,7 +2955,7 @@
         <v>87</v>
       </c>
       <c r="M10" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N10" s="22" t="s">
         <v>88</v>
@@ -2526,7 +2967,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="99" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>89</v>
       </c>
@@ -2611,7 +3052,7 @@
         <v>50</v>
       </c>
       <c r="L12" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M12" s="26" t="s">
         <v>19</v>
@@ -2718,7 +3159,7 @@
         <v>116</v>
       </c>
       <c r="O14" s="26" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="P14" s="26" t="s">
         <v>61</v>
@@ -2726,7 +3167,7 @@
     </row>
     <row r="15" spans="1:16" ht="33" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B15" s="17">
         <v>1</v>
@@ -2735,16 +3176,16 @@
         <v>45560</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E15" s="19">
         <v>10</v>
       </c>
       <c r="F15" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G15" s="15" t="s">
         <v>120</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>121</v>
       </c>
       <c r="H15" s="14" t="s">
         <v>22</v>
@@ -2753,19 +3194,19 @@
         <v>23</v>
       </c>
       <c r="J15" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="K15" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="L15" s="22" t="s">
         <v>123</v>
-      </c>
-      <c r="L15" s="22" t="s">
-        <v>124</v>
       </c>
       <c r="M15" s="22" t="s">
         <v>93</v>
       </c>
       <c r="N15" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O15" s="22" t="s">
         <v>60</v>
@@ -2776,7 +3217,7 @@
     </row>
     <row r="16" spans="1:16" s="34" customFormat="1" ht="99" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B16" s="31">
         <v>3</v>
@@ -2785,16 +3226,16 @@
         <v>45569</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E16" s="33">
         <v>221</v>
       </c>
       <c r="F16" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" s="30" t="s">
         <v>131</v>
-      </c>
-      <c r="G16" s="30" t="s">
-        <v>132</v>
       </c>
       <c r="H16" s="30" t="s">
         <v>33</v>
@@ -2803,28 +3244,30 @@
         <v>23</v>
       </c>
       <c r="J16" s="30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K16" s="30" t="s">
         <v>35</v>
       </c>
       <c r="L16" s="43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M16" s="33" t="s">
         <v>93</v>
       </c>
       <c r="N16" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O16" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="P16" s="33"/>
+      <c r="P16" s="33" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="17" spans="1:16" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B17" s="20">
         <v>3</v>
@@ -2833,16 +3276,16 @@
         <v>45570</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E17" s="19">
         <v>136</v>
       </c>
       <c r="F17" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G17" t="s">
         <v>137</v>
-      </c>
-      <c r="G17" t="s">
-        <v>138</v>
       </c>
       <c r="H17" s="14" t="s">
         <v>22</v>
@@ -2857,22 +3300,24 @@
         <v>35</v>
       </c>
       <c r="L17" s="38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M17" s="19" t="s">
         <v>93</v>
       </c>
       <c r="N17" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O17" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="P17" s="12"/>
+      <c r="P17" s="12" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="18" spans="1:16" ht="99" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B18" s="17">
         <v>3</v>
@@ -2881,46 +3326,48 @@
         <v>45567</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E18" s="19">
         <v>114</v>
       </c>
       <c r="F18" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18" s="15" t="s">
         <v>142</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>143</v>
       </c>
       <c r="H18" t="s">
         <v>33</v>
       </c>
       <c r="I18" t="s">
+        <v>143</v>
+      </c>
+      <c r="J18" t="s">
         <v>144</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
+        <v>122</v>
+      </c>
+      <c r="L18" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="K18" t="s">
-        <v>123</v>
-      </c>
-      <c r="L18" s="37" t="s">
+      <c r="M18" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="M18" s="19" t="s">
-        <v>147</v>
-      </c>
       <c r="N18" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O18" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="P18" s="19"/>
+      <c r="P18" s="12" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="19" spans="1:16" ht="33" x14ac:dyDescent="0.3">
       <c r="A19" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B19" s="28">
         <v>3</v>
@@ -2929,16 +3376,16 @@
         <v>45566</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E19" s="19">
         <v>68</v>
       </c>
       <c r="F19" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" s="27" t="s">
         <v>150</v>
-      </c>
-      <c r="G19" s="27" t="s">
-        <v>151</v>
       </c>
       <c r="H19" t="s">
         <v>22</v>
@@ -2953,13 +3400,13 @@
         <v>50</v>
       </c>
       <c r="L19" s="37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M19" s="19" t="s">
         <v>93</v>
       </c>
       <c r="N19" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O19" s="19" t="s">
         <v>60</v>
@@ -2970,7 +3417,7 @@
     </row>
     <row r="20" spans="1:16" ht="33" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B20" s="17">
         <v>3</v>
@@ -2979,16 +3426,16 @@
         <v>45569</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E20" s="19">
         <v>90</v>
       </c>
       <c r="F20" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G20" s="15" t="s">
         <v>155</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>156</v>
       </c>
       <c r="H20" t="s">
         <v>22</v>
@@ -2997,22 +3444,22 @@
         <v>23</v>
       </c>
       <c r="J20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K20" t="s">
         <v>50</v>
       </c>
       <c r="L20" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="M20" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="M20" s="19" t="s">
+      <c r="N20" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="N20" s="19" t="s">
+      <c r="O20" s="19" t="s">
         <v>159</v>
-      </c>
-      <c r="O20" s="19" t="s">
-        <v>160</v>
       </c>
       <c r="P20" s="40" t="s">
         <v>61</v>
@@ -3020,7 +3467,7 @@
     </row>
     <row r="21" spans="1:16" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B21" s="28">
         <v>3</v>
@@ -3029,16 +3476,16 @@
         <v>45565</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E21" s="19">
         <v>54</v>
       </c>
       <c r="F21" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="G21" s="27" t="s">
         <v>162</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>163</v>
       </c>
       <c r="H21" t="s">
         <v>33</v>
@@ -3053,7 +3500,7 @@
         <v>35</v>
       </c>
       <c r="L21" s="41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M21" s="22" t="s">
         <v>93</v>
@@ -3064,11 +3511,13 @@
       <c r="O21" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="P21" s="23"/>
+      <c r="P21" s="40" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="22" spans="1:16" ht="66" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B22" s="17">
         <v>3</v>
@@ -3077,16 +3526,16 @@
         <v>45566</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E22" s="19">
         <v>100</v>
       </c>
       <c r="F22" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="G22" s="15" t="s">
         <v>166</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>167</v>
       </c>
       <c r="H22" s="15" t="s">
         <v>22</v>
@@ -3095,28 +3544,30 @@
         <v>23</v>
       </c>
       <c r="J22" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="K22" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="K22" s="15" t="s">
-        <v>169</v>
-      </c>
       <c r="L22" s="41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M22" s="22" t="s">
         <v>93</v>
       </c>
       <c r="N22" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O22" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="P22" s="19"/>
+      <c r="P22" s="40" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B23" s="17">
         <v>2</v>
@@ -3125,16 +3576,16 @@
         <v>45569</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E23" s="19">
         <v>59</v>
       </c>
       <c r="F23" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="G23" t="s">
         <v>172</v>
-      </c>
-      <c r="G23" t="s">
-        <v>173</v>
       </c>
       <c r="H23" s="15" t="s">
         <v>33</v>
@@ -3149,22 +3600,24 @@
         <v>35</v>
       </c>
       <c r="L23" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="M23" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="M23" s="22" t="s">
-        <v>175</v>
-      </c>
       <c r="N23" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O23" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="P23" s="22"/>
+      <c r="P23" s="40" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="24" spans="1:16" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B24" s="10">
         <v>3</v>
@@ -3173,16 +3626,16 @@
         <v>45570</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E24" s="19">
         <v>63</v>
       </c>
       <c r="F24" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="G24" s="14" t="s">
         <v>178</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>179</v>
       </c>
       <c r="H24" s="15" t="s">
         <v>33</v>
@@ -3197,22 +3650,24 @@
         <v>35</v>
       </c>
       <c r="L24" s="41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M24" s="22" t="s">
         <v>93</v>
       </c>
       <c r="N24" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O24" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="P24" s="12"/>
+      <c r="P24" s="40" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="25" spans="1:16" ht="33" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B25" s="17">
         <v>3</v>
@@ -3221,16 +3676,16 @@
         <v>45564</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E25" s="19">
         <v>57</v>
       </c>
       <c r="F25" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G25" t="s">
         <v>182</v>
-      </c>
-      <c r="G25" t="s">
-        <v>183</v>
       </c>
       <c r="H25" s="15" t="s">
         <v>22</v>
@@ -3245,13 +3700,13 @@
         <v>35</v>
       </c>
       <c r="L25" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="M25" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="N25" s="19" t="s">
         <v>184</v>
-      </c>
-      <c r="M25" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="N25" s="19" t="s">
-        <v>185</v>
       </c>
       <c r="O25" s="19" t="s">
         <v>60</v>
@@ -3262,7 +3717,7 @@
     </row>
     <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B26" s="10">
         <v>3</v>
@@ -3271,16 +3726,16 @@
         <v>45569</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E26" s="19">
         <v>46</v>
       </c>
       <c r="F26" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="G26" s="14" t="s">
         <v>188</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>189</v>
       </c>
       <c r="H26" t="s">
         <v>22</v>
@@ -3289,13 +3744,13 @@
         <v>23</v>
       </c>
       <c r="J26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K26" t="s">
         <v>35</v>
       </c>
       <c r="L26" s="41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M26" s="22" t="s">
         <v>93</v>
@@ -3306,55 +3761,505 @@
       <c r="O26" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="P26" s="23"/>
+      <c r="P26" s="40" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+    <row r="27" spans="1:16" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="B27" s="31">
+        <v>1</v>
+      </c>
+      <c r="C27" s="32">
+        <v>45567</v>
+      </c>
+      <c r="D27" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="B27" s="17">
+      <c r="E27" s="33">
+        <v>36</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="K27" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="L27" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="M27" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="N27" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="O27" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="P27" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="132" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B28" s="17">
+        <v>3</v>
+      </c>
+      <c r="C28" s="18">
+        <v>45572</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="E28" s="19">
+        <v>356</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L28" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="M28" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="N28" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="O28" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="P28" s="19"/>
+    </row>
+    <row r="29" spans="1:16" ht="132" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B29" s="17">
         <v>1</v>
       </c>
-      <c r="C27" s="18">
-        <v>45567</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="E27" s="19">
-        <v>36</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="H27" s="15" t="s">
+      <c r="C29" s="18">
+        <v>45577</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="E29" s="19">
+        <v>314</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="H29" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" t="s">
+        <v>167</v>
+      </c>
+      <c r="K29" t="s">
+        <v>168</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="P29" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="B30" s="17">
+        <v>3</v>
+      </c>
+      <c r="C30" s="18">
+        <v>45575</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="E30" s="19">
+        <v>222</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="H30" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I27" s="15" t="s">
+      <c r="I30" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J27" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="K27" s="15" t="s">
+      <c r="J30" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="K30" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="L27" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="M27" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="N27" s="22" t="s">
+      <c r="L30" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="M30" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="N30" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="O30" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="P30" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="66" x14ac:dyDescent="0.3">
+      <c r="A31" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="B31" s="28">
+        <v>2</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="E31" s="19">
+        <v>239</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="J31" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="K31" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="L31" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="M31" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="O31" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P31" s="12"/>
+    </row>
+    <row r="32" spans="1:16" ht="148.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B32" s="17">
+        <v>1</v>
+      </c>
+      <c r="C32" s="18">
+        <v>45571</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="E32" s="19">
         <v>202</v>
       </c>
-      <c r="O27" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="P27" s="22"/>
+      <c r="F32" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="K32" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L32" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="M32" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="N32" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="O32" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="P32" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="B33" s="17">
+        <v>1</v>
+      </c>
+      <c r="C33" s="18">
+        <v>45571</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="E33" s="19">
+        <v>159</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="L33" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="M33" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="N33" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="O33" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="181.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" s="28">
+        <v>3</v>
+      </c>
+      <c r="C34" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="E34" s="19">
+        <v>126</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="K34" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="L34" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="M34" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="N34" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="O34" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P34" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="B35" s="17">
+        <v>1</v>
+      </c>
+      <c r="C35" s="18">
+        <v>45577</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="E35" s="19">
+        <v>86</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J35" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K35" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L35" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="M35" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="N35" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="O35" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="P35" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="B36" s="17">
+        <v>3</v>
+      </c>
+      <c r="C36" s="18">
+        <v>45575</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="E36" s="19">
+        <v>97</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J36" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K36" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="L36" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="M36" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="N36" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="O36" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="P36" s="19" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:P7" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}"/>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C437A86-8524-46BA-829C-A39B41745893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAE432C-34A9-4B79-A416-B9417AFBD9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="공식몰날짜재입력필요" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">공식몰날짜재입력필요!$A$1:$P$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">공식몰날짜재입력필요!$A$1:$P$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="259">
   <si>
     <t>아이디</t>
   </si>
@@ -1476,9 +1476,6 @@
     <t>한해동</t>
   </si>
   <si>
-    <t>2024-10-07</t>
-  </si>
-  <si>
     <r>
       <t>품질 좋고, 배송 좋고, 가격 합리적이면서 이런 오점은 왜 남깁니까?</t>
     </r>
@@ -1649,9 +1646,6 @@
   <si>
     <t xml:space="preserve">회수 지연 </t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024-10-10</t>
   </si>
   <si>
     <r>
@@ -2459,10 +2453,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B33" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2525,7 +2520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="16" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="16" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2573,7 +2568,7 @@
       </c>
       <c r="P2" s="25"/>
     </row>
-    <row r="3" spans="1:16" s="16" customFormat="1" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="16" customFormat="1" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>26</v>
       </c>
@@ -2623,7 +2618,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="16" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" s="16" customFormat="1" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>36</v>
       </c>
@@ -2673,7 +2668,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="16" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>42</v>
       </c>
@@ -2721,7 +2716,7 @@
       </c>
       <c r="P5" s="19"/>
     </row>
-    <row r="6" spans="1:16" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" s="16" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>42</v>
       </c>
@@ -2769,7 +2764,7 @@
       </c>
       <c r="P6" s="25"/>
     </row>
-    <row r="7" spans="1:16" s="16" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="16" customFormat="1" ht="49.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>53</v>
       </c>
@@ -2819,7 +2814,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="34" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" s="34" customFormat="1" ht="231" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>68</v>
       </c>
@@ -2867,7 +2862,7 @@
       </c>
       <c r="P8" s="36"/>
     </row>
-    <row r="9" spans="1:16" ht="247.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="247.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>75</v>
       </c>
@@ -2917,7 +2912,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="82.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>82</v>
       </c>
@@ -2967,7 +2962,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="99" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="82.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>89</v>
       </c>
@@ -3065,7 +3060,7 @@
       </c>
       <c r="P12" s="26"/>
     </row>
-    <row r="13" spans="1:16" ht="66" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>102</v>
       </c>
@@ -3115,7 +3110,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="66" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>111</v>
       </c>
@@ -3165,7 +3160,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>117</v>
       </c>
@@ -3215,7 +3210,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="34" customFormat="1" ht="99" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="34" customFormat="1" ht="99" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>128</v>
       </c>
@@ -3265,7 +3260,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>134</v>
       </c>
@@ -3315,7 +3310,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="99" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="99" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>139</v>
       </c>
@@ -3415,7 +3410,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>152</v>
       </c>
@@ -3515,7 +3510,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="66" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="66" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>163</v>
       </c>
@@ -3565,7 +3560,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>169</v>
       </c>
@@ -3615,7 +3610,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>175</v>
       </c>
@@ -3665,7 +3660,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>179</v>
       </c>
@@ -3715,7 +3710,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>185</v>
       </c>
@@ -3765,7 +3760,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" s="34" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
         <v>190</v>
       </c>
@@ -3815,7 +3810,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="132" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="132" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>202</v>
       </c>
@@ -3863,7 +3858,7 @@
       </c>
       <c r="P28" s="19"/>
     </row>
-    <row r="29" spans="1:16" ht="132" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="132" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>208</v>
       </c>
@@ -3913,7 +3908,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="82.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>214</v>
       </c>
@@ -3970,17 +3965,17 @@
       <c r="B31" s="28">
         <v>2</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="39">
+        <v>45572</v>
+      </c>
+      <c r="D31" s="12" t="s">
         <v>222</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>223</v>
       </c>
       <c r="E31" s="19">
         <v>239</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G31" s="27" t="s">
         <v>150</v>
@@ -3998,22 +3993,22 @@
         <v>50</v>
       </c>
       <c r="L31" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="M31" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="M31" s="12" t="s">
+      <c r="N31" s="12" t="s">
         <v>226</v>
-      </c>
-      <c r="N31" s="12" t="s">
-        <v>227</v>
       </c>
       <c r="O31" s="12" t="s">
         <v>60</v>
       </c>
       <c r="P31" s="12"/>
     </row>
-    <row r="32" spans="1:16" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="148.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B32" s="17">
         <v>1</v>
@@ -4022,16 +4017,16 @@
         <v>45571</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E32" s="19">
         <v>202</v>
       </c>
       <c r="F32" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="G32" s="15" t="s">
         <v>230</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>231</v>
       </c>
       <c r="H32" s="15" t="s">
         <v>22</v>
@@ -4040,7 +4035,7 @@
         <v>23</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K32" s="15" t="s">
         <v>35</v>
@@ -4049,10 +4044,10 @@
         <v>219</v>
       </c>
       <c r="M32" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="N32" s="19" t="s">
         <v>233</v>
-      </c>
-      <c r="N32" s="19" t="s">
-        <v>234</v>
       </c>
       <c r="O32" s="19" t="s">
         <v>30</v>
@@ -4061,9 +4056,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="82.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B33" s="17">
         <v>1</v>
@@ -4072,16 +4067,16 @@
         <v>45571</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E33" s="19">
         <v>159</v>
       </c>
       <c r="F33" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="G33" s="15" t="s">
         <v>237</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>238</v>
       </c>
       <c r="H33" s="15" t="s">
         <v>33</v>
@@ -4093,16 +4088,16 @@
         <v>144</v>
       </c>
       <c r="K33" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="L33" s="19" t="s">
         <v>239</v>
-      </c>
-      <c r="L33" s="19" t="s">
-        <v>240</v>
       </c>
       <c r="M33" s="19" t="s">
         <v>29</v>
       </c>
       <c r="N33" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O33" s="19" t="s">
         <v>60</v>
@@ -4118,20 +4113,20 @@
       <c r="B34" s="28">
         <v>3</v>
       </c>
-      <c r="C34" s="39" t="s">
-        <v>242</v>
+      <c r="C34" s="39">
+        <v>45575</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E34" s="19">
         <v>126</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H34" s="15" t="s">
         <v>33</v>
@@ -4143,10 +4138,10 @@
         <v>100</v>
       </c>
       <c r="K34" s="15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L34" s="12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M34" s="12" t="s">
         <v>174</v>
@@ -4161,9 +4156,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="49.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B35" s="17">
         <v>1</v>
@@ -4172,16 +4167,16 @@
         <v>45577</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E35" s="19">
         <v>86</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H35" s="15" t="s">
         <v>33</v>
@@ -4196,13 +4191,13 @@
         <v>35</v>
       </c>
       <c r="L35" s="19" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M35" s="19" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="N35" s="19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O35" s="19" t="s">
         <v>110</v>
@@ -4211,9 +4206,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="49.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B36" s="17">
         <v>3</v>
@@ -4222,16 +4217,16 @@
         <v>45575</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E36" s="19">
         <v>97</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H36" s="15" t="s">
         <v>22</v>
@@ -4246,10 +4241,10 @@
         <v>50</v>
       </c>
       <c r="L36" s="19" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M36" s="19" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="N36" s="19" t="s">
         <v>45</v>
@@ -4262,7 +4257,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P7" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}"/>
+  <autoFilter ref="A1:P36" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="자사몰"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAE432C-34A9-4B79-A416-B9417AFBD9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216DD0EE-D453-43B0-8D59-99443822DDD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
@@ -2453,11 +2453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2520,7 +2519,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="16" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="16" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2568,7 +2567,7 @@
       </c>
       <c r="P2" s="25"/>
     </row>
-    <row r="3" spans="1:16" s="16" customFormat="1" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="16" customFormat="1" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>26</v>
       </c>
@@ -2618,7 +2617,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="16" customFormat="1" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" s="16" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>36</v>
       </c>
@@ -2668,7 +2667,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="16" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>42</v>
       </c>
@@ -2716,7 +2715,7 @@
       </c>
       <c r="P5" s="19"/>
     </row>
-    <row r="6" spans="1:16" s="16" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>42</v>
       </c>
@@ -2764,7 +2763,7 @@
       </c>
       <c r="P6" s="25"/>
     </row>
-    <row r="7" spans="1:16" s="16" customFormat="1" ht="49.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="16" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>53</v>
       </c>
@@ -2814,7 +2813,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="34" customFormat="1" ht="231" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" s="34" customFormat="1" ht="231" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>68</v>
       </c>
@@ -2862,7 +2861,7 @@
       </c>
       <c r="P8" s="36"/>
     </row>
-    <row r="9" spans="1:16" ht="247.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="247.5" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>75</v>
       </c>
@@ -2912,7 +2911,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="82.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>82</v>
       </c>
@@ -2962,7 +2961,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="82.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>89</v>
       </c>
@@ -3060,7 +3059,7 @@
       </c>
       <c r="P12" s="26"/>
     </row>
-    <row r="13" spans="1:16" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="66" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>102</v>
       </c>
@@ -3110,7 +3109,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="66" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>111</v>
       </c>
@@ -3160,7 +3159,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="33" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>117</v>
       </c>
@@ -3210,7 +3209,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="34" customFormat="1" ht="99" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="34" customFormat="1" ht="99" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>128</v>
       </c>
@@ -3260,7 +3259,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>134</v>
       </c>
@@ -3310,7 +3309,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="99" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="99" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>139</v>
       </c>
@@ -3410,7 +3409,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="33" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>152</v>
       </c>
@@ -3510,7 +3509,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="66" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>163</v>
       </c>
@@ -3560,7 +3559,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>169</v>
       </c>
@@ -3610,7 +3609,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>175</v>
       </c>
@@ -3660,7 +3659,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="33" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>179</v>
       </c>
@@ -3710,7 +3709,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>185</v>
       </c>
@@ -3760,7 +3759,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="34" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
         <v>190</v>
       </c>
@@ -3810,7 +3809,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="132" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="132" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>202</v>
       </c>
@@ -3858,7 +3857,7 @@
       </c>
       <c r="P28" s="19"/>
     </row>
-    <row r="29" spans="1:16" ht="132" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="132" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>208</v>
       </c>
@@ -3908,7 +3907,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="82.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>214</v>
       </c>
@@ -4006,7 +4005,7 @@
       </c>
       <c r="P31" s="12"/>
     </row>
-    <row r="32" spans="1:16" ht="148.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="148.5" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>227</v>
       </c>
@@ -4056,7 +4055,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="82.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>234</v>
       </c>
@@ -4156,7 +4155,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="49.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>246</v>
       </c>
@@ -4206,7 +4205,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="49.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>251</v>
       </c>
@@ -4257,13 +4256,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P36" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="자사몰"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:P36" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216DD0EE-D453-43B0-8D59-99443822DDD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0E183E-CBD2-41F0-BC72-9C7F6FA3686F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
   <sheets>
     <sheet name="공식몰날짜재입력필요" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="303">
   <si>
     <t>아이디</t>
   </si>
@@ -1793,6 +1793,246 @@
     <t>보강대</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>chlt*****</t>
+  </si>
+  <si>
+    <t>2024-10-16</t>
+  </si>
+  <si>
+    <t>반품비 품목당 4만원도 문제고 제품명에는 5단이라 명시하고 옵션에서 2단으로 되어 있는 1500X500 의 경우 수정을 하셔야 할듯요. 2단으로는 선반의 역할을 할 수 없음에도 그렇게 판매 하는것도 의아하고 따로 선반 3개를 추가 구매해야 5단 구성 가능합니다. 그러면 금액이 후덜덜 합니다. 제가 당근에서 알아본 가격보다 울며 겨자먹기로 2배는 비싸게 구성했네요. 그렇다고 몇년전에 구입한 제품보다 합판 내구성이 좋아 보이지도 않습니다. 아무튼 구매 하실때 신중 하시길 바랍니다. 눈탱이 제대로 맞았네요. 반품비 때문에 어쩔수 없이 선반 6단까지 추가 주문해서 2세트 50만원 가까이 나오네요. ㅋ</t>
+  </si>
+  <si>
+    <t>가로(mm) x 깊이(mm): 1500 x 500 / 높이(mm): 2100 / 단수(합판갯수): 2단</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/trendkorea/products/8713897963</t>
+  </si>
+  <si>
+    <t>트렌드코리아(추가7)</t>
+  </si>
+  <si>
+    <t>sh****</t>
+  </si>
+  <si>
+    <t>2024-10-18</t>
+  </si>
+  <si>
+    <t>가로x깊이(mm): 1000x600 / 높이(mm): 900 / (하단오픈형 2.5단): 2.5단</t>
+  </si>
+  <si>
+    <t>퍼스트랙(추가7)</t>
+  </si>
+  <si>
+    <t>스피드랙 일반수납선반 전사이즈</t>
+  </si>
+  <si>
+    <t>https://speedrack.co.kr/product/detailSimulator.html?product_no=99</t>
+  </si>
+  <si>
+    <t>2024-10-14</t>
+  </si>
+  <si>
+    <t>홈던트하우스 9T 선반추가</t>
+  </si>
+  <si>
+    <t>https://speedrack.co.kr/product/detailSimulator.html?product_no=149</t>
+  </si>
+  <si>
+    <t>lb****</t>
+  </si>
+  <si>
+    <t>2024-10-15</t>
+  </si>
+  <si>
+    <t>합판종류: 12mm 양면코팅합판 / 가로x깊이(mm): 700x700 / 높이x단수: 1800x3단</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/moarack/products/2167933857</t>
+  </si>
+  <si>
+    <t>모아랙(추가2)</t>
+  </si>
+  <si>
+    <t>base******</t>
+  </si>
+  <si>
+    <t>가로(설치시 여유공간확보): 700 / 깊이(mm): 600 / 높이(mm): 1650(기본2단)</t>
+  </si>
+  <si>
+    <t>https://brand.naver.com/speedrack/products/9507125723</t>
+  </si>
+  <si>
+    <t>반품비 정책에 대해 트렌드코리아와 논의</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>오주문</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>반품비</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>영업팀</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>벽에 딱 맞도록 100cm을 주문했으나 실제로는 1~2cm더 크게 나오니 참고하시길.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Pretendard"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 벽에 안들어가 반품도 아니고 교환 요청하니 이미 조립했다고 교환도 거절. 소비자센터에 조정요청하려 했으나 시골에서 쓴다고 해서 구매결정은 함. 생각보다 부드러운 연철이고 선반도 생각보다 얇은 mdf(저가합판)이어서 낭창낭창함. 무거운 가전 올리는 건 고려하시길.</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/speedrackstore/products/8845425716</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>답글 작성 및 상세페이지 안내</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>외내경</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>전반적으로 괜찮은데
+기둥 하나가 모서리가 찌그러져서 와서 애먹음
+찌르러져서 결합이 안됨
+고객센터통해서 다시 보내달라할까 하다가 또 뭐 접소하고 어쩌고저쩌고 불편해서 걍 망치로 두드리고 뺀치로 잡아서 반대로 재껴서 핌
+그거 말고는 전반적으로 뭐 갠찬음</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>교환 완료</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레임</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>받침</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객지원파트</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">선반색상 오배송으로 오해한 건 내 잘못이긴한데… </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>교환 요청한 것 맘대로 취소해버리고 내가 먼저 전화하기 전까진 왜 취소했는지 사유도 없음.</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">문자로 안내 했으나, </t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>휘어짐</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">상품배송빠릅니다
+생각보다 약해요
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">선반하고 프레임하고 고정이 안되서, 프레임이 조금만 흔들려도 무너져서 짐이 와르르 쏟아집니다
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Pretendard"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이런 류 제품의 한계인건가 싶습니다, 아쉬워요</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 리뷰에 대해 영업팀측으로 정확한 정황 확인 요청</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">홈던트 제품을 산다는게, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>스피드랙을 사버렸더니 너무 헐렁하고 연약해요....</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Pretendard"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다들 홈던트로 구매하세요...</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>1650 높이를 2단만 주문 하신 점 확이
+단추가를 통해 보강할 수 있는 점 안내</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>흔들림</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1802,7 +2042,7 @@
     <numFmt numFmtId="176" formatCode="_-[$₩-412]* #,##0_-;\-[$₩-412]* #,##0_-;_-[$₩-412]* \-??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1891,6 +2131,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1986,7 +2240,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2116,6 +2370,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2453,10 +2718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4255,6 +4520,286 @@
         <v>62</v>
       </c>
     </row>
+    <row r="37" spans="1:16" s="34" customFormat="1" ht="75.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="B37" s="48">
+        <v>1</v>
+      </c>
+      <c r="C37" s="48" t="s">
+        <v>260</v>
+      </c>
+      <c r="D37" s="49" t="s">
+        <v>261</v>
+      </c>
+      <c r="E37" s="48">
+        <v>335</v>
+      </c>
+      <c r="F37" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="G37" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="H37" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="I37" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="J37" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="K37" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="L37" s="50" t="s">
+        <v>282</v>
+      </c>
+      <c r="M37" s="51" t="s">
+        <v>283</v>
+      </c>
+      <c r="N37" s="48" t="s">
+        <v>284</v>
+      </c>
+      <c r="O37" s="51" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="47.25" x14ac:dyDescent="0.3">
+      <c r="A38" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="B38" s="27">
+        <v>1</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="E38" s="27">
+        <v>194</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="G38" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="H38" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="J38" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="K38" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="L38" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="M38" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="N38" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="O38" s="27"/>
+    </row>
+    <row r="39" spans="1:16" ht="75.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" s="27">
+        <v>3</v>
+      </c>
+      <c r="C39" s="39">
+        <v>45583</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="E39" s="27">
+        <v>189</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="G39" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="H39" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="I39" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="J39" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="K39" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="L39" s="45" t="s">
+        <v>291</v>
+      </c>
+      <c r="M39" s="45" t="s">
+        <v>292</v>
+      </c>
+      <c r="N39" s="46" t="s">
+        <v>293</v>
+      </c>
+      <c r="O39" s="46" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="33" x14ac:dyDescent="0.3">
+      <c r="A40" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="B40" s="27">
+        <v>3</v>
+      </c>
+      <c r="C40" s="39">
+        <v>45579</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="E40" s="27">
+        <v>117</v>
+      </c>
+      <c r="F40" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="G40" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="H40" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="J40" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="K40" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="L40" s="45" t="s">
+        <v>296</v>
+      </c>
+      <c r="M40" s="46" t="s">
+        <v>293</v>
+      </c>
+      <c r="N40" s="46" t="s">
+        <v>297</v>
+      </c>
+      <c r="O40" s="46" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="62.25" x14ac:dyDescent="0.3">
+      <c r="A41" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="B41" s="27">
+        <v>3</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="E41" s="27">
+        <v>95</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="G41" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="H41" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="I41" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="J41" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="K41" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="L41" s="46" t="s">
+        <v>299</v>
+      </c>
+      <c r="M41" s="46" t="s">
+        <v>293</v>
+      </c>
+      <c r="N41" s="46" t="s">
+        <v>297</v>
+      </c>
+      <c r="O41" s="46" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="66" x14ac:dyDescent="0.3">
+      <c r="A42" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="B42" s="27">
+        <v>3</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="E42" s="27">
+        <v>58</v>
+      </c>
+      <c r="F42" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="G42" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="H42" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="I42" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="J42" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="K42" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="L42" s="47" t="s">
+        <v>301</v>
+      </c>
+      <c r="M42" s="46" t="s">
+        <v>293</v>
+      </c>
+      <c r="N42" s="46" t="s">
+        <v>302</v>
+      </c>
+      <c r="O42" s="46" t="s">
+        <v>294</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:P36" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}"/>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0E183E-CBD2-41F0-BC72-9C7F6FA3686F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC93F9F-9751-47FC-BFFC-9492B0D324D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
   <sheets>
     <sheet name="공식몰날짜재입력필요" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="304">
   <si>
     <t>아이디</t>
   </si>
@@ -1875,10 +1875,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>영업팀</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1935,10 +1931,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>고객지원파트</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">선반색상 오배송으로 오해한 건 내 잘못이긴한데… </t>
     </r>
@@ -2031,6 +2023,18 @@
   </si>
   <si>
     <t>흔들림</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>영업</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>영업</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객지원</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -2240,7 +2244,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2381,6 +2385,7 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2720,8 +2725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4527,7 +4532,7 @@
       <c r="B37" s="48">
         <v>1</v>
       </c>
-      <c r="C37" s="48" t="s">
+      <c r="C37" s="52" t="s">
         <v>260</v>
       </c>
       <c r="D37" s="49" t="s">
@@ -4564,7 +4569,7 @@
         <v>284</v>
       </c>
       <c r="O37" s="51" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="47.25" x14ac:dyDescent="0.3">
@@ -4574,11 +4579,11 @@
       <c r="B38" s="27">
         <v>1</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="39" t="s">
         <v>266</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E38" s="27">
         <v>194</v>
@@ -4587,7 +4592,7 @@
         <v>267</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H38" s="27" t="s">
         <v>22</v>
@@ -4602,15 +4607,20 @@
         <v>25</v>
       </c>
       <c r="L38" s="46" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M38" s="45" t="s">
         <v>283</v>
       </c>
       <c r="N38" s="27" t="s">
-        <v>289</v>
-      </c>
-      <c r="O38" s="27"/>
+        <v>288</v>
+      </c>
+      <c r="O38" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="P38" s="19" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="39" spans="1:16" ht="75.75" x14ac:dyDescent="0.3">
       <c r="A39" s="27" t="s">
@@ -4623,7 +4633,7 @@
         <v>45583</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E39" s="27">
         <v>189</v>
@@ -4647,16 +4657,19 @@
         <v>35</v>
       </c>
       <c r="L39" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="M39" s="45" t="s">
         <v>291</v>
       </c>
-      <c r="M39" s="45" t="s">
+      <c r="N39" s="46" t="s">
         <v>292</v>
       </c>
-      <c r="N39" s="46" t="s">
-        <v>293</v>
-      </c>
       <c r="O39" s="46" t="s">
-        <v>294</v>
+        <v>303</v>
+      </c>
+      <c r="P39" s="46" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="33" x14ac:dyDescent="0.3">
@@ -4670,7 +4683,7 @@
         <v>45579</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E40" s="27">
         <v>117</v>
@@ -4694,16 +4707,19 @@
         <v>50</v>
       </c>
       <c r="L40" s="45" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M40" s="46" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N40" s="46" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O40" s="46" t="s">
-        <v>294</v>
+        <v>303</v>
+      </c>
+      <c r="P40" s="46" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="62.25" x14ac:dyDescent="0.3">
@@ -4713,11 +4729,11 @@
       <c r="B41" s="27">
         <v>3</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="39" t="s">
         <v>275</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E41" s="27">
         <v>95</v>
@@ -4741,16 +4757,16 @@
         <v>35</v>
       </c>
       <c r="L41" s="46" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="M41" s="46" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N41" s="46" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O41" s="46" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="66" x14ac:dyDescent="0.3">
@@ -4760,11 +4776,11 @@
       <c r="B42" s="27">
         <v>3</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="39" t="s">
         <v>271</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E42" s="27">
         <v>58</v>
@@ -4788,16 +4804,19 @@
         <v>35</v>
       </c>
       <c r="L42" s="47" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M42" s="46" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N42" s="46" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="O42" s="46" t="s">
-        <v>294</v>
+        <v>303</v>
+      </c>
+      <c r="P42" s="46" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC93F9F-9751-47FC-BFFC-9492B0D324D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286F05C3-7E99-495C-AA20-2038BF2A4433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="304">
   <si>
     <t>아이디</t>
   </si>
@@ -2726,7 +2726,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4629,8 +4629,8 @@
       <c r="B39" s="27">
         <v>3</v>
       </c>
-      <c r="C39" s="39">
-        <v>45583</v>
+      <c r="C39" s="39" t="s">
+        <v>266</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>289</v>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286F05C3-7E99-495C-AA20-2038BF2A4433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0E98C2-6525-49EB-98CC-BBBBC17C8A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="354">
   <si>
     <t>아이디</t>
   </si>
@@ -2036,6 +2036,395 @@
   <si>
     <t>고객지원</t>
     <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>zw****</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">배송은 정말 빠릅니다. 바로 다음 날 배송이 되었으니까요. 다만 배송된 상품을 확인하는데 철골이 택배박스 안에서 서로 부딪쳐 코팅이 벗겨지거나 굵직하게 긁힌 자국들이 선명했습니다. 게다가 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">선반의 하얀 부분에는 선명한 손자국들이 있었습니다. 선반 5개 중 3개가요... 새 제품을 주문하여 받은건데 중고를 받은 기분이었어요. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Pretendard"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">정말 필요해서 샀는데 포장을 풀어 봤을 때 썩 좋진 않았습니다. -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>답글 작성 및 교환 조치 예정 확인</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 가로(폭/mm): 900 / 2. 세로(깊이/mm): 300 / 3. 높이/선반단수(mm/단수): 1800/2단</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/spacenstory/products/9162075772</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간이야기(추가7)</t>
+  </si>
+  <si>
+    <t>답글 작성 및 교환 조치 예정 확인</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>합판</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>오염</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>dmis***</t>
+  </si>
+  <si>
+    <r>
+      <t>기존에 사용하던 행거는 정장을 걸기에 불편해서 너비가 넓은 사이즈가 가능한 스피드랙으로 주문하게 되었습니다.
+혼자 조립하기 힘들지는 않았는데 완성하고 나니 약간 휘청거리고 살짝 기울게 서서 당황했습니다.
+그래도 옷을 걸고 나서는 괜찮네요.
+그리고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 판 하나가 손상이 있어서 교환하고 싶었는데 번거로워서 그냥 사용합니다.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+써보고 괜찮으면 선반용으로 하나 더 사려고 했는데 좀 고민이 되네요. -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>답글을 통해 교환처리가 가능한점 안내</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로(폭)x세로(깊이)(mm): 600x600(mm) / 높이(mm): 2100(mm) / 단수 / 행거봉: 3단 / 2행거</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/speedrackstore/products/8693699113</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pros*******</t>
+  </si>
+  <si>
+    <r>
+      <t>상품이 정말 빠르게와서 좋았습니다 조립하기도 쉬웠어요 다만 아쉬운것은 세탁기형 다리가 150cm를 시켰는데 연결형으로 75cm다리가 두개가 왔어요 반품하기 귀찮아서 연결했는데 아무래도 힘을 주니</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 연결부위가 휘어져서 걱정이되어요 -&gt; 아웃바운드 시도 했으나 부재중으로 재시도 예정</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로x깊이(설치시 여유공간확보): 가로600x깊이300 / 높이: 1500(2단)</t>
+  </si>
+  <si>
+    <t>휘어진 부분 펴서 사용 중으로 사과 후 커피쿠폰 전송</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bc****</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">우선 포장 신경좀 쓰셔야 겠습니다 완충재나 비닐 하나없이 박스 안에서 이리저리 흔들리다 상처가 납니다 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">선반 합판은 모서리가 전부 조금씩 깨져 있습니다 보완되면 좋겠습니다 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+조립이 쉽고 제품 마감이 좋습니다 </t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로(설치시 여유공간확보): 500 / 깊이(mm): 400 / 높이(mm): 1800(기본2단)</t>
+  </si>
+  <si>
+    <t>부재중으로 추후 재시도 예정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5111***</t>
+  </si>
+  <si>
+    <r>
+      <t>연결기둥을 안보내줘서 일단 온거로만 조립했는데</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 높이가 높지않은데도 흔들거리네요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+기둥이 높으면 더 흔들릴까봐 걱정이예요
+헹거는 옷무게도 장난 아닌데</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로(폭)X세로(깊이)(mm): 1100x400(mm) / 높이(mm): 1650(mm) / 단수/행거봉: 2단 / 1행거봉</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/trendkorea/products/5430120634</t>
+  </si>
+  <si>
+    <t>트렌드코리아</t>
+  </si>
+  <si>
+    <t>품질팀측으로 해당 사이즈 조립테스트 해볼 수 있도록 요청</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>기둥,받침</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>품질</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>dalg*****</t>
+  </si>
+  <si>
+    <t>짧은 걸 쓸 땐 크게 몰랐는데 너비가 넓어지니까 칸마다 받침이 휩니다 상판하고 따로 놀아요... 중간에 지지대라도 하나 있어야 안정적이겠는데
+-&gt; 사진상 보강대가 없는 것으로 확인 , 퍼스트랙 측으로 누락된 것인지 확인 후 출고 될 수 있도록 영업팀측으로 요청</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로(폭)x세로(깊이)(mm): 1500x500 / 높이(mm): 1800 / (단수)12T양면강화합판: 4단(12T양면강화합판)</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/speedrackstore/products/8854765090</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인해보니 고객님께서 보강대를 수령하셨으나 미설치로 동영상 링크 전달 완료</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타부속품</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>chem****</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">기둥 부분이 살짝 휘어서 배송됨
+다른쪽 망치로 때리면 먼저 끼워 넣은게 튀어올라
+다시 빠짐 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Pretendard"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배송은 빠름</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로x깊이(설치시 여유공간확보): 가로1200x깊이500 / 높이: 750(2단)</t>
+  </si>
+  <si>
+    <t>기둥 펴서 사용 중으로 사과 후 커피쿠폰 전송</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">기둥 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">윤*혜 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">조립이 힘들어요
+사이즈 딱 맞는 정사이즈예요
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">디자인 별로예요
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">크기 적당해요
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>견고함 생각보다 부실해요</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>화이트, 600x400x1800</t>
+  </si>
+  <si>
+    <t>sj****</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">빠른 배송~근데 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내부 완충재가 없어서 제품에 긁힘이 많이 생겼어요.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로(설치시 여유공간확보): 600 / 깊이(mm): 500 / 높이(mm): 900(기본2단)</t>
+  </si>
+  <si>
+    <t>완충제에 대해 필요성 검토</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>포장</t>
+  </si>
+  <si>
+    <t>ne****</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">배송은 빠르네요 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제품포장은 좀 아쉬워요</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로(폭): 800 / 세로(깊이): 400 / 높이(mm): 900(2단)</t>
   </si>
 </sst>
 </file>
@@ -2244,7 +2633,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2386,6 +2775,21 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2723,10 +3127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="C45" workbookViewId="0">
+      <selection activeCell="P50" sqref="P50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3129,7 +3533,9 @@
       <c r="O8" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="P8" s="36"/>
+      <c r="P8" s="36" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="9" spans="1:16" ht="247.5" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
@@ -3231,7 +3637,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="99" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>89</v>
       </c>
@@ -4125,7 +4531,9 @@
       <c r="O28" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="P28" s="19"/>
+      <c r="P28" s="19" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="29" spans="1:16" ht="132" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
@@ -4571,6 +4979,9 @@
       <c r="O37" s="51" t="s">
         <v>302</v>
       </c>
+      <c r="P37" s="34" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="38" spans="1:16" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A38" s="27" t="s">
@@ -4818,6 +5229,500 @@
       <c r="P42" s="46" t="s">
         <v>62</v>
       </c>
+    </row>
+    <row r="43" spans="1:16" s="34" customFormat="1" ht="64.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="53" t="s">
+        <v>304</v>
+      </c>
+      <c r="B43" s="54">
+        <v>3</v>
+      </c>
+      <c r="C43" s="55">
+        <v>45588</v>
+      </c>
+      <c r="D43" s="49" t="s">
+        <v>305</v>
+      </c>
+      <c r="E43" s="56">
+        <v>239</v>
+      </c>
+      <c r="F43" s="53" t="s">
+        <v>306</v>
+      </c>
+      <c r="G43" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="H43" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="I43" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J43" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="K43" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="L43" s="57" t="s">
+        <v>309</v>
+      </c>
+      <c r="M43" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="N43" s="57" t="s">
+        <v>311</v>
+      </c>
+      <c r="O43" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="P43" s="57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="B44" s="17">
+        <v>4</v>
+      </c>
+      <c r="C44" s="18">
+        <v>45586</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="E44" s="24">
+        <v>240</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="G44" t="s">
+        <v>315</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J44" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="K44" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="L44" s="41" t="s">
+        <v>309</v>
+      </c>
+      <c r="M44" s="42" t="s">
+        <v>310</v>
+      </c>
+      <c r="N44" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="O44" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="P44" s="42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="B45" s="17">
+        <v>3</v>
+      </c>
+      <c r="C45" s="18">
+        <v>45590</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="E45" s="24">
+        <v>155</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I45" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J45" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K45" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L45" s="42" t="s">
+        <v>319</v>
+      </c>
+      <c r="M45" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="N45" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="O45" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" s="42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="B46" s="17">
+        <v>4</v>
+      </c>
+      <c r="C46" s="18">
+        <v>45585</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="E46" s="24">
+        <v>115</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I46" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J46" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K46" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L46" s="42" t="s">
+        <v>323</v>
+      </c>
+      <c r="M46" s="42" t="s">
+        <v>310</v>
+      </c>
+      <c r="N46" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="O46" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="P46" s="42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="66" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="B47" s="17">
+        <v>4</v>
+      </c>
+      <c r="C47" s="18">
+        <v>45587</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="E47" s="24">
+        <v>81</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="H47" t="s">
+        <v>22</v>
+      </c>
+      <c r="I47" t="s">
+        <v>23</v>
+      </c>
+      <c r="J47" t="s">
+        <v>328</v>
+      </c>
+      <c r="K47" t="s">
+        <v>122</v>
+      </c>
+      <c r="L47" s="42" t="s">
+        <v>329</v>
+      </c>
+      <c r="M47" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="N47" s="42" t="s">
+        <v>330</v>
+      </c>
+      <c r="O47" s="42" t="s">
+        <v>331</v>
+      </c>
+      <c r="P47" s="40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="B48" s="17">
+        <v>3</v>
+      </c>
+      <c r="C48" s="18">
+        <v>45591</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="E48" s="24">
+        <v>145</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="G48" t="s">
+        <v>335</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I48" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J48" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K48" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L48" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="M48" s="42" t="s">
+        <v>337</v>
+      </c>
+      <c r="N48" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="O48" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="P48" s="42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="B49" s="20">
+        <v>4</v>
+      </c>
+      <c r="C49" s="21">
+        <v>45589</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="E49" s="24">
+        <v>58</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I49" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J49" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K49" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L49" s="41" t="s">
+        <v>341</v>
+      </c>
+      <c r="M49" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="N49" s="41" t="s">
+        <v>342</v>
+      </c>
+      <c r="O49" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="P49" s="41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="B50" s="17">
+        <v>2</v>
+      </c>
+      <c r="C50" s="18">
+        <v>45589</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="E50" s="24">
+        <v>55</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I50" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="J50" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="K50" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="L50" s="42" t="s">
+        <v>329</v>
+      </c>
+      <c r="M50" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="N50" s="42" t="s">
+        <v>330</v>
+      </c>
+      <c r="O50" s="42" t="s">
+        <v>331</v>
+      </c>
+      <c r="P50" s="40"/>
+    </row>
+    <row r="51" spans="1:16" ht="33" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="B51" s="17">
+        <v>3</v>
+      </c>
+      <c r="C51" s="18">
+        <v>45588</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="E51" s="24">
+        <v>37</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I51" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J51" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K51" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L51" s="40" t="s">
+        <v>349</v>
+      </c>
+      <c r="M51" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="N51" s="40" t="s">
+        <v>350</v>
+      </c>
+      <c r="O51" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="P51" s="40"/>
+    </row>
+    <row r="52" spans="1:16" ht="33" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="B52" s="17">
+        <v>3</v>
+      </c>
+      <c r="C52" s="18">
+        <v>45591</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="E52" s="24">
+        <v>21</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I52" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J52" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="K52" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L52" s="40" t="s">
+        <v>349</v>
+      </c>
+      <c r="M52" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="N52" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="O52" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="P52" s="40"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:P36" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}"/>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0E98C2-6525-49EB-98CC-BBBBC17C8A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E2E22B-08D7-43FD-BA2F-5BD38E1C3BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
@@ -2633,7 +2633,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2665,9 +2665,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2747,7 +2744,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2774,7 +2770,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2789,6 +2784,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3129,13 +3130,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C45" workbookViewId="0">
-      <selection activeCell="P50" sqref="P50"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="20" customWidth="1"/>
     <col min="4" max="4" width="88" customWidth="1"/>
     <col min="9" max="9" width="28.6640625" customWidth="1"/>
     <col min="10" max="10" width="29" customWidth="1"/>
@@ -3193,568 +3194,568 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="16" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="15" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="10">
         <v>2</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="20">
         <v>45555</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <v>525</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="N2" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="O2" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="P2" s="25"/>
+      <c r="P2" s="24"/>
     </row>
-    <row r="3" spans="1:16" s="16" customFormat="1" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:16" s="15" customFormat="1" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="16">
         <v>1</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="17">
         <v>45550</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <v>151</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="O3" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="19" t="s">
+      <c r="P3" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="16" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:16" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="19">
         <v>3</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="20">
         <v>45555</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>109</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="L4" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="25" t="s">
+      <c r="N4" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="O4" s="25" t="s">
+      <c r="O4" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="P4" s="25" t="s">
+      <c r="P4" s="24" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:16" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="16">
         <v>3</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="17">
         <v>45552</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>60</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="L5" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="M5" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="25" t="s">
+      <c r="N5" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="O5" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="P5" s="19"/>
+      <c r="P5" s="18"/>
     </row>
-    <row r="6" spans="1:16" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:16" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="19">
         <v>3</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="20">
         <v>45552</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <v>45</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="24" t="s">
+      <c r="L6" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="25" t="s">
+      <c r="M6" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="25" t="s">
+      <c r="N6" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="O6" s="25" t="s">
+      <c r="O6" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="P6" s="25"/>
+      <c r="P6" s="24"/>
     </row>
-    <row r="7" spans="1:16" s="16" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:16" s="15" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="16">
         <v>2</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="17">
         <v>45554</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <v>22</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>57</v>
       </c>
       <c r="G7" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="L7" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="M7" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="N7" s="19" t="s">
+      <c r="N7" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="O7" s="19" t="s">
+      <c r="O7" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="P7" s="19" t="s">
+      <c r="P7" s="18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="34" customFormat="1" ht="231" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
+    <row r="8" spans="1:16" s="33" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="30">
         <v>1</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="31">
         <v>45557</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="32">
         <v>857</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="J8" s="30" t="s">
+      <c r="J8" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="K8" s="30" t="s">
+      <c r="K8" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="L8" s="35" t="s">
+      <c r="L8" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="M8" s="36" t="s">
+      <c r="M8" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="N8" s="36" t="s">
+      <c r="N8" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="O8" s="36" t="s">
+      <c r="O8" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="P8" s="36" t="s">
+      <c r="P8" s="35" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="247.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="16">
         <v>3</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="17">
         <v>45559</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="18">
         <v>702</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="L9" s="22" t="s">
+      <c r="L9" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="M9" s="22" t="s">
+      <c r="M9" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="N9" s="22" t="s">
+      <c r="N9" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="O9" s="22" t="s">
+      <c r="O9" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="P9" s="22" t="s">
+      <c r="P9" s="21" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="16">
         <v>3</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="17">
         <v>45558</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="18">
         <v>269</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="14" t="s">
         <v>84</v>
       </c>
       <c r="G10" t="s">
         <v>85</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="22" t="s">
+      <c r="L10" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="M10" s="22" t="s">
+      <c r="M10" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="N10" s="22" t="s">
+      <c r="N10" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="O10" s="22" t="s">
+      <c r="O10" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="P10" s="22" t="s">
+      <c r="P10" s="21" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="99" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="16">
         <v>2</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="17">
         <v>45563</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="18">
         <v>186</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="22" t="s">
+      <c r="L11" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="M11" s="22" t="s">
+      <c r="M11" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="N11" s="22" t="s">
+      <c r="N11" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="O11" s="22" t="s">
+      <c r="O11" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="P11" s="22" t="s">
+      <c r="P11" s="21" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B12" s="27">
         <v>1</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="17">
         <v>45557</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="18">
         <v>84</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="J12" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="L12" s="26" t="s">
+      <c r="L12" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="M12" s="26" t="s">
+      <c r="M12" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="26" t="s">
+      <c r="N12" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="O12" s="26" t="s">
+      <c r="O12" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="P12" s="26"/>
+      <c r="P12" s="25"/>
     </row>
     <row r="13" spans="1:16" ht="66" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="16">
         <v>3</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="17">
         <v>45559</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="18">
         <v>87</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="14" t="s">
         <v>105</v>
       </c>
       <c r="H13" t="s">
@@ -3769,19 +3770,19 @@
       <c r="K13" t="s">
         <v>35</v>
       </c>
-      <c r="L13" s="22" t="s">
+      <c r="L13" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="M13" s="22" t="s">
+      <c r="M13" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="N13" s="22" t="s">
+      <c r="N13" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="O13" s="22" t="s">
+      <c r="O13" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="P13" s="22" t="s">
+      <c r="P13" s="21" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3792,219 +3793,219 @@
       <c r="B14" s="10">
         <v>2</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="20">
         <v>45560</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="18">
         <v>55</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="J14" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="K14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="26" t="s">
+      <c r="L14" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="M14" s="26" t="s">
+      <c r="M14" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="N14" s="26" t="s">
+      <c r="N14" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="O14" s="26" t="s">
+      <c r="O14" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="P14" s="26" t="s">
+      <c r="P14" s="25" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="33" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="16">
         <v>1</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="17">
         <v>45560</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="18">
         <v>10</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="L15" s="22" t="s">
+      <c r="L15" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="M15" s="22" t="s">
+      <c r="M15" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="N15" s="22" t="s">
+      <c r="N15" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="O15" s="22" t="s">
+      <c r="O15" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="P15" s="22" t="s">
+      <c r="P15" s="21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="34" customFormat="1" ht="99" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+    <row r="16" spans="1:16" s="33" customFormat="1" ht="99" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="B16" s="31">
+      <c r="B16" s="30">
         <v>3</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="31">
         <v>45569</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="32">
         <v>221</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="G16" s="30" t="s">
+      <c r="G16" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="H16" s="30" t="s">
+      <c r="H16" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="30" t="s">
+      <c r="J16" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="K16" s="30" t="s">
+      <c r="K16" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="43" t="s">
+      <c r="L16" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="M16" s="33" t="s">
+      <c r="M16" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="N16" s="33" t="s">
+      <c r="N16" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="O16" s="33" t="s">
+      <c r="O16" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="P16" s="33" t="s">
+      <c r="P16" s="32" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="19">
         <v>3</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="20">
         <v>45570</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="18">
         <v>136</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="13" t="s">
         <v>136</v>
       </c>
       <c r="G17" t="s">
         <v>137</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="L17" s="38" t="s">
+      <c r="L17" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="M17" s="19" t="s">
+      <c r="M17" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="N17" s="19" t="s">
+      <c r="N17" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="O17" s="19" t="s">
+      <c r="O17" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="P17" s="12" t="s">
+      <c r="P17" s="11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="99" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="16">
         <v>3</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="17">
         <v>45567</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="18">
         <v>114</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="14" t="s">
         <v>142</v>
       </c>
       <c r="H18" t="s">
@@ -4019,42 +4020,42 @@
       <c r="K18" t="s">
         <v>122</v>
       </c>
-      <c r="L18" s="37" t="s">
+      <c r="L18" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="M18" s="19" t="s">
+      <c r="M18" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="N18" s="19" t="s">
+      <c r="N18" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="O18" s="19" t="s">
+      <c r="O18" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="P18" s="12" t="s">
+      <c r="P18" s="11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B19" s="27">
         <v>3</v>
       </c>
-      <c r="C19" s="39">
+      <c r="C19" s="55">
         <v>45566</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="18">
         <v>68</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="G19" s="27" t="s">
+      <c r="G19" s="26" t="s">
         <v>150</v>
       </c>
       <c r="H19" t="s">
@@ -4069,42 +4070,42 @@
       <c r="K19" t="s">
         <v>50</v>
       </c>
-      <c r="L19" s="37" t="s">
+      <c r="L19" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="M19" s="19" t="s">
+      <c r="M19" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="N19" s="19" t="s">
+      <c r="N19" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="O19" s="19" t="s">
+      <c r="O19" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="P19" s="37" t="s">
+      <c r="P19" s="36" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="33" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="16">
         <v>3</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="17">
         <v>45569</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="18">
         <v>90</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="14" t="s">
         <v>155</v>
       </c>
       <c r="H20" t="s">
@@ -4119,42 +4120,42 @@
       <c r="K20" t="s">
         <v>50</v>
       </c>
-      <c r="L20" s="40" t="s">
+      <c r="L20" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="M20" s="19" t="s">
+      <c r="M20" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="N20" s="19" t="s">
+      <c r="N20" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="O20" s="19" t="s">
+      <c r="O20" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="P20" s="40" t="s">
+      <c r="P20" s="38" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="B21" s="28">
+      <c r="B21" s="27">
         <v>3</v>
       </c>
-      <c r="C21" s="39">
+      <c r="C21" s="55">
         <v>45565</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="18">
         <v>54</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F21" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="G21" s="27" t="s">
+      <c r="G21" s="26" t="s">
         <v>162</v>
       </c>
       <c r="H21" t="s">
@@ -4169,119 +4170,119 @@
       <c r="K21" t="s">
         <v>35</v>
       </c>
-      <c r="L21" s="41" t="s">
+      <c r="L21" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="M21" s="22" t="s">
+      <c r="M21" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="N21" s="22" t="s">
+      <c r="N21" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="O21" s="22" t="s">
+      <c r="O21" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="P21" s="40" t="s">
+      <c r="P21" s="38" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="66" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="16">
         <v>3</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="17">
         <v>45566</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="18">
         <v>100</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="15" t="s">
+      <c r="I22" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="15" t="s">
+      <c r="J22" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="K22" s="15" t="s">
+      <c r="K22" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="L22" s="41" t="s">
+      <c r="L22" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="M22" s="22" t="s">
+      <c r="M22" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="N22" s="22" t="s">
+      <c r="N22" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="O22" s="22" t="s">
+      <c r="O22" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="P22" s="40" t="s">
+      <c r="P22" s="38" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="16">
         <v>2</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="17">
         <v>45569</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="18">
         <v>59</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="14" t="s">
         <v>171</v>
       </c>
       <c r="G23" t="s">
         <v>172</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="I23" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J23" s="15" t="s">
+      <c r="J23" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="K23" s="15" t="s">
+      <c r="K23" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="L23" s="42" t="s">
+      <c r="L23" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="M23" s="22" t="s">
+      <c r="M23" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="N23" s="22" t="s">
+      <c r="N23" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="O23" s="19" t="s">
+      <c r="O23" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="P23" s="40" t="s">
+      <c r="P23" s="38" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4292,96 +4293,96 @@
       <c r="B24" s="10">
         <v>3</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="20">
         <v>45570</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="18">
         <v>63</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="I24" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J24" s="15" t="s">
+      <c r="J24" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="K24" s="15" t="s">
+      <c r="K24" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="L24" s="41" t="s">
+      <c r="L24" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="M24" s="22" t="s">
+      <c r="M24" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="N24" s="22" t="s">
+      <c r="N24" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="O24" s="19" t="s">
+      <c r="O24" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="P24" s="40" t="s">
+      <c r="P24" s="38" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="33" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="16">
         <v>3</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="17">
         <v>45564</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="18">
         <v>57</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="14" t="s">
         <v>181</v>
       </c>
       <c r="G25" t="s">
         <v>182</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="H25" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I25" s="15" t="s">
+      <c r="I25" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J25" s="15" t="s">
+      <c r="J25" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="K25" s="15" t="s">
+      <c r="K25" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="L25" s="40" t="s">
+      <c r="L25" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="M25" s="19" t="s">
+      <c r="M25" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="N25" s="19" t="s">
+      <c r="N25" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="O25" s="19" t="s">
+      <c r="O25" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="P25" s="40" t="s">
+      <c r="P25" s="38" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4392,19 +4393,19 @@
       <c r="B26" s="10">
         <v>3</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="20">
         <v>45569</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="18">
         <v>46</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="G26" s="13" t="s">
         <v>188</v>
       </c>
       <c r="H26" t="s">
@@ -4419,142 +4420,142 @@
       <c r="K26" t="s">
         <v>35</v>
       </c>
-      <c r="L26" s="41" t="s">
+      <c r="L26" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="M26" s="22" t="s">
+      <c r="M26" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="N26" s="22" t="s">
+      <c r="N26" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="O26" s="19" t="s">
+      <c r="O26" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="P26" s="40" t="s">
+      <c r="P26" s="38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
+    <row r="27" spans="1:16" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="B27" s="31">
+      <c r="B27" s="30">
         <v>1</v>
       </c>
-      <c r="C27" s="32">
+      <c r="C27" s="31">
         <v>45567</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="E27" s="33">
+      <c r="E27" s="32">
         <v>36</v>
       </c>
-      <c r="F27" s="30" t="s">
+      <c r="F27" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="G27" s="30" t="s">
+      <c r="G27" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="H27" s="30" t="s">
+      <c r="H27" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="I27" s="30" t="s">
+      <c r="I27" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="J27" s="30" t="s">
+      <c r="J27" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="K27" s="30" t="s">
+      <c r="K27" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="L27" s="44" t="s">
+      <c r="L27" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="M27" s="36" t="s">
+      <c r="M27" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="N27" s="36" t="s">
+      <c r="N27" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="O27" s="33" t="s">
+      <c r="O27" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="P27" s="36" t="s">
+      <c r="P27" s="35" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="132" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B28" s="16">
         <v>3</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="17">
         <v>45572</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="18">
         <v>356</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G28" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H28" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I28" s="15" t="s">
+      <c r="I28" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J28" s="15" t="s">
+      <c r="J28" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="K28" s="15" t="s">
+      <c r="K28" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="L28" s="19" t="s">
+      <c r="L28" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="M28" s="19" t="s">
+      <c r="M28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="N28" s="19" t="s">
+      <c r="N28" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="O28" s="19" t="s">
+      <c r="O28" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="P28" s="19" t="s">
+      <c r="P28" s="18" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="132" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B29" s="16">
         <v>1</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="17">
         <v>45577</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="18">
         <v>314</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G29" s="14" t="s">
         <v>166</v>
       </c>
       <c r="H29" t="s">
@@ -4569,887 +4570,887 @@
       <c r="K29" t="s">
         <v>168</v>
       </c>
-      <c r="L29" s="19" t="s">
+      <c r="L29" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="M29" s="19" t="s">
+      <c r="M29" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="N29" s="19" t="s">
+      <c r="N29" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="O29" s="19" t="s">
+      <c r="O29" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="P29" s="19" t="s">
+      <c r="P29" s="18" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="B30" s="17">
+      <c r="B30" s="16">
         <v>3</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="17">
         <v>45575</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="18">
         <v>222</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="G30" s="15" t="s">
+      <c r="G30" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="H30" s="15" t="s">
+      <c r="H30" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I30" s="15" t="s">
+      <c r="I30" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J30" s="15" t="s">
+      <c r="J30" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="K30" s="15" t="s">
+      <c r="K30" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="L30" s="19" t="s">
+      <c r="L30" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="M30" s="19" t="s">
+      <c r="M30" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="N30" s="19" t="s">
+      <c r="N30" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="O30" s="19" t="s">
+      <c r="O30" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="P30" s="19" t="s">
+      <c r="P30" s="18" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="66" x14ac:dyDescent="0.3">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="B31" s="28">
+      <c r="B31" s="27">
         <v>2</v>
       </c>
-      <c r="C31" s="39">
+      <c r="C31" s="55">
         <v>45572</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="18">
         <v>239</v>
       </c>
-      <c r="F31" s="27" t="s">
+      <c r="F31" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="G31" s="27" t="s">
+      <c r="G31" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="H31" s="15" t="s">
+      <c r="H31" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I31" s="15" t="s">
+      <c r="I31" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="J31" s="15" t="s">
+      <c r="J31" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="K31" s="15" t="s">
+      <c r="K31" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="L31" s="12" t="s">
+      <c r="L31" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="M31" s="12" t="s">
+      <c r="M31" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="N31" s="12" t="s">
+      <c r="N31" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="O31" s="12" t="s">
+      <c r="O31" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="P31" s="12"/>
+      <c r="P31" s="11"/>
     </row>
     <row r="32" spans="1:16" ht="148.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="B32" s="17">
+      <c r="B32" s="16">
         <v>1</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="17">
         <v>45571</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="18">
         <v>202</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="G32" s="15" t="s">
+      <c r="G32" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="H32" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I32" s="15" t="s">
+      <c r="I32" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J32" s="15" t="s">
+      <c r="J32" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="K32" s="15" t="s">
+      <c r="K32" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="L32" s="19" t="s">
+      <c r="L32" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="M32" s="19" t="s">
+      <c r="M32" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="N32" s="19" t="s">
+      <c r="N32" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="O32" s="19" t="s">
+      <c r="O32" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="P32" s="19" t="s">
+      <c r="P32" s="18" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="B33" s="17">
+      <c r="B33" s="16">
         <v>1</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="17">
         <v>45571</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="18">
         <v>159</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="F33" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="G33" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="H33" s="15" t="s">
+      <c r="H33" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I33" s="15" t="s">
+      <c r="I33" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="J33" s="15" t="s">
+      <c r="J33" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="K33" s="15" t="s">
+      <c r="K33" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="L33" s="19" t="s">
+      <c r="L33" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="M33" s="19" t="s">
+      <c r="M33" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="N33" s="19" t="s">
+      <c r="N33" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="O33" s="19" t="s">
+      <c r="O33" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="P33" s="19" t="s">
+      <c r="P33" s="18" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="181.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="B34" s="28">
+      <c r="B34" s="27">
         <v>3</v>
       </c>
-      <c r="C34" s="39">
+      <c r="C34" s="55">
         <v>45575</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="18">
         <v>126</v>
       </c>
-      <c r="F34" s="27" t="s">
+      <c r="F34" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="G34" s="27" t="s">
+      <c r="G34" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="H34" s="15" t="s">
+      <c r="H34" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I34" s="15" t="s">
+      <c r="I34" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="J34" s="15" t="s">
+      <c r="J34" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="K34" s="15" t="s">
+      <c r="K34" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="L34" s="12" t="s">
+      <c r="L34" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="M34" s="12" t="s">
+      <c r="M34" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="N34" s="12" t="s">
+      <c r="N34" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="O34" s="12" t="s">
+      <c r="O34" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="P34" s="12" t="s">
+      <c r="P34" s="11" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="B35" s="17">
+      <c r="B35" s="16">
         <v>1</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="17">
         <v>45577</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35" s="18">
         <v>86</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="F35" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="G35" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="H35" s="15" t="s">
+      <c r="H35" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I35" s="15" t="s">
+      <c r="I35" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J35" s="15" t="s">
+      <c r="J35" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K35" s="15" t="s">
+      <c r="K35" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="L35" s="19" t="s">
+      <c r="L35" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="M35" s="19" t="s">
+      <c r="M35" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="N35" s="19" t="s">
+      <c r="N35" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="O35" s="19" t="s">
+      <c r="O35" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="P35" s="19" t="s">
+      <c r="P35" s="18" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="B36" s="17">
+      <c r="B36" s="16">
         <v>3</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="17">
         <v>45575</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E36" s="18">
         <v>97</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F36" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="G36" s="15" t="s">
+      <c r="G36" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="H36" s="15" t="s">
+      <c r="H36" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I36" s="15" t="s">
+      <c r="I36" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J36" s="15" t="s">
+      <c r="J36" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="K36" s="15" t="s">
+      <c r="K36" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="L36" s="19" t="s">
+      <c r="L36" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="M36" s="19" t="s">
+      <c r="M36" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="N36" s="19" t="s">
+      <c r="N36" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="O36" s="19" t="s">
+      <c r="O36" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="P36" s="19" t="s">
+      <c r="P36" s="18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="34" customFormat="1" ht="75.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="48" t="s">
+    <row r="37" spans="1:16" s="33" customFormat="1" ht="75.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="B37" s="48">
+      <c r="B37" s="46">
         <v>1</v>
       </c>
-      <c r="C37" s="52" t="s">
+      <c r="C37" s="56" t="s">
         <v>260</v>
       </c>
-      <c r="D37" s="49" t="s">
+      <c r="D37" s="47" t="s">
         <v>261</v>
       </c>
-      <c r="E37" s="48">
+      <c r="E37" s="46">
         <v>335</v>
       </c>
-      <c r="F37" s="48" t="s">
+      <c r="F37" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="G37" s="48" t="s">
+      <c r="G37" s="46" t="s">
         <v>263</v>
       </c>
-      <c r="H37" s="48" t="s">
+      <c r="H37" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="I37" s="48" t="s">
+      <c r="I37" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="J37" s="48" t="s">
+      <c r="J37" s="46" t="s">
         <v>264</v>
       </c>
-      <c r="K37" s="48" t="s">
+      <c r="K37" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="L37" s="50" t="s">
+      <c r="L37" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="M37" s="51" t="s">
+      <c r="M37" s="49" t="s">
         <v>283</v>
       </c>
-      <c r="N37" s="48" t="s">
+      <c r="N37" s="46" t="s">
         <v>284</v>
       </c>
-      <c r="O37" s="51" t="s">
+      <c r="O37" s="49" t="s">
         <v>302</v>
       </c>
-      <c r="P37" s="34" t="s">
+      <c r="P37" s="33" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="B38" s="27">
+      <c r="B38" s="26">
         <v>1</v>
       </c>
-      <c r="C38" s="39" t="s">
+      <c r="C38" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="D38" s="23" t="s">
+      <c r="D38" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="E38" s="27">
+      <c r="E38" s="26">
         <v>194</v>
       </c>
-      <c r="F38" s="27" t="s">
+      <c r="F38" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="G38" s="27" t="s">
+      <c r="G38" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="H38" s="27" t="s">
+      <c r="H38" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="I38" s="27" t="s">
+      <c r="I38" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="J38" s="27" t="s">
+      <c r="J38" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="K38" s="27" t="s">
+      <c r="K38" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="L38" s="46" t="s">
+      <c r="L38" s="44" t="s">
         <v>287</v>
       </c>
-      <c r="M38" s="45" t="s">
+      <c r="M38" s="43" t="s">
         <v>283</v>
       </c>
-      <c r="N38" s="27" t="s">
+      <c r="N38" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="O38" s="19" t="s">
+      <c r="O38" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="P38" s="19" t="s">
+      <c r="P38" s="18" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="75.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="27" t="s">
+      <c r="A39" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="B39" s="27">
+      <c r="B39" s="26">
         <v>3</v>
       </c>
-      <c r="C39" s="39" t="s">
+      <c r="C39" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="E39" s="27">
+      <c r="E39" s="26">
         <v>189</v>
       </c>
-      <c r="F39" s="27" t="s">
+      <c r="F39" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="G39" s="27" t="s">
+      <c r="G39" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="H39" s="27" t="s">
+      <c r="H39" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="I39" s="27" t="s">
+      <c r="I39" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="J39" s="27" t="s">
+      <c r="J39" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="K39" s="27" t="s">
+      <c r="K39" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="L39" s="45" t="s">
+      <c r="L39" s="43" t="s">
         <v>290</v>
       </c>
-      <c r="M39" s="45" t="s">
+      <c r="M39" s="43" t="s">
         <v>291</v>
       </c>
-      <c r="N39" s="46" t="s">
+      <c r="N39" s="44" t="s">
         <v>292</v>
       </c>
-      <c r="O39" s="46" t="s">
+      <c r="O39" s="44" t="s">
         <v>303</v>
       </c>
-      <c r="P39" s="46" t="s">
+      <c r="P39" s="44" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="A40" s="27" t="s">
+      <c r="A40" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="B40" s="27">
+      <c r="B40" s="26">
         <v>3</v>
       </c>
-      <c r="C40" s="39">
+      <c r="C40" s="55">
         <v>45579</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="E40" s="27">
+      <c r="E40" s="26">
         <v>117</v>
       </c>
-      <c r="F40" s="27" t="s">
+      <c r="F40" s="26" t="s">
         <v>272</v>
       </c>
-      <c r="G40" s="27" t="s">
+      <c r="G40" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="H40" s="27" t="s">
+      <c r="H40" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="I40" s="27" t="s">
+      <c r="I40" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="J40" s="27" t="s">
+      <c r="J40" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="K40" s="27" t="s">
+      <c r="K40" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="L40" s="45" t="s">
+      <c r="L40" s="43" t="s">
         <v>294</v>
       </c>
-      <c r="M40" s="46" t="s">
+      <c r="M40" s="44" t="s">
         <v>292</v>
       </c>
-      <c r="N40" s="46" t="s">
+      <c r="N40" s="44" t="s">
         <v>295</v>
       </c>
-      <c r="O40" s="46" t="s">
+      <c r="O40" s="44" t="s">
         <v>303</v>
       </c>
-      <c r="P40" s="46" t="s">
+      <c r="P40" s="44" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="62.25" x14ac:dyDescent="0.3">
-      <c r="A41" s="27" t="s">
+      <c r="A41" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="B41" s="27">
+      <c r="B41" s="26">
         <v>3</v>
       </c>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="55" t="s">
         <v>275</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="E41" s="27">
+      <c r="E41" s="26">
         <v>95</v>
       </c>
-      <c r="F41" s="27" t="s">
+      <c r="F41" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="G41" s="27" t="s">
+      <c r="G41" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="H41" s="27" t="s">
+      <c r="H41" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="I41" s="27" t="s">
+      <c r="I41" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="J41" s="27" t="s">
+      <c r="J41" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="K41" s="27" t="s">
+      <c r="K41" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="L41" s="46" t="s">
+      <c r="L41" s="44" t="s">
         <v>297</v>
       </c>
-      <c r="M41" s="46" t="s">
+      <c r="M41" s="44" t="s">
         <v>292</v>
       </c>
-      <c r="N41" s="46" t="s">
+      <c r="N41" s="44" t="s">
         <v>295</v>
       </c>
-      <c r="O41" s="46" t="s">
+      <c r="O41" s="44" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="66" x14ac:dyDescent="0.3">
-      <c r="A42" s="27" t="s">
+      <c r="A42" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="B42" s="27">
+      <c r="B42" s="26">
         <v>3</v>
       </c>
-      <c r="C42" s="39" t="s">
+      <c r="C42" s="55" t="s">
         <v>271</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="E42" s="27">
+      <c r="E42" s="26">
         <v>58</v>
       </c>
-      <c r="F42" s="27" t="s">
+      <c r="F42" s="26" t="s">
         <v>280</v>
       </c>
-      <c r="G42" s="27" t="s">
+      <c r="G42" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="H42" s="27" t="s">
+      <c r="H42" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="I42" s="27" t="s">
+      <c r="I42" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="J42" s="27" t="s">
+      <c r="J42" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="K42" s="27" t="s">
+      <c r="K42" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="L42" s="47" t="s">
+      <c r="L42" s="45" t="s">
         <v>299</v>
       </c>
-      <c r="M42" s="46" t="s">
+      <c r="M42" s="44" t="s">
         <v>292</v>
       </c>
-      <c r="N42" s="46" t="s">
+      <c r="N42" s="44" t="s">
         <v>300</v>
       </c>
-      <c r="O42" s="46" t="s">
+      <c r="O42" s="44" t="s">
         <v>303</v>
       </c>
-      <c r="P42" s="46" t="s">
+      <c r="P42" s="44" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:16" s="34" customFormat="1" ht="64.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="53" t="s">
+    <row r="43" spans="1:16" s="33" customFormat="1" ht="64.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="50" t="s">
         <v>304</v>
       </c>
-      <c r="B43" s="54">
+      <c r="B43" s="51">
         <v>3</v>
       </c>
-      <c r="C43" s="55">
+      <c r="C43" s="52">
         <v>45588</v>
       </c>
-      <c r="D43" s="49" t="s">
+      <c r="D43" s="47" t="s">
         <v>305</v>
       </c>
-      <c r="E43" s="56">
+      <c r="E43" s="53">
         <v>239</v>
       </c>
-      <c r="F43" s="53" t="s">
+      <c r="F43" s="50" t="s">
         <v>306</v>
       </c>
-      <c r="G43" s="34" t="s">
+      <c r="G43" s="33" t="s">
         <v>307</v>
       </c>
-      <c r="H43" s="34" t="s">
+      <c r="H43" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="I43" s="34" t="s">
+      <c r="I43" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="J43" s="34" t="s">
+      <c r="J43" s="33" t="s">
         <v>308</v>
       </c>
-      <c r="K43" s="34" t="s">
+      <c r="K43" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="L43" s="57" t="s">
+      <c r="L43" s="54" t="s">
         <v>309</v>
       </c>
-      <c r="M43" s="57" t="s">
+      <c r="M43" s="54" t="s">
         <v>310</v>
       </c>
-      <c r="N43" s="57" t="s">
+      <c r="N43" s="54" t="s">
         <v>311</v>
       </c>
-      <c r="O43" s="57" t="s">
+      <c r="O43" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="P43" s="57" t="s">
+      <c r="P43" s="54" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="B44" s="17">
+      <c r="B44" s="16">
         <v>4</v>
       </c>
-      <c r="C44" s="18">
+      <c r="C44" s="17">
         <v>45586</v>
       </c>
-      <c r="D44" s="19" t="s">
+      <c r="D44" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="E44" s="24">
+      <c r="E44" s="23">
         <v>240</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="F44" s="14" t="s">
         <v>314</v>
       </c>
       <c r="G44" t="s">
         <v>315</v>
       </c>
-      <c r="H44" s="15" t="s">
+      <c r="H44" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I44" s="15" t="s">
+      <c r="I44" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J44" s="15" t="s">
+      <c r="J44" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="K44" s="15" t="s">
+      <c r="K44" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="L44" s="41" t="s">
+      <c r="L44" s="39" t="s">
         <v>309</v>
       </c>
-      <c r="M44" s="42" t="s">
+      <c r="M44" s="40" t="s">
         <v>310</v>
       </c>
-      <c r="N44" s="42" t="s">
+      <c r="N44" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="O44" s="42" t="s">
+      <c r="O44" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="P44" s="42" t="s">
+      <c r="P44" s="40" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="B45" s="17">
+      <c r="B45" s="16">
         <v>3</v>
       </c>
-      <c r="C45" s="18">
+      <c r="C45" s="17">
         <v>45590</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="D45" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="E45" s="24">
+      <c r="E45" s="23">
         <v>155</v>
       </c>
-      <c r="F45" s="15" t="s">
+      <c r="F45" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="G45" s="15" t="s">
+      <c r="G45" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="H45" s="15" t="s">
+      <c r="H45" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I45" s="15" t="s">
+      <c r="I45" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J45" s="15" t="s">
+      <c r="J45" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="K45" s="15" t="s">
+      <c r="K45" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="L45" s="42" t="s">
+      <c r="L45" s="40" t="s">
         <v>319</v>
       </c>
-      <c r="M45" s="42" t="s">
+      <c r="M45" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="N45" s="42" t="s">
+      <c r="N45" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="O45" s="42" t="s">
+      <c r="O45" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="P45" s="42" t="s">
+      <c r="P45" s="40" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="B46" s="17">
+      <c r="B46" s="16">
         <v>4</v>
       </c>
-      <c r="C46" s="18">
+      <c r="C46" s="17">
         <v>45585</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D46" s="18" t="s">
         <v>321</v>
       </c>
-      <c r="E46" s="24">
+      <c r="E46" s="23">
         <v>115</v>
       </c>
-      <c r="F46" s="15" t="s">
+      <c r="F46" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="G46" s="15" t="s">
+      <c r="G46" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="H46" s="15" t="s">
+      <c r="H46" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I46" s="15" t="s">
+      <c r="I46" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J46" s="15" t="s">
+      <c r="J46" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="K46" s="15" t="s">
+      <c r="K46" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="L46" s="42" t="s">
+      <c r="L46" s="40" t="s">
         <v>323</v>
       </c>
-      <c r="M46" s="42" t="s">
+      <c r="M46" s="40" t="s">
         <v>310</v>
       </c>
-      <c r="N46" s="42" t="s">
+      <c r="N46" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="O46" s="42" t="s">
+      <c r="O46" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="P46" s="42" t="s">
+      <c r="P46" s="40" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="66" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="B47" s="17">
+      <c r="B47" s="16">
         <v>4</v>
       </c>
-      <c r="C47" s="18">
+      <c r="C47" s="17">
         <v>45587</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D47" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="E47" s="24">
+      <c r="E47" s="23">
         <v>81</v>
       </c>
-      <c r="F47" s="15" t="s">
+      <c r="F47" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="G47" s="15" t="s">
+      <c r="G47" s="14" t="s">
         <v>327</v>
       </c>
       <c r="H47" t="s">
@@ -5464,265 +5465,265 @@
       <c r="K47" t="s">
         <v>122</v>
       </c>
-      <c r="L47" s="42" t="s">
+      <c r="L47" s="40" t="s">
         <v>329</v>
       </c>
-      <c r="M47" s="42" t="s">
+      <c r="M47" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="N47" s="42" t="s">
+      <c r="N47" s="40" t="s">
         <v>330</v>
       </c>
-      <c r="O47" s="42" t="s">
+      <c r="O47" s="40" t="s">
         <v>331</v>
       </c>
-      <c r="P47" s="40" t="s">
+      <c r="P47" s="38" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="B48" s="17">
+      <c r="B48" s="16">
         <v>3</v>
       </c>
-      <c r="C48" s="18">
+      <c r="C48" s="17">
         <v>45591</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="D48" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="E48" s="24">
+      <c r="E48" s="23">
         <v>145</v>
       </c>
-      <c r="F48" s="15" t="s">
+      <c r="F48" s="14" t="s">
         <v>334</v>
       </c>
       <c r="G48" t="s">
         <v>335</v>
       </c>
-      <c r="H48" s="15" t="s">
+      <c r="H48" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I48" s="15" t="s">
+      <c r="I48" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J48" s="15" t="s">
+      <c r="J48" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="K48" s="15" t="s">
+      <c r="K48" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="L48" s="42" t="s">
+      <c r="L48" s="40" t="s">
         <v>336</v>
       </c>
-      <c r="M48" s="42" t="s">
+      <c r="M48" s="40" t="s">
         <v>337</v>
       </c>
-      <c r="N48" s="42" t="s">
+      <c r="N48" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="O48" s="42" t="s">
+      <c r="O48" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="P48" s="42" t="s">
+      <c r="P48" s="40" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="B49" s="20">
+      <c r="B49" s="19">
         <v>4</v>
       </c>
-      <c r="C49" s="21">
+      <c r="C49" s="20">
         <v>45589</v>
       </c>
-      <c r="D49" s="23" t="s">
+      <c r="D49" s="22" t="s">
         <v>339</v>
       </c>
-      <c r="E49" s="24">
+      <c r="E49" s="23">
         <v>58</v>
       </c>
-      <c r="F49" s="14" t="s">
+      <c r="F49" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="G49" s="14" t="s">
+      <c r="G49" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="H49" s="15" t="s">
+      <c r="H49" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I49" s="15" t="s">
+      <c r="I49" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J49" s="15" t="s">
+      <c r="J49" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="K49" s="15" t="s">
+      <c r="K49" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="L49" s="41" t="s">
+      <c r="L49" s="39" t="s">
         <v>341</v>
       </c>
-      <c r="M49" s="41" t="s">
+      <c r="M49" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="N49" s="41" t="s">
+      <c r="N49" s="39" t="s">
         <v>342</v>
       </c>
-      <c r="O49" s="41" t="s">
+      <c r="O49" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="P49" s="41" t="s">
+      <c r="P49" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="B50" s="17">
+      <c r="B50" s="16">
         <v>2</v>
       </c>
-      <c r="C50" s="18">
+      <c r="C50" s="17">
         <v>45589</v>
       </c>
-      <c r="D50" s="19" t="s">
+      <c r="D50" s="18" t="s">
         <v>344</v>
       </c>
-      <c r="E50" s="24">
+      <c r="E50" s="23">
         <v>55</v>
       </c>
-      <c r="F50" s="15" t="s">
+      <c r="F50" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="G50" s="15" t="s">
+      <c r="G50" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="H50" s="15" t="s">
+      <c r="H50" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I50" s="15" t="s">
+      <c r="I50" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="J50" s="15" t="s">
+      <c r="J50" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="K50" s="15" t="s">
+      <c r="K50" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="L50" s="42" t="s">
+      <c r="L50" s="40" t="s">
         <v>329</v>
       </c>
-      <c r="M50" s="42" t="s">
+      <c r="M50" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="N50" s="42" t="s">
+      <c r="N50" s="40" t="s">
         <v>330</v>
       </c>
-      <c r="O50" s="42" t="s">
+      <c r="O50" s="40" t="s">
         <v>331</v>
       </c>
-      <c r="P50" s="40"/>
+      <c r="P50" s="38"/>
     </row>
     <row r="51" spans="1:16" ht="33" x14ac:dyDescent="0.25">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="B51" s="17">
+      <c r="B51" s="16">
         <v>3</v>
       </c>
-      <c r="C51" s="18">
+      <c r="C51" s="17">
         <v>45588</v>
       </c>
-      <c r="D51" s="19" t="s">
+      <c r="D51" s="18" t="s">
         <v>347</v>
       </c>
-      <c r="E51" s="24">
+      <c r="E51" s="23">
         <v>37</v>
       </c>
-      <c r="F51" s="15" t="s">
+      <c r="F51" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="G51" s="15" t="s">
+      <c r="G51" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="H51" s="15" t="s">
+      <c r="H51" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I51" s="15" t="s">
+      <c r="I51" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J51" s="15" t="s">
+      <c r="J51" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="K51" s="15" t="s">
+      <c r="K51" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="L51" s="40" t="s">
+      <c r="L51" s="38" t="s">
         <v>349</v>
       </c>
-      <c r="M51" s="40" t="s">
+      <c r="M51" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="N51" s="40" t="s">
+      <c r="N51" s="38" t="s">
         <v>350</v>
       </c>
-      <c r="O51" s="40" t="s">
+      <c r="O51" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="P51" s="40"/>
+      <c r="P51" s="38"/>
     </row>
     <row r="52" spans="1:16" ht="33" x14ac:dyDescent="0.25">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="B52" s="17">
+      <c r="B52" s="16">
         <v>3</v>
       </c>
-      <c r="C52" s="18">
+      <c r="C52" s="17">
         <v>45591</v>
       </c>
-      <c r="D52" s="19" t="s">
+      <c r="D52" s="18" t="s">
         <v>352</v>
       </c>
-      <c r="E52" s="24">
+      <c r="E52" s="23">
         <v>21</v>
       </c>
-      <c r="F52" s="15" t="s">
+      <c r="F52" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="G52" s="15" t="s">
+      <c r="G52" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="H52" s="15" t="s">
+      <c r="H52" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I52" s="15" t="s">
+      <c r="I52" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J52" s="15" t="s">
+      <c r="J52" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="K52" s="15" t="s">
+      <c r="K52" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="L52" s="40" t="s">
+      <c r="L52" s="38" t="s">
         <v>349</v>
       </c>
-      <c r="M52" s="40" t="s">
+      <c r="M52" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="N52" s="40" t="s">
+      <c r="N52" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="O52" s="40" t="s">
+      <c r="O52" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="P52" s="40"/>
+      <c r="P52" s="38"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:P36" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}"/>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E2E22B-08D7-43FD-BA2F-5BD38E1C3BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729F046B-6593-44A8-9C7D-76DAB3A00454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
   <sheets>
-    <sheet name="공식몰날짜재입력필요" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">공식몰날짜재입력필요!$A$1:$P$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3130,8 +3130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729F046B-6593-44A8-9C7D-76DAB3A00454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FEAD3B0-0657-49ED-AD85-BA0B8C7052EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="350">
   <si>
     <t>아이디</t>
   </si>
@@ -1797,9 +1797,6 @@
     <t>chlt*****</t>
   </si>
   <si>
-    <t>2024-10-16</t>
-  </si>
-  <si>
     <t>반품비 품목당 4만원도 문제고 제품명에는 5단이라 명시하고 옵션에서 2단으로 되어 있는 1500X500 의 경우 수정을 하셔야 할듯요. 2단으로는 선반의 역할을 할 수 없음에도 그렇게 판매 하는것도 의아하고 따로 선반 3개를 추가 구매해야 5단 구성 가능합니다. 그러면 금액이 후덜덜 합니다. 제가 당근에서 알아본 가격보다 울며 겨자먹기로 2배는 비싸게 구성했네요. 그렇다고 몇년전에 구입한 제품보다 합판 내구성이 좋아 보이지도 않습니다. 아무튼 구매 하실때 신중 하시길 바랍니다. 눈탱이 제대로 맞았네요. 반품비 때문에 어쩔수 없이 선반 6단까지 추가 주문해서 2세트 50만원 가까이 나오네요. ㅋ</t>
   </si>
   <si>
@@ -1815,9 +1812,6 @@
     <t>sh****</t>
   </si>
   <si>
-    <t>2024-10-18</t>
-  </si>
-  <si>
     <t>가로x깊이(mm): 1000x600 / 높이(mm): 900 / (하단오픈형 2.5단): 2.5단</t>
   </si>
   <si>
@@ -1830,9 +1824,6 @@
     <t>https://speedrack.co.kr/product/detailSimulator.html?product_no=99</t>
   </si>
   <si>
-    <t>2024-10-14</t>
-  </si>
-  <si>
     <t>홈던트하우스 9T 선반추가</t>
   </si>
   <si>
@@ -1840,9 +1831,6 @@
   </si>
   <si>
     <t>lb****</t>
-  </si>
-  <si>
-    <t>2024-10-15</t>
   </si>
   <si>
     <t>합판종류: 12mm 양면코팅합판 / 가로x깊이(mm): 700x700 / 높이x단수: 1800x3단</t>
@@ -3130,8 +3118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4941,20 +4929,20 @@
       <c r="B37" s="46">
         <v>1</v>
       </c>
-      <c r="C37" s="56" t="s">
+      <c r="C37" s="56">
+        <v>45581</v>
+      </c>
+      <c r="D37" s="47" t="s">
         <v>260</v>
-      </c>
-      <c r="D37" s="47" t="s">
-        <v>261</v>
       </c>
       <c r="E37" s="46">
         <v>335</v>
       </c>
       <c r="F37" s="46" t="s">
+        <v>261</v>
+      </c>
+      <c r="G37" s="46" t="s">
         <v>262</v>
-      </c>
-      <c r="G37" s="46" t="s">
-        <v>263</v>
       </c>
       <c r="H37" s="46" t="s">
         <v>33</v>
@@ -4963,22 +4951,22 @@
         <v>23</v>
       </c>
       <c r="J37" s="46" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K37" s="46" t="s">
         <v>35</v>
       </c>
       <c r="L37" s="48" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="M37" s="49" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="N37" s="46" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="O37" s="49" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P37" s="33" t="s">
         <v>62</v>
@@ -4986,25 +4974,25 @@
     </row>
     <row r="38" spans="1:16" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A38" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B38" s="26">
         <v>1</v>
       </c>
-      <c r="C38" s="55" t="s">
-        <v>266</v>
+      <c r="C38" s="55">
+        <v>45583</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E38" s="26">
         <v>194</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G38" s="26" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H38" s="26" t="s">
         <v>22</v>
@@ -5013,22 +5001,22 @@
         <v>23</v>
       </c>
       <c r="J38" s="26" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K38" s="26" t="s">
         <v>25</v>
       </c>
       <c r="L38" s="44" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M38" s="43" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="N38" s="26" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="O38" s="18" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="P38" s="18" t="s">
         <v>62</v>
@@ -5041,20 +5029,20 @@
       <c r="B39" s="26">
         <v>3</v>
       </c>
-      <c r="C39" s="55" t="s">
-        <v>266</v>
+      <c r="C39" s="55">
+        <v>45583</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E39" s="26">
         <v>189</v>
       </c>
       <c r="F39" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G39" s="26" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H39" s="26" t="s">
         <v>33</v>
@@ -5069,16 +5057,16 @@
         <v>35</v>
       </c>
       <c r="L39" s="43" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M39" s="43" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="N39" s="44" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="O39" s="44" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="P39" s="44" t="s">
         <v>62</v>
@@ -5095,16 +5083,16 @@
         <v>45579</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E40" s="26">
         <v>117</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G40" s="26" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H40" s="26" t="s">
         <v>22</v>
@@ -5119,16 +5107,16 @@
         <v>50</v>
       </c>
       <c r="L40" s="43" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="M40" s="44" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="N40" s="44" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="O40" s="44" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="P40" s="44" t="s">
         <v>62</v>
@@ -5136,25 +5124,25 @@
     </row>
     <row r="41" spans="1:16" ht="62.25" x14ac:dyDescent="0.3">
       <c r="A41" s="26" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B41" s="26">
         <v>3</v>
       </c>
-      <c r="C41" s="55" t="s">
-        <v>275</v>
+      <c r="C41" s="55">
+        <v>45580</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E41" s="26">
         <v>95</v>
       </c>
       <c r="F41" s="26" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G41" s="26" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H41" s="26" t="s">
         <v>33</v>
@@ -5163,45 +5151,45 @@
         <v>23</v>
       </c>
       <c r="J41" s="26" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="K41" s="26" t="s">
         <v>35</v>
       </c>
       <c r="L41" s="44" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="M41" s="44" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="N41" s="44" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="O41" s="44" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="66" x14ac:dyDescent="0.3">
       <c r="A42" s="26" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B42" s="26">
         <v>3</v>
       </c>
-      <c r="C42" s="55" t="s">
-        <v>271</v>
+      <c r="C42" s="55">
+        <v>45579</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E42" s="26">
         <v>58</v>
       </c>
       <c r="F42" s="26" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G42" s="26" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H42" s="26" t="s">
         <v>33</v>
@@ -5216,16 +5204,16 @@
         <v>35</v>
       </c>
       <c r="L42" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="M42" s="44" t="s">
+        <v>288</v>
+      </c>
+      <c r="N42" s="44" t="s">
+        <v>296</v>
+      </c>
+      <c r="O42" s="44" t="s">
         <v>299</v>
-      </c>
-      <c r="M42" s="44" t="s">
-        <v>292</v>
-      </c>
-      <c r="N42" s="44" t="s">
-        <v>300</v>
-      </c>
-      <c r="O42" s="44" t="s">
-        <v>303</v>
       </c>
       <c r="P42" s="44" t="s">
         <v>62</v>
@@ -5233,7 +5221,7 @@
     </row>
     <row r="43" spans="1:16" s="33" customFormat="1" ht="64.5" x14ac:dyDescent="0.3">
       <c r="A43" s="50" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B43" s="51">
         <v>3</v>
@@ -5242,16 +5230,16 @@
         <v>45588</v>
       </c>
       <c r="D43" s="47" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E43" s="53">
         <v>239</v>
       </c>
       <c r="F43" s="50" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G43" s="33" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H43" s="33" t="s">
         <v>22</v>
@@ -5260,19 +5248,19 @@
         <v>23</v>
       </c>
       <c r="J43" s="33" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K43" s="33" t="s">
         <v>35</v>
       </c>
       <c r="L43" s="54" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="M43" s="54" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="N43" s="54" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="O43" s="54" t="s">
         <v>30</v>
@@ -5283,25 +5271,25 @@
     </row>
     <row r="44" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B44" s="16">
         <v>4</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C44" s="20">
         <v>45586</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E44" s="23">
         <v>240</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G44" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H44" s="14" t="s">
         <v>22</v>
@@ -5316,10 +5304,10 @@
         <v>168</v>
       </c>
       <c r="L44" s="39" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="M44" s="40" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="N44" s="40" t="s">
         <v>93</v>
@@ -5333,22 +5321,22 @@
     </row>
     <row r="45" spans="1:16" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B45" s="16">
         <v>3</v>
       </c>
-      <c r="C45" s="17">
+      <c r="C45" s="20">
         <v>45590</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E45" s="23">
         <v>155</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G45" s="14" t="s">
         <v>131</v>
@@ -5366,7 +5354,7 @@
         <v>35</v>
       </c>
       <c r="L45" s="40" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M45" s="40" t="s">
         <v>174</v>
@@ -5383,22 +5371,22 @@
     </row>
     <row r="46" spans="1:16" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B46" s="16">
         <v>4</v>
       </c>
-      <c r="C46" s="17">
+      <c r="C46" s="20">
         <v>45585</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E46" s="23">
         <v>115</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G46" s="14" t="s">
         <v>205</v>
@@ -5416,10 +5404,10 @@
         <v>35</v>
       </c>
       <c r="L46" s="40" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="M46" s="40" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="N46" s="40" t="s">
         <v>93</v>
@@ -5433,25 +5421,25 @@
     </row>
     <row r="47" spans="1:16" ht="66" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B47" s="16">
         <v>4</v>
       </c>
-      <c r="C47" s="17">
+      <c r="C47" s="20">
         <v>45587</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E47" s="23">
         <v>81</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H47" t="s">
         <v>22</v>
@@ -5460,22 +5448,22 @@
         <v>23</v>
       </c>
       <c r="J47" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="K47" t="s">
         <v>122</v>
       </c>
       <c r="L47" s="40" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="M47" s="40" t="s">
         <v>174</v>
       </c>
       <c r="N47" s="40" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="O47" s="40" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="P47" s="38" t="s">
         <v>62</v>
@@ -5483,25 +5471,25 @@
     </row>
     <row r="48" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B48" s="16">
         <v>3</v>
       </c>
-      <c r="C48" s="17">
+      <c r="C48" s="20">
         <v>45591</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E48" s="23">
         <v>145</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G48" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H48" s="14" t="s">
         <v>33</v>
@@ -5516,10 +5504,10 @@
         <v>35</v>
       </c>
       <c r="L48" s="40" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M48" s="40" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="N48" s="40" t="s">
         <v>19</v>
@@ -5533,7 +5521,7 @@
     </row>
     <row r="49" spans="1:16" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B49" s="19">
         <v>4</v>
@@ -5542,13 +5530,13 @@
         <v>45589</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E49" s="23">
         <v>58</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G49" s="13" t="s">
         <v>131</v>
@@ -5566,13 +5554,13 @@
         <v>35</v>
       </c>
       <c r="L49" s="39" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M49" s="39" t="s">
         <v>174</v>
       </c>
       <c r="N49" s="39" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="O49" s="39" t="s">
         <v>60</v>
@@ -5583,22 +5571,22 @@
     </row>
     <row r="50" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B50" s="16">
         <v>2</v>
       </c>
-      <c r="C50" s="17">
+      <c r="C50" s="20">
         <v>45589</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E50" s="23">
         <v>55</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G50" s="14" t="s">
         <v>142</v>
@@ -5616,37 +5604,37 @@
         <v>122</v>
       </c>
       <c r="L50" s="40" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="M50" s="40" t="s">
         <v>174</v>
       </c>
       <c r="N50" s="40" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="O50" s="40" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="P50" s="38"/>
     </row>
     <row r="51" spans="1:16" ht="33" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B51" s="16">
         <v>3</v>
       </c>
-      <c r="C51" s="17">
+      <c r="C51" s="20">
         <v>45588</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E51" s="23">
         <v>37</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G51" s="14" t="s">
         <v>205</v>
@@ -5664,13 +5652,13 @@
         <v>35</v>
       </c>
       <c r="L51" s="38" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="M51" s="38" t="s">
         <v>29</v>
       </c>
       <c r="N51" s="38" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="O51" s="38" t="s">
         <v>64</v>
@@ -5679,22 +5667,22 @@
     </row>
     <row r="52" spans="1:16" ht="33" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B52" s="16">
         <v>3</v>
       </c>
-      <c r="C52" s="17">
+      <c r="C52" s="20">
         <v>45591</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E52" s="23">
         <v>21</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G52" s="14" t="s">
         <v>105</v>
@@ -5712,7 +5700,7 @@
         <v>35</v>
       </c>
       <c r="L52" s="38" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="M52" s="38" t="s">
         <v>29</v>
@@ -5726,7 +5714,7 @@
       <c r="P52" s="38"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P36" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}"/>
+  <autoFilter ref="A1:P52" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FEAD3B0-0657-49ED-AD85-BA0B8C7052EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B5C873-F0FB-4039-9D3C-532903896178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="391">
   <si>
     <t>아이디</t>
   </si>
@@ -151,10 +151,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>아웃바운드를 2차례 시도 했으나 부재로 추후 재시도 예정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>보강대</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2413,6 +2409,567 @@
   </si>
   <si>
     <t>가로(폭): 800 / 세로(깊이): 400 / 높이(mm): 900(2단)</t>
+  </si>
+  <si>
+    <t>pret********</t>
+  </si>
+  <si>
+    <t>가로(폭)x세로(깊이)(mm): 1100x300 / 높이(mm): 2100 / 단수(스피드랙): 4단</t>
+  </si>
+  <si>
+    <t>zu****</t>
+  </si>
+  <si>
+    <t>가로(설치시 여유공간확보): 700 / 깊이(mm): 300 / 높이(mm): 750(기본2단)</t>
+  </si>
+  <si>
+    <t>https://brand.naver.com/speedrack/products/9510786203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XU ******** </t>
+  </si>
+  <si>
+    <t>2단, 1개, 1000*600*2100</t>
+  </si>
+  <si>
+    <t>https://www.coupang.com/vp/products/24091151?itemId=93808722&amp;isAddedCart=</t>
+  </si>
+  <si>
+    <t>초코송송12</t>
+  </si>
+  <si>
+    <t>철제 선반 경량랙 펜트리 베란다 선반장 무볼트 조립식 앵글 전사이즈 모음
+가로x깊이(설치시 여유공간확보): 가로600x깊이500 / 높이(프레임색상): 900 2단 (백색)</t>
+  </si>
+  <si>
+    <t>https://ohou.se/productions/436103/selling</t>
+  </si>
+  <si>
+    <t>아웃바운드 결과, 교환은 원치 않으셔서 사과 후 커피 쿠폰 전송</t>
+  </si>
+  <si>
+    <t>정옥191</t>
+  </si>
+  <si>
+    <t>철제 선반 경량랙 펜트리 베란다 선반장 무볼트 조립식 앵글 전사이즈 모음
+가로x깊이(설치시 여유공간확보): 가로600x깊이500 / 높이(프레임색상): 1650 2단 (백색)</t>
+  </si>
+  <si>
+    <t>10.28 합판 교환 처리 완료</t>
+  </si>
+  <si>
+    <t>turt********</t>
+  </si>
+  <si>
+    <t>제품유형: 스피드랙 다용도 후크 / 사이즈: FREE / 색상: 반투명</t>
+  </si>
+  <si>
+    <t>https://brand.naver.com/speedrack/products/416074213</t>
+  </si>
+  <si>
+    <t>스피드랙 온라인지점(추가3)</t>
+  </si>
+  <si>
+    <t>선반 추가부품</t>
+  </si>
+  <si>
+    <t>stal*****</t>
+  </si>
+  <si>
+    <t>식당선반으로 구매했어요. 선반하나는 모서리가 부서져서 배송왔네요....;;</t>
+  </si>
+  <si>
+    <t>가로x깊이(설치시 여유공간확보): 가로1500x깊이600 (보강대포함) / 높이: 1500(3단)</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/estorehouse/products/5095214754</t>
+  </si>
+  <si>
+    <r>
+      <t>커튼이랑 기타부속품이 너무 별로에요. 사이드 커튼의 경우 옆에 클립고정형태?인데</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 클립 너무 잘 빠져요. 정면의 경우 링커튼으로 바꾸고 커튼걸이도 끼우는 방식이 아니라 거치 방식이 되면 더 활용도가 좋을 것 같은데 사용에 너무 제한적이에요. 색상도 칙칙한 회색뿐..</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🥹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 커튼이 자주 여닫기에는 부적합했어요.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보강대의 경우도 끼울 때 조금만 삐끗하면 잘 빠지구요.(허술함) 특히 메쉬보드.. 스피드랙 단 구멍이랑 간격도 안 맞음.. 까*마루처럼 전용선반 등의 자체 구조물이 생기면 좋겠어요. 그 부분이 너무 부족해요. 후크도 한 종류 뿐이고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🤣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> -&gt; 과거 메쉬보드 브라켓 조립설명서가 출고되고 있는 점 확인 물류팀측으로 설명서 교체 요청, 영업팀에게 해당 고객에게 조립동영상 첨부할 수 있도록 요청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">돈 아까워 어찌저찌 쓰고는 있는데 J형 후크에 로고도 그렇고.. 스피드랙 악세사리 다시는 안 살 것 같아요.
+전체적으로 악세사리들은 사이즈나 설치 및 이용 시 편함보다 불편함이 더 크네요. 정말 딱 랙만 튼튼한듯요....
+개인적인 생각으론 차라리 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>단 얹는 지지대에도 기둥처럼 구멍이 있는 버전을 팔면 좋겠어요. 그럼 굳이 C후크 사용안하고 J후크 끼워서도 쓸 수 있고 커튼걸이도 가운데 하나 더 설치해서 지지력도 높일 수 있을 것 같아요.. 보강대도 ㄷ기둥식으로 아예 지지대칸에 현재 스피드랙들끼리 끼워지는 것처럼 끼울 수 있으면 들뜸도 없을 것 같고, 행거같은 악세사리들도 활용폭이 더 늘지 않을까 싶네요.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+물론 비용적인 측면때문에 제작을 안하시는 걸 수도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🤣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 예쁘게 실용적이게 쓰고싶었는데 안되니 조금 많이 슬프네여..</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🥲</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>메쉬보드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PC를 재조립하면서 책상이 좁아 바닥에 두던 걸 위로 올리려고, PC 테이블 겸 부품 보관을 위해 구매 했습니다. 
+9T 상판은 잘 휘어서 12T로 구매 했고, 프레임 조립성 좋고, 프레임과 상판의 결합도도 좋고, 제품은 매우 만족합니다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>다만, 검수를 제대로 안하고 보내서 상판 3개중 하나가 뭔가에 눌리듯 오염이 된게 왔네요.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Pretendard"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+물티슈로도 안지워지네요.
+교환하기 귀찮아서, 지우개로 70%정도 지우고 걍 사용합니다.
+발송 전 꼼꼼한 검수 바랍니다. -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>아웃바운드시 교환 거부로 사과 후 커피 쿠폰 전송</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>아웃바운드 결과, 교환 거부로 합판 오염에 대한 사과 후 커피 쿠폰 전송</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차라리 돈 버받으시고 단단하게 만들던거 아니면 팔지마세요! 이것저것따로구매하게하면 진짜 맞추다가도 짜증날정도로 설명서도 진짜 알아못벌거같아요! 단단하지더안코 따로 바침대세개나구매했는데 휘청거려요! 무거운건 무서워서 못얼려놓켓네요. 반품도안되고 진짜 안좋아요! -&gt; 트렌드코리아 측으로 고객 조립 완성 사진을 받아 볼 수 있는지 영업팀 요청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+내구성 만족스럽지 않아요
+용량/수납 생각보다 부족해요</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객응대</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">조립할땐 문제가좀 있었지만 잘쓰고있어요
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>아쉬운건 역시 보강대가 한두번 더 떨어지더라구요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Pretendard"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+혼합형보단 완전하게다 같은 방향으로 조립하는게 훨씬 안전할것같아요</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>박스 양쪽이 다 터져서왔네요 열어보니 부속품들도 여기저기 나뒹굴고있었고요 배송 최악입니다 반품 귀찮아서 대충 씁니다
+-&gt; 아웃바운드를 통해 사과 후 교환은 원치 않으셔서 커피 쿠폰 전송</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>포장 상태</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">추가선반 상판이
+금간 상테로 배송됬는데
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">반품보내고
+교환하기 귀찬아서
+뒤집어사용합니다
+안전보호캡을 사용해야할뜻요 -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>10.28 합판 교환 처리 완료</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5개 주문했는데 4개난 왔네요 ㅠㅠ
+다음엔 좀더 신경 써주시길 바랍니다 ~! -&gt; 후크 1개 누락으로 금일 재출고 완료</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>후크 1개 누락으로, 11.04 재출고 완료</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF181818"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>합판</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF181818"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF181818"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사이즈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF181818"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF181818"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF181818"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF181818"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수량</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF181818"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF181818"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF181818"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF181818"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연락</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF181818"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF181818"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>드렸으나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF181818"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF181818"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부재, 추후 확인 후 조치 예정</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아웃바운드하여 상황 파악 및 사과 후 디저트 쿠폰 발송 완료</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>메쉬보드 브라켓 구형 조립설명서가 출고되고 있는 점 확인하여 물류팀측으로 설명서 교체 요청, 영업팀에게 해당 고객에게 조립동영상 첨부할 수 있도록 요청하여 고객에게 영상 전송 및 설명 완료</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>영업팀 트렌드코리아 측 확인 결과, 사이드안전바 브랜드 오주문에 의한 불만 발생으로 확인. 해당 내용 안내 완료</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2423,7 +2980,7 @@
     <numFmt numFmtId="176" formatCode="_-[$₩-412]* #,##0_-;\-[$₩-412]* #,##0_-;_-[$₩-412]* \-??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2531,6 +3088,45 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF181818"/>
+      <name val="Segoe UI"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF181818"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF181818"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2621,7 +3217,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2756,7 +3352,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2778,6 +3373,21 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3116,10 +3726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
-  <dimension ref="A1:P52"/>
+  <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3128,7 +3738,7 @@
     <col min="4" max="4" width="88" customWidth="1"/>
     <col min="9" max="9" width="28.6640625" customWidth="1"/>
     <col min="10" max="10" width="29" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" customWidth="1"/>
+    <col min="12" max="12" width="27" style="23" customWidth="1"/>
     <col min="13" max="14" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3199,40 +3809,42 @@
         <v>525</v>
       </c>
       <c r="F2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="I2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="K2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="14" t="s">
-        <v>25</v>
-      </c>
       <c r="L2" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="M2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="24" t="s">
-        <v>19</v>
-      </c>
       <c r="N2" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O2" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="24"/>
+        <v>45</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="3" spans="1:16" s="15" customFormat="1" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="16">
         <v>1</v>
@@ -3241,48 +3853,48 @@
         <v>45550</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="12">
         <v>151</v>
       </c>
       <c r="F3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="H3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="I3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="13" t="s">
+      <c r="K3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="13" t="s">
-        <v>35</v>
-      </c>
       <c r="L3" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="N3" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" s="18" t="s">
-        <v>30</v>
-      </c>
       <c r="P3" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="19">
         <v>3</v>
@@ -3291,48 +3903,48 @@
         <v>45555</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="12">
         <v>109</v>
       </c>
       <c r="F4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="H4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>41</v>
-      </c>
       <c r="K4" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L4" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M4" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N4" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P4" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="16">
         <v>3</v>
@@ -3341,46 +3953,46 @@
         <v>45552</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="12">
         <v>60</v>
       </c>
       <c r="F5" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="H5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="14" t="s">
+      <c r="K5" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="14" t="s">
-        <v>50</v>
-      </c>
       <c r="L5" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="24" t="s">
+      <c r="O5" s="18" t="s">
         <v>45</v>
-      </c>
-      <c r="O5" s="18" t="s">
-        <v>46</v>
       </c>
       <c r="P5" s="18"/>
     </row>
     <row r="6" spans="1:16" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="19">
         <v>3</v>
@@ -3389,46 +4001,46 @@
         <v>45552</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" s="12">
         <v>45</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G6" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="14" t="s">
+      <c r="K6" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="14" t="s">
-        <v>50</v>
-      </c>
       <c r="L6" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="24" t="s">
+      <c r="O6" s="24" t="s">
         <v>45</v>
-      </c>
-      <c r="O6" s="24" t="s">
-        <v>46</v>
       </c>
       <c r="P6" s="24"/>
     </row>
     <row r="7" spans="1:16" s="15" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="16">
         <v>2</v>
@@ -3437,48 +4049,48 @@
         <v>45554</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" s="12">
         <v>22</v>
       </c>
       <c r="F7" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
         <v>57</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="14" t="s">
+      <c r="K7" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="M7" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="N7" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="O7" s="18" t="s">
-        <v>60</v>
-      </c>
       <c r="P7" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="33" customFormat="1" ht="231" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="30">
         <v>1</v>
@@ -3487,48 +4099,48 @@
         <v>45557</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8" s="32">
         <v>857</v>
       </c>
       <c r="F8" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="H8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="H8" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="29" t="s">
+      <c r="J8" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="J8" s="29" t="s">
+      <c r="K8" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="K8" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>74</v>
-      </c>
       <c r="M8" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N8" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P8" s="35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="247.5" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="16">
         <v>3</v>
@@ -3537,48 +4149,48 @@
         <v>45559</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" s="18">
         <v>702</v>
       </c>
       <c r="F9" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="H9" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" s="21" t="s">
+      <c r="M9" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="M9" s="21" t="s">
+      <c r="N9" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="N9" s="21" t="s">
-        <v>81</v>
-      </c>
       <c r="O9" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P9" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" s="16">
         <v>3</v>
@@ -3587,48 +4199,48 @@
         <v>45558</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E10" s="18">
         <v>269</v>
       </c>
       <c r="F10" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" t="s">
         <v>84</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="H10" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="14" t="s">
+      <c r="K10" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="K10" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L10" s="21" t="s">
+      <c r="M10" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="N10" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="M10" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="N10" s="21" t="s">
-        <v>88</v>
-      </c>
       <c r="O10" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P10" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="99" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B11" s="16">
         <v>2</v>
@@ -3637,48 +4249,48 @@
         <v>45563</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E11" s="18">
         <v>186</v>
       </c>
       <c r="F11" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="G11" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L11" s="21" t="s">
+      <c r="M11" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="M11" s="21" t="s">
+      <c r="N11" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="N11" s="21" t="s">
-        <v>94</v>
-      </c>
       <c r="O11" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P11" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B12" s="27">
         <v>1</v>
@@ -3687,46 +4299,46 @@
         <v>45557</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E12" s="18">
         <v>84</v>
       </c>
       <c r="F12" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="H12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="H12" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="14" t="s">
+      <c r="J12" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="K12" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="M12" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="K12" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="L12" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="M12" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="N12" s="25" t="s">
-        <v>101</v>
-      </c>
       <c r="O12" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P12" s="25"/>
     </row>
     <row r="13" spans="1:16" ht="66" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B13" s="16">
         <v>3</v>
@@ -3735,48 +4347,48 @@
         <v>45559</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E13" s="18">
         <v>87</v>
       </c>
       <c r="F13" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" t="s">
         <v>105</v>
       </c>
-      <c r="H13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="K13" t="s">
-        <v>35</v>
-      </c>
-      <c r="L13" s="21" t="s">
+      <c r="M13" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="M13" s="21" t="s">
+      <c r="N13" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="N13" s="21" t="s">
+      <c r="O13" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="O13" s="21" t="s">
-        <v>110</v>
-      </c>
       <c r="P13" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="66" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B14" s="10">
         <v>2</v>
@@ -3785,48 +4397,48 @@
         <v>45560</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E14" s="18">
         <v>55</v>
       </c>
       <c r="F14" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="G14" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" s="25" t="s">
+      <c r="M14" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="M14" s="25" t="s">
+      <c r="N14" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="N14" s="25" t="s">
-        <v>116</v>
-      </c>
       <c r="O14" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" s="25" t="s">
         <v>60</v>
-      </c>
-      <c r="P14" s="25" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="33" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B15" s="16">
         <v>1</v>
@@ -3835,48 +4447,48 @@
         <v>45560</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E15" s="18">
         <v>10</v>
       </c>
       <c r="F15" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="H15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="H15" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="13" t="s">
+      <c r="K15" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="L15" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="L15" s="21" t="s">
+      <c r="M15" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="N15" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="M15" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="N15" s="21" t="s">
-        <v>124</v>
-      </c>
       <c r="O15" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="P15" s="21" t="s">
         <v>60</v>
-      </c>
-      <c r="P15" s="21" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="33" customFormat="1" ht="99" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B16" s="30">
         <v>3</v>
@@ -3885,48 +4497,48 @@
         <v>45569</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E16" s="32">
         <v>221</v>
       </c>
       <c r="F16" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="H16" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="H16" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="I16" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="29" t="s">
+      <c r="K16" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="K16" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="L16" s="41" t="s">
-        <v>133</v>
-      </c>
       <c r="M16" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N16" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O16" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P16" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B17" s="19">
         <v>3</v>
@@ -3935,48 +4547,48 @@
         <v>45570</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E17" s="18">
         <v>136</v>
       </c>
       <c r="F17" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="G17" t="s">
         <v>136</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="H17" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="L17" s="37" t="s">
-        <v>138</v>
-      </c>
       <c r="M17" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N17" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O17" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P17" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="99" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B18" s="16">
         <v>3</v>
@@ -3985,98 +4597,98 @@
         <v>45567</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E18" s="18">
         <v>114</v>
       </c>
       <c r="F18" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="G18" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="H18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" t="s">
         <v>142</v>
       </c>
-      <c r="H18" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>143</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
+        <v>121</v>
+      </c>
+      <c r="L18" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="K18" t="s">
-        <v>122</v>
-      </c>
-      <c r="L18" s="36" t="s">
+      <c r="M18" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="M18" s="18" t="s">
-        <v>146</v>
-      </c>
       <c r="N18" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O18" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="33" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B19" s="27">
         <v>3</v>
       </c>
-      <c r="C19" s="55">
+      <c r="C19" s="54">
         <v>45566</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E19" s="18">
         <v>68</v>
       </c>
       <c r="F19" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="G19" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="G19" s="26" t="s">
+      <c r="H19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" t="s">
+        <v>98</v>
+      </c>
+      <c r="J19" t="s">
+        <v>99</v>
+      </c>
+      <c r="K19" t="s">
+        <v>49</v>
+      </c>
+      <c r="L19" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="H19" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" t="s">
-        <v>99</v>
-      </c>
-      <c r="J19" t="s">
-        <v>100</v>
-      </c>
-      <c r="K19" t="s">
-        <v>50</v>
-      </c>
-      <c r="L19" s="36" t="s">
-        <v>151</v>
-      </c>
       <c r="M19" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N19" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O19" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="P19" s="36" t="s">
         <v>60</v>
-      </c>
-      <c r="P19" s="36" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="33" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B20" s="16">
         <v>3</v>
@@ -4085,98 +4697,98 @@
         <v>45569</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E20" s="18">
         <v>90</v>
       </c>
       <c r="F20" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="G20" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="H20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" t="s">
+        <v>131</v>
+      </c>
+      <c r="K20" t="s">
+        <v>49</v>
+      </c>
+      <c r="L20" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="H20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20" t="s">
-        <v>132</v>
-      </c>
-      <c r="K20" t="s">
-        <v>50</v>
-      </c>
-      <c r="L20" s="38" t="s">
+      <c r="M20" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="M20" s="18" t="s">
+      <c r="N20" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="N20" s="18" t="s">
+      <c r="O20" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="O20" s="18" t="s">
-        <v>159</v>
-      </c>
       <c r="P20" s="38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B21" s="27">
         <v>3</v>
       </c>
-      <c r="C21" s="55">
+      <c r="C21" s="54">
         <v>45565</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E21" s="18">
         <v>54</v>
       </c>
       <c r="F21" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="G21" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="G21" s="26" t="s">
-        <v>162</v>
-      </c>
       <c r="H21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I21" t="s">
+        <v>98</v>
+      </c>
+      <c r="J21" t="s">
         <v>99</v>
       </c>
-      <c r="J21" t="s">
-        <v>100</v>
-      </c>
       <c r="K21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L21" s="39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M21" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="N21" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="N21" s="21" t="s">
-        <v>94</v>
-      </c>
       <c r="O21" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="P21" s="38" t="s">
         <v>60</v>
-      </c>
-      <c r="P21" s="38" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="66" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B22" s="16">
         <v>3</v>
@@ -4185,48 +4797,48 @@
         <v>45566</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E22" s="18">
         <v>100</v>
       </c>
       <c r="F22" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="G22" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="H22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="H22" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="14" t="s">
+      <c r="K22" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="K22" s="14" t="s">
-        <v>168</v>
-      </c>
       <c r="L22" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M22" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N22" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O22" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P22" s="38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B23" s="16">
         <v>2</v>
@@ -4235,48 +4847,48 @@
         <v>45569</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E23" s="18">
         <v>59</v>
       </c>
       <c r="F23" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="G23" t="s">
         <v>171</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L23" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="H23" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="K23" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L23" s="40" t="s">
+      <c r="M23" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="M23" s="21" t="s">
-        <v>174</v>
-      </c>
       <c r="N23" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O23" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P23" s="38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B24" s="10">
         <v>3</v>
@@ -4285,48 +4897,48 @@
         <v>45570</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E24" s="18">
         <v>63</v>
       </c>
       <c r="F24" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="G24" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="G24" s="13" t="s">
-        <v>178</v>
-      </c>
       <c r="H24" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L24" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M24" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N24" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O24" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P24" s="38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="33" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B25" s="16">
         <v>3</v>
@@ -4335,48 +4947,48 @@
         <v>45564</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E25" s="18">
         <v>57</v>
       </c>
       <c r="F25" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="G25" t="s">
         <v>181</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="H25" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="K25" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L25" s="38" t="s">
+      <c r="M25" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="N25" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="M25" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="N25" s="18" t="s">
-        <v>184</v>
-      </c>
       <c r="O25" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="P25" s="38" t="s">
         <v>60</v>
-      </c>
-      <c r="P25" s="38" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B26" s="10">
         <v>3</v>
@@ -4385,48 +4997,48 @@
         <v>45569</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E26" s="18">
         <v>46</v>
       </c>
       <c r="F26" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="G26" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="H26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" t="s">
         <v>188</v>
       </c>
-      <c r="H26" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" t="s">
-        <v>23</v>
-      </c>
-      <c r="J26" t="s">
-        <v>189</v>
-      </c>
       <c r="K26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L26" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M26" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="N26" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="N26" s="21" t="s">
-        <v>94</v>
-      </c>
       <c r="O26" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P26" s="38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B27" s="30">
         <v>1</v>
@@ -4435,48 +5047,48 @@
         <v>45567</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E27" s="32">
         <v>36</v>
       </c>
       <c r="F27" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G27" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="G27" s="29" t="s">
+      <c r="H27" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="H27" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="I27" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="J27" s="29" t="s">
-        <v>194</v>
-      </c>
       <c r="K27" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L27" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="M27" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="M27" s="35" t="s">
+      <c r="N27" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="N27" s="35" t="s">
-        <v>201</v>
-      </c>
       <c r="O27" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P27" s="35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="132" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B28" s="16">
         <v>3</v>
@@ -4485,48 +5097,48 @@
         <v>45572</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E28" s="18">
         <v>356</v>
       </c>
       <c r="F28" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="G28" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="G28" s="14" t="s">
+      <c r="H28" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L28" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="H28" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J28" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="K28" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L28" s="18" t="s">
+      <c r="M28" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N28" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="M28" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="N28" s="18" t="s">
-        <v>207</v>
-      </c>
       <c r="O28" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P28" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="132" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B29" s="16">
         <v>1</v>
@@ -4535,48 +5147,48 @@
         <v>45577</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E29" s="18">
         <v>314</v>
       </c>
       <c r="F29" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="H29" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" t="s">
+        <v>166</v>
+      </c>
+      <c r="K29" t="s">
+        <v>167</v>
+      </c>
+      <c r="L29" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="G29" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="H29" t="s">
-        <v>22</v>
-      </c>
-      <c r="I29" t="s">
-        <v>23</v>
-      </c>
-      <c r="J29" t="s">
-        <v>167</v>
-      </c>
-      <c r="K29" t="s">
-        <v>168</v>
-      </c>
-      <c r="L29" s="18" t="s">
+      <c r="M29" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="M29" s="18" t="s">
+      <c r="N29" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="N29" s="18" t="s">
-        <v>213</v>
-      </c>
       <c r="O29" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P29" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B30" s="16">
         <v>3</v>
@@ -4585,96 +5197,96 @@
         <v>45575</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E30" s="18">
         <v>222</v>
       </c>
       <c r="F30" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="G30" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="G30" s="14" t="s">
+      <c r="H30" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="H30" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="I30" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J30" s="14" t="s">
+      <c r="K30" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L30" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="K30" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L30" s="18" t="s">
+      <c r="M30" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="N30" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="M30" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="N30" s="18" t="s">
-        <v>220</v>
-      </c>
       <c r="O30" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P30" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="66" x14ac:dyDescent="0.3">
       <c r="A31" s="26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B31" s="27">
         <v>2</v>
       </c>
-      <c r="C31" s="55">
+      <c r="C31" s="54">
         <v>45572</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E31" s="18">
         <v>239</v>
       </c>
       <c r="F31" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L31" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="G31" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="H31" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I31" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="J31" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="K31" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="L31" s="11" t="s">
+      <c r="M31" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="M31" s="11" t="s">
+      <c r="N31" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="N31" s="11" t="s">
-        <v>226</v>
-      </c>
       <c r="O31" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P31" s="11"/>
     </row>
     <row r="32" spans="1:16" ht="148.5" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B32" s="16">
         <v>1</v>
@@ -4683,48 +5295,48 @@
         <v>45571</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E32" s="18">
         <v>202</v>
       </c>
       <c r="F32" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="G32" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="G32" s="14" t="s">
+      <c r="H32" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J32" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="H32" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I32" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J32" s="14" t="s">
+      <c r="K32" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L32" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="M32" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="K32" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L32" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="M32" s="18" t="s">
+      <c r="N32" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="N32" s="18" t="s">
-        <v>233</v>
-      </c>
       <c r="O32" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P32" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B33" s="16">
         <v>1</v>
@@ -4733,98 +5345,98 @@
         <v>45571</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E33" s="18">
         <v>159</v>
       </c>
       <c r="F33" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="G33" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="G33" s="14" t="s">
+      <c r="H33" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="K33" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="H33" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="I33" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="J33" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="K33" s="14" t="s">
+      <c r="L33" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="L33" s="18" t="s">
+      <c r="M33" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N33" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="M33" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="N33" s="18" t="s">
-        <v>240</v>
-      </c>
       <c r="O33" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="P33" s="18" t="s">
         <v>60</v>
-      </c>
-      <c r="P33" s="18" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="181.5" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B34" s="27">
         <v>3</v>
       </c>
-      <c r="C34" s="55">
+      <c r="C34" s="54">
         <v>45575</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E34" s="18">
         <v>126</v>
       </c>
       <c r="F34" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="G34" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="G34" s="26" t="s">
+      <c r="H34" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="J34" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="K34" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="H34" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="I34" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="J34" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="K34" s="14" t="s">
+      <c r="L34" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="L34" s="11" t="s">
-        <v>245</v>
-      </c>
       <c r="M34" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N34" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O34" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="P34" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="P34" s="11" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B35" s="16">
         <v>1</v>
@@ -4833,48 +5445,48 @@
         <v>45577</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E35" s="18">
         <v>86</v>
       </c>
       <c r="F35" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="G35" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="G35" s="14" t="s">
+      <c r="H35" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J35" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="K35" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L35" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="H35" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="I35" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J35" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="K35" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L35" s="18" t="s">
-        <v>250</v>
-      </c>
       <c r="M35" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="N35" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="N35" s="18" t="s">
-        <v>257</v>
-      </c>
       <c r="O35" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P35" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B36" s="16">
         <v>3</v>
@@ -4883,395 +5495,398 @@
         <v>45575</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E36" s="18">
         <v>97</v>
       </c>
       <c r="F36" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="G36" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="G36" s="14" t="s">
+      <c r="H36" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J36" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K36" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L36" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="H36" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I36" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J36" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="K36" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="L36" s="18" t="s">
-        <v>255</v>
-      </c>
       <c r="M36" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N36" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O36" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P36" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:16" s="33" customFormat="1" ht="75.75" x14ac:dyDescent="0.3">
       <c r="A37" s="46" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B37" s="46">
         <v>1</v>
       </c>
-      <c r="C37" s="56">
+      <c r="C37" s="55">
         <v>45581</v>
       </c>
       <c r="D37" s="47" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E37" s="46">
         <v>335</v>
       </c>
       <c r="F37" s="46" t="s">
+        <v>260</v>
+      </c>
+      <c r="G37" s="46" t="s">
         <v>261</v>
       </c>
-      <c r="G37" s="46" t="s">
+      <c r="H37" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="I37" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="J37" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="H37" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="I37" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="J37" s="46" t="s">
-        <v>263</v>
-      </c>
       <c r="K37" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="L37" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="L37" s="58" t="s">
+        <v>277</v>
+      </c>
+      <c r="M37" s="48" t="s">
         <v>278</v>
       </c>
-      <c r="M37" s="49" t="s">
+      <c r="N37" s="46" t="s">
         <v>279</v>
       </c>
-      <c r="N37" s="46" t="s">
-        <v>280</v>
-      </c>
-      <c r="O37" s="49" t="s">
-        <v>298</v>
+      <c r="O37" s="48" t="s">
+        <v>297</v>
       </c>
       <c r="P37" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A38" s="26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B38" s="26">
         <v>1</v>
       </c>
-      <c r="C38" s="55">
+      <c r="C38" s="54">
         <v>45583</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E38" s="26">
         <v>194</v>
       </c>
       <c r="F38" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="H38" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J38" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="G38" s="26" t="s">
+      <c r="K38" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="L38" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="H38" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="I38" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="J38" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="K38" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="L38" s="44" t="s">
+      <c r="M38" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="N38" s="26" t="s">
         <v>283</v>
       </c>
-      <c r="M38" s="43" t="s">
-        <v>279</v>
-      </c>
-      <c r="N38" s="26" t="s">
-        <v>284</v>
-      </c>
       <c r="O38" s="18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P38" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="75.75" x14ac:dyDescent="0.3">
       <c r="A39" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B39" s="26">
         <v>3</v>
       </c>
-      <c r="C39" s="55">
+      <c r="C39" s="54">
         <v>45583</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E39" s="26">
         <v>189</v>
       </c>
       <c r="F39" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="G39" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="G39" s="26" t="s">
-        <v>268</v>
-      </c>
       <c r="H39" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I39" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J39" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="J39" s="26" t="s">
-        <v>100</v>
-      </c>
       <c r="K39" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="L39" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="L39" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="M39" s="43" t="s">
         <v>286</v>
       </c>
-      <c r="M39" s="43" t="s">
+      <c r="N39" s="44" t="s">
         <v>287</v>
       </c>
-      <c r="N39" s="44" t="s">
-        <v>288</v>
-      </c>
       <c r="O39" s="44" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P39" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="33" x14ac:dyDescent="0.3">
       <c r="A40" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B40" s="26">
         <v>3</v>
       </c>
-      <c r="C40" s="55">
+      <c r="C40" s="54">
         <v>45579</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E40" s="26">
         <v>117</v>
       </c>
       <c r="F40" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="G40" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="G40" s="26" t="s">
-        <v>270</v>
-      </c>
       <c r="H40" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I40" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J40" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="J40" s="26" t="s">
-        <v>100</v>
-      </c>
       <c r="K40" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="L40" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="L40" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="M40" s="44" t="s">
+        <v>287</v>
+      </c>
+      <c r="N40" s="44" t="s">
         <v>290</v>
       </c>
-      <c r="M40" s="44" t="s">
-        <v>288</v>
-      </c>
-      <c r="N40" s="44" t="s">
-        <v>291</v>
-      </c>
       <c r="O40" s="44" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P40" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="62.25" x14ac:dyDescent="0.3">
       <c r="A41" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B41" s="26">
         <v>3</v>
       </c>
-      <c r="C41" s="55">
+      <c r="C41" s="54">
         <v>45580</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E41" s="26">
         <v>95</v>
       </c>
       <c r="F41" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="G41" s="26" t="s">
         <v>272</v>
       </c>
-      <c r="G41" s="26" t="s">
+      <c r="H41" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="I41" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J41" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="H41" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="I41" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="J41" s="26" t="s">
-        <v>274</v>
-      </c>
       <c r="K41" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="L41" s="44" t="s">
-        <v>293</v>
+        <v>34</v>
+      </c>
+      <c r="L41" s="25" t="s">
+        <v>292</v>
       </c>
       <c r="M41" s="44" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N41" s="44" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O41" s="44" t="s">
-        <v>298</v>
+        <v>297</v>
+      </c>
+      <c r="P41" s="44" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="66" x14ac:dyDescent="0.3">
       <c r="A42" s="26" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B42" s="26">
         <v>3</v>
       </c>
-      <c r="C42" s="55">
+      <c r="C42" s="54">
         <v>45579</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E42" s="26">
         <v>58</v>
       </c>
       <c r="F42" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="G42" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="G42" s="26" t="s">
-        <v>277</v>
-      </c>
       <c r="H42" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I42" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J42" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K42" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L42" s="45" t="s">
+        <v>294</v>
+      </c>
+      <c r="M42" s="44" t="s">
+        <v>287</v>
+      </c>
+      <c r="N42" s="44" t="s">
         <v>295</v>
       </c>
-      <c r="M42" s="44" t="s">
-        <v>288</v>
-      </c>
-      <c r="N42" s="44" t="s">
-        <v>296</v>
-      </c>
       <c r="O42" s="44" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P42" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:16" s="33" customFormat="1" ht="64.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="50" t="s">
+      <c r="A43" s="49" t="s">
+        <v>299</v>
+      </c>
+      <c r="B43" s="50">
+        <v>3</v>
+      </c>
+      <c r="C43" s="51">
+        <v>45588</v>
+      </c>
+      <c r="D43" s="47" t="s">
         <v>300</v>
       </c>
-      <c r="B43" s="51">
-        <v>3</v>
-      </c>
-      <c r="C43" s="52">
-        <v>45588</v>
-      </c>
-      <c r="D43" s="47" t="s">
+      <c r="E43" s="52">
+        <v>239</v>
+      </c>
+      <c r="F43" s="49" t="s">
         <v>301</v>
       </c>
-      <c r="E43" s="53">
-        <v>239</v>
-      </c>
-      <c r="F43" s="50" t="s">
+      <c r="G43" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="G43" s="33" t="s">
+      <c r="H43" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I43" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="J43" s="33" t="s">
         <v>303</v>
       </c>
-      <c r="H43" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="I43" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="J43" s="33" t="s">
+      <c r="K43" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L43" s="53" t="s">
         <v>304</v>
       </c>
-      <c r="K43" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="L43" s="54" t="s">
+      <c r="M43" s="53" t="s">
         <v>305</v>
       </c>
-      <c r="M43" s="54" t="s">
+      <c r="N43" s="53" t="s">
         <v>306</v>
       </c>
-      <c r="N43" s="54" t="s">
-        <v>307</v>
-      </c>
-      <c r="O43" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="P43" s="54" t="s">
-        <v>61</v>
+      <c r="O43" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="P43" s="53" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B44" s="16">
         <v>4</v>
@@ -5280,48 +5895,48 @@
         <v>45586</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E44" s="23">
         <v>240</v>
       </c>
       <c r="F44" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="G44" t="s">
         <v>310</v>
       </c>
-      <c r="G44" t="s">
-        <v>311</v>
-      </c>
       <c r="H44" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I44" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I44" s="14" t="s">
-        <v>23</v>
-      </c>
       <c r="J44" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K44" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L44" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="M44" s="40" t="s">
         <v>305</v>
       </c>
-      <c r="M44" s="40" t="s">
-        <v>306</v>
-      </c>
       <c r="N44" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O44" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P44" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B45" s="16">
         <v>3</v>
@@ -5330,48 +5945,48 @@
         <v>45590</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E45" s="23">
         <v>155</v>
       </c>
       <c r="F45" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I45" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J45" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K45" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L45" s="40" t="s">
         <v>314</v>
       </c>
-      <c r="G45" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="H45" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="I45" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J45" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="K45" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L45" s="40" t="s">
-        <v>315</v>
-      </c>
       <c r="M45" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N45" s="40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O45" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="P45" s="40" t="s">
         <v>60</v>
-      </c>
-      <c r="P45" s="40" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B46" s="16">
         <v>4</v>
@@ -5380,48 +5995,48 @@
         <v>45585</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E46" s="23">
         <v>115</v>
       </c>
       <c r="F46" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="H46" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J46" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K46" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L46" s="40" t="s">
         <v>318</v>
       </c>
-      <c r="G46" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="H46" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I46" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J46" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="K46" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L46" s="40" t="s">
-        <v>319</v>
-      </c>
       <c r="M46" s="40" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N46" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O46" s="40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P46" s="40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="66" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B47" s="16">
         <v>4</v>
@@ -5430,48 +6045,48 @@
         <v>45587</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E47" s="23">
         <v>81</v>
       </c>
       <c r="F47" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="G47" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="G47" s="14" t="s">
+      <c r="H47" t="s">
+        <v>21</v>
+      </c>
+      <c r="I47" t="s">
+        <v>22</v>
+      </c>
+      <c r="J47" t="s">
         <v>323</v>
       </c>
-      <c r="H47" t="s">
-        <v>22</v>
-      </c>
-      <c r="I47" t="s">
-        <v>23</v>
-      </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
+        <v>121</v>
+      </c>
+      <c r="L47" s="40" t="s">
         <v>324</v>
       </c>
-      <c r="K47" t="s">
-        <v>122</v>
-      </c>
-      <c r="L47" s="40" t="s">
+      <c r="M47" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="N47" s="40" t="s">
         <v>325</v>
       </c>
-      <c r="M47" s="40" t="s">
-        <v>174</v>
-      </c>
-      <c r="N47" s="40" t="s">
+      <c r="O47" s="40" t="s">
         <v>326</v>
       </c>
-      <c r="O47" s="40" t="s">
-        <v>327</v>
-      </c>
       <c r="P47" s="38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B48" s="16">
         <v>3</v>
@@ -5480,48 +6095,48 @@
         <v>45591</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E48" s="23">
         <v>145</v>
       </c>
       <c r="F48" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="G48" t="s">
         <v>330</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I48" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J48" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="K48" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L48" s="40" t="s">
         <v>331</v>
       </c>
-      <c r="H48" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="I48" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J48" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K48" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L48" s="40" t="s">
+      <c r="M48" s="40" t="s">
         <v>332</v>
       </c>
-      <c r="M48" s="40" t="s">
-        <v>333</v>
-      </c>
       <c r="N48" s="40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O48" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P48" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B49" s="19">
         <v>4</v>
@@ -5530,48 +6145,48 @@
         <v>45589</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E49" s="23">
         <v>58</v>
       </c>
       <c r="F49" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I49" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J49" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K49" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L49" s="39" t="s">
         <v>336</v>
       </c>
-      <c r="G49" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="H49" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="I49" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J49" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="K49" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L49" s="39" t="s">
+      <c r="M49" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="N49" s="39" t="s">
         <v>337</v>
       </c>
-      <c r="M49" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="N49" s="39" t="s">
-        <v>338</v>
-      </c>
       <c r="O49" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="P49" s="39" t="s">
         <v>60</v>
-      </c>
-      <c r="P49" s="39" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B50" s="16">
         <v>2</v>
@@ -5580,46 +6195,48 @@
         <v>45589</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E50" s="23">
         <v>55</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G50" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H50" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I50" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="H50" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="I50" s="14" t="s">
+      <c r="J50" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="J50" s="14" t="s">
-        <v>144</v>
-      </c>
       <c r="K50" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L50" s="40" t="s">
+        <v>324</v>
+      </c>
+      <c r="M50" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="N50" s="40" t="s">
         <v>325</v>
       </c>
-      <c r="M50" s="40" t="s">
-        <v>174</v>
-      </c>
-      <c r="N50" s="40" t="s">
+      <c r="O50" s="40" t="s">
         <v>326</v>
       </c>
-      <c r="O50" s="40" t="s">
-        <v>327</v>
-      </c>
-      <c r="P50" s="38"/>
+      <c r="P50" s="38" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="51" spans="1:16" ht="33" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B51" s="16">
         <v>3</v>
@@ -5628,46 +6245,46 @@
         <v>45588</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E51" s="23">
         <v>37</v>
       </c>
       <c r="F51" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I51" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J51" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K51" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L51" s="38" t="s">
         <v>344</v>
       </c>
-      <c r="G51" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="H51" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I51" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J51" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="K51" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L51" s="38" t="s">
+      <c r="M51" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="N51" s="38" t="s">
         <v>345</v>
       </c>
-      <c r="M51" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="N51" s="38" t="s">
-        <v>346</v>
-      </c>
       <c r="O51" s="38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P51" s="38"/>
     </row>
     <row r="52" spans="1:16" ht="33" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B52" s="16">
         <v>3</v>
@@ -5676,42 +6293,434 @@
         <v>45591</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E52" s="23">
         <v>21</v>
       </c>
       <c r="F52" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H52" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J52" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="K52" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L52" s="38" t="s">
+        <v>344</v>
+      </c>
+      <c r="M52" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="N52" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="O52" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="P52" s="38"/>
+    </row>
+    <row r="53" spans="1:16" s="33" customFormat="1" ht="330" x14ac:dyDescent="0.25">
+      <c r="A53" s="29" t="s">
         <v>349</v>
       </c>
-      <c r="G52" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="H52" s="14" t="s">
+      <c r="B53" s="30">
+        <v>3</v>
+      </c>
+      <c r="C53" s="31">
+        <v>45594</v>
+      </c>
+      <c r="D53" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="E53" s="52">
+        <v>800</v>
+      </c>
+      <c r="F53" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="G53" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="H53" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="I53" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="I52" s="14" t="s">
+      <c r="J53" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="K53" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L53" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="M53" s="60" t="s">
+        <v>332</v>
+      </c>
+      <c r="N53" s="60" t="s">
+        <v>374</v>
+      </c>
+      <c r="O53" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="P53" s="60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="93" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="B54" s="19">
+        <v>3</v>
+      </c>
+      <c r="C54" s="20">
+        <v>45593</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="E54" s="23">
+        <v>282</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J54" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K54" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L54" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="M54" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="N54" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="O54" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P54" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="99" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="B55" s="16">
+        <v>1</v>
+      </c>
+      <c r="C55" s="17">
+        <v>45594</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="E55" s="23">
+        <v>219</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I55" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="J55" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="K55" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="L55" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="M55" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="N55" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="O55" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="P55" s="15"/>
+    </row>
+    <row r="56" spans="1:16" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" s="10">
+        <v>3</v>
+      </c>
+      <c r="C56" s="20">
+        <v>45595</v>
+      </c>
+      <c r="D56" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="E56" s="23">
+        <v>85</v>
+      </c>
+      <c r="F56" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56" t="s">
+        <v>20</v>
+      </c>
+      <c r="H56" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I56" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J56" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J52" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="K52" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L52" s="38" t="s">
-        <v>345</v>
-      </c>
-      <c r="M52" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="N52" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="O52" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="P52" s="38"/>
+      <c r="K56" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L56" s="18"/>
+      <c r="M56" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="N56" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O56" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="P56" s="15"/>
+    </row>
+    <row r="57" spans="1:16" ht="66" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="B57" s="16">
+        <v>1</v>
+      </c>
+      <c r="C57" s="17">
+        <v>45595</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="E57" s="23">
+        <v>103</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="H57" t="s">
+        <v>32</v>
+      </c>
+      <c r="I57" t="s">
+        <v>71</v>
+      </c>
+      <c r="J57" t="s">
+        <v>72</v>
+      </c>
+      <c r="K57" t="s">
+        <v>34</v>
+      </c>
+      <c r="L57" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="M57" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N57" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="O57" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P57" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="99" x14ac:dyDescent="0.25">
+      <c r="A58" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="B58" s="16">
+        <v>3.3</v>
+      </c>
+      <c r="C58" s="17">
+        <v>45592</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="E58" s="23">
+        <v>82</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="H58" t="s">
+        <v>32</v>
+      </c>
+      <c r="I58" t="s">
+        <v>71</v>
+      </c>
+      <c r="J58" t="s">
+        <v>72</v>
+      </c>
+      <c r="K58" t="s">
+        <v>34</v>
+      </c>
+      <c r="L58" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="M58" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="N58" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="O58" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P58" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="33" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>364</v>
+      </c>
+      <c r="B59" s="10">
+        <v>1</v>
+      </c>
+      <c r="C59" s="56">
+        <v>45598</v>
+      </c>
+      <c r="D59" s="57" t="s">
+        <v>384</v>
+      </c>
+      <c r="E59" s="23">
+        <v>66</v>
+      </c>
+      <c r="F59" t="s">
+        <v>365</v>
+      </c>
+      <c r="G59" t="s">
+        <v>366</v>
+      </c>
+      <c r="H59" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I59" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J59" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="K59" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="L59" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="M59" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N59" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="O59" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P59" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="55.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="B60" s="16">
+        <v>2</v>
+      </c>
+      <c r="C60" s="17">
+        <v>45592</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="E60" s="23">
+        <v>41</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="G60" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="H60" t="s">
+        <v>32</v>
+      </c>
+      <c r="I60" t="s">
+        <v>22</v>
+      </c>
+      <c r="J60" t="s">
+        <v>131</v>
+      </c>
+      <c r="K60" t="s">
+        <v>34</v>
+      </c>
+      <c r="L60" s="59" t="s">
+        <v>386</v>
+      </c>
+      <c r="M60" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="N60" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="O60" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P60" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:P52" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}"/>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B5C873-F0FB-4039-9D3C-532903896178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D94CD3-D00C-420C-88DB-9F052531AA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="363">
   <si>
     <t>아이디</t>
   </si>
@@ -279,10 +279,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>기능 불만족</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>연구개발</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -333,10 +329,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>l형플레이트</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>누락</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -371,15 +363,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">조립 방법 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>배송위치</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송중 파손</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -564,10 +548,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>거래처</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>고객 응대</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -663,10 +643,6 @@
   </si>
   <si>
     <t>스피드랙 하프받침 샘플 사이즈 제작 여부 확인 완료</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>받침 너비</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -720,10 +696,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>합판 모서리</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>성유미</t>
   </si>
   <si>
@@ -741,10 +713,6 @@
   </si>
   <si>
     <t>스피드랙 공식몰</t>
-  </si>
-  <si>
-    <t>들뜸</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>chan****</t>
@@ -774,10 +742,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>합판 모서리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>고객지원</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -796,14 +760,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>고객 사유</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">고객 사유 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>lt****</t>
   </si>
   <si>
@@ -824,10 +780,6 @@
   </si>
   <si>
     <t>아웃 바운드 통해 합판 교환 완료</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>합판 찍힘</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -837,10 +789,6 @@
   <si>
     <t>완료</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타 부품</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>gowl****</t>
@@ -995,10 +943,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>사이즈 오출고</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>네이버 페이 구매자</t>
   </si>
   <si>
@@ -1052,14 +996,6 @@
   </si>
   <si>
     <t>커튼 리뉴얼시 반영 예정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>커튼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>사이즈 불량</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1259,10 +1195,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>휘어짐</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>hsst*******</t>
   </si>
   <si>
@@ -1326,31 +1258,7 @@
     <t>나라(추가5)</t>
   </si>
   <si>
-    <t>합판 스크래치</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>행거봉</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>합판 코팅</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>스크래치</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>영업팀, 물류팀 전달</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>포장</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>포장 불만</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1383,10 +1291,6 @@
   <si>
     <t>포장 방법 개선
 이 필요 사항 점검</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>포장 방법 불만</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1423,14 +1327,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">고객 응대 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">고객 응대 불만 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>getb****</t>
   </si>
   <si>
@@ -1465,10 +1361,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">빠짐 발생 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>한해동</t>
   </si>
   <si>
@@ -1514,14 +1406,6 @@
   </si>
   <si>
     <t>내용 확인 및 사전에 인지할 수 있도록 변경 예정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">제품 구성 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">합판 색상 불만 </t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1573,14 +1457,6 @@
   </si>
   <si>
     <t>앵그리선반(추가)</t>
-  </si>
-  <si>
-    <t>프레임,합판</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>스크레치</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">장*진 </t>
@@ -1640,10 +1516,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">회수 지연 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">상품은 튼튼해서 좋은데
 배송 문제인지, 상품이 문제인지
@@ -1778,18 +1650,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>합판</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>코팅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>보강대</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>chlt*****</t>
   </si>
   <si>
@@ -1848,14 +1708,6 @@
   </si>
   <si>
     <t>반품비 정책에 대해 트렌드코리아와 논의</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>오주문</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>반품비</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
@@ -1888,10 +1740,6 @@
   </si>
   <si>
     <t>답글 작성 및 상세페이지 안내</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>외내경</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
@@ -1911,35 +1759,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>받침</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">선반색상 오배송으로 오해한 건 내 잘못이긴한데… </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>교환 요청한 것 맘대로 취소해버리고 내가 먼저 전화하기 전까진 왜 취소했는지 사유도 없음.</t>
-    </r>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">문자로 안내 했으나, </t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>휘어짐</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">상품배송빠릅니다
 생각보다 약해요
@@ -2078,10 +1897,6 @@
   </si>
   <si>
     <t>합판</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>오염</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -2242,10 +2057,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>기둥,받침</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>품질</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2386,9 +2197,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>포장</t>
-  </si>
-  <si>
     <t>ne****</t>
   </si>
   <si>
@@ -2970,6 +2778,94 @@
   <si>
     <t>영업팀 트렌드코리아 측 확인 결과, 사이드안전바 브랜드 오주문에 의한 불만 발생으로 확인. 해당 내용 안내 완료</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>받침</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 의견</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품 개선</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>기둥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>오출고</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로세스 개선</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>회수</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 의견</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 응대</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>기둥</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">아웃바운드 완료 </t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Pretendard"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">선반색상 오배송으로 오해한 건 내 잘못이긴한데… </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>교환 요청한 것 맘대로 취소해버리고 내가 먼저 전화하기 전까진 왜 취소했는지 사유도 없음.</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로세스 개선</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품 설치</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>포장 상태</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2980,7 +2876,7 @@
     <numFmt numFmtId="176" formatCode="_-[$₩-412]* #,##0_-;\-[$₩-412]* #,##0_-;_-[$₩-412]* \-??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3127,6 +3023,20 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Pretendard"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Pretendard"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3217,7 +3127,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3289,9 +3199,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3316,9 +3223,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3342,17 +3246,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3380,14 +3278,80 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3728,8 +3692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="C55" workbookViewId="0">
+      <selection activeCell="M59" sqref="M59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3738,8 +3702,10 @@
     <col min="4" max="4" width="88" customWidth="1"/>
     <col min="9" max="9" width="28.6640625" customWidth="1"/>
     <col min="10" max="10" width="29" customWidth="1"/>
-    <col min="12" max="12" width="27" style="23" customWidth="1"/>
-    <col min="13" max="14" width="13" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="63"/>
+    <col min="12" max="12" width="27" style="35" customWidth="1"/>
+    <col min="13" max="14" width="13" style="63" customWidth="1"/>
+    <col min="15" max="16" width="8.88671875" style="63"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="9" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -3823,23 +3789,23 @@
       <c r="J2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="23" t="s">
-        <v>388</v>
-      </c>
-      <c r="M2" s="24" t="s">
+      <c r="L2" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="M2" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="N2" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="O2" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="P2" s="24" t="s">
-        <v>387</v>
+      <c r="O2" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="35" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="15" customFormat="1" ht="115.5" x14ac:dyDescent="0.25">
@@ -3873,23 +3839,23 @@
       <c r="J3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="O3" s="18" t="s">
+      <c r="N3" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="18" t="s">
-        <v>60</v>
+      <c r="P3" s="36" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
@@ -3923,26 +3889,26 @@
       <c r="J4" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="24" t="s">
+      <c r="M4" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="P4" s="24" t="s">
-        <v>125</v>
+      <c r="N4" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="O4" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" s="35" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="15" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>41</v>
       </c>
@@ -3959,10 +3925,10 @@
         <v>60</v>
       </c>
       <c r="F5" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>46</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>47</v>
       </c>
       <c r="H5" s="14" t="s">
         <v>21</v>
@@ -3971,26 +3937,26 @@
         <v>22</v>
       </c>
       <c r="J5" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="K5" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="L5" s="23" t="s">
+      <c r="L5" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="24" t="s">
+      <c r="M5" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="N5" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="24" t="s">
+      <c r="O5" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="O5" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="P5" s="18"/>
+      <c r="P5" s="36"/>
     </row>
-    <row r="6" spans="1:16" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" s="15" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>41</v>
       </c>
@@ -4001,16 +3967,16 @@
         <v>45552</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" s="12">
         <v>45</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" s="14" t="s">
         <v>21</v>
@@ -4019,28 +3985,28 @@
         <v>22</v>
       </c>
       <c r="J6" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="L6" s="23" t="s">
+      <c r="L6" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="24" t="s">
+      <c r="M6" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="N6" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="24" t="s">
+      <c r="O6" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="O6" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="P6" s="24"/>
+      <c r="P6" s="35"/>
     </row>
-    <row r="7" spans="1:16" s="15" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="15" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="16">
         <v>2</v>
@@ -4049,16 +4015,16 @@
         <v>45554</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" s="12">
         <v>22</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>32</v>
@@ -4067,80 +4033,80 @@
         <v>22</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="L7" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="M7" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="N7" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="O7" s="18" t="s">
+      <c r="L7" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="P7" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="P7" s="18" t="s">
+    </row>
+    <row r="8" spans="1:16" s="32" customFormat="1" ht="231" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="29">
+        <v>1</v>
+      </c>
+      <c r="C8" s="30">
+        <v>45557</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="31">
+        <v>857</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="O8" s="65" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" s="33" customFormat="1" ht="231" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="30">
-        <v>1</v>
-      </c>
-      <c r="C8" s="31">
-        <v>45557</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="32">
-        <v>857</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="K8" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="O8" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="P8" s="35" t="s">
-        <v>61</v>
+      <c r="P8" s="65" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="247.5" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B9" s="16">
         <v>3</v>
@@ -4149,16 +4115,16 @@
         <v>45559</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E9" s="18">
         <v>702</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>32</v>
@@ -4167,30 +4133,30 @@
         <v>22</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="K9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="L9" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="M9" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="N9" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="O9" s="21" t="s">
+      <c r="L9" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" s="38" t="s">
+        <v>333</v>
+      </c>
+      <c r="N9" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="P9" s="21" t="s">
-        <v>61</v>
+      <c r="P9" s="38" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B10" s="16">
         <v>3</v>
@@ -4199,16 +4165,16 @@
         <v>45558</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E10" s="18">
         <v>269</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H10" s="14" t="s">
         <v>32</v>
@@ -4217,30 +4183,30 @@
         <v>22</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="K10" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="M10" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="N10" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="O10" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="P10" s="21" t="s">
-        <v>61</v>
+      <c r="L10" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="N10" s="38" t="s">
+        <v>346</v>
+      </c>
+      <c r="O10" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" s="38" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="99" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B11" s="16">
         <v>2</v>
@@ -4249,16 +4215,16 @@
         <v>45563</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E11" s="18">
         <v>186</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H11" s="14" t="s">
         <v>32</v>
@@ -4267,78 +4233,78 @@
         <v>22</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="K11" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="L11" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="M11" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="N11" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="O11" s="21" t="s">
+      <c r="L11" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="M11" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="O11" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="P11" s="21" t="s">
-        <v>61</v>
+      <c r="P11" s="38" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" s="27">
+    <row r="12" spans="1:16" ht="33" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="26">
         <v>1</v>
       </c>
       <c r="C12" s="17">
         <v>45557</v>
       </c>
-      <c r="D12" s="25" t="s">
-        <v>95</v>
+      <c r="D12" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="E12" s="18">
         <v>84</v>
       </c>
-      <c r="F12" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>97</v>
+      <c r="F12" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>90</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>21</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="L12" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="M12" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="K12" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="M12" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="N12" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="O12" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="P12" s="25"/>
+      <c r="O12" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="P12" s="37"/>
     </row>
     <row r="13" spans="1:16" ht="66" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B13" s="16">
         <v>3</v>
@@ -4347,16 +4313,16 @@
         <v>45559</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E13" s="18">
         <v>87</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="H13" t="s">
         <v>21</v>
@@ -4365,30 +4331,30 @@
         <v>22</v>
       </c>
       <c r="J13" t="s">
-        <v>105</v>
-      </c>
-      <c r="K13" t="s">
+        <v>97</v>
+      </c>
+      <c r="K13" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="L13" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="M13" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="N13" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="O13" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="P13" s="21" t="s">
-        <v>61</v>
+      <c r="L13" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="M13" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="O13" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="P13" s="38" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="66" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B14" s="10">
         <v>2</v>
@@ -4396,14 +4362,14 @@
       <c r="C14" s="20">
         <v>45560</v>
       </c>
-      <c r="D14" s="28" t="s">
-        <v>111</v>
+      <c r="D14" s="27" t="s">
+        <v>102</v>
       </c>
       <c r="E14" s="18">
         <v>55</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>20</v>
@@ -4417,28 +4383,28 @@
       <c r="J14" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="M14" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="N14" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="O14" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="P14" s="25" t="s">
-        <v>60</v>
+      <c r="L14" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="M14" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="N14" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="O14" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="P14" s="37" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B15" s="16">
         <v>1</v>
@@ -4447,16 +4413,16 @@
         <v>45560</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E15" s="18">
         <v>10</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>21</v>
@@ -4465,80 +4431,80 @@
         <v>22</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="L15" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="M15" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="N15" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="O15" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="K15" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="L15" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M15" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="O15" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="P15" s="38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="32" customFormat="1" ht="99" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="29">
+        <v>3</v>
+      </c>
+      <c r="C16" s="30">
+        <v>45569</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="31">
+        <v>221</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="K16" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="M16" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="O16" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" s="66" t="s">
         <v>59</v>
-      </c>
-      <c r="P15" s="21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" s="33" customFormat="1" ht="99" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B16" s="30">
-        <v>3</v>
-      </c>
-      <c r="C16" s="31">
-        <v>45569</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="E16" s="32">
-        <v>221</v>
-      </c>
-      <c r="F16" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="H16" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="K16" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="L16" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="M16" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="N16" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="O16" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="P16" s="32" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B17" s="19">
         <v>3</v>
@@ -4547,16 +4513,16 @@
         <v>45570</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E17" s="18">
         <v>136</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="G17" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="H17" s="13" t="s">
         <v>21</v>
@@ -4565,30 +4531,30 @@
         <v>22</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="K17" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="L17" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="M17" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="N17" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="O17" s="18" t="s">
+      <c r="L17" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="M17" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="N17" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="O17" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="P17" s="11" t="s">
-        <v>61</v>
+      <c r="P17" s="35" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="99" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B18" s="16">
         <v>3</v>
@@ -4597,98 +4563,98 @@
         <v>45567</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="E18" s="18">
         <v>114</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="H18" t="s">
         <v>32</v>
       </c>
       <c r="I18" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="J18" t="s">
-        <v>143</v>
-      </c>
-      <c r="K18" t="s">
-        <v>121</v>
-      </c>
-      <c r="L18" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="M18" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="N18" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="O18" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K18" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="L18" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="M18" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="N18" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="O18" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="P18" s="35" t="s">
         <v>59</v>
-      </c>
-      <c r="P18" s="11" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="A19" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="B19" s="27">
+      <c r="A19" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="26">
         <v>3</v>
       </c>
-      <c r="C19" s="54">
+      <c r="C19" s="48">
         <v>45566</v>
       </c>
-      <c r="D19" s="25" t="s">
-        <v>147</v>
+      <c r="D19" s="24" t="s">
+        <v>133</v>
       </c>
       <c r="E19" s="18">
         <v>68</v>
       </c>
-      <c r="F19" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>149</v>
+      <c r="F19" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>135</v>
       </c>
       <c r="H19" t="s">
         <v>21</v>
       </c>
       <c r="I19" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="J19" t="s">
-        <v>99</v>
-      </c>
-      <c r="K19" t="s">
-        <v>49</v>
-      </c>
-      <c r="L19" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="M19" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="N19" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="O19" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="P19" s="36" t="s">
-        <v>60</v>
+      <c r="K19" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="L19" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="M19" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="N19" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="O19" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="P19" s="34" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="33" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="B20" s="16">
         <v>3</v>
@@ -4697,16 +4663,16 @@
         <v>45569</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="E20" s="18">
         <v>90</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="H20" t="s">
         <v>21</v>
@@ -4715,80 +4681,80 @@
         <v>22</v>
       </c>
       <c r="J20" t="s">
-        <v>131</v>
-      </c>
-      <c r="K20" t="s">
-        <v>49</v>
-      </c>
-      <c r="L20" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="M20" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="N20" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="O20" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="P20" s="38" t="s">
-        <v>60</v>
+        <v>118</v>
+      </c>
+      <c r="K20" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="L20" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="M20" s="36" t="s">
+        <v>347</v>
+      </c>
+      <c r="N20" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="O20" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="P20" s="36" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="B21" s="27">
+    <row r="21" spans="1:16" ht="33" x14ac:dyDescent="0.3">
+      <c r="A21" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" s="26">
         <v>3</v>
       </c>
-      <c r="C21" s="54">
+      <c r="C21" s="48">
         <v>45565</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="E21" s="18">
         <v>54</v>
       </c>
-      <c r="F21" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>161</v>
+      <c r="F21" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>145</v>
       </c>
       <c r="H21" t="s">
         <v>32</v>
       </c>
       <c r="I21" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="J21" t="s">
-        <v>99</v>
-      </c>
-      <c r="K21" t="s">
+        <v>92</v>
+      </c>
+      <c r="K21" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="L21" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="M21" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="N21" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="O21" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="P21" s="38" t="s">
-        <v>60</v>
+      <c r="L21" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="M21" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="N21" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="O21" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="P21" s="36" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="66" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B22" s="16">
         <v>3</v>
@@ -4797,16 +4763,16 @@
         <v>45566</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="E22" s="18">
         <v>100</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="H22" s="14" t="s">
         <v>21</v>
@@ -4815,30 +4781,30 @@
         <v>22</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="K22" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="L22" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="M22" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="N22" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="O22" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="K22" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="L22" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="M22" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="N22" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="O22" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="P22" s="38" t="s">
-        <v>60</v>
+      <c r="P22" s="36" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="B23" s="16">
         <v>2</v>
@@ -4847,16 +4813,16 @@
         <v>45569</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="E23" s="18">
         <v>59</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="G23" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="H23" s="14" t="s">
         <v>32</v>
@@ -4867,78 +4833,78 @@
       <c r="J23" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="K23" s="14" t="s">
+      <c r="K23" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="L23" s="40" t="s">
-        <v>172</v>
-      </c>
-      <c r="M23" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="N23" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="O23" s="18" t="s">
+      <c r="L23" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="M23" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="N23" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="O23" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="P23" s="36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="52" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="B24" s="53">
+        <v>3</v>
+      </c>
+      <c r="C24" s="54">
+        <v>45570</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="E24" s="56">
         <v>63</v>
       </c>
-      <c r="P23" s="38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>174</v>
-      </c>
-      <c r="B24" s="10">
-        <v>3</v>
-      </c>
-      <c r="C24" s="20">
-        <v>45570</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="E24" s="18">
-        <v>63</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="H24" s="14" t="s">
+      <c r="F24" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="H24" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="14" t="s">
+      <c r="I24" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="J24" s="14" t="s">
+      <c r="J24" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="K24" s="14" t="s">
+      <c r="K24" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="L24" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="M24" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="N24" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="O24" s="18" t="s">
+      <c r="L24" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="M24" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="N24" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="O24" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="P24" s="38" t="s">
-        <v>60</v>
+      <c r="P24" s="60" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="33" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="B25" s="16">
         <v>3</v>
@@ -4947,16 +4913,16 @@
         <v>45564</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="E25" s="18">
         <v>57</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="G25" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="H25" s="14" t="s">
         <v>21</v>
@@ -4965,30 +4931,30 @@
         <v>22</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="K25" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="K25" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="L25" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="M25" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="N25" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="O25" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="P25" s="38" t="s">
-        <v>60</v>
+      <c r="L25" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="M25" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="N25" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="O25" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="P25" s="36" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="B26" s="10">
         <v>3</v>
@@ -4997,16 +4963,16 @@
         <v>45569</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="E26" s="18">
         <v>46</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="H26" t="s">
         <v>21</v>
@@ -5015,80 +4981,80 @@
         <v>22</v>
       </c>
       <c r="J26" t="s">
-        <v>188</v>
-      </c>
-      <c r="K26" t="s">
+        <v>171</v>
+      </c>
+      <c r="K26" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="L26" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="M26" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="N26" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="O26" s="18" t="s">
+      <c r="L26" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="M26" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="N26" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="O26" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="P26" s="38" t="s">
-        <v>60</v>
+      <c r="P26" s="36" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="B27" s="30">
+    <row r="27" spans="1:16" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="B27" s="29">
         <v>1</v>
       </c>
-      <c r="C27" s="31">
+      <c r="C27" s="30">
         <v>45567</v>
       </c>
-      <c r="D27" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="E27" s="32">
+      <c r="D27" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="E27" s="31">
         <v>36</v>
       </c>
-      <c r="F27" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="G27" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="H27" s="29" t="s">
+      <c r="F27" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="H27" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="I27" s="29" t="s">
+      <c r="I27" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="J27" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="K27" s="29" t="s">
+      <c r="J27" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="K27" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="L27" s="42" t="s">
-        <v>198</v>
-      </c>
-      <c r="M27" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="N27" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="O27" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="P27" s="35" t="s">
+      <c r="L27" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="M27" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="N27" s="65" t="s">
+        <v>337</v>
+      </c>
+      <c r="O27" s="66" t="s">
         <v>61</v>
+      </c>
+      <c r="P27" s="65" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="132" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="B28" s="16">
         <v>3</v>
@@ -5097,16 +5063,16 @@
         <v>45572</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="E28" s="18">
         <v>356</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="H28" s="14" t="s">
         <v>21</v>
@@ -5115,30 +5081,30 @@
         <v>22</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="K28" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K28" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="L28" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="M28" s="18" t="s">
+      <c r="L28" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="M28" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="N28" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="O28" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="P28" s="18" t="s">
+      <c r="N28" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="O28" s="36" t="s">
         <v>61</v>
+      </c>
+      <c r="P28" s="36" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="132" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="B29" s="16">
         <v>1</v>
@@ -5147,16 +5113,16 @@
         <v>45577</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="E29" s="18">
         <v>314</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="H29" t="s">
         <v>21</v>
@@ -5165,30 +5131,30 @@
         <v>22</v>
       </c>
       <c r="J29" t="s">
-        <v>166</v>
-      </c>
-      <c r="K29" t="s">
-        <v>167</v>
-      </c>
-      <c r="L29" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="M29" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="N29" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="O29" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="K29" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="L29" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="M29" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="N29" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="O29" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="P29" s="18" t="s">
-        <v>60</v>
+      <c r="P29" s="36" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="B30" s="16">
         <v>3</v>
@@ -5197,16 +5163,16 @@
         <v>45575</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="E30" s="18">
         <v>222</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="H30" s="14" t="s">
         <v>32</v>
@@ -5215,78 +5181,78 @@
         <v>22</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="K30" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="K30" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="L30" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="M30" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="N30" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="O30" s="18" t="s">
+      <c r="L30" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="M30" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="N30" s="36" t="s">
+        <v>346</v>
+      </c>
+      <c r="O30" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="P30" s="18" t="s">
-        <v>60</v>
+      <c r="P30" s="36" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="66" x14ac:dyDescent="0.3">
-      <c r="A31" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="B31" s="27">
+      <c r="A31" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="B31" s="26">
         <v>2</v>
       </c>
-      <c r="C31" s="54">
+      <c r="C31" s="48">
         <v>45572</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="E31" s="18">
         <v>239</v>
       </c>
-      <c r="F31" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="G31" s="26" t="s">
-        <v>149</v>
+      <c r="F31" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>135</v>
       </c>
       <c r="H31" s="14" t="s">
         <v>21</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="K31" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="L31" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="M31" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="N31" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="O31" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="P31" s="11"/>
+        <v>92</v>
+      </c>
+      <c r="K31" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="L31" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="M31" s="35" t="s">
+        <v>347</v>
+      </c>
+      <c r="N31" s="35" t="s">
+        <v>351</v>
+      </c>
+      <c r="O31" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="P31" s="35"/>
     </row>
     <row r="32" spans="1:16" ht="148.5" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="B32" s="16">
         <v>1</v>
@@ -5295,16 +5261,16 @@
         <v>45571</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="E32" s="18">
         <v>202</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="H32" s="14" t="s">
         <v>21</v>
@@ -5313,30 +5279,30 @@
         <v>22</v>
       </c>
       <c r="J32" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="K32" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="K32" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="L32" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="M32" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="N32" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="O32" s="18" t="s">
+      <c r="L32" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="M32" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="N32" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="O32" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="P32" s="18" t="s">
-        <v>60</v>
+      <c r="P32" s="36" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="B33" s="16">
         <v>1</v>
@@ -5345,98 +5311,98 @@
         <v>45571</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="E33" s="18">
         <v>159</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="H33" s="14" t="s">
         <v>32</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="J33" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="K33" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="L33" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="M33" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K33" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="L33" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="M33" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="N33" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="O33" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="P33" s="18" t="s">
-        <v>60</v>
+      <c r="N33" s="36" t="s">
+        <v>352</v>
+      </c>
+      <c r="O33" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="P33" s="36" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="181.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="B34" s="27">
+      <c r="A34" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="26">
         <v>3</v>
       </c>
-      <c r="C34" s="54">
+      <c r="C34" s="48">
         <v>45575</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="E34" s="18">
         <v>126</v>
       </c>
-      <c r="F34" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="G34" s="26" t="s">
-        <v>242</v>
+      <c r="F34" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>210</v>
       </c>
       <c r="H34" s="14" t="s">
         <v>32</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="K34" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="L34" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="M34" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="N34" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="O34" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="P34" s="11" t="s">
-        <v>60</v>
+      <c r="K34" s="62" t="s">
+        <v>211</v>
+      </c>
+      <c r="L34" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="M34" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="N34" s="35" t="s">
+        <v>346</v>
+      </c>
+      <c r="O34" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="P34" s="35" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="33" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="B35" s="16">
         <v>1</v>
@@ -5445,16 +5411,16 @@
         <v>45577</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="E35" s="18">
         <v>86</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="H35" s="14" t="s">
         <v>32</v>
@@ -5465,28 +5431,28 @@
       <c r="J35" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="K35" s="14" t="s">
+      <c r="K35" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="L35" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="M35" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="N35" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="O35" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="P35" s="18" t="s">
-        <v>60</v>
+      <c r="L35" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="M35" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="N35" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="O35" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="P35" s="36" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="33" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="B36" s="16">
         <v>3</v>
@@ -5495,16 +5461,16 @@
         <v>45575</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="E36" s="18">
         <v>97</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="H36" s="14" t="s">
         <v>21</v>
@@ -5513,380 +5479,380 @@
         <v>22</v>
       </c>
       <c r="J36" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="K36" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="L36" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="K36" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="L36" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="M36" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="N36" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="O36" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="P36" s="36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" s="32" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A37" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="B37" s="41">
+        <v>1</v>
+      </c>
+      <c r="C37" s="49">
+        <v>45581</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="E37" s="41">
+        <v>335</v>
+      </c>
+      <c r="F37" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="G37" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="H37" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="I37" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="J37" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="K37" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="L37" s="70" t="s">
+        <v>242</v>
+      </c>
+      <c r="M37" s="71" t="s">
+        <v>353</v>
+      </c>
+      <c r="N37" s="69" t="s">
+        <v>351</v>
+      </c>
+      <c r="O37" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="P37" s="69" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="B38" s="25">
+        <v>1</v>
+      </c>
+      <c r="C38" s="48">
+        <v>45583</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="E38" s="25">
+        <v>194</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="H38" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J38" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="K38" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="L38" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="M38" s="72" t="s">
+        <v>354</v>
+      </c>
+      <c r="N38" s="63" t="s">
+        <v>355</v>
+      </c>
+      <c r="O38" s="36" t="s">
         <v>254</v>
       </c>
-      <c r="M36" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="N36" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="O36" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="P36" s="18" t="s">
-        <v>61</v>
+      <c r="P38" s="36" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="33" customFormat="1" ht="75.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="46" t="s">
-        <v>258</v>
-      </c>
-      <c r="B37" s="46">
-        <v>1</v>
-      </c>
-      <c r="C37" s="55">
-        <v>45581</v>
-      </c>
-      <c r="D37" s="47" t="s">
-        <v>259</v>
-      </c>
-      <c r="E37" s="46">
-        <v>335</v>
-      </c>
-      <c r="F37" s="46" t="s">
-        <v>260</v>
-      </c>
-      <c r="G37" s="46" t="s">
-        <v>261</v>
-      </c>
-      <c r="H37" s="46" t="s">
+    <row r="39" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A39" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" s="25">
+        <v>3</v>
+      </c>
+      <c r="C39" s="48">
+        <v>45583</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E39" s="25">
+        <v>189</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="G39" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="H39" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="I37" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="J37" s="46" t="s">
-        <v>262</v>
-      </c>
-      <c r="K37" s="46" t="s">
+      <c r="I39" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="J39" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="K39" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="L37" s="58" t="s">
-        <v>277</v>
-      </c>
-      <c r="M37" s="48" t="s">
-        <v>278</v>
-      </c>
-      <c r="N37" s="46" t="s">
-        <v>279</v>
-      </c>
-      <c r="O37" s="48" t="s">
-        <v>297</v>
-      </c>
-      <c r="P37" s="33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="B38" s="26">
-        <v>1</v>
-      </c>
-      <c r="C38" s="54">
-        <v>45583</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="E38" s="26">
-        <v>194</v>
-      </c>
-      <c r="F38" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="G38" s="26" t="s">
-        <v>281</v>
-      </c>
-      <c r="H38" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="I38" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="J38" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="K38" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="L38" s="25" t="s">
-        <v>282</v>
-      </c>
-      <c r="M38" s="43" t="s">
-        <v>278</v>
-      </c>
-      <c r="N38" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="O38" s="18" t="s">
-        <v>296</v>
-      </c>
-      <c r="P38" s="18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="75.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="B39" s="26">
-        <v>3</v>
-      </c>
-      <c r="C39" s="54">
-        <v>45583</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="E39" s="26">
-        <v>189</v>
-      </c>
-      <c r="F39" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="G39" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="H39" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="I39" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="J39" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="K39" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="L39" s="45" t="s">
-        <v>285</v>
-      </c>
-      <c r="M39" s="43" t="s">
-        <v>286</v>
-      </c>
-      <c r="N39" s="44" t="s">
-        <v>287</v>
-      </c>
-      <c r="O39" s="44" t="s">
-        <v>298</v>
-      </c>
-      <c r="P39" s="44" t="s">
-        <v>61</v>
+      <c r="L39" s="73" t="s">
+        <v>247</v>
+      </c>
+      <c r="M39" s="72" t="s">
+        <v>248</v>
+      </c>
+      <c r="N39" s="74" t="s">
+        <v>356</v>
+      </c>
+      <c r="O39" s="74" t="s">
+        <v>256</v>
+      </c>
+      <c r="P39" s="74" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="A40" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="B40" s="26">
+      <c r="A40" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B40" s="25">
         <v>3</v>
       </c>
-      <c r="C40" s="54">
+      <c r="C40" s="48">
         <v>45579</v>
       </c>
-      <c r="D40" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="E40" s="26">
+      <c r="D40" s="61" t="s">
+        <v>358</v>
+      </c>
+      <c r="E40" s="25">
         <v>117</v>
       </c>
-      <c r="F40" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="G40" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="H40" s="26" t="s">
+      <c r="F40" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="G40" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="H40" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="I40" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="J40" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="K40" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="L40" s="45" t="s">
-        <v>289</v>
-      </c>
-      <c r="M40" s="44" t="s">
-        <v>287</v>
-      </c>
-      <c r="N40" s="44" t="s">
-        <v>290</v>
-      </c>
-      <c r="O40" s="44" t="s">
-        <v>298</v>
-      </c>
-      <c r="P40" s="44" t="s">
-        <v>61</v>
+      <c r="I40" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="J40" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="K40" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="L40" s="73" t="s">
+        <v>357</v>
+      </c>
+      <c r="M40" s="74" t="s">
+        <v>353</v>
+      </c>
+      <c r="N40" s="74" t="s">
+        <v>359</v>
+      </c>
+      <c r="O40" s="74" t="s">
+        <v>256</v>
+      </c>
+      <c r="P40" s="74" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="62.25" x14ac:dyDescent="0.3">
-      <c r="A41" s="26" t="s">
-        <v>270</v>
-      </c>
-      <c r="B41" s="26">
+    <row r="41" spans="1:16" ht="61.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="B41" s="25">
         <v>3</v>
       </c>
-      <c r="C41" s="54">
+      <c r="C41" s="48">
         <v>45580</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="E41" s="26">
+        <v>249</v>
+      </c>
+      <c r="E41" s="25">
         <v>95</v>
       </c>
-      <c r="F41" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="G41" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="H41" s="26" t="s">
+      <c r="F41" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="G41" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="H41" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="I41" s="26" t="s">
+      <c r="I41" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="J41" s="26" t="s">
-        <v>273</v>
-      </c>
-      <c r="K41" s="26" t="s">
+      <c r="J41" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="K41" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="L41" s="25" t="s">
-        <v>292</v>
-      </c>
-      <c r="M41" s="44" t="s">
-        <v>287</v>
-      </c>
-      <c r="N41" s="44" t="s">
-        <v>290</v>
-      </c>
-      <c r="O41" s="44" t="s">
-        <v>297</v>
-      </c>
-      <c r="P41" s="44" t="s">
-        <v>387</v>
+      <c r="L41" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="M41" s="74" t="s">
+        <v>360</v>
+      </c>
+      <c r="N41" s="74" t="s">
+        <v>253</v>
+      </c>
+      <c r="O41" s="74" t="s">
+        <v>255</v>
+      </c>
+      <c r="P41" s="74" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="66" x14ac:dyDescent="0.3">
-      <c r="A42" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="B42" s="26">
+      <c r="A42" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="B42" s="25">
         <v>3</v>
       </c>
-      <c r="C42" s="54">
+      <c r="C42" s="48">
         <v>45579</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="E42" s="26">
+        <v>251</v>
+      </c>
+      <c r="E42" s="25">
         <v>58</v>
       </c>
-      <c r="F42" s="26" t="s">
-        <v>275</v>
-      </c>
-      <c r="G42" s="26" t="s">
-        <v>276</v>
-      </c>
-      <c r="H42" s="26" t="s">
+      <c r="F42" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="G42" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="H42" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="I42" s="26" t="s">
+      <c r="I42" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="J42" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="K42" s="26" t="s">
+      <c r="J42" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="K42" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="L42" s="45" t="s">
-        <v>294</v>
-      </c>
-      <c r="M42" s="44" t="s">
-        <v>287</v>
-      </c>
-      <c r="N42" s="44" t="s">
-        <v>295</v>
-      </c>
-      <c r="O42" s="44" t="s">
-        <v>298</v>
-      </c>
-      <c r="P42" s="44" t="s">
-        <v>61</v>
+      <c r="L42" s="73" t="s">
+        <v>252</v>
+      </c>
+      <c r="M42" s="74" t="s">
+        <v>360</v>
+      </c>
+      <c r="N42" s="74" t="s">
+        <v>253</v>
+      </c>
+      <c r="O42" s="74" t="s">
+        <v>256</v>
+      </c>
+      <c r="P42" s="74" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:16" s="33" customFormat="1" ht="64.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="49" t="s">
-        <v>299</v>
-      </c>
-      <c r="B43" s="50">
+    <row r="43" spans="1:16" s="32" customFormat="1" ht="64.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="43" t="s">
+        <v>257</v>
+      </c>
+      <c r="B43" s="44">
         <v>3</v>
       </c>
-      <c r="C43" s="51">
+      <c r="C43" s="45">
         <v>45588</v>
       </c>
-      <c r="D43" s="47" t="s">
-        <v>300</v>
-      </c>
-      <c r="E43" s="52">
+      <c r="D43" s="42" t="s">
+        <v>258</v>
+      </c>
+      <c r="E43" s="46">
         <v>239</v>
       </c>
-      <c r="F43" s="49" t="s">
-        <v>301</v>
-      </c>
-      <c r="G43" s="33" t="s">
-        <v>302</v>
-      </c>
-      <c r="H43" s="33" t="s">
+      <c r="F43" s="43" t="s">
+        <v>259</v>
+      </c>
+      <c r="G43" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="H43" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="I43" s="33" t="s">
+      <c r="I43" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="J43" s="33" t="s">
-        <v>303</v>
-      </c>
-      <c r="K43" s="33" t="s">
+      <c r="J43" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="K43" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="L43" s="53" t="s">
-        <v>304</v>
-      </c>
-      <c r="M43" s="53" t="s">
-        <v>305</v>
-      </c>
-      <c r="N43" s="53" t="s">
-        <v>306</v>
-      </c>
-      <c r="O43" s="53" t="s">
+      <c r="L43" s="47" t="s">
+        <v>262</v>
+      </c>
+      <c r="M43" s="47" t="s">
+        <v>288</v>
+      </c>
+      <c r="N43" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="O43" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="P43" s="53" t="s">
-        <v>60</v>
+      <c r="P43" s="47" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="B44" s="16">
         <v>4</v>
@@ -5895,16 +5861,16 @@
         <v>45586</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>308</v>
+        <v>265</v>
       </c>
       <c r="E44" s="23">
         <v>240</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>309</v>
+        <v>266</v>
       </c>
       <c r="G44" t="s">
-        <v>310</v>
+        <v>267</v>
       </c>
       <c r="H44" s="14" t="s">
         <v>21</v>
@@ -5913,30 +5879,30 @@
         <v>22</v>
       </c>
       <c r="J44" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="K44" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="L44" s="39" t="s">
-        <v>304</v>
-      </c>
-      <c r="M44" s="40" t="s">
-        <v>305</v>
-      </c>
-      <c r="N44" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="O44" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="K44" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="L44" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="M44" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="N44" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="O44" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="P44" s="40" t="s">
-        <v>60</v>
+      <c r="P44" s="38" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>311</v>
+        <v>268</v>
       </c>
       <c r="B45" s="16">
         <v>3</v>
@@ -5945,16 +5911,16 @@
         <v>45590</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="E45" s="23">
         <v>155</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>313</v>
+        <v>270</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="H45" s="14" t="s">
         <v>32</v>
@@ -5963,30 +5929,30 @@
         <v>22</v>
       </c>
       <c r="J45" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="K45" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K45" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="L45" s="40" t="s">
-        <v>314</v>
-      </c>
-      <c r="M45" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="N45" s="40" t="s">
-        <v>183</v>
-      </c>
-      <c r="O45" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="P45" s="40" t="s">
-        <v>60</v>
+      <c r="L45" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="M45" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="N45" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="O45" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="P45" s="38" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>315</v>
+        <v>272</v>
       </c>
       <c r="B46" s="16">
         <v>4</v>
@@ -5995,16 +5961,16 @@
         <v>45585</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>316</v>
+        <v>273</v>
       </c>
       <c r="E46" s="23">
         <v>115</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>317</v>
+        <v>274</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="H46" s="14" t="s">
         <v>21</v>
@@ -6013,30 +5979,30 @@
         <v>22</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="K46" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K46" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="L46" s="40" t="s">
-        <v>318</v>
-      </c>
-      <c r="M46" s="40" t="s">
-        <v>305</v>
-      </c>
-      <c r="N46" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="O46" s="40" t="s">
+      <c r="L46" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="M46" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="N46" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="O46" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="P46" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="P46" s="40" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="47" spans="1:16" ht="66" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>319</v>
+        <v>276</v>
       </c>
       <c r="B47" s="16">
         <v>4</v>
@@ -6045,16 +6011,16 @@
         <v>45587</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="E47" s="23">
         <v>81</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="H47" t="s">
         <v>21</v>
@@ -6063,30 +6029,30 @@
         <v>22</v>
       </c>
       <c r="J47" t="s">
-        <v>323</v>
-      </c>
-      <c r="K47" t="s">
-        <v>121</v>
-      </c>
-      <c r="L47" s="40" t="s">
-        <v>324</v>
-      </c>
-      <c r="M47" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="N47" s="40" t="s">
-        <v>325</v>
-      </c>
-      <c r="O47" s="40" t="s">
-        <v>326</v>
-      </c>
-      <c r="P47" s="38" t="s">
-        <v>61</v>
+        <v>280</v>
+      </c>
+      <c r="K47" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="L47" s="38" t="s">
+        <v>281</v>
+      </c>
+      <c r="M47" s="38" t="s">
+        <v>360</v>
+      </c>
+      <c r="N47" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="O47" s="38" t="s">
+        <v>282</v>
+      </c>
+      <c r="P47" s="36" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>327</v>
+        <v>283</v>
       </c>
       <c r="B48" s="16">
         <v>3</v>
@@ -6095,16 +6061,16 @@
         <v>45591</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>328</v>
+        <v>284</v>
       </c>
       <c r="E48" s="23">
         <v>145</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>329</v>
+        <v>285</v>
       </c>
       <c r="G48" t="s">
-        <v>330</v>
+        <v>286</v>
       </c>
       <c r="H48" s="14" t="s">
         <v>32</v>
@@ -6113,30 +6079,30 @@
         <v>22</v>
       </c>
       <c r="J48" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="K48" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K48" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="L48" s="40" t="s">
-        <v>331</v>
-      </c>
-      <c r="M48" s="40" t="s">
-        <v>332</v>
-      </c>
-      <c r="N48" s="40" t="s">
+      <c r="L48" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="M48" s="38" t="s">
+        <v>288</v>
+      </c>
+      <c r="N48" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="O48" s="40" t="s">
+      <c r="O48" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="P48" s="40" t="s">
-        <v>60</v>
+      <c r="P48" s="38" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>333</v>
+        <v>289</v>
       </c>
       <c r="B49" s="19">
         <v>4</v>
@@ -6145,16 +6111,16 @@
         <v>45589</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>334</v>
+        <v>290</v>
       </c>
       <c r="E49" s="23">
         <v>58</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>335</v>
+        <v>291</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="H49" s="14" t="s">
         <v>32</v>
@@ -6163,30 +6129,30 @@
         <v>22</v>
       </c>
       <c r="J49" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="K49" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K49" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="L49" s="39" t="s">
-        <v>336</v>
-      </c>
-      <c r="M49" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="N49" s="39" t="s">
-        <v>337</v>
-      </c>
-      <c r="O49" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="P49" s="39" t="s">
-        <v>60</v>
+      <c r="L49" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="M49" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="N49" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="O49" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="P49" s="37" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>338</v>
+        <v>294</v>
       </c>
       <c r="B50" s="16">
         <v>2</v>
@@ -6195,48 +6161,48 @@
         <v>45589</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>339</v>
+        <v>295</v>
       </c>
       <c r="E50" s="23">
         <v>55</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>340</v>
+        <v>296</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="H50" s="14" t="s">
         <v>32</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="J50" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="K50" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="L50" s="40" t="s">
-        <v>324</v>
-      </c>
-      <c r="M50" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="N50" s="40" t="s">
-        <v>325</v>
-      </c>
-      <c r="O50" s="40" t="s">
-        <v>326</v>
-      </c>
-      <c r="P50" s="38" t="s">
-        <v>387</v>
+        <v>130</v>
+      </c>
+      <c r="K50" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="L50" s="38" t="s">
+        <v>281</v>
+      </c>
+      <c r="M50" s="38" t="s">
+        <v>360</v>
+      </c>
+      <c r="N50" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="O50" s="38" t="s">
+        <v>282</v>
+      </c>
+      <c r="P50" s="36" t="s">
+        <v>342</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="33" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>341</v>
+        <v>297</v>
       </c>
       <c r="B51" s="16">
         <v>3</v>
@@ -6245,16 +6211,16 @@
         <v>45588</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>342</v>
+        <v>298</v>
       </c>
       <c r="E51" s="23">
         <v>37</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>343</v>
+        <v>299</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="H51" s="14" t="s">
         <v>21</v>
@@ -6263,28 +6229,28 @@
         <v>22</v>
       </c>
       <c r="J51" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="K51" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K51" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="L51" s="38" t="s">
-        <v>344</v>
-      </c>
-      <c r="M51" s="38" t="s">
+      <c r="L51" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="M51" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="N51" s="38" t="s">
-        <v>345</v>
-      </c>
-      <c r="O51" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="P51" s="38"/>
+      <c r="N51" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="O51" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="P51" s="36"/>
     </row>
-    <row r="52" spans="1:16" ht="33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>346</v>
+        <v>301</v>
       </c>
       <c r="B52" s="16">
         <v>3</v>
@@ -6293,16 +6259,16 @@
         <v>45591</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>347</v>
+        <v>302</v>
       </c>
       <c r="E52" s="23">
         <v>21</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>348</v>
+        <v>303</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="H52" s="14" t="s">
         <v>21</v>
@@ -6311,78 +6277,78 @@
         <v>22</v>
       </c>
       <c r="J52" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="K52" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="K52" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="L52" s="38" t="s">
+      <c r="L52" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="M52" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="N52" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="O52" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="P52" s="36"/>
+    </row>
+    <row r="53" spans="1:16" s="32" customFormat="1" ht="330" x14ac:dyDescent="0.25">
+      <c r="A53" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="B53" s="29">
+        <v>3</v>
+      </c>
+      <c r="C53" s="30">
+        <v>45594</v>
+      </c>
+      <c r="D53" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="E53" s="46">
+        <v>800</v>
+      </c>
+      <c r="F53" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="G53" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="H53" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="I53" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J53" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="K53" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="L53" s="66" t="s">
         <v>344</v>
       </c>
-      <c r="M52" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="N52" s="38" t="s">
-        <v>199</v>
-      </c>
-      <c r="O52" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="P52" s="38"/>
-    </row>
-    <row r="53" spans="1:16" s="33" customFormat="1" ht="330" x14ac:dyDescent="0.25">
-      <c r="A53" s="29" t="s">
-        <v>349</v>
-      </c>
-      <c r="B53" s="30">
-        <v>3</v>
-      </c>
-      <c r="C53" s="31">
-        <v>45594</v>
-      </c>
-      <c r="D53" s="32" t="s">
-        <v>373</v>
-      </c>
-      <c r="E53" s="52">
-        <v>800</v>
-      </c>
-      <c r="F53" s="29" t="s">
-        <v>350</v>
-      </c>
-      <c r="G53" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="H53" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="I53" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="J53" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="K53" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L53" s="32" t="s">
-        <v>389</v>
-      </c>
-      <c r="M53" s="60" t="s">
-        <v>332</v>
-      </c>
-      <c r="N53" s="60" t="s">
-        <v>374</v>
-      </c>
-      <c r="O53" s="60" t="s">
+      <c r="M53" s="75" t="s">
+        <v>288</v>
+      </c>
+      <c r="N53" s="75" t="s">
+        <v>329</v>
+      </c>
+      <c r="O53" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="P53" s="60" t="s">
-        <v>60</v>
+      <c r="P53" s="75" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="93" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>351</v>
+        <v>306</v>
       </c>
       <c r="B54" s="19">
         <v>3</v>
@@ -6391,16 +6357,16 @@
         <v>45593</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>375</v>
+        <v>330</v>
       </c>
       <c r="E54" s="23">
         <v>282</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>352</v>
+        <v>307</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>353</v>
+        <v>308</v>
       </c>
       <c r="H54" s="14" t="s">
         <v>21</v>
@@ -6409,30 +6375,30 @@
         <v>22</v>
       </c>
       <c r="J54" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="K54" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K54" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="L54" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="M54" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="N54" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="O54" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="P54" s="15" t="s">
-        <v>60</v>
+      <c r="L54" s="36" t="s">
+        <v>331</v>
+      </c>
+      <c r="M54" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="N54" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="O54" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="P54" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="99" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>354</v>
+        <v>309</v>
       </c>
       <c r="B55" s="16">
         <v>1</v>
@@ -6441,42 +6407,42 @@
         <v>45594</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>377</v>
+        <v>332</v>
       </c>
       <c r="E55" s="23">
         <v>219</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>355</v>
+        <v>310</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>356</v>
+        <v>311</v>
       </c>
       <c r="H55" s="14" t="s">
         <v>32</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="K55" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="L55" s="18" t="s">
-        <v>390</v>
-      </c>
-      <c r="M55" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="N55" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="O55" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="K55" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="L55" s="36" t="s">
+        <v>345</v>
+      </c>
+      <c r="M55" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="N55" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="O55" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="P55" s="15"/>
+      <c r="P55" s="9"/>
     </row>
     <row r="56" spans="1:16" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -6489,7 +6455,7 @@
         <v>45595</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>380</v>
+        <v>335</v>
       </c>
       <c r="E56" s="23">
         <v>85</v>
@@ -6509,24 +6475,26 @@
       <c r="J56" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K56" s="14" t="s">
+      <c r="K56" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="L56" s="18"/>
-      <c r="M56" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="N56" s="15" t="s">
+      <c r="L56" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="M56" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="N56" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O56" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="P56" s="15"/>
+      <c r="O56" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="P56" s="9"/>
     </row>
-    <row r="57" spans="1:16" ht="66" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>357</v>
+        <v>312</v>
       </c>
       <c r="B57" s="16">
         <v>1</v>
@@ -6535,48 +6503,48 @@
         <v>45595</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>381</v>
+        <v>336</v>
       </c>
       <c r="E57" s="23">
         <v>103</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>358</v>
+        <v>313</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>359</v>
+        <v>314</v>
       </c>
       <c r="H57" t="s">
         <v>32</v>
       </c>
       <c r="I57" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J57" t="s">
-        <v>72</v>
-      </c>
-      <c r="K57" t="s">
+        <v>68</v>
+      </c>
+      <c r="K57" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="L57" s="18" t="s">
-        <v>360</v>
-      </c>
-      <c r="M57" s="15" t="s">
+      <c r="L57" s="36" t="s">
+        <v>315</v>
+      </c>
+      <c r="M57" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="N57" s="15" t="s">
-        <v>382</v>
-      </c>
-      <c r="O57" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="P57" s="15" t="s">
-        <v>60</v>
+      <c r="N57" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="O57" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="P57" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="99" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="B58" s="16">
         <v>3.3</v>
@@ -6585,66 +6553,66 @@
         <v>45592</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>383</v>
+        <v>338</v>
       </c>
       <c r="E58" s="23">
         <v>82</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="G58" s="14" t="s">
-        <v>359</v>
+        <v>314</v>
       </c>
       <c r="H58" t="s">
         <v>32</v>
       </c>
       <c r="I58" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J58" t="s">
-        <v>72</v>
-      </c>
-      <c r="K58" t="s">
+        <v>68</v>
+      </c>
+      <c r="K58" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="L58" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="M58" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="N58" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="O58" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="P58" s="15" t="s">
-        <v>60</v>
+      <c r="L58" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="M58" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N58" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="O58" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="P58" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="33" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="B59" s="10">
         <v>1</v>
       </c>
-      <c r="C59" s="56">
+      <c r="C59" s="50">
         <v>45598</v>
       </c>
-      <c r="D59" s="57" t="s">
-        <v>384</v>
+      <c r="D59" s="51" t="s">
+        <v>339</v>
       </c>
       <c r="E59" s="23">
         <v>66</v>
       </c>
       <c r="F59" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="G59" t="s">
-        <v>366</v>
+        <v>321</v>
       </c>
       <c r="H59" s="14" t="s">
         <v>32</v>
@@ -6653,30 +6621,30 @@
         <v>22</v>
       </c>
       <c r="J59" s="14" t="s">
-        <v>367</v>
-      </c>
-      <c r="K59" s="14" t="s">
-        <v>368</v>
-      </c>
-      <c r="L59" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="M59" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="K59" s="62" t="s">
+        <v>323</v>
+      </c>
+      <c r="L59" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="M59" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="N59" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="O59" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="P59" s="15" t="s">
-        <v>60</v>
+      <c r="N59" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O59" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="P59" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="55.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>369</v>
+        <v>324</v>
       </c>
       <c r="B60" s="16">
         <v>2</v>
@@ -6685,16 +6653,16 @@
         <v>45592</v>
       </c>
       <c r="D60" s="21" t="s">
-        <v>370</v>
+        <v>325</v>
       </c>
       <c r="E60" s="23">
         <v>41</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>371</v>
+        <v>326</v>
       </c>
       <c r="G60" s="14" t="s">
-        <v>372</v>
+        <v>327</v>
       </c>
       <c r="H60" t="s">
         <v>32</v>
@@ -6703,24 +6671,24 @@
         <v>22</v>
       </c>
       <c r="J60" t="s">
-        <v>131</v>
-      </c>
-      <c r="K60" t="s">
+        <v>118</v>
+      </c>
+      <c r="K60" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="L60" s="59" t="s">
-        <v>386</v>
-      </c>
-      <c r="M60" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="N60" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="O60" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="P60" s="15"/>
+      <c r="L60" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="M60" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N60" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="O60" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="P60" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:P52" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}"/>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D94CD3-D00C-420C-88DB-9F052531AA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB64D19-8C85-400F-9B48-D1922D694F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="383">
   <si>
     <t>아이디</t>
   </si>
@@ -2865,6 +2865,99 @@
   </si>
   <si>
     <t>.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>felt******</t>
+  </si>
+  <si>
+    <t>이케아 제품이랑 같은 제품
+같은 설명서던데
+국산 제품 맞나요??
+이케아꺼는 중국산이던데
+솔직히 이곳저곳 스크레치 심했는데
+교환받고 배송시간 또 기다려야해서 그냥 참고 설치
+제품 확인후 판매 권장합니다
+설치다하고 더 심한것들 많났는데
+짜증나서 사진은 이것만 찍어뒀네요</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로(설치시 여유공간확보): 1200 / 깊이(mm): 400 / 높이(mm): 1950(기본2단)</t>
+  </si>
+  <si>
+    <t>아웃바운드하여 사과 및 배송 과정에서의 스크래치 발생 가능 설명.프레임 전체 재출고 접수 완료</t>
+  </si>
+  <si>
+    <t>배송</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>파손</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객지원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>iris****</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">설치는 쉽고 힘도 많이 필요하지 않아서 망치도 필요 없었어요 그런데 전반적으로 튼튼한 느낌은 조금 덜하고 철제기둥 칸수 조절 못해서 빼니까 연결구멍 있는 부분이 금방 휘더라고요 그리고 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메쉬보드는 페인트칠이 제대로 되어 있지 않아서 아쉬웠습니다</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로 x 깊이(설치시 여유공간확보): 가로900 x 깊이500 / 높이mm: 높이1800 / 선반단수 / 행거봉: 2단 / 행거봉1</t>
+  </si>
+  <si>
+    <t>아웃바운드했으나 부재중.
+추후 교환 처리 예정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shad******</t>
+  </si>
+  <si>
+    <t>제품은 괜찮습니다만 동일품이 타사보다 가격이 높았고 CS응대가 좋지못해 별 줄입니다 
+그래서 동일품을 타판매사에서 추가 구매함</t>
+  </si>
+  <si>
+    <t>가로(폭)x세로(깊이)(mm): 1200x600(mm) / 높이(mm): 1950(mm) / 단수 / 행거봉: 3단 / 2행거</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/speedrackstore/products/8693699113</t>
+  </si>
+  <si>
+    <t>서비스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객응대</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>영업</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">영업팀 확인결과, 아웃바운드하여 할인 불가 안내 및 설명 완료 </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3127,7 +3220,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3278,33 +3371,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3321,12 +3387,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3352,6 +3412,18 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3690,10 +3762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
-  <dimension ref="A1:P60"/>
+  <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C55" workbookViewId="0">
-      <selection activeCell="M59" sqref="M59"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3702,10 +3774,10 @@
     <col min="4" max="4" width="88" customWidth="1"/>
     <col min="9" max="9" width="28.6640625" customWidth="1"/>
     <col min="10" max="10" width="29" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="63"/>
+    <col min="11" max="11" width="8.88671875" style="54"/>
     <col min="12" max="12" width="27" style="35" customWidth="1"/>
-    <col min="13" max="14" width="13" style="63" customWidth="1"/>
-    <col min="15" max="16" width="8.88671875" style="63"/>
+    <col min="13" max="14" width="13" style="54" customWidth="1"/>
+    <col min="15" max="16" width="8.88671875" style="54"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="9" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -3789,7 +3861,7 @@
       <c r="J2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="62" t="s">
+      <c r="K2" s="53" t="s">
         <v>24</v>
       </c>
       <c r="L2" s="35" t="s">
@@ -3839,7 +3911,7 @@
       <c r="J3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="63" t="s">
+      <c r="K3" s="54" t="s">
         <v>34</v>
       </c>
       <c r="L3" s="36" t="s">
@@ -3889,7 +3961,7 @@
       <c r="J4" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="53" t="s">
         <v>34</v>
       </c>
       <c r="L4" s="35" t="s">
@@ -3939,7 +4011,7 @@
       <c r="J5" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="K5" s="62" t="s">
+      <c r="K5" s="53" t="s">
         <v>48</v>
       </c>
       <c r="L5" s="35" t="s">
@@ -3987,7 +4059,7 @@
       <c r="J6" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="62" t="s">
+      <c r="K6" s="53" t="s">
         <v>48</v>
       </c>
       <c r="L6" s="35" t="s">
@@ -4035,7 +4107,7 @@
       <c r="J7" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="K7" s="62" t="s">
+      <c r="K7" s="53" t="s">
         <v>34</v>
       </c>
       <c r="L7" s="36" t="s">
@@ -4085,22 +4157,22 @@
       <c r="J8" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="K8" s="64" t="s">
+      <c r="K8" s="55" t="s">
         <v>34</v>
       </c>
       <c r="L8" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="M8" s="65" t="s">
+      <c r="M8" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="N8" s="65" t="s">
+      <c r="N8" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="O8" s="65" t="s">
+      <c r="O8" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="P8" s="65" t="s">
+      <c r="P8" s="56" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4135,7 +4207,7 @@
       <c r="J9" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="K9" s="62" t="s">
+      <c r="K9" s="53" t="s">
         <v>34</v>
       </c>
       <c r="L9" s="38" t="s">
@@ -4185,7 +4257,7 @@
       <c r="J10" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="K10" s="62" t="s">
+      <c r="K10" s="53" t="s">
         <v>34</v>
       </c>
       <c r="L10" s="38" t="s">
@@ -4235,7 +4307,7 @@
       <c r="J11" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="K11" s="62" t="s">
+      <c r="K11" s="53" t="s">
         <v>34</v>
       </c>
       <c r="L11" s="38" t="s">
@@ -4285,7 +4357,7 @@
       <c r="J12" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="K12" s="62" t="s">
+      <c r="K12" s="53" t="s">
         <v>48</v>
       </c>
       <c r="L12" s="37" t="s">
@@ -4333,7 +4405,7 @@
       <c r="J13" t="s">
         <v>97</v>
       </c>
-      <c r="K13" s="63" t="s">
+      <c r="K13" s="54" t="s">
         <v>34</v>
       </c>
       <c r="L13" s="38" t="s">
@@ -4383,7 +4455,7 @@
       <c r="J14" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K14" s="62" t="s">
+      <c r="K14" s="53" t="s">
         <v>24</v>
       </c>
       <c r="L14" s="37" t="s">
@@ -4433,7 +4505,7 @@
       <c r="J15" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="K15" s="63" t="s">
+      <c r="K15" s="54" t="s">
         <v>110</v>
       </c>
       <c r="L15" s="38" t="s">
@@ -4483,22 +4555,22 @@
       <c r="J16" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="K16" s="64" t="s">
+      <c r="K16" s="55" t="s">
         <v>34</v>
       </c>
       <c r="L16" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="M16" s="66" t="s">
+      <c r="M16" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="N16" s="66" t="s">
+      <c r="N16" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="O16" s="66" t="s">
+      <c r="O16" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="P16" s="66" t="s">
+      <c r="P16" s="57" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4533,7 +4605,7 @@
       <c r="J17" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="K17" s="63" t="s">
+      <c r="K17" s="54" t="s">
         <v>34</v>
       </c>
       <c r="L17" s="35" t="s">
@@ -4583,7 +4655,7 @@
       <c r="J18" t="s">
         <v>130</v>
       </c>
-      <c r="K18" s="63" t="s">
+      <c r="K18" s="54" t="s">
         <v>110</v>
       </c>
       <c r="L18" s="34" t="s">
@@ -4633,7 +4705,7 @@
       <c r="J19" t="s">
         <v>92</v>
       </c>
-      <c r="K19" s="63" t="s">
+      <c r="K19" s="54" t="s">
         <v>48</v>
       </c>
       <c r="L19" s="34" t="s">
@@ -4683,7 +4755,7 @@
       <c r="J20" t="s">
         <v>118</v>
       </c>
-      <c r="K20" s="63" t="s">
+      <c r="K20" s="54" t="s">
         <v>48</v>
       </c>
       <c r="L20" s="36" t="s">
@@ -4733,7 +4805,7 @@
       <c r="J21" t="s">
         <v>92</v>
       </c>
-      <c r="K21" s="63" t="s">
+      <c r="K21" s="54" t="s">
         <v>34</v>
       </c>
       <c r="L21" s="37" t="s">
@@ -4783,7 +4855,7 @@
       <c r="J22" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="K22" s="62" t="s">
+      <c r="K22" s="53" t="s">
         <v>151</v>
       </c>
       <c r="L22" s="37" t="s">
@@ -4833,7 +4905,7 @@
       <c r="J23" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="K23" s="62" t="s">
+      <c r="K23" s="53" t="s">
         <v>34</v>
       </c>
       <c r="L23" s="38" t="s">
@@ -4852,53 +4924,53 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="52" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="52" t="s">
+    <row r="24" spans="1:16" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>158</v>
       </c>
-      <c r="B24" s="53">
+      <c r="B24" s="10">
         <v>3</v>
       </c>
-      <c r="C24" s="54">
+      <c r="C24" s="20">
         <v>45570</v>
       </c>
-      <c r="D24" s="55" t="s">
+      <c r="D24" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="E24" s="56">
+      <c r="E24" s="18">
         <v>63</v>
       </c>
-      <c r="F24" s="57" t="s">
+      <c r="F24" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="G24" s="57" t="s">
+      <c r="G24" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="H24" s="58" t="s">
+      <c r="H24" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="58" t="s">
+      <c r="I24" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="J24" s="58" t="s">
+      <c r="J24" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="K24" s="67" t="s">
+      <c r="K24" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="L24" s="59" t="s">
+      <c r="L24" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="M24" s="68" t="s">
+      <c r="M24" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="N24" s="68" t="s">
+      <c r="N24" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="O24" s="60" t="s">
+      <c r="O24" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="P24" s="60" t="s">
+      <c r="P24" s="36" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4933,7 +5005,7 @@
       <c r="J25" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="K25" s="62" t="s">
+      <c r="K25" s="53" t="s">
         <v>34</v>
       </c>
       <c r="L25" s="36" t="s">
@@ -4983,7 +5055,7 @@
       <c r="J26" t="s">
         <v>171</v>
       </c>
-      <c r="K26" s="63" t="s">
+      <c r="K26" s="54" t="s">
         <v>34</v>
       </c>
       <c r="L26" s="37" t="s">
@@ -5033,22 +5105,22 @@
       <c r="J27" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="K27" s="64" t="s">
+      <c r="K27" s="55" t="s">
         <v>34</v>
       </c>
       <c r="L27" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="M27" s="65" t="s">
+      <c r="M27" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="N27" s="65" t="s">
+      <c r="N27" s="56" t="s">
         <v>337</v>
       </c>
-      <c r="O27" s="66" t="s">
+      <c r="O27" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="P27" s="65" t="s">
+      <c r="P27" s="56" t="s">
         <v>59</v>
       </c>
     </row>
@@ -5083,7 +5155,7 @@
       <c r="J28" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="K28" s="62" t="s">
+      <c r="K28" s="53" t="s">
         <v>34</v>
       </c>
       <c r="L28" s="36" t="s">
@@ -5133,7 +5205,7 @@
       <c r="J29" t="s">
         <v>150</v>
       </c>
-      <c r="K29" s="63" t="s">
+      <c r="K29" s="54" t="s">
         <v>151</v>
       </c>
       <c r="L29" s="36" t="s">
@@ -5183,7 +5255,7 @@
       <c r="J30" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="K30" s="62" t="s">
+      <c r="K30" s="53" t="s">
         <v>34</v>
       </c>
       <c r="L30" s="36" t="s">
@@ -5233,7 +5305,7 @@
       <c r="J31" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="K31" s="62" t="s">
+      <c r="K31" s="53" t="s">
         <v>48</v>
       </c>
       <c r="L31" s="35" t="s">
@@ -5281,7 +5353,7 @@
       <c r="J32" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="K32" s="62" t="s">
+      <c r="K32" s="53" t="s">
         <v>34</v>
       </c>
       <c r="L32" s="36" t="s">
@@ -5331,7 +5403,7 @@
       <c r="J33" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="K33" s="62" t="s">
+      <c r="K33" s="53" t="s">
         <v>206</v>
       </c>
       <c r="L33" s="36" t="s">
@@ -5381,7 +5453,7 @@
       <c r="J34" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="K34" s="62" t="s">
+      <c r="K34" s="53" t="s">
         <v>211</v>
       </c>
       <c r="L34" s="35" t="s">
@@ -5431,7 +5503,7 @@
       <c r="J35" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="K35" s="62" t="s">
+      <c r="K35" s="53" t="s">
         <v>34</v>
       </c>
       <c r="L35" s="36" t="s">
@@ -5481,7 +5553,7 @@
       <c r="J36" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="K36" s="62" t="s">
+      <c r="K36" s="53" t="s">
         <v>48</v>
       </c>
       <c r="L36" s="36" t="s">
@@ -5531,22 +5603,22 @@
       <c r="J37" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="K37" s="69" t="s">
+      <c r="K37" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="L37" s="70" t="s">
+      <c r="L37" s="59" t="s">
         <v>242</v>
       </c>
-      <c r="M37" s="71" t="s">
+      <c r="M37" s="60" t="s">
         <v>353</v>
       </c>
-      <c r="N37" s="69" t="s">
+      <c r="N37" s="58" t="s">
         <v>351</v>
       </c>
-      <c r="O37" s="71" t="s">
+      <c r="O37" s="60" t="s">
         <v>255</v>
       </c>
-      <c r="P37" s="69" t="s">
+      <c r="P37" s="58" t="s">
         <v>59</v>
       </c>
     </row>
@@ -5581,16 +5653,16 @@
       <c r="J38" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="K38" s="63" t="s">
+      <c r="K38" s="54" t="s">
         <v>24</v>
       </c>
       <c r="L38" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="M38" s="72" t="s">
+      <c r="M38" s="61" t="s">
         <v>354</v>
       </c>
-      <c r="N38" s="63" t="s">
+      <c r="N38" s="54" t="s">
         <v>355</v>
       </c>
       <c r="O38" s="36" t="s">
@@ -5631,22 +5703,22 @@
       <c r="J39" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="K39" s="63" t="s">
+      <c r="K39" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="L39" s="73" t="s">
+      <c r="L39" s="62" t="s">
         <v>247</v>
       </c>
-      <c r="M39" s="72" t="s">
+      <c r="M39" s="61" t="s">
         <v>248</v>
       </c>
-      <c r="N39" s="74" t="s">
+      <c r="N39" s="63" t="s">
         <v>356</v>
       </c>
-      <c r="O39" s="74" t="s">
+      <c r="O39" s="63" t="s">
         <v>256</v>
       </c>
-      <c r="P39" s="74" t="s">
+      <c r="P39" s="63" t="s">
         <v>59</v>
       </c>
     </row>
@@ -5660,7 +5732,7 @@
       <c r="C40" s="48">
         <v>45579</v>
       </c>
-      <c r="D40" s="61" t="s">
+      <c r="D40" s="52" t="s">
         <v>358</v>
       </c>
       <c r="E40" s="25">
@@ -5681,22 +5753,22 @@
       <c r="J40" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="K40" s="63" t="s">
+      <c r="K40" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="L40" s="73" t="s">
+      <c r="L40" s="62" t="s">
         <v>357</v>
       </c>
-      <c r="M40" s="74" t="s">
+      <c r="M40" s="63" t="s">
         <v>353</v>
       </c>
-      <c r="N40" s="74" t="s">
+      <c r="N40" s="63" t="s">
         <v>359</v>
       </c>
-      <c r="O40" s="74" t="s">
+      <c r="O40" s="63" t="s">
         <v>256</v>
       </c>
-      <c r="P40" s="74" t="s">
+      <c r="P40" s="63" t="s">
         <v>59</v>
       </c>
     </row>
@@ -5731,22 +5803,22 @@
       <c r="J41" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="K41" s="63" t="s">
+      <c r="K41" s="54" t="s">
         <v>34</v>
       </c>
       <c r="L41" s="37" t="s">
         <v>250</v>
       </c>
-      <c r="M41" s="74" t="s">
+      <c r="M41" s="63" t="s">
         <v>360</v>
       </c>
-      <c r="N41" s="74" t="s">
+      <c r="N41" s="63" t="s">
         <v>253</v>
       </c>
-      <c r="O41" s="74" t="s">
+      <c r="O41" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="P41" s="74" t="s">
+      <c r="P41" s="63" t="s">
         <v>342</v>
       </c>
     </row>
@@ -5781,22 +5853,22 @@
       <c r="J42" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="K42" s="63" t="s">
+      <c r="K42" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="L42" s="73" t="s">
+      <c r="L42" s="62" t="s">
         <v>252</v>
       </c>
-      <c r="M42" s="74" t="s">
+      <c r="M42" s="63" t="s">
         <v>360</v>
       </c>
-      <c r="N42" s="74" t="s">
+      <c r="N42" s="63" t="s">
         <v>253</v>
       </c>
-      <c r="O42" s="74" t="s">
+      <c r="O42" s="63" t="s">
         <v>256</v>
       </c>
-      <c r="P42" s="74" t="s">
+      <c r="P42" s="63" t="s">
         <v>59</v>
       </c>
     </row>
@@ -5831,7 +5903,7 @@
       <c r="J43" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="K43" s="69" t="s">
+      <c r="K43" s="58" t="s">
         <v>34</v>
       </c>
       <c r="L43" s="47" t="s">
@@ -5881,7 +5953,7 @@
       <c r="J44" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="K44" s="62" t="s">
+      <c r="K44" s="53" t="s">
         <v>151</v>
       </c>
       <c r="L44" s="37" t="s">
@@ -5931,7 +6003,7 @@
       <c r="J45" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="K45" s="62" t="s">
+      <c r="K45" s="53" t="s">
         <v>34</v>
       </c>
       <c r="L45" s="38" t="s">
@@ -5981,7 +6053,7 @@
       <c r="J46" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="K46" s="62" t="s">
+      <c r="K46" s="53" t="s">
         <v>34</v>
       </c>
       <c r="L46" s="38" t="s">
@@ -6031,7 +6103,7 @@
       <c r="J47" t="s">
         <v>280</v>
       </c>
-      <c r="K47" s="63" t="s">
+      <c r="K47" s="54" t="s">
         <v>110</v>
       </c>
       <c r="L47" s="38" t="s">
@@ -6081,7 +6153,7 @@
       <c r="J48" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="K48" s="62" t="s">
+      <c r="K48" s="53" t="s">
         <v>34</v>
       </c>
       <c r="L48" s="38" t="s">
@@ -6131,7 +6203,7 @@
       <c r="J49" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="K49" s="62" t="s">
+      <c r="K49" s="53" t="s">
         <v>34</v>
       </c>
       <c r="L49" s="37" t="s">
@@ -6181,7 +6253,7 @@
       <c r="J50" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="K50" s="62" t="s">
+      <c r="K50" s="53" t="s">
         <v>110</v>
       </c>
       <c r="L50" s="38" t="s">
@@ -6231,7 +6303,7 @@
       <c r="J51" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="K51" s="62" t="s">
+      <c r="K51" s="53" t="s">
         <v>34</v>
       </c>
       <c r="L51" s="36" t="s">
@@ -6279,7 +6351,7 @@
       <c r="J52" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="K52" s="62" t="s">
+      <c r="K52" s="53" t="s">
         <v>34</v>
       </c>
       <c r="L52" s="36" t="s">
@@ -6327,22 +6399,22 @@
       <c r="J53" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="K53" s="69" t="s">
+      <c r="K53" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="L53" s="66" t="s">
+      <c r="L53" s="57" t="s">
         <v>344</v>
       </c>
-      <c r="M53" s="75" t="s">
+      <c r="M53" s="64" t="s">
         <v>288</v>
       </c>
-      <c r="N53" s="75" t="s">
+      <c r="N53" s="64" t="s">
         <v>329</v>
       </c>
-      <c r="O53" s="75" t="s">
+      <c r="O53" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="P53" s="75" t="s">
+      <c r="P53" s="64" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6377,7 +6449,7 @@
       <c r="J54" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="K54" s="62" t="s">
+      <c r="K54" s="53" t="s">
         <v>34</v>
       </c>
       <c r="L54" s="36" t="s">
@@ -6427,7 +6499,7 @@
       <c r="J55" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="K55" s="62" t="s">
+      <c r="K55" s="53" t="s">
         <v>206</v>
       </c>
       <c r="L55" s="36" t="s">
@@ -6475,7 +6547,7 @@
       <c r="J56" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K56" s="62" t="s">
+      <c r="K56" s="53" t="s">
         <v>24</v>
       </c>
       <c r="L56" s="36" t="s">
@@ -6523,7 +6595,7 @@
       <c r="J57" t="s">
         <v>68</v>
       </c>
-      <c r="K57" s="63" t="s">
+      <c r="K57" s="54" t="s">
         <v>34</v>
       </c>
       <c r="L57" s="36" t="s">
@@ -6573,7 +6645,7 @@
       <c r="J58" t="s">
         <v>68</v>
       </c>
-      <c r="K58" s="63" t="s">
+      <c r="K58" s="54" t="s">
         <v>34</v>
       </c>
       <c r="L58" s="36" t="s">
@@ -6623,7 +6695,7 @@
       <c r="J59" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="K59" s="62" t="s">
+      <c r="K59" s="53" t="s">
         <v>323</v>
       </c>
       <c r="L59" s="36" t="s">
@@ -6673,10 +6745,10 @@
       <c r="J60" t="s">
         <v>118</v>
       </c>
-      <c r="K60" s="63" t="s">
+      <c r="K60" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="L60" s="76" t="s">
+      <c r="L60" s="65" t="s">
         <v>341</v>
       </c>
       <c r="M60" s="9" t="s">
@@ -6688,7 +6760,156 @@
       <c r="O60" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="P60" s="9"/>
+      <c r="P60" s="9" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" s="32" customFormat="1" ht="148.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="B61" s="29">
+        <v>2</v>
+      </c>
+      <c r="C61" s="30">
+        <v>45604</v>
+      </c>
+      <c r="D61" s="33" t="s">
+        <v>364</v>
+      </c>
+      <c r="E61" s="31">
+        <v>148</v>
+      </c>
+      <c r="F61" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="G61" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="H61" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I61" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="J61" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="K61" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="L61" s="40" t="s">
+        <v>366</v>
+      </c>
+      <c r="M61" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="N61" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="O61" s="58" t="s">
+        <v>369</v>
+      </c>
+      <c r="P61" s="58" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="66" t="s">
+        <v>371</v>
+      </c>
+      <c r="B62" s="67">
+        <v>3</v>
+      </c>
+      <c r="C62" s="68">
+        <v>45605</v>
+      </c>
+      <c r="D62" s="69" t="s">
+        <v>372</v>
+      </c>
+      <c r="E62" s="18">
+        <v>135</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H62" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="I62" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="J62" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="K62" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="L62" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="M62" s="54" t="s">
+        <v>288</v>
+      </c>
+      <c r="N62" s="54" t="s">
+        <v>329</v>
+      </c>
+      <c r="O62" s="54" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="33" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="B63" s="16">
+        <v>1</v>
+      </c>
+      <c r="C63" s="17">
+        <v>45602</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="E63" s="18">
+        <v>70</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="G63" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="H63" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I63" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J63" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="K63" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="L63" s="35" t="s">
+        <v>382</v>
+      </c>
+      <c r="M63" s="54" t="s">
+        <v>379</v>
+      </c>
+      <c r="N63" s="54" t="s">
+        <v>380</v>
+      </c>
+      <c r="O63" s="54" t="s">
+        <v>381</v>
+      </c>
+      <c r="P63" s="54" t="s">
+        <v>370</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:P52" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}"/>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB64D19-8C85-400F-9B48-D1922D694F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8757C2-6009-42E9-BE70-A61F285AA7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="396">
   <si>
     <t>아이디</t>
   </si>
@@ -2958,6 +2958,74 @@
   </si>
   <si>
     <t xml:space="preserve">영업팀 확인결과, 아웃바운드하여 할인 불가 안내 및 설명 완료 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>개똥9353</t>
+  </si>
+  <si>
+    <t>홈던트하우스 조립식 팬트리 철제 수납 선반 앵글
+가로x깊이(설치시 여유공간확보): 홈던트하우스 1200x400 / 높이(프레임색상): 900 2단 (화이트)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나무판? 모서리 찌그러져왔고 프레임도 하나는 찌그러져</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있네여 반품하기 귀찮아서 그냥 쓸랴거여</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>아웃바운드 결과, 교환은 원치 않으셔서 사과 후 커피 쿠폰 전송</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>파손</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sand******</t>
+  </si>
+  <si>
+    <t>가로(폭)x세로(깊이)(mm): 1500x400 / 높이(mm): 1500 / (단수)12T양면강화합판: 3단(12T양면강화합판)</t>
+  </si>
+  <si>
+    <t>연결 부품을 한가지 빠드리고 보내주셔서 아직 설치 못하고 잇어요</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>누락</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>영업</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>영업팀 확인결과, 기둥연결브라켓 재출고 완료</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3220,7 +3288,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3424,6 +3492,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3762,10 +3833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
-  <dimension ref="A1:P63"/>
+  <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6860,6 +6931,9 @@
       <c r="O62" s="54" t="s">
         <v>369</v>
       </c>
+      <c r="P62" s="54" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="63" spans="1:16" ht="33" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
@@ -6909,6 +6983,108 @@
       </c>
       <c r="P63" s="54" t="s">
         <v>370</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" s="70" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="B64" s="29">
+        <v>3.8</v>
+      </c>
+      <c r="C64" s="30">
+        <v>45609</v>
+      </c>
+      <c r="D64" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="E64" s="31">
+        <f t="shared" ref="E64:E65" si="0">LEN(D64)</f>
+        <v>50</v>
+      </c>
+      <c r="F64" s="28" t="s">
+        <v>384</v>
+      </c>
+      <c r="G64" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="H64" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="I64" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="J64" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="K64" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="L64" s="70" t="s">
+        <v>386</v>
+      </c>
+      <c r="M64" s="70" t="s">
+        <v>387</v>
+      </c>
+      <c r="N64" s="70" t="s">
+        <v>388</v>
+      </c>
+      <c r="O64" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="P64" s="70" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>390</v>
+      </c>
+      <c r="B65" s="10">
+        <v>1</v>
+      </c>
+      <c r="C65" s="50">
+        <v>45609</v>
+      </c>
+      <c r="D65" s="51" t="s">
+        <v>392</v>
+      </c>
+      <c r="E65" s="18">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F65" t="s">
+        <v>391</v>
+      </c>
+      <c r="G65" t="s">
+        <v>286</v>
+      </c>
+      <c r="H65" t="s">
+        <v>32</v>
+      </c>
+      <c r="I65" t="s">
+        <v>22</v>
+      </c>
+      <c r="J65" t="s">
+        <v>47</v>
+      </c>
+      <c r="K65" t="s">
+        <v>34</v>
+      </c>
+      <c r="L65" s="35" t="s">
+        <v>395</v>
+      </c>
+      <c r="M65" s="54" t="s">
+        <v>387</v>
+      </c>
+      <c r="N65" s="54" t="s">
+        <v>393</v>
+      </c>
+      <c r="O65" s="54" t="s">
+        <v>394</v>
+      </c>
+      <c r="P65" s="54" t="s">
+        <v>389</v>
       </c>
     </row>
   </sheetData>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8757C2-6009-42E9-BE70-A61F285AA7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6735B2F9-202B-459C-BAC6-097010957C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="404">
   <si>
     <t>아이디</t>
   </si>
@@ -3026,6 +3026,36 @@
   </si>
   <si>
     <t>영업팀 확인결과, 기둥연결브라켓 재출고 완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nant*******</t>
+  </si>
+  <si>
+    <t>상담 서비스 불만족, 유도리가 전혀 없음.</t>
+  </si>
+  <si>
+    <t>가로 x 깊이(설치시 여유공간확보): 가로700 x 깊이500 / 높이mm: 높이1950 / 선반단수 / 행거봉: 2단 / 행거봉1</t>
+  </si>
+  <si>
+    <t>서비스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객응대</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>커머스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부품 주문 건 배송비 부과로 인해 추가적으로 s후크 제공을 요청하였으나, 해당 상품이 없어 출고가 어렵다고 안내.
+전체 취소후 재주문하여 배송비 무료 방법까지 안내드렸으나, 거부하여 이 이상 도움드리기 어려운 점 안내 완료</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3288,7 +3318,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3495,6 +3525,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3833,10 +3866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
-  <dimension ref="A1:P65"/>
+  <dimension ref="A1:P66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4347,7 +4380,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="99" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>82</v>
       </c>
@@ -7085,6 +7118,56 @@
       </c>
       <c r="P65" s="54" t="s">
         <v>389</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" s="32" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A66" s="32" t="s">
+        <v>396</v>
+      </c>
+      <c r="B66" s="32">
+        <v>1</v>
+      </c>
+      <c r="C66" s="71">
+        <v>45616</v>
+      </c>
+      <c r="D66" s="46" t="s">
+        <v>397</v>
+      </c>
+      <c r="E66" s="32">
+        <v>23</v>
+      </c>
+      <c r="F66" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="G66" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="H66" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I66" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J66" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="K66" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="L66" s="46" t="s">
+        <v>403</v>
+      </c>
+      <c r="M66" s="32" t="s">
+        <v>399</v>
+      </c>
+      <c r="N66" s="32" t="s">
+        <v>400</v>
+      </c>
+      <c r="O66" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="P66" s="32" t="s">
+        <v>402</v>
       </c>
     </row>
   </sheetData>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6735B2F9-202B-459C-BAC6-097010957C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1058F6B0-42E2-4D15-BE46-0EE603A2401D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3055,7 +3055,8 @@
   </si>
   <si>
     <t>부품 주문 건 배송비 부과로 인해 추가적으로 s후크 제공을 요청하였으나, 해당 상품이 없어 출고가 어렵다고 안내.
-전체 취소후 재주문하여 배송비 무료 방법까지 안내드렸으나, 거부하여 이 이상 도움드리기 어려운 점 안내 완료</t>
+전체 취소후 재주문하여 배송비 무료 방법까지 안내드렸으나, 거부하여 이 이상 도움드리기 어려운 점 안내 완료.
+추가 부품 구매 페이지 확인이 어려운점 사과드리며 기프티콘 쿠폰 전송 완료</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3868,8 +3869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
   <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7120,7 +7121,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="66" spans="1:16" s="32" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" s="32" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A66" s="32" t="s">
         <v>396</v>
       </c>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1058F6B0-42E2-4D15-BE46-0EE603A2401D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584A15E5-29A4-40CF-A15E-3F23AA37D5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
@@ -3056,7 +3056,7 @@
   <si>
     <t>부품 주문 건 배송비 부과로 인해 추가적으로 s후크 제공을 요청하였으나, 해당 상품이 없어 출고가 어렵다고 안내.
 전체 취소후 재주문하여 배송비 무료 방법까지 안내드렸으나, 거부하여 이 이상 도움드리기 어려운 점 안내 완료.
-추가 부품 구매 페이지 확인이 어려운점 사과드리며 기프티콘 쿠폰 전송 완료</t>
+추가 부품 구매 페이지 확인이 어려운점 사과드리며 기프티콘 쿠폰 전송 예정</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3870,7 +3870,7 @@
   <dimension ref="A1:P66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+      <selection activeCell="L66" sqref="L66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584A15E5-29A4-40CF-A15E-3F23AA37D5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9ADF28F-8847-4D70-9FF6-1F9A02D854D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$66</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="407">
   <si>
     <t>아이디</t>
   </si>
@@ -548,10 +548,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>고객 응대</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>rapw***</t>
   </si>
   <si>
@@ -2813,10 +2809,6 @@
   </si>
   <si>
     <t>서비스</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객 응대</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
@@ -3056,7 +3048,29 @@
   <si>
     <t>부품 주문 건 배송비 부과로 인해 추가적으로 s후크 제공을 요청하였으나, 해당 상품이 없어 출고가 어렵다고 안내.
 전체 취소후 재주문하여 배송비 무료 방법까지 안내드렸으나, 거부하여 이 이상 도움드리기 어려운 점 안내 완료.
-추가 부품 구매 페이지 확인이 어려운점 사과드리며 기프티콘 쿠폰 전송 예정</t>
+추가 부품 구매 페이지 확인이 어려운점 사과드리며 기프티콘 쿠폰 전송 완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>젤 유명한 곳이라 샀는데 선반하고 유격이있네요.
+손으로 움직이면 옆으로 덜커덕덜커덕 거립니다.
+다른곳 제품은 딱맞던데 조금 실망했습니다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>합판</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>커머스</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>합판 사이즈 오출고인지  확인 후, 조립 용이를 위해 합판이 조금 작게 제작된 점 안내 완료. 홈던트하우스 안전좌 스토퍼 기능 설명 및 제품 발송 진행</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3319,7 +3333,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3529,6 +3543,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3867,10 +3884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
-  <dimension ref="A1:P66"/>
+  <dimension ref="A1:P67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="L66" sqref="L66"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="L67" sqref="L67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3970,10 +3987,10 @@
         <v>24</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M2" s="35" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N2" s="35" t="s">
         <v>18</v>
@@ -3982,7 +3999,7 @@
         <v>44</v>
       </c>
       <c r="P2" s="35" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="15" customFormat="1" ht="115.5" x14ac:dyDescent="0.25">
@@ -4076,13 +4093,13 @@
         <v>28</v>
       </c>
       <c r="N4" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O4" s="35" t="s">
         <v>61</v>
       </c>
       <c r="P4" s="35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="15" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
@@ -4123,7 +4140,7 @@
         <v>43</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N5" s="35" t="s">
         <v>18</v>
@@ -4171,7 +4188,7 @@
         <v>43</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N6" s="35" t="s">
         <v>18</v>
@@ -4272,7 +4289,7 @@
         <v>28</v>
       </c>
       <c r="N8" s="56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O8" s="56" t="s">
         <v>61</v>
@@ -4319,10 +4336,10 @@
         <v>74</v>
       </c>
       <c r="M9" s="38" t="s">
+        <v>332</v>
+      </c>
+      <c r="N9" s="38" t="s">
         <v>333</v>
-      </c>
-      <c r="N9" s="38" t="s">
-        <v>75</v>
       </c>
       <c r="O9" s="38" t="s">
         <v>29</v>
@@ -4333,7 +4350,7 @@
     </row>
     <row r="10" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="16">
         <v>3</v>
@@ -4342,16 +4359,16 @@
         <v>45558</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E10" s="18">
         <v>269</v>
       </c>
       <c r="F10" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" t="s">
         <v>78</v>
-      </c>
-      <c r="G10" t="s">
-        <v>79</v>
       </c>
       <c r="H10" s="14" t="s">
         <v>32</v>
@@ -4360,19 +4377,19 @@
         <v>22</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K10" s="53" t="s">
         <v>34</v>
       </c>
       <c r="L10" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M10" s="38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N10" s="38" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O10" s="38" t="s">
         <v>44</v>
@@ -4381,9 +4398,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="99" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" s="16">
         <v>2</v>
@@ -4392,13 +4409,13 @@
         <v>45563</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E11" s="18">
         <v>186</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>73</v>
@@ -4416,13 +4433,13 @@
         <v>34</v>
       </c>
       <c r="L11" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M11" s="38" t="s">
         <v>28</v>
       </c>
       <c r="N11" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O11" s="38" t="s">
         <v>29</v>
@@ -4433,7 +4450,7 @@
     </row>
     <row r="12" spans="1:16" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B12" s="26">
         <v>1</v>
@@ -4442,34 +4459,34 @@
         <v>45557</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" s="18">
         <v>84</v>
       </c>
       <c r="F12" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="25" t="s">
         <v>89</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>90</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>21</v>
       </c>
       <c r="I12" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="J12" s="14" t="s">
         <v>91</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>92</v>
       </c>
       <c r="K12" s="53" t="s">
         <v>48</v>
       </c>
       <c r="L12" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M12" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N12" s="37" t="s">
         <v>18</v>
@@ -4481,7 +4498,7 @@
     </row>
     <row r="13" spans="1:16" ht="66" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B13" s="16">
         <v>3</v>
@@ -4490,16 +4507,16 @@
         <v>45559</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E13" s="18">
         <v>87</v>
       </c>
       <c r="F13" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>95</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>96</v>
       </c>
       <c r="H13" t="s">
         <v>21</v>
@@ -4508,22 +4525,22 @@
         <v>22</v>
       </c>
       <c r="J13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K13" s="54" t="s">
         <v>34</v>
       </c>
       <c r="L13" s="38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M13" s="38" t="s">
         <v>28</v>
       </c>
       <c r="N13" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="O13" s="38" t="s">
         <v>99</v>
-      </c>
-      <c r="O13" s="38" t="s">
-        <v>100</v>
       </c>
       <c r="P13" s="38" t="s">
         <v>59</v>
@@ -4531,7 +4548,7 @@
     </row>
     <row r="14" spans="1:16" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B14" s="10">
         <v>2</v>
@@ -4540,13 +4557,13 @@
         <v>45560</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E14" s="18">
         <v>55</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>20</v>
@@ -4564,13 +4581,13 @@
         <v>24</v>
       </c>
       <c r="L14" s="37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M14" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N14" s="37" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O14" s="37" t="s">
         <v>57</v>
@@ -4581,7 +4598,7 @@
     </row>
     <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B15" s="16">
         <v>1</v>
@@ -4590,16 +4607,16 @@
         <v>45560</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E15" s="18">
         <v>10</v>
       </c>
       <c r="F15" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="14" t="s">
         <v>107</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>108</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>21</v>
@@ -4608,19 +4625,19 @@
         <v>22</v>
       </c>
       <c r="J15" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="K15" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="K15" s="54" t="s">
+      <c r="L15" s="38" t="s">
         <v>110</v>
-      </c>
-      <c r="L15" s="38" t="s">
-        <v>111</v>
       </c>
       <c r="M15" s="38" t="s">
         <v>28</v>
       </c>
       <c r="N15" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O15" s="38" t="s">
         <v>57</v>
@@ -4631,7 +4648,7 @@
     </row>
     <row r="16" spans="1:16" s="32" customFormat="1" ht="99" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B16" s="29">
         <v>3</v>
@@ -4640,16 +4657,16 @@
         <v>45569</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E16" s="31">
         <v>221</v>
       </c>
       <c r="F16" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" s="28" t="s">
         <v>116</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>117</v>
       </c>
       <c r="H16" s="28" t="s">
         <v>32</v>
@@ -4658,19 +4675,19 @@
         <v>22</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K16" s="55" t="s">
         <v>34</v>
       </c>
       <c r="L16" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M16" s="57" t="s">
         <v>28</v>
       </c>
       <c r="N16" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O16" s="57" t="s">
         <v>61</v>
@@ -4681,7 +4698,7 @@
     </row>
     <row r="17" spans="1:16" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B17" s="19">
         <v>3</v>
@@ -4690,16 +4707,16 @@
         <v>45570</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E17" s="18">
         <v>136</v>
       </c>
       <c r="F17" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G17" t="s">
         <v>122</v>
-      </c>
-      <c r="G17" t="s">
-        <v>123</v>
       </c>
       <c r="H17" s="13" t="s">
         <v>21</v>
@@ -4714,13 +4731,13 @@
         <v>34</v>
       </c>
       <c r="L17" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M17" s="36" t="s">
         <v>28</v>
       </c>
       <c r="N17" s="36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O17" s="36" t="s">
         <v>29</v>
@@ -4731,7 +4748,7 @@
     </row>
     <row r="18" spans="1:16" ht="99" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B18" s="16">
         <v>3</v>
@@ -4740,37 +4757,37 @@
         <v>45567</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E18" s="18">
         <v>114</v>
       </c>
       <c r="F18" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>128</v>
       </c>
       <c r="H18" t="s">
         <v>32</v>
       </c>
       <c r="I18" t="s">
+        <v>128</v>
+      </c>
+      <c r="J18" t="s">
         <v>129</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="L18" s="34" t="s">
         <v>130</v>
-      </c>
-      <c r="K18" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="L18" s="34" t="s">
-        <v>131</v>
       </c>
       <c r="M18" s="36" t="s">
         <v>28</v>
       </c>
       <c r="N18" s="36" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="O18" s="36" t="s">
         <v>57</v>
@@ -4781,7 +4798,7 @@
     </row>
     <row r="19" spans="1:16" ht="33" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B19" s="26">
         <v>3</v>
@@ -4790,37 +4807,37 @@
         <v>45566</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E19" s="18">
         <v>68</v>
       </c>
       <c r="F19" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="25" t="s">
         <v>134</v>
-      </c>
-      <c r="G19" s="25" t="s">
-        <v>135</v>
       </c>
       <c r="H19" t="s">
         <v>21</v>
       </c>
       <c r="I19" t="s">
+        <v>90</v>
+      </c>
+      <c r="J19" t="s">
         <v>91</v>
-      </c>
-      <c r="J19" t="s">
-        <v>92</v>
       </c>
       <c r="K19" s="54" t="s">
         <v>48</v>
       </c>
       <c r="L19" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M19" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N19" s="36" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O19" s="36" t="s">
         <v>57</v>
@@ -4831,7 +4848,7 @@
     </row>
     <row r="20" spans="1:16" ht="33" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B20" s="16">
         <v>3</v>
@@ -4840,16 +4857,16 @@
         <v>45569</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E20" s="18">
         <v>90</v>
       </c>
       <c r="F20" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G20" s="14" t="s">
         <v>139</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>140</v>
       </c>
       <c r="H20" t="s">
         <v>21</v>
@@ -4858,22 +4875,22 @@
         <v>22</v>
       </c>
       <c r="J20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K20" s="54" t="s">
         <v>48</v>
       </c>
       <c r="L20" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="M20" s="36" t="s">
+        <v>346</v>
+      </c>
+      <c r="N20" s="36" t="s">
+        <v>347</v>
+      </c>
+      <c r="O20" s="36" t="s">
         <v>141</v>
-      </c>
-      <c r="M20" s="36" t="s">
-        <v>347</v>
-      </c>
-      <c r="N20" s="36" t="s">
-        <v>348</v>
-      </c>
-      <c r="O20" s="36" t="s">
-        <v>142</v>
       </c>
       <c r="P20" s="36" t="s">
         <v>58</v>
@@ -4881,7 +4898,7 @@
     </row>
     <row r="21" spans="1:16" ht="33" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B21" s="26">
         <v>3</v>
@@ -4890,37 +4907,37 @@
         <v>45565</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E21" s="18">
         <v>54</v>
       </c>
       <c r="F21" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" s="25" t="s">
         <v>144</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>145</v>
       </c>
       <c r="H21" t="s">
         <v>32</v>
       </c>
       <c r="I21" t="s">
+        <v>90</v>
+      </c>
+      <c r="J21" t="s">
         <v>91</v>
-      </c>
-      <c r="J21" t="s">
-        <v>92</v>
       </c>
       <c r="K21" s="54" t="s">
         <v>34</v>
       </c>
       <c r="L21" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M21" s="38" t="s">
         <v>28</v>
       </c>
       <c r="N21" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O21" s="38" t="s">
         <v>57</v>
@@ -4931,7 +4948,7 @@
     </row>
     <row r="22" spans="1:16" ht="66" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B22" s="16">
         <v>3</v>
@@ -4940,16 +4957,16 @@
         <v>45566</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E22" s="18">
         <v>100</v>
       </c>
       <c r="F22" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G22" s="14" t="s">
         <v>148</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>149</v>
       </c>
       <c r="H22" s="14" t="s">
         <v>21</v>
@@ -4958,19 +4975,19 @@
         <v>22</v>
       </c>
       <c r="J22" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="K22" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="K22" s="53" t="s">
-        <v>151</v>
-      </c>
       <c r="L22" s="37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M22" s="38" t="s">
         <v>28</v>
       </c>
       <c r="N22" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O22" s="38" t="s">
         <v>29</v>
@@ -4981,7 +4998,7 @@
     </row>
     <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B23" s="16">
         <v>2</v>
@@ -4990,16 +5007,16 @@
         <v>45569</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E23" s="18">
         <v>59</v>
       </c>
       <c r="F23" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="G23" t="s">
         <v>154</v>
-      </c>
-      <c r="G23" t="s">
-        <v>155</v>
       </c>
       <c r="H23" s="14" t="s">
         <v>32</v>
@@ -5014,13 +5031,13 @@
         <v>34</v>
       </c>
       <c r="L23" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="M23" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="M23" s="38" t="s">
-        <v>157</v>
-      </c>
       <c r="N23" s="38" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="O23" s="36" t="s">
         <v>61</v>
@@ -5031,7 +5048,7 @@
     </row>
     <row r="24" spans="1:16" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B24" s="10">
         <v>3</v>
@@ -5040,16 +5057,16 @@
         <v>45570</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E24" s="18">
         <v>63</v>
       </c>
       <c r="F24" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="G24" s="13" t="s">
         <v>160</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>161</v>
       </c>
       <c r="H24" s="14" t="s">
         <v>32</v>
@@ -5064,13 +5081,13 @@
         <v>34</v>
       </c>
       <c r="L24" s="37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M24" s="38" t="s">
         <v>28</v>
       </c>
       <c r="N24" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O24" s="36" t="s">
         <v>29</v>
@@ -5081,7 +5098,7 @@
     </row>
     <row r="25" spans="1:16" ht="33" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B25" s="16">
         <v>3</v>
@@ -5090,16 +5107,16 @@
         <v>45564</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E25" s="18">
         <v>57</v>
       </c>
       <c r="F25" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="G25" t="s">
         <v>164</v>
-      </c>
-      <c r="G25" t="s">
-        <v>165</v>
       </c>
       <c r="H25" s="14" t="s">
         <v>21</v>
@@ -5108,19 +5125,19 @@
         <v>22</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K25" s="53" t="s">
         <v>34</v>
       </c>
       <c r="L25" s="36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M25" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N25" s="36" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="O25" s="36" t="s">
         <v>57</v>
@@ -5131,7 +5148,7 @@
     </row>
     <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B26" s="10">
         <v>3</v>
@@ -5140,16 +5157,16 @@
         <v>45569</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E26" s="18">
         <v>46</v>
       </c>
       <c r="F26" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="G26" s="13" t="s">
         <v>169</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>170</v>
       </c>
       <c r="H26" t="s">
         <v>21</v>
@@ -5158,19 +5175,19 @@
         <v>22</v>
       </c>
       <c r="J26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K26" s="54" t="s">
         <v>34</v>
       </c>
       <c r="L26" s="37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M26" s="38" t="s">
         <v>28</v>
       </c>
       <c r="N26" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O26" s="36" t="s">
         <v>29</v>
@@ -5181,7 +5198,7 @@
     </row>
     <row r="27" spans="1:16" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B27" s="29">
         <v>1</v>
@@ -5190,16 +5207,16 @@
         <v>45567</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E27" s="31">
         <v>36</v>
       </c>
       <c r="F27" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="G27" s="28" t="s">
         <v>174</v>
-      </c>
-      <c r="G27" s="28" t="s">
-        <v>175</v>
       </c>
       <c r="H27" s="28" t="s">
         <v>32</v>
@@ -5208,19 +5225,19 @@
         <v>22</v>
       </c>
       <c r="J27" s="28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K27" s="55" t="s">
         <v>34</v>
       </c>
       <c r="L27" s="40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M27" s="56" t="s">
         <v>28</v>
       </c>
       <c r="N27" s="56" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O27" s="57" t="s">
         <v>61</v>
@@ -5231,7 +5248,7 @@
     </row>
     <row r="28" spans="1:16" ht="132" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B28" s="16">
         <v>3</v>
@@ -5240,16 +5257,16 @@
         <v>45572</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E28" s="18">
         <v>356</v>
       </c>
       <c r="F28" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G28" s="14" t="s">
         <v>180</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>181</v>
       </c>
       <c r="H28" s="14" t="s">
         <v>21</v>
@@ -5258,19 +5275,19 @@
         <v>22</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K28" s="53" t="s">
         <v>34</v>
       </c>
       <c r="L28" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M28" s="36" t="s">
         <v>28</v>
       </c>
       <c r="N28" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O28" s="36" t="s">
         <v>61</v>
@@ -5281,7 +5298,7 @@
     </row>
     <row r="29" spans="1:16" ht="132" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B29" s="16">
         <v>1</v>
@@ -5290,16 +5307,16 @@
         <v>45577</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E29" s="18">
         <v>314</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H29" t="s">
         <v>21</v>
@@ -5308,19 +5325,19 @@
         <v>22</v>
       </c>
       <c r="J29" t="s">
+        <v>149</v>
+      </c>
+      <c r="K29" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="K29" s="54" t="s">
-        <v>151</v>
-      </c>
       <c r="L29" s="36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M29" s="36" t="s">
+        <v>332</v>
+      </c>
+      <c r="N29" s="38" t="s">
         <v>333</v>
-      </c>
-      <c r="N29" s="36" t="s">
-        <v>75</v>
       </c>
       <c r="O29" s="36" t="s">
         <v>29</v>
@@ -5331,7 +5348,7 @@
     </row>
     <row r="30" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B30" s="16">
         <v>3</v>
@@ -5340,16 +5357,16 @@
         <v>45575</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E30" s="18">
         <v>222</v>
       </c>
       <c r="F30" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="G30" s="14" t="s">
         <v>189</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>190</v>
       </c>
       <c r="H30" s="14" t="s">
         <v>32</v>
@@ -5358,19 +5375,19 @@
         <v>22</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K30" s="53" t="s">
         <v>34</v>
       </c>
       <c r="L30" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M30" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N30" s="36" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O30" s="36" t="s">
         <v>29</v>
@@ -5381,7 +5398,7 @@
     </row>
     <row r="31" spans="1:16" ht="66" x14ac:dyDescent="0.3">
       <c r="A31" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B31" s="26">
         <v>2</v>
@@ -5390,37 +5407,37 @@
         <v>45572</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E31" s="18">
         <v>239</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H31" s="14" t="s">
         <v>21</v>
       </c>
       <c r="I31" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="J31" s="14" t="s">
         <v>91</v>
-      </c>
-      <c r="J31" s="14" t="s">
-        <v>92</v>
       </c>
       <c r="K31" s="53" t="s">
         <v>48</v>
       </c>
       <c r="L31" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M31" s="35" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N31" s="35" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="O31" s="35" t="s">
         <v>57</v>
@@ -5429,7 +5446,7 @@
     </row>
     <row r="32" spans="1:16" ht="148.5" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B32" s="16">
         <v>1</v>
@@ -5438,16 +5455,16 @@
         <v>45571</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E32" s="18">
         <v>202</v>
       </c>
       <c r="F32" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G32" s="14" t="s">
         <v>199</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>200</v>
       </c>
       <c r="H32" s="14" t="s">
         <v>21</v>
@@ -5456,19 +5473,19 @@
         <v>22</v>
       </c>
       <c r="J32" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K32" s="53" t="s">
         <v>34</v>
       </c>
       <c r="L32" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M32" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N32" s="36" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="O32" s="36" t="s">
         <v>29</v>
@@ -5479,7 +5496,7 @@
     </row>
     <row r="33" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B33" s="16">
         <v>1</v>
@@ -5488,37 +5505,37 @@
         <v>45571</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E33" s="18">
         <v>159</v>
       </c>
       <c r="F33" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="G33" s="14" t="s">
         <v>204</v>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>205</v>
       </c>
       <c r="H33" s="14" t="s">
         <v>32</v>
       </c>
       <c r="I33" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="J33" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="J33" s="14" t="s">
-        <v>130</v>
-      </c>
       <c r="K33" s="53" t="s">
+        <v>205</v>
+      </c>
+      <c r="L33" s="36" t="s">
         <v>206</v>
-      </c>
-      <c r="L33" s="36" t="s">
-        <v>207</v>
       </c>
       <c r="M33" s="36" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O33" s="36" t="s">
         <v>57</v>
@@ -5529,7 +5546,7 @@
     </row>
     <row r="34" spans="1:16" ht="181.5" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B34" s="26">
         <v>3</v>
@@ -5538,37 +5555,37 @@
         <v>45575</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E34" s="18">
         <v>126</v>
       </c>
       <c r="F34" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="G34" s="25" t="s">
         <v>209</v>
-      </c>
-      <c r="G34" s="25" t="s">
-        <v>210</v>
       </c>
       <c r="H34" s="14" t="s">
         <v>32</v>
       </c>
       <c r="I34" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="J34" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="J34" s="14" t="s">
-        <v>92</v>
-      </c>
       <c r="K34" s="53" t="s">
+        <v>210</v>
+      </c>
+      <c r="L34" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="L34" s="35" t="s">
-        <v>212</v>
-      </c>
       <c r="M34" s="35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N34" s="35" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O34" s="35" t="s">
         <v>57</v>
@@ -5579,7 +5596,7 @@
     </row>
     <row r="35" spans="1:16" ht="33" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B35" s="16">
         <v>1</v>
@@ -5588,16 +5605,16 @@
         <v>45577</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E35" s="18">
         <v>86</v>
       </c>
       <c r="F35" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="G35" s="14" t="s">
         <v>215</v>
-      </c>
-      <c r="G35" s="14" t="s">
-        <v>216</v>
       </c>
       <c r="H35" s="14" t="s">
         <v>32</v>
@@ -5612,16 +5629,16 @@
         <v>34</v>
       </c>
       <c r="L35" s="36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M35" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N35" s="36" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O35" s="36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P35" s="36" t="s">
         <v>58</v>
@@ -5629,7 +5646,7 @@
     </row>
     <row r="36" spans="1:16" ht="33" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B36" s="16">
         <v>3</v>
@@ -5638,16 +5655,16 @@
         <v>45575</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E36" s="18">
         <v>97</v>
       </c>
       <c r="F36" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="G36" s="14" t="s">
         <v>220</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>221</v>
       </c>
       <c r="H36" s="14" t="s">
         <v>21</v>
@@ -5656,22 +5673,22 @@
         <v>22</v>
       </c>
       <c r="J36" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K36" s="53" t="s">
         <v>48</v>
       </c>
       <c r="L36" s="36" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M36" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N36" s="36" t="s">
         <v>18</v>
       </c>
       <c r="O36" s="36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P36" s="36" t="s">
         <v>59</v>
@@ -5679,7 +5696,7 @@
     </row>
     <row r="37" spans="1:16" s="32" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B37" s="41">
         <v>1</v>
@@ -5688,16 +5705,16 @@
         <v>45581</v>
       </c>
       <c r="D37" s="42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E37" s="41">
         <v>335</v>
       </c>
       <c r="F37" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="G37" s="41" t="s">
         <v>225</v>
-      </c>
-      <c r="G37" s="41" t="s">
-        <v>226</v>
       </c>
       <c r="H37" s="41" t="s">
         <v>32</v>
@@ -5706,22 +5723,22 @@
         <v>22</v>
       </c>
       <c r="J37" s="41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K37" s="58" t="s">
         <v>34</v>
       </c>
       <c r="L37" s="59" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M37" s="60" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N37" s="58" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="O37" s="60" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P37" s="58" t="s">
         <v>59</v>
@@ -5729,7 +5746,7 @@
     </row>
     <row r="38" spans="1:16" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B38" s="25">
         <v>1</v>
@@ -5738,16 +5755,16 @@
         <v>45583</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E38" s="25">
         <v>194</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H38" s="25" t="s">
         <v>21</v>
@@ -5756,22 +5773,22 @@
         <v>22</v>
       </c>
       <c r="J38" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K38" s="54" t="s">
         <v>24</v>
       </c>
       <c r="L38" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M38" s="61" t="s">
-        <v>354</v>
-      </c>
-      <c r="N38" s="54" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="N38" s="38" t="s">
+        <v>333</v>
       </c>
       <c r="O38" s="36" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P38" s="36" t="s">
         <v>59</v>
@@ -5779,7 +5796,7 @@
     </row>
     <row r="39" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B39" s="25">
         <v>3</v>
@@ -5788,40 +5805,40 @@
         <v>45583</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E39" s="25">
         <v>189</v>
       </c>
       <c r="F39" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="G39" s="25" t="s">
         <v>231</v>
-      </c>
-      <c r="G39" s="25" t="s">
-        <v>232</v>
       </c>
       <c r="H39" s="25" t="s">
         <v>32</v>
       </c>
       <c r="I39" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="J39" s="25" t="s">
         <v>91</v>
-      </c>
-      <c r="J39" s="25" t="s">
-        <v>92</v>
       </c>
       <c r="K39" s="54" t="s">
         <v>34</v>
       </c>
       <c r="L39" s="62" t="s">
+        <v>246</v>
+      </c>
+      <c r="M39" s="61" t="s">
         <v>247</v>
       </c>
-      <c r="M39" s="61" t="s">
-        <v>248</v>
-      </c>
       <c r="N39" s="63" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="O39" s="63" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P39" s="63" t="s">
         <v>59</v>
@@ -5829,7 +5846,7 @@
     </row>
     <row r="40" spans="1:16" ht="33" x14ac:dyDescent="0.3">
       <c r="A40" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B40" s="25">
         <v>3</v>
@@ -5838,40 +5855,40 @@
         <v>45579</v>
       </c>
       <c r="D40" s="52" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E40" s="25">
         <v>117</v>
       </c>
       <c r="F40" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="G40" s="25" t="s">
         <v>233</v>
-      </c>
-      <c r="G40" s="25" t="s">
-        <v>234</v>
       </c>
       <c r="H40" s="25" t="s">
         <v>21</v>
       </c>
       <c r="I40" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="J40" s="25" t="s">
         <v>91</v>
-      </c>
-      <c r="J40" s="25" t="s">
-        <v>92</v>
       </c>
       <c r="K40" s="54" t="s">
         <v>48</v>
       </c>
       <c r="L40" s="62" t="s">
+        <v>355</v>
+      </c>
+      <c r="M40" s="63" t="s">
+        <v>352</v>
+      </c>
+      <c r="N40" s="63" t="s">
         <v>357</v>
       </c>
-      <c r="M40" s="63" t="s">
-        <v>353</v>
-      </c>
-      <c r="N40" s="63" t="s">
-        <v>359</v>
-      </c>
       <c r="O40" s="63" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P40" s="63" t="s">
         <v>59</v>
@@ -5879,7 +5896,7 @@
     </row>
     <row r="41" spans="1:16" ht="61.5" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B41" s="25">
         <v>3</v>
@@ -5888,16 +5905,16 @@
         <v>45580</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E41" s="25">
         <v>95</v>
       </c>
       <c r="F41" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="G41" s="25" t="s">
         <v>236</v>
-      </c>
-      <c r="G41" s="25" t="s">
-        <v>237</v>
       </c>
       <c r="H41" s="25" t="s">
         <v>32</v>
@@ -5906,30 +5923,30 @@
         <v>22</v>
       </c>
       <c r="J41" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K41" s="54" t="s">
         <v>34</v>
       </c>
       <c r="L41" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M41" s="63" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="N41" s="63" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O41" s="63" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P41" s="63" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="66" x14ac:dyDescent="0.3">
       <c r="A42" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B42" s="25">
         <v>3</v>
@@ -5938,16 +5955,16 @@
         <v>45579</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E42" s="25">
         <v>58</v>
       </c>
       <c r="F42" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="G42" s="25" t="s">
         <v>240</v>
-      </c>
-      <c r="G42" s="25" t="s">
-        <v>241</v>
       </c>
       <c r="H42" s="25" t="s">
         <v>32</v>
@@ -5956,22 +5973,22 @@
         <v>22</v>
       </c>
       <c r="J42" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K42" s="54" t="s">
         <v>34</v>
       </c>
       <c r="L42" s="62" t="s">
+        <v>251</v>
+      </c>
+      <c r="M42" s="63" t="s">
+        <v>358</v>
+      </c>
+      <c r="N42" s="63" t="s">
         <v>252</v>
       </c>
-      <c r="M42" s="63" t="s">
-        <v>360</v>
-      </c>
-      <c r="N42" s="63" t="s">
-        <v>253</v>
-      </c>
       <c r="O42" s="63" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P42" s="63" t="s">
         <v>59</v>
@@ -5979,7 +5996,7 @@
     </row>
     <row r="43" spans="1:16" s="32" customFormat="1" ht="64.5" x14ac:dyDescent="0.3">
       <c r="A43" s="43" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B43" s="44">
         <v>3</v>
@@ -5988,16 +6005,16 @@
         <v>45588</v>
       </c>
       <c r="D43" s="42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E43" s="46">
         <v>239</v>
       </c>
       <c r="F43" s="43" t="s">
+        <v>258</v>
+      </c>
+      <c r="G43" s="32" t="s">
         <v>259</v>
-      </c>
-      <c r="G43" s="32" t="s">
-        <v>260</v>
       </c>
       <c r="H43" s="32" t="s">
         <v>21</v>
@@ -6006,19 +6023,19 @@
         <v>22</v>
       </c>
       <c r="J43" s="32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K43" s="58" t="s">
         <v>34</v>
       </c>
       <c r="L43" s="47" t="s">
+        <v>261</v>
+      </c>
+      <c r="M43" s="47" t="s">
+        <v>287</v>
+      </c>
+      <c r="N43" s="47" t="s">
         <v>262</v>
-      </c>
-      <c r="M43" s="47" t="s">
-        <v>288</v>
-      </c>
-      <c r="N43" s="47" t="s">
-        <v>263</v>
       </c>
       <c r="O43" s="47" t="s">
         <v>29</v>
@@ -6029,7 +6046,7 @@
     </row>
     <row r="44" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B44" s="16">
         <v>4</v>
@@ -6038,16 +6055,16 @@
         <v>45586</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E44" s="23">
         <v>240</v>
       </c>
       <c r="F44" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="G44" t="s">
         <v>266</v>
-      </c>
-      <c r="G44" t="s">
-        <v>267</v>
       </c>
       <c r="H44" s="14" t="s">
         <v>21</v>
@@ -6056,19 +6073,19 @@
         <v>22</v>
       </c>
       <c r="J44" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K44" s="53" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L44" s="37" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M44" s="38" t="s">
         <v>28</v>
       </c>
       <c r="N44" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O44" s="38" t="s">
         <v>29</v>
@@ -6079,7 +6096,7 @@
     </row>
     <row r="45" spans="1:16" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B45" s="16">
         <v>3</v>
@@ -6088,16 +6105,16 @@
         <v>45590</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E45" s="23">
         <v>155</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H45" s="14" t="s">
         <v>32</v>
@@ -6106,19 +6123,19 @@
         <v>22</v>
       </c>
       <c r="J45" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K45" s="53" t="s">
         <v>34</v>
       </c>
       <c r="L45" s="38" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M45" s="38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N45" s="38" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="O45" s="38" t="s">
         <v>57</v>
@@ -6129,7 +6146,7 @@
     </row>
     <row r="46" spans="1:16" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B46" s="16">
         <v>4</v>
@@ -6138,16 +6155,16 @@
         <v>45585</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E46" s="23">
         <v>115</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H46" s="14" t="s">
         <v>21</v>
@@ -6156,19 +6173,19 @@
         <v>22</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K46" s="53" t="s">
         <v>34</v>
       </c>
       <c r="L46" s="38" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M46" s="38" t="s">
         <v>28</v>
       </c>
       <c r="N46" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O46" s="38" t="s">
         <v>57</v>
@@ -6179,7 +6196,7 @@
     </row>
     <row r="47" spans="1:16" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B47" s="16">
         <v>4</v>
@@ -6188,16 +6205,16 @@
         <v>45587</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E47" s="23">
         <v>81</v>
       </c>
       <c r="F47" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="G47" s="14" t="s">
         <v>278</v>
-      </c>
-      <c r="G47" s="14" t="s">
-        <v>279</v>
       </c>
       <c r="H47" t="s">
         <v>21</v>
@@ -6206,22 +6223,22 @@
         <v>22</v>
       </c>
       <c r="J47" t="s">
+        <v>279</v>
+      </c>
+      <c r="K47" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="L47" s="38" t="s">
         <v>280</v>
       </c>
-      <c r="K47" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="L47" s="38" t="s">
+      <c r="M47" s="38" t="s">
+        <v>358</v>
+      </c>
+      <c r="N47" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="O47" s="38" t="s">
         <v>281</v>
-      </c>
-      <c r="M47" s="38" t="s">
-        <v>360</v>
-      </c>
-      <c r="N47" s="38" t="s">
-        <v>253</v>
-      </c>
-      <c r="O47" s="38" t="s">
-        <v>282</v>
       </c>
       <c r="P47" s="36" t="s">
         <v>59</v>
@@ -6229,7 +6246,7 @@
     </row>
     <row r="48" spans="1:16" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B48" s="16">
         <v>3</v>
@@ -6238,16 +6255,16 @@
         <v>45591</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E48" s="23">
         <v>145</v>
       </c>
       <c r="F48" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="G48" t="s">
         <v>285</v>
-      </c>
-      <c r="G48" t="s">
-        <v>286</v>
       </c>
       <c r="H48" s="14" t="s">
         <v>32</v>
@@ -6262,10 +6279,10 @@
         <v>34</v>
       </c>
       <c r="L48" s="38" t="s">
+        <v>286</v>
+      </c>
+      <c r="M48" s="38" t="s">
         <v>287</v>
-      </c>
-      <c r="M48" s="38" t="s">
-        <v>288</v>
       </c>
       <c r="N48" s="38" t="s">
         <v>18</v>
@@ -6279,7 +6296,7 @@
     </row>
     <row r="49" spans="1:16" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B49" s="19">
         <v>4</v>
@@ -6288,16 +6305,16 @@
         <v>45589</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E49" s="23">
         <v>58</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H49" s="14" t="s">
         <v>32</v>
@@ -6306,19 +6323,19 @@
         <v>22</v>
       </c>
       <c r="J49" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K49" s="53" t="s">
         <v>34</v>
       </c>
       <c r="L49" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="M49" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="N49" s="37" t="s">
         <v>292</v>
-      </c>
-      <c r="M49" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="N49" s="37" t="s">
-        <v>293</v>
       </c>
       <c r="O49" s="37" t="s">
         <v>57</v>
@@ -6329,7 +6346,7 @@
     </row>
     <row r="50" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B50" s="16">
         <v>2</v>
@@ -6338,48 +6355,48 @@
         <v>45589</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E50" s="23">
         <v>55</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H50" s="14" t="s">
         <v>32</v>
       </c>
       <c r="I50" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="J50" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="J50" s="14" t="s">
-        <v>130</v>
-      </c>
       <c r="K50" s="53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L50" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="M50" s="38" t="s">
+        <v>358</v>
+      </c>
+      <c r="N50" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="O50" s="38" t="s">
         <v>281</v>
       </c>
-      <c r="M50" s="38" t="s">
-        <v>360</v>
-      </c>
-      <c r="N50" s="38" t="s">
-        <v>253</v>
-      </c>
-      <c r="O50" s="38" t="s">
-        <v>282</v>
-      </c>
       <c r="P50" s="36" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B51" s="16">
         <v>3</v>
@@ -6388,16 +6405,16 @@
         <v>45588</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E51" s="23">
         <v>37</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H51" s="14" t="s">
         <v>21</v>
@@ -6406,19 +6423,19 @@
         <v>22</v>
       </c>
       <c r="J51" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K51" s="53" t="s">
         <v>34</v>
       </c>
       <c r="L51" s="36" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M51" s="36" t="s">
         <v>28</v>
       </c>
       <c r="N51" s="36" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="O51" s="36" t="s">
         <v>61</v>
@@ -6427,7 +6444,7 @@
     </row>
     <row r="52" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B52" s="16">
         <v>3</v>
@@ -6436,16 +6453,16 @@
         <v>45591</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E52" s="23">
         <v>21</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H52" s="14" t="s">
         <v>21</v>
@@ -6454,19 +6471,19 @@
         <v>22</v>
       </c>
       <c r="J52" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K52" s="53" t="s">
         <v>34</v>
       </c>
       <c r="L52" s="36" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M52" s="36" t="s">
         <v>28</v>
       </c>
       <c r="N52" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O52" s="36" t="s">
         <v>61</v>
@@ -6475,7 +6492,7 @@
     </row>
     <row r="53" spans="1:16" s="32" customFormat="1" ht="330" x14ac:dyDescent="0.25">
       <c r="A53" s="28" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B53" s="29">
         <v>3</v>
@@ -6484,16 +6501,16 @@
         <v>45594</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E53" s="46">
         <v>800</v>
       </c>
       <c r="F53" s="28" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G53" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H53" s="32" t="s">
         <v>32</v>
@@ -6508,13 +6525,13 @@
         <v>34</v>
       </c>
       <c r="L53" s="57" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M53" s="64" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N53" s="64" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O53" s="64" t="s">
         <v>29</v>
@@ -6525,7 +6542,7 @@
     </row>
     <row r="54" spans="1:16" ht="93" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B54" s="19">
         <v>3</v>
@@ -6534,16 +6551,16 @@
         <v>45593</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E54" s="23">
         <v>282</v>
       </c>
       <c r="F54" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="G54" s="13" t="s">
         <v>307</v>
-      </c>
-      <c r="G54" s="13" t="s">
-        <v>308</v>
       </c>
       <c r="H54" s="14" t="s">
         <v>21</v>
@@ -6552,19 +6569,19 @@
         <v>22</v>
       </c>
       <c r="J54" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K54" s="53" t="s">
         <v>34</v>
       </c>
       <c r="L54" s="36" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N54" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O54" s="9" t="s">
         <v>57</v>
@@ -6575,7 +6592,7 @@
     </row>
     <row r="55" spans="1:16" ht="99" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B55" s="16">
         <v>1</v>
@@ -6584,37 +6601,37 @@
         <v>45594</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E55" s="23">
         <v>219</v>
       </c>
       <c r="F55" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="G55" s="14" t="s">
         <v>310</v>
-      </c>
-      <c r="G55" s="14" t="s">
-        <v>311</v>
       </c>
       <c r="H55" s="14" t="s">
         <v>32</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K55" s="53" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L55" s="36" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M55" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="N55" s="9" t="s">
         <v>333</v>
-      </c>
-      <c r="N55" s="9" t="s">
-        <v>334</v>
       </c>
       <c r="O55" s="9" t="s">
         <v>29</v>
@@ -6632,7 +6649,7 @@
         <v>45595</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E56" s="23">
         <v>85</v>
@@ -6656,10 +6673,10 @@
         <v>24</v>
       </c>
       <c r="L56" s="36" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="M56" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N56" s="9" t="s">
         <v>18</v>
@@ -6671,7 +6688,7 @@
     </row>
     <row r="57" spans="1:16" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B57" s="16">
         <v>1</v>
@@ -6680,16 +6697,16 @@
         <v>45595</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E57" s="23">
         <v>103</v>
       </c>
       <c r="F57" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="G57" s="14" t="s">
         <v>313</v>
-      </c>
-      <c r="G57" s="14" t="s">
-        <v>314</v>
       </c>
       <c r="H57" t="s">
         <v>32</v>
@@ -6704,13 +6721,13 @@
         <v>34</v>
       </c>
       <c r="L57" s="36" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M57" s="9" t="s">
         <v>28</v>
       </c>
       <c r="N57" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O57" s="9" t="s">
         <v>57</v>
@@ -6721,7 +6738,7 @@
     </row>
     <row r="58" spans="1:16" ht="99" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B58" s="16">
         <v>3.3</v>
@@ -6730,16 +6747,16 @@
         <v>45592</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E58" s="23">
         <v>82</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G58" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H58" t="s">
         <v>32</v>
@@ -6754,13 +6771,13 @@
         <v>34</v>
       </c>
       <c r="L58" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M58" s="9" t="s">
         <v>28</v>
       </c>
       <c r="N58" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O58" s="9" t="s">
         <v>57</v>
@@ -6771,7 +6788,7 @@
     </row>
     <row r="59" spans="1:16" ht="33" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B59" s="10">
         <v>1</v>
@@ -6780,16 +6797,16 @@
         <v>45598</v>
       </c>
       <c r="D59" s="51" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E59" s="23">
         <v>66</v>
       </c>
       <c r="F59" t="s">
+        <v>319</v>
+      </c>
+      <c r="G59" t="s">
         <v>320</v>
-      </c>
-      <c r="G59" t="s">
-        <v>321</v>
       </c>
       <c r="H59" s="14" t="s">
         <v>32</v>
@@ -6798,13 +6815,13 @@
         <v>22</v>
       </c>
       <c r="J59" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="K59" s="53" t="s">
         <v>322</v>
       </c>
-      <c r="K59" s="53" t="s">
-        <v>323</v>
-      </c>
       <c r="L59" s="36" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M59" s="9" t="s">
         <v>28</v>
@@ -6821,7 +6838,7 @@
     </row>
     <row r="60" spans="1:16" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B60" s="16">
         <v>2</v>
@@ -6830,16 +6847,16 @@
         <v>45592</v>
       </c>
       <c r="D60" s="21" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E60" s="23">
         <v>41</v>
       </c>
       <c r="F60" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="G60" s="14" t="s">
         <v>326</v>
-      </c>
-      <c r="G60" s="14" t="s">
-        <v>327</v>
       </c>
       <c r="H60" t="s">
         <v>32</v>
@@ -6848,30 +6865,30 @@
         <v>22</v>
       </c>
       <c r="J60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K60" s="54" t="s">
         <v>34</v>
       </c>
       <c r="L60" s="65" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M60" s="9" t="s">
         <v>28</v>
       </c>
       <c r="N60" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O60" s="9" t="s">
         <v>57</v>
       </c>
       <c r="P60" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="61" spans="1:16" s="32" customFormat="1" ht="148.5" x14ac:dyDescent="0.25">
       <c r="A61" s="28" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B61" s="29">
         <v>2</v>
@@ -6880,16 +6897,16 @@
         <v>45604</v>
       </c>
       <c r="D61" s="33" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E61" s="31">
         <v>148</v>
       </c>
       <c r="F61" s="28" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G61" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H61" s="28" t="s">
         <v>21</v>
@@ -6898,30 +6915,30 @@
         <v>22</v>
       </c>
       <c r="J61" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K61" s="28" t="s">
         <v>34</v>
       </c>
       <c r="L61" s="40" t="s">
+        <v>364</v>
+      </c>
+      <c r="M61" s="58" t="s">
+        <v>365</v>
+      </c>
+      <c r="N61" s="58" t="s">
         <v>366</v>
       </c>
-      <c r="M61" s="58" t="s">
+      <c r="O61" s="58" t="s">
         <v>367</v>
       </c>
-      <c r="N61" s="58" t="s">
+      <c r="P61" s="58" t="s">
         <v>368</v>
-      </c>
-      <c r="O61" s="58" t="s">
-        <v>369</v>
-      </c>
-      <c r="P61" s="58" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="62" spans="1:16" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A62" s="66" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B62" s="67">
         <v>3</v>
@@ -6930,16 +6947,16 @@
         <v>45605</v>
       </c>
       <c r="D62" s="69" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E62" s="18">
         <v>135</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G62" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H62" s="66" t="s">
         <v>21</v>
@@ -6948,30 +6965,30 @@
         <v>22</v>
       </c>
       <c r="J62" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="K62" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="K62" s="66" t="s">
-        <v>110</v>
-      </c>
       <c r="L62" s="35" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M62" s="54" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N62" s="54" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O62" s="54" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="P62" s="54" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="33" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B63" s="16">
         <v>1</v>
@@ -6980,16 +6997,16 @@
         <v>45602</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E63" s="18">
         <v>70</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G63" s="14" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H63" s="14" t="s">
         <v>21</v>
@@ -6998,30 +7015,30 @@
         <v>22</v>
       </c>
       <c r="J63" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K63" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L63" s="35" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="M63" s="54" t="s">
+        <v>377</v>
+      </c>
+      <c r="N63" s="54" t="s">
+        <v>378</v>
+      </c>
+      <c r="O63" s="54" t="s">
         <v>379</v>
       </c>
-      <c r="N63" s="54" t="s">
-        <v>380</v>
-      </c>
-      <c r="O63" s="54" t="s">
-        <v>381</v>
-      </c>
       <c r="P63" s="54" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="64" spans="1:16" s="70" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A64" s="28" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B64" s="29">
         <v>3.8</v>
@@ -7030,17 +7047,17 @@
         <v>45609</v>
       </c>
       <c r="D64" s="31" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E64" s="31">
         <f t="shared" ref="E64:E65" si="0">LEN(D64)</f>
         <v>50</v>
       </c>
       <c r="F64" s="28" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G64" s="28" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H64" s="28" t="s">
         <v>32</v>
@@ -7055,24 +7072,24 @@
         <v>34</v>
       </c>
       <c r="L64" s="70" t="s">
+        <v>384</v>
+      </c>
+      <c r="M64" s="70" t="s">
+        <v>385</v>
+      </c>
+      <c r="N64" s="70" t="s">
         <v>386</v>
-      </c>
-      <c r="M64" s="70" t="s">
-        <v>387</v>
-      </c>
-      <c r="N64" s="70" t="s">
-        <v>388</v>
       </c>
       <c r="O64" s="70" t="s">
         <v>57</v>
       </c>
       <c r="P64" s="70" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="65" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B65" s="10">
         <v>1</v>
@@ -7081,17 +7098,17 @@
         <v>45609</v>
       </c>
       <c r="D65" s="51" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E65" s="18">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="F65" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G65" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H65" t="s">
         <v>32</v>
@@ -7106,24 +7123,24 @@
         <v>34</v>
       </c>
       <c r="L65" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="M65" s="54" t="s">
+        <v>385</v>
+      </c>
+      <c r="N65" s="54" t="s">
+        <v>391</v>
+      </c>
+      <c r="O65" s="54" t="s">
+        <v>392</v>
+      </c>
+      <c r="P65" s="54" t="s">
         <v>387</v>
-      </c>
-      <c r="N65" s="54" t="s">
-        <v>393</v>
-      </c>
-      <c r="O65" s="54" t="s">
-        <v>394</v>
-      </c>
-      <c r="P65" s="54" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="66" spans="1:16" s="32" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A66" s="32" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B66" s="32">
         <v>1</v>
@@ -7132,16 +7149,16 @@
         <v>45616</v>
       </c>
       <c r="D66" s="46" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E66" s="32">
         <v>23</v>
       </c>
       <c r="F66" s="32" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G66" s="32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H66" s="32" t="s">
         <v>21</v>
@@ -7150,29 +7167,80 @@
         <v>22</v>
       </c>
       <c r="J66" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="K66" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="K66" s="32" t="s">
-        <v>110</v>
-      </c>
       <c r="L66" s="46" t="s">
+        <v>401</v>
+      </c>
+      <c r="M66" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="N66" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="O66" s="32" t="s">
+        <v>399</v>
+      </c>
+      <c r="P66" s="32" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" s="32" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A67" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" s="29">
+        <v>3</v>
+      </c>
+      <c r="C67" s="72">
+        <v>45625</v>
+      </c>
+      <c r="D67" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="E67" s="31">
+        <f t="shared" ref="E67" si="1">LEN(D67)</f>
+        <v>75</v>
+      </c>
+      <c r="F67" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="G67" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="H67" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="I67" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="J67" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="K67" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="L67" s="40" t="s">
+        <v>406</v>
+      </c>
+      <c r="M67" s="58" t="s">
+        <v>287</v>
+      </c>
+      <c r="N67" s="58" t="s">
         <v>403</v>
       </c>
-      <c r="M66" s="32" t="s">
-        <v>399</v>
-      </c>
-      <c r="N66" s="32" t="s">
-        <v>400</v>
-      </c>
-      <c r="O66" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="P66" s="32" t="s">
-        <v>402</v>
+      <c r="O67" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="P67" s="58" t="s">
+        <v>404</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P52" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}"/>
+  <autoFilter ref="A1:P66" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9ADF28F-8847-4D70-9FF6-1F9A02D854D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE569FB-C569-4378-BCDD-4721F34E171E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="426">
   <si>
     <t>아이디</t>
   </si>
@@ -2878,9 +2878,6 @@
     <t>가로(설치시 여유공간확보): 1200 / 깊이(mm): 400 / 높이(mm): 1950(기본2단)</t>
   </si>
   <si>
-    <t>아웃바운드하여 사과 및 배송 과정에서의 스크래치 발생 가능 설명.프레임 전체 재출고 접수 완료</t>
-  </si>
-  <si>
     <t>배송</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3071,6 +3068,78 @@
   </si>
   <si>
     <t>합판 사이즈 오출고인지  확인 후, 조립 용이를 위해 합판이 조금 작게 제작된 점 안내 완료. 홈던트하우스 안전좌 스토퍼 기능 설명 및 제품 발송 진행</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>esso******</t>
+  </si>
+  <si>
+    <t>반품들어온거 보내셨는지 조립했다 해체한것처럼 기스가 심하게 나있어요. .
+설치할때 검은가루도 자꾸 떨어져요</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로 x 깊이(설치시 여유공간확보): 가로800 x 깊이600 / 높이 x 단수: 높이1800 x 2단</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/main/products/442335990</t>
+  </si>
+  <si>
+    <t>soji***</t>
+  </si>
+  <si>
+    <t>이런 상품이 왔네요. 두 개 다 이래서 기분이 좋지 않네요. 환불하려다가 그냥 씁니다.</t>
+  </si>
+  <si>
+    <t>규격: 600mm / 색상: 검정</t>
+  </si>
+  <si>
+    <t>https://brand.naver.com/speedrack/products/6013129935</t>
+  </si>
+  <si>
+    <t>qoat*****</t>
+  </si>
+  <si>
+    <t>아주만족하고있어요
+선반이라 많은것을 정리할수있어요
+다만 선반 하나를 추가주문할려고 전화했던이 전화받는 상담원이 아주싸가지없게 무시하는 어투로 전화를받으면서 소리지르면서 전화를 마음대로 끈이버리더라고요 그래서 아직도 선반를 추가구매를 못했어요 이런건 어디다가 신고해야하나요?</t>
+  </si>
+  <si>
+    <t>가로(폭)x세로(깊이)(mm): 700x500 / 높이(mm): 1500 / 단수(스피드랙): 4단</t>
+  </si>
+  <si>
+    <t>아웃바운드하여 사과 및 배송 과정에서의 스크래치 발생 가능 설명.프레임 전체 재출고 접수 완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>교환 안내차 아웃바운드 하였으나 부재. 추후 교환 혹은 기프티콘 증정으로 처리 예정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래처 확인 결과, 해당 고객과의 실제 통화 내역이 없음을 확인하였으며, 혹시 몰라 답글까지 작성 완료한 것으로 확인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>monc****</t>
+  </si>
+  <si>
+    <t>가격도 배송도 만족합니다.
+다만 합판 포장 박스가 젖어 검정색으로 곰팡이같은것이 1/4 가량 증식되어있었고 합판부도 2개 변색된 상태였습니다. 반품을 고민해 봤지만 합판부 변색부 세정하고 드라이어로 말려서 사용 예정입니다. 날씨 탓인것 같아 보관에 조금만 더 신경 부탁드려요.</t>
+  </si>
+  <si>
+    <t>가로 x 깊이(설치시 여유공간확보): 가로700 x 깊이600 / 높이mm: 높이1950 / 선반단수 / 행거봉: 3단 / 행거봉2</t>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>품질</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>교환 안내차 아웃바운드 하였으나 부재. 추후 교환 혹은 기프티콘 증정으로 처리 예정.
+상황 및 사진 확인 후 품질팀 문의 예정</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3333,7 +3402,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3546,6 +3615,27 @@
     </xf>
     <xf numFmtId="14" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3884,10 +3974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
-  <dimension ref="A1:P67"/>
+  <dimension ref="A1:P71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="L67" sqref="L67"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6636,7 +6726,9 @@
       <c r="O55" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="P55" s="9"/>
+      <c r="P55" s="9" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="56" spans="1:16" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -6883,7 +6975,7 @@
         <v>57</v>
       </c>
       <c r="P60" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="61" spans="1:16" s="32" customFormat="1" ht="148.5" x14ac:dyDescent="0.25">
@@ -6921,24 +7013,24 @@
         <v>34</v>
       </c>
       <c r="L61" s="40" t="s">
+        <v>417</v>
+      </c>
+      <c r="M61" s="58" t="s">
         <v>364</v>
       </c>
-      <c r="M61" s="58" t="s">
+      <c r="N61" s="58" t="s">
         <v>365</v>
       </c>
-      <c r="N61" s="58" t="s">
+      <c r="O61" s="58" t="s">
         <v>366</v>
       </c>
-      <c r="O61" s="58" t="s">
+      <c r="P61" s="58" t="s">
         <v>367</v>
-      </c>
-      <c r="P61" s="58" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="62" spans="1:16" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A62" s="66" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B62" s="67">
         <v>3</v>
@@ -6947,13 +7039,13 @@
         <v>45605</v>
       </c>
       <c r="D62" s="69" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E62" s="18">
         <v>135</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G62" s="15" t="s">
         <v>107</v>
@@ -6971,7 +7063,7 @@
         <v>109</v>
       </c>
       <c r="L62" s="35" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M62" s="54" t="s">
         <v>287</v>
@@ -6980,15 +7072,15 @@
         <v>328</v>
       </c>
       <c r="O62" s="54" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P62" s="54" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="33" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B63" s="16">
         <v>1</v>
@@ -6997,16 +7089,16 @@
         <v>45602</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E63" s="18">
         <v>70</v>
       </c>
       <c r="F63" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="G63" s="14" t="s">
         <v>375</v>
-      </c>
-      <c r="G63" s="14" t="s">
-        <v>376</v>
       </c>
       <c r="H63" s="14" t="s">
         <v>21</v>
@@ -7021,24 +7113,24 @@
         <v>150</v>
       </c>
       <c r="L63" s="35" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M63" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="N63" s="54" t="s">
         <v>377</v>
       </c>
-      <c r="N63" s="54" t="s">
+      <c r="O63" s="54" t="s">
         <v>378</v>
       </c>
-      <c r="O63" s="54" t="s">
-        <v>379</v>
-      </c>
       <c r="P63" s="54" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="64" spans="1:16" s="70" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A64" s="28" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B64" s="29">
         <v>3.8</v>
@@ -7047,14 +7139,14 @@
         <v>45609</v>
       </c>
       <c r="D64" s="31" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E64" s="31">
         <f t="shared" ref="E64:E65" si="0">LEN(D64)</f>
         <v>50</v>
       </c>
       <c r="F64" s="28" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G64" s="28" t="s">
         <v>313</v>
@@ -7072,24 +7164,24 @@
         <v>34</v>
       </c>
       <c r="L64" s="70" t="s">
+        <v>383</v>
+      </c>
+      <c r="M64" s="70" t="s">
         <v>384</v>
       </c>
-      <c r="M64" s="70" t="s">
+      <c r="N64" s="70" t="s">
         <v>385</v>
-      </c>
-      <c r="N64" s="70" t="s">
-        <v>386</v>
       </c>
       <c r="O64" s="70" t="s">
         <v>57</v>
       </c>
       <c r="P64" s="70" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="65" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B65" s="10">
         <v>1</v>
@@ -7098,14 +7190,14 @@
         <v>45609</v>
       </c>
       <c r="D65" s="51" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E65" s="18">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="F65" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G65" t="s">
         <v>285</v>
@@ -7123,24 +7215,24 @@
         <v>34</v>
       </c>
       <c r="L65" s="35" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="M65" s="54" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="N65" s="54" t="s">
+        <v>390</v>
+      </c>
+      <c r="O65" s="54" t="s">
         <v>391</v>
       </c>
-      <c r="O65" s="54" t="s">
-        <v>392</v>
-      </c>
       <c r="P65" s="54" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="66" spans="1:16" s="32" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A66" s="32" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B66" s="32">
         <v>1</v>
@@ -7149,13 +7241,13 @@
         <v>45616</v>
       </c>
       <c r="D66" s="46" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E66" s="32">
         <v>23</v>
       </c>
       <c r="F66" s="32" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G66" s="32" t="s">
         <v>107</v>
@@ -7173,19 +7265,19 @@
         <v>109</v>
       </c>
       <c r="L66" s="46" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M66" s="32" t="s">
+        <v>396</v>
+      </c>
+      <c r="N66" s="32" t="s">
         <v>397</v>
       </c>
-      <c r="N66" s="32" t="s">
+      <c r="O66" s="32" t="s">
         <v>398</v>
       </c>
-      <c r="O66" s="32" t="s">
+      <c r="P66" s="32" t="s">
         <v>399</v>
-      </c>
-      <c r="P66" s="32" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="67" spans="1:16" s="32" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -7199,10 +7291,10 @@
         <v>45625</v>
       </c>
       <c r="D67" s="31" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E67" s="31">
-        <f t="shared" ref="E67" si="1">LEN(D67)</f>
+        <f t="shared" ref="E67:E71" si="1">LEN(D67)</f>
         <v>75</v>
       </c>
       <c r="F67" s="28" t="s">
@@ -7224,20 +7316,219 @@
         <v>34</v>
       </c>
       <c r="L67" s="40" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="M67" s="58" t="s">
         <v>287</v>
       </c>
       <c r="N67" s="58" t="s">
+        <v>402</v>
+      </c>
+      <c r="O67" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="P67" s="58" t="s">
         <v>403</v>
       </c>
-      <c r="O67" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="P67" s="58" t="s">
-        <v>404</v>
-      </c>
+    </row>
+    <row r="68" spans="1:16" s="79" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A68" s="75" t="s">
+        <v>406</v>
+      </c>
+      <c r="B68" s="76">
+        <v>2</v>
+      </c>
+      <c r="C68" s="77">
+        <v>45629</v>
+      </c>
+      <c r="D68" s="78" t="s">
+        <v>407</v>
+      </c>
+      <c r="E68" s="78">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="F68" s="75" t="s">
+        <v>408</v>
+      </c>
+      <c r="G68" s="75" t="s">
+        <v>409</v>
+      </c>
+      <c r="H68" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="I68" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="J68" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="K68" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="L68" s="79" t="s">
+        <v>417</v>
+      </c>
+      <c r="M68" s="79" t="s">
+        <v>364</v>
+      </c>
+      <c r="N68" s="79" t="s">
+        <v>98</v>
+      </c>
+      <c r="O68" s="79" t="s">
+        <v>57</v>
+      </c>
+      <c r="P68" s="79" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" s="15" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="B69" s="16">
+        <v>1</v>
+      </c>
+      <c r="C69" s="73">
+        <v>45628</v>
+      </c>
+      <c r="D69" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="E69" s="18">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="G69" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="H69" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I69" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J69" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="K69" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L69" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="M69" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="N69" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="O69" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>414</v>
+      </c>
+      <c r="B70" s="10">
+        <v>5</v>
+      </c>
+      <c r="C70" s="74">
+        <v>45630</v>
+      </c>
+      <c r="D70" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="E70" s="18">
+        <f t="shared" si="1"/>
+        <v>152</v>
+      </c>
+      <c r="F70" t="s">
+        <v>416</v>
+      </c>
+      <c r="G70" t="s">
+        <v>160</v>
+      </c>
+      <c r="H70" t="s">
+        <v>32</v>
+      </c>
+      <c r="I70" t="s">
+        <v>22</v>
+      </c>
+      <c r="J70" t="s">
+        <v>40</v>
+      </c>
+      <c r="K70" t="s">
+        <v>34</v>
+      </c>
+      <c r="L70" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="M70" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="N70" s="54" t="s">
+        <v>377</v>
+      </c>
+      <c r="O70" s="54" t="s">
+        <v>253</v>
+      </c>
+      <c r="P70" s="54" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" s="32" customFormat="1" ht="66" x14ac:dyDescent="0.25">
+      <c r="A71" s="28" t="s">
+        <v>420</v>
+      </c>
+      <c r="B71" s="29">
+        <v>5</v>
+      </c>
+      <c r="C71" s="72">
+        <v>45629</v>
+      </c>
+      <c r="D71" s="31" t="s">
+        <v>421</v>
+      </c>
+      <c r="E71" s="31">
+        <f>LEN(D71)</f>
+        <v>154</v>
+      </c>
+      <c r="F71" s="28" t="s">
+        <v>422</v>
+      </c>
+      <c r="G71" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="H71" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I71" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J71" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="K71" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="L71" s="40" t="s">
+        <v>425</v>
+      </c>
+      <c r="M71" s="58" t="s">
+        <v>287</v>
+      </c>
+      <c r="N71" s="58" t="s">
+        <v>402</v>
+      </c>
+      <c r="O71" s="58" t="s">
+        <v>424</v>
+      </c>
+      <c r="P71" s="58"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:P66" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}"/>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE569FB-C569-4378-BCDD-4721F34E171E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC333869-F492-4D8C-8975-D105FA3B23B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3138,8 +3138,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>교환 안내차 아웃바운드 하였으나 부재. 추후 교환 혹은 기프티콘 증정으로 처리 예정.
-상황 및 사진 확인 후 품질팀 문의 예정</t>
+    <t>아웃바운드 결과, 곰팡이는 아닌것으로 확인 완료. 합판 교환 권했으나 괜찮다고 하셔서 추후 교환 혹은 기프티콘 전송으로 처리 예정</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3402,7 +3401,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3621,21 +3620,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3976,8 +3960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
   <dimension ref="A1:P71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="L71" sqref="L71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7294,7 +7278,7 @@
         <v>401</v>
       </c>
       <c r="E67" s="31">
-        <f t="shared" ref="E67:E71" si="1">LEN(D67)</f>
+        <f t="shared" ref="E67:E70" si="1">LEN(D67)</f>
         <v>75</v>
       </c>
       <c r="F67" s="28" t="s">
@@ -7331,54 +7315,54 @@
         <v>403</v>
       </c>
     </row>
-    <row r="68" spans="1:16" s="79" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A68" s="75" t="s">
+    <row r="68" spans="1:16" s="15" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="B68" s="76">
+      <c r="B68" s="16">
         <v>2</v>
       </c>
-      <c r="C68" s="77">
+      <c r="C68" s="73">
         <v>45629</v>
       </c>
-      <c r="D68" s="78" t="s">
+      <c r="D68" s="18" t="s">
         <v>407</v>
       </c>
-      <c r="E68" s="78">
+      <c r="E68" s="18">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="F68" s="75" t="s">
+      <c r="F68" s="14" t="s">
         <v>408</v>
       </c>
-      <c r="G68" s="75" t="s">
+      <c r="G68" s="14" t="s">
         <v>409</v>
       </c>
-      <c r="H68" s="75" t="s">
+      <c r="H68" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I68" s="75" t="s">
+      <c r="I68" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="J68" s="75" t="s">
+      <c r="J68" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="K68" s="75" t="s">
+      <c r="K68" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="L68" s="79" t="s">
+      <c r="L68" s="15" t="s">
         <v>417</v>
       </c>
-      <c r="M68" s="79" t="s">
+      <c r="M68" s="15" t="s">
         <v>364</v>
       </c>
-      <c r="N68" s="79" t="s">
+      <c r="N68" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="O68" s="79" t="s">
+      <c r="O68" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="P68" s="79" t="s">
+      <c r="P68" s="15" t="s">
         <v>59</v>
       </c>
     </row>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC333869-F492-4D8C-8975-D105FA3B23B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A05557-9B5C-499E-8784-E484190B4889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="448">
   <si>
     <t>아이디</t>
   </si>
@@ -3139,6 +3139,87 @@
   </si>
   <si>
     <t>아웃바운드 결과, 곰팡이는 아닌것으로 확인 완료. 합판 교환 권했으나 괜찮다고 하셔서 추후 교환 혹은 기프티콘 전송으로 처리 예정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>am****</t>
+  </si>
+  <si>
+    <t>팔 때 선택사항에 없길래 기본 구성품인줄 알았는데 ㅎ 따로 사야하고 배송비도 있고 가격도 예상보다 비싸고 그르네요</t>
+  </si>
+  <si>
+    <t>추가상품명: 홈던트하우스 기둥연결브래킷 / 추가상품값: 화이트(4개)</t>
+  </si>
+  <si>
+    <t>https://brand.naver.com/speedrack/products/4930705433</t>
+  </si>
+  <si>
+    <t>선반 추가부품(추가3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">기둥연결브라켓 누락이 아닌 높이 900 제품 구매건으로 확인 완료 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타부속품</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>기둥연결브라켓</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객지원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-08</t>
+  </si>
+  <si>
+    <t>제품은 민족하나 배송으로 인한 파손으로 3점드립니다.
+부실한 포장이 문제인지 택배사가
+문제인지 개선이 필요합니다
+(2024-12-07 20:46:53 에 등록된 네이버 페이 구매평)</t>
+  </si>
+  <si>
+    <t>중량스피드랙 독립형 모음 - 12T 양면코팅합판</t>
+  </si>
+  <si>
+    <t>https://speedrack.co.kr/product/detailSimulator.html?product_no=109</t>
+  </si>
+  <si>
+    <t>아웃바운드하여 네이버페이 교환건으로 발송 조치 완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>파손</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>물류</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>smile****89</t>
+  </si>
+  <si>
+    <t>600*500 구매하고 너무 맘에 들어 바로 700*600 하나더 구매했는데 받침대와선반이 이미 휘어짐 증상이 전체적으로 있었어요 😭 교환 고민하다가 귀찮아서 그냥 조립했습니다 
+담에는 받침대나 선반 휘어짐 증상 검수해주셨음 좋겠네요 ㅜㅜ</t>
+  </si>
+  <si>
+    <t>홈던트하우스 조립식 팬트리 철제 수납 선반 앵글
+가로x깊이(설치시 여유공간확보): 홈던트하우스 700x600 / 높이(프레임색상): 1950 2단 (화이트)</t>
+  </si>
+  <si>
+    <t>아웃바운드하였으나 부재로, 추후 교환 혹은 기프티콘 발송 예정</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3401,7 +3482,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3620,6 +3701,16 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3958,10 +4049,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
-  <dimension ref="A1:P71"/>
+  <dimension ref="A1:P74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="L71" sqref="L71"/>
+    <sheetView tabSelected="1" topLeftCell="C71" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4472,7 +4563,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="99" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>81</v>
       </c>
@@ -7413,6 +7504,9 @@
       <c r="O69" s="15" t="s">
         <v>57</v>
       </c>
+      <c r="P69" s="15" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="70" spans="1:16" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
@@ -7512,7 +7606,156 @@
       <c r="O71" s="58" t="s">
         <v>424</v>
       </c>
-      <c r="P71" s="58"/>
+      <c r="P71" s="58" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="33" x14ac:dyDescent="0.25">
+      <c r="A72" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="B72" s="16">
+        <v>2</v>
+      </c>
+      <c r="C72" s="73">
+        <v>45638</v>
+      </c>
+      <c r="D72" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="E72" s="23">
+        <v>63</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="G72" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="H72" t="s">
+        <v>21</v>
+      </c>
+      <c r="I72" t="s">
+        <v>22</v>
+      </c>
+      <c r="J72" t="s">
+        <v>117</v>
+      </c>
+      <c r="K72" t="s">
+        <v>430</v>
+      </c>
+      <c r="L72" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="M72" t="s">
+        <v>432</v>
+      </c>
+      <c r="N72" t="s">
+        <v>433</v>
+      </c>
+      <c r="O72" t="s">
+        <v>434</v>
+      </c>
+      <c r="P72" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="180" x14ac:dyDescent="0.25">
+      <c r="A73" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B73" s="75">
+        <v>3</v>
+      </c>
+      <c r="C73" s="76" t="s">
+        <v>436</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E73" s="23">
+        <v>109</v>
+      </c>
+      <c r="F73" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="G73" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="H73" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I73" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="J73" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="K73" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L73" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="M73" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="N73" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="O73" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="P73" s="14" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" s="32" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="70" t="s">
+        <v>444</v>
+      </c>
+      <c r="B74" s="77">
+        <v>3</v>
+      </c>
+      <c r="C74" s="78">
+        <v>45636</v>
+      </c>
+      <c r="D74" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="E74" s="46">
+        <v>134</v>
+      </c>
+      <c r="F74" s="70" t="s">
+        <v>446</v>
+      </c>
+      <c r="G74" s="70" t="s">
+        <v>313</v>
+      </c>
+      <c r="H74" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="I74" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="J74" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="K74" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="L74" s="32" t="s">
+        <v>447</v>
+      </c>
+      <c r="M74" s="32" t="s">
+        <v>441</v>
+      </c>
+      <c r="N74" s="32" t="s">
+        <v>442</v>
+      </c>
+      <c r="O74" s="32" t="s">
+        <v>443</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:P66" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}"/>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A05557-9B5C-499E-8784-E484190B4889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4986BE-A1AF-4849-86FB-73FE08B55EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="447">
   <si>
     <t>아이디</t>
   </si>
@@ -3175,9 +3175,6 @@
   <si>
     <t>완료</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024-12-08</t>
   </si>
   <si>
     <t>제품은 민족하나 배송으로 인한 파손으로 3점드립니다.
@@ -3482,7 +3479,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3705,12 +3702,11 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="177" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4051,7 +4047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
   <dimension ref="A1:P74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C71" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
       <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
@@ -7667,20 +7663,20 @@
       <c r="B73" s="75">
         <v>3</v>
       </c>
-      <c r="C73" s="76" t="s">
+      <c r="C73" s="74">
+        <v>45634</v>
+      </c>
+      <c r="D73" s="11" t="s">
         <v>436</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>437</v>
       </c>
       <c r="E73" s="23">
         <v>109</v>
       </c>
       <c r="F73" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="G73" s="25" t="s">
         <v>438</v>
-      </c>
-      <c r="G73" s="25" t="s">
-        <v>439</v>
       </c>
       <c r="H73" s="14" t="s">
         <v>32</v>
@@ -7695,16 +7691,16 @@
         <v>34</v>
       </c>
       <c r="L73" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="M73" s="14" t="s">
         <v>440</v>
       </c>
-      <c r="M73" s="14" t="s">
+      <c r="N73" s="14" t="s">
         <v>441</v>
       </c>
-      <c r="N73" s="14" t="s">
+      <c r="O73" s="14" t="s">
         <v>442</v>
-      </c>
-      <c r="O73" s="14" t="s">
-        <v>443</v>
       </c>
       <c r="P73" s="14" t="s">
         <v>435</v>
@@ -7712,22 +7708,22 @@
     </row>
     <row r="74" spans="1:16" s="32" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A74" s="70" t="s">
+        <v>443</v>
+      </c>
+      <c r="B74" s="76">
+        <v>3</v>
+      </c>
+      <c r="C74" s="77">
+        <v>45636</v>
+      </c>
+      <c r="D74" s="31" t="s">
         <v>444</v>
-      </c>
-      <c r="B74" s="77">
-        <v>3</v>
-      </c>
-      <c r="C74" s="78">
-        <v>45636</v>
-      </c>
-      <c r="D74" s="31" t="s">
-        <v>445</v>
       </c>
       <c r="E74" s="46">
         <v>134</v>
       </c>
       <c r="F74" s="70" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G74" s="70" t="s">
         <v>313</v>
@@ -7745,16 +7741,16 @@
         <v>34</v>
       </c>
       <c r="L74" s="32" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="M74" s="32" t="s">
+        <v>440</v>
+      </c>
+      <c r="N74" s="32" t="s">
         <v>441</v>
       </c>
-      <c r="N74" s="32" t="s">
+      <c r="O74" s="32" t="s">
         <v>442</v>
-      </c>
-      <c r="O74" s="32" t="s">
-        <v>443</v>
       </c>
     </row>
   </sheetData>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4986BE-A1AF-4849-86FB-73FE08B55EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037F5400-892A-4C11-98AF-CB34DA2C1A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="457">
   <si>
     <t>아이디</t>
   </si>
@@ -3217,6 +3217,44 @@
   </si>
   <si>
     <t>아웃바운드하였으나 부재로, 추후 교환 혹은 기프티콘 발송 예정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lena****</t>
+  </si>
+  <si>
+    <t>우선 다른 행거 사보고 여기꺼도 구매 했는데 다른점은 다른행거 업체는 대충 설명해도 하나라도 더 팔려고하는지 도면을 엄청 신경써서 그리고 구매링크 공유 및 최종 컨펌까지 꼼꼼하게 해주면서 주문 실수가 없도록 섬세하게 챙겨줬는데 여기는 그런 서비스가 부족하죠 주문 실수로 넣어도 필요없는거 구매 했는데 다 본인 책임이에요,,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가상품명: 홈던트하우스 C후크 / 추가상품값: 백색 4개</t>
+  </si>
+  <si>
+    <t>2024-12-18</t>
+  </si>
+  <si>
+    <t>예전부터 쓰던거라 사이즈만 줄이려고 어쩔수없이 샀지만, 다른 각종 부품에 대한 문의를 하면 매크로인가 할 정도로 불친절한 응대에 감탄했습니다.
+(2024-12-17 10:29:40 에 등록된 네이버 페이 구매평)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>브랜드 공용 부품 합판추가(9T, 12T) 백색/우드 양면코팅</t>
+  </si>
+  <si>
+    <t>https://speedrack.co.kr/product/detailSimulator.html?product_no=113</t>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>불만 원인 파악 결과, 퀵 요청하여 금액 안내드렸으나 비싸서 거부 및 일반 택배로 출고 완료된 건.
+서비스 불만 방지를 위한 문의글 응대 방식 점검 진행</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아웃바운드 결과, 온라인지점 도면서비스 및 주문서 확인 과정까지 이상없이 진행되었음.
+도면서비스 응대 절차 점검 및 표준화 진행 예정</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3479,7 +3517,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3706,6 +3744,15 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4045,10 +4092,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
-  <dimension ref="A1:P74"/>
+  <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="F72" workbookViewId="0">
+      <selection activeCell="L75" sqref="L75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4058,7 +4105,7 @@
     <col min="9" max="9" width="28.6640625" customWidth="1"/>
     <col min="10" max="10" width="29" customWidth="1"/>
     <col min="11" max="11" width="8.88671875" style="54"/>
-    <col min="12" max="12" width="27" style="35" customWidth="1"/>
+    <col min="12" max="12" width="65.44140625" style="35" customWidth="1"/>
     <col min="13" max="14" width="13" style="54" customWidth="1"/>
     <col min="15" max="16" width="8.88671875" style="54"/>
   </cols>
@@ -4359,7 +4406,7 @@
       </c>
       <c r="P6" s="35"/>
     </row>
-    <row r="7" spans="1:16" s="15" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="15" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>51</v>
       </c>
@@ -4559,7 +4606,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="99" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>81</v>
       </c>
@@ -4707,7 +4754,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>100</v>
       </c>
@@ -5057,7 +5104,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
         <v>131</v>
       </c>
@@ -6105,7 +6152,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="66" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" ht="33" x14ac:dyDescent="0.3">
       <c r="A42" s="25" t="s">
         <v>238</v>
       </c>
@@ -6999,7 +7046,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
         <v>323</v>
       </c>
@@ -7250,7 +7297,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>387</v>
       </c>
@@ -7301,7 +7348,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="66" spans="1:16" s="32" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" s="32" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A66" s="32" t="s">
         <v>393</v>
       </c>
@@ -7351,7 +7398,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="67" spans="1:16" s="32" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" s="32" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A67" s="28" t="s">
         <v>131</v>
       </c>
@@ -7751,6 +7798,106 @@
       </c>
       <c r="O74" s="32" t="s">
         <v>442</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="53" t="s">
+        <v>447</v>
+      </c>
+      <c r="B75" s="78">
+        <v>3</v>
+      </c>
+      <c r="C75" s="73">
+        <v>45648</v>
+      </c>
+      <c r="D75" s="36" t="s">
+        <v>448</v>
+      </c>
+      <c r="E75" s="36">
+        <v>180</v>
+      </c>
+      <c r="F75" s="53" t="s">
+        <v>449</v>
+      </c>
+      <c r="G75" s="53" t="s">
+        <v>429</v>
+      </c>
+      <c r="H75" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="I75" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="J75" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="K75" s="53" t="s">
+        <v>430</v>
+      </c>
+      <c r="L75" s="36" t="s">
+        <v>456</v>
+      </c>
+      <c r="M75" s="54" t="s">
+        <v>332</v>
+      </c>
+      <c r="N75" s="54" t="s">
+        <v>333</v>
+      </c>
+      <c r="O75" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="P75" s="54" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" s="32" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A76" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="B76" s="79">
+        <v>1</v>
+      </c>
+      <c r="C76" s="80" t="s">
+        <v>450</v>
+      </c>
+      <c r="D76" s="40" t="s">
+        <v>451</v>
+      </c>
+      <c r="E76" s="57">
+        <v>119</v>
+      </c>
+      <c r="F76" s="58" t="s">
+        <v>452</v>
+      </c>
+      <c r="G76" s="58" t="s">
+        <v>453</v>
+      </c>
+      <c r="H76" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="I76" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="J76" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="K76" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="L76" s="57" t="s">
+        <v>455</v>
+      </c>
+      <c r="M76" s="58" t="s">
+        <v>332</v>
+      </c>
+      <c r="N76" s="58" t="s">
+        <v>333</v>
+      </c>
+      <c r="O76" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="P76" s="58" t="s">
+        <v>454</v>
       </c>
     </row>
   </sheetData>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037F5400-892A-4C11-98AF-CB34DA2C1A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECA1890-FC54-403D-809F-3020360FCC00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4094,7 +4094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
   <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F72" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D72" workbookViewId="0">
       <selection activeCell="L75" sqref="L75"/>
     </sheetView>
   </sheetViews>
@@ -4606,7 +4606,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="99" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>81</v>
       </c>
@@ -7800,103 +7800,103 @@
         <v>442</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="53" t="s">
+    <row r="75" spans="1:16" s="32" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A75" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="B75" s="79">
+        <v>1</v>
+      </c>
+      <c r="C75" s="80" t="s">
+        <v>450</v>
+      </c>
+      <c r="D75" s="40" t="s">
+        <v>451</v>
+      </c>
+      <c r="E75" s="57">
+        <v>119</v>
+      </c>
+      <c r="F75" s="58" t="s">
+        <v>452</v>
+      </c>
+      <c r="G75" s="58" t="s">
+        <v>453</v>
+      </c>
+      <c r="H75" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="I75" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="J75" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="K75" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="L75" s="57" t="s">
+        <v>455</v>
+      </c>
+      <c r="M75" s="58" t="s">
+        <v>332</v>
+      </c>
+      <c r="N75" s="58" t="s">
+        <v>333</v>
+      </c>
+      <c r="O75" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="P75" s="58" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="53" t="s">
         <v>447</v>
       </c>
-      <c r="B75" s="78">
+      <c r="B76" s="78">
         <v>3</v>
       </c>
-      <c r="C75" s="73">
+      <c r="C76" s="73">
         <v>45648</v>
       </c>
-      <c r="D75" s="36" t="s">
+      <c r="D76" s="36" t="s">
         <v>448</v>
       </c>
-      <c r="E75" s="36">
+      <c r="E76" s="36">
         <v>180</v>
       </c>
-      <c r="F75" s="53" t="s">
+      <c r="F76" s="53" t="s">
         <v>449</v>
       </c>
-      <c r="G75" s="53" t="s">
+      <c r="G76" s="53" t="s">
         <v>429</v>
       </c>
-      <c r="H75" s="53" t="s">
+      <c r="H76" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="I75" s="53" t="s">
+      <c r="I76" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="J75" s="53" t="s">
+      <c r="J76" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="K75" s="53" t="s">
+      <c r="K76" s="53" t="s">
         <v>430</v>
       </c>
-      <c r="L75" s="36" t="s">
+      <c r="L76" s="36" t="s">
         <v>456</v>
       </c>
-      <c r="M75" s="54" t="s">
+      <c r="M76" s="54" t="s">
         <v>332</v>
       </c>
-      <c r="N75" s="54" t="s">
+      <c r="N76" s="54" t="s">
         <v>333</v>
       </c>
-      <c r="O75" s="54" t="s">
+      <c r="O76" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="P75" s="54" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" s="32" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A76" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="B76" s="79">
-        <v>1</v>
-      </c>
-      <c r="C76" s="80" t="s">
-        <v>450</v>
-      </c>
-      <c r="D76" s="40" t="s">
-        <v>451</v>
-      </c>
-      <c r="E76" s="57">
-        <v>119</v>
-      </c>
-      <c r="F76" s="58" t="s">
-        <v>452</v>
-      </c>
-      <c r="G76" s="58" t="s">
-        <v>453</v>
-      </c>
-      <c r="H76" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="I76" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="J76" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="K76" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="L76" s="57" t="s">
-        <v>455</v>
-      </c>
-      <c r="M76" s="58" t="s">
-        <v>332</v>
-      </c>
-      <c r="N76" s="58" t="s">
-        <v>333</v>
-      </c>
-      <c r="O76" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="P76" s="58" t="s">
+      <c r="P76" s="54" t="s">
         <v>454</v>
       </c>
     </row>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECA1890-FC54-403D-809F-3020360FCC00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD5CF87-6197-40BF-B384-A4186C2BDFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="458">
   <si>
     <t>아이디</t>
   </si>
@@ -3253,8 +3253,12 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>아웃바운드 결과, 온라인지점 도면서비스 및 주문서 확인 과정까지 이상없이 진행되었음.
-도면서비스 응대 절차 점검 및 표준화 진행 예정</t>
+    <t>아웃바운드 결과, 도면서비스 및 주문서 확인 과정까지 이상없이 진행되었으나 도면 상담을 위한 자세한 정보 파악 단계에서 불편함이 발생한 것으로 파악 완료.
+도면서비스 응대 절차 점검 및 표준화 논의 예정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3746,13 +3750,13 @@
     <xf numFmtId="14" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4094,8 +4098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
   <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D72" workbookViewId="0">
-      <selection activeCell="L75" sqref="L75"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7799,15 +7803,18 @@
       <c r="O74" s="32" t="s">
         <v>442</v>
       </c>
+      <c r="P74" s="32" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="75" spans="1:16" s="32" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="B75" s="79">
+      <c r="B75" s="78">
         <v>1</v>
       </c>
-      <c r="C75" s="80" t="s">
+      <c r="C75" s="79" t="s">
         <v>450</v>
       </c>
       <c r="D75" s="40" t="s">
@@ -7850,55 +7857,53 @@
         <v>454</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="53" t="s">
+    <row r="76" spans="1:16" s="32" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="55" t="s">
         <v>447</v>
       </c>
-      <c r="B76" s="78">
+      <c r="B76" s="80">
         <v>3</v>
       </c>
-      <c r="C76" s="73">
+      <c r="C76" s="72">
         <v>45648</v>
       </c>
-      <c r="D76" s="36" t="s">
+      <c r="D76" s="57" t="s">
         <v>448</v>
       </c>
-      <c r="E76" s="36">
+      <c r="E76" s="57">
         <v>180</v>
       </c>
-      <c r="F76" s="53" t="s">
+      <c r="F76" s="55" t="s">
         <v>449</v>
       </c>
-      <c r="G76" s="53" t="s">
+      <c r="G76" s="55" t="s">
         <v>429</v>
       </c>
-      <c r="H76" s="53" t="s">
+      <c r="H76" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="I76" s="53" t="s">
+      <c r="I76" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="J76" s="53" t="s">
+      <c r="J76" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="K76" s="53" t="s">
+      <c r="K76" s="55" t="s">
         <v>430</v>
       </c>
-      <c r="L76" s="36" t="s">
+      <c r="L76" s="57" t="s">
         <v>456</v>
       </c>
-      <c r="M76" s="54" t="s">
+      <c r="M76" s="58" t="s">
         <v>332</v>
       </c>
-      <c r="N76" s="54" t="s">
+      <c r="N76" s="58" t="s">
         <v>333</v>
       </c>
-      <c r="O76" s="54" t="s">
+      <c r="O76" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="P76" s="54" t="s">
-        <v>454</v>
-      </c>
+      <c r="P76" s="58"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:P66" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}"/>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD5CF87-6197-40BF-B384-A4186C2BDFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47334711-C797-4811-B1F2-B649C9880ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47334711-C797-4811-B1F2-B649C9880ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D018C12E-F114-4B3B-BBEB-AB516F6354FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="457">
   <si>
     <t>아이디</t>
   </si>
@@ -3228,9 +3228,6 @@
   </si>
   <si>
     <t>추가상품명: 홈던트하우스 C후크 / 추가상품값: 백색 4개</t>
-  </si>
-  <si>
-    <t>2024-12-18</t>
   </si>
   <si>
     <t>예전부터 쓰던거라 사이즈만 줄이려고 어쩔수없이 샀지만, 다른 각종 부품에 대한 문의를 하면 매크로인가 할 정도로 불친절한 응대에 감탄했습니다.
@@ -4098,8 +4095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
   <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7804,7 +7801,7 @@
         <v>442</v>
       </c>
       <c r="P74" s="32" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="75" spans="1:16" s="32" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -7814,20 +7811,20 @@
       <c r="B75" s="78">
         <v>1</v>
       </c>
-      <c r="C75" s="79" t="s">
+      <c r="C75" s="79">
+        <v>45644</v>
+      </c>
+      <c r="D75" s="40" t="s">
         <v>450</v>
-      </c>
-      <c r="D75" s="40" t="s">
-        <v>451</v>
       </c>
       <c r="E75" s="57">
         <v>119</v>
       </c>
       <c r="F75" s="58" t="s">
+        <v>451</v>
+      </c>
+      <c r="G75" s="58" t="s">
         <v>452</v>
-      </c>
-      <c r="G75" s="58" t="s">
-        <v>453</v>
       </c>
       <c r="H75" s="55" t="s">
         <v>32</v>
@@ -7842,7 +7839,7 @@
         <v>48</v>
       </c>
       <c r="L75" s="57" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M75" s="58" t="s">
         <v>332</v>
@@ -7854,7 +7851,7 @@
         <v>57</v>
       </c>
       <c r="P75" s="58" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="76" spans="1:16" s="32" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7892,7 +7889,7 @@
         <v>430</v>
       </c>
       <c r="L76" s="57" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M76" s="58" t="s">
         <v>332</v>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D018C12E-F114-4B3B-BBEB-AB516F6354FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0B985A-411B-41B9-AE2C-F2A5A803440A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="471">
   <si>
     <t>아이디</t>
   </si>
@@ -3256,6 +3256,58 @@
   </si>
   <si>
     <t>완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kang******</t>
+  </si>
+  <si>
+    <t>홈던트 선반은 늘 애용하는 제품이에용!!! 근데 이번에 처음으로 불량 걸렸네요ㅠㅠ
+끼우는 폼이 불량인지 다른칸은 잘 들어가는데 위에만 들어가질 않아여ㅠ</t>
+  </si>
+  <si>
+    <t>가로(설치시 여유공간확보): 400 / 깊이(mm): 300 / 높이(mm): 1500(기본2단)</t>
+  </si>
+  <si>
+    <t>아웃바운드 결과, 기둥 파손으로 인한 조립불가로 확인완료.
+사과의 말씀 및 기둥 1개 재출고 CS접수 완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>파손</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객지원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dhsr*****</t>
+  </si>
+  <si>
+    <t>2024-12-29</t>
+  </si>
+  <si>
+    <t>쿠팡에서 스피드랙 제품을 샀었는데 일부구성품 누락으로 인해서 결국 따로 추가구매를 할수밖에 없었네요..
+제품은 튼튼하고 좋습니다</t>
+  </si>
+  <si>
+    <t>제품유형: 받침 낱개(사이드 안전바) / 사이즈: 400mm / 색상: 백색</t>
+  </si>
+  <si>
+    <t>아웃바운드하였으나 부재로, 누락 상황 파악 후 기프티콘 발송 예정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>누락</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3518,7 +3570,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3755,6 +3807,21 @@
     </xf>
     <xf numFmtId="177" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4093,10 +4160,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
-  <dimension ref="A1:P76"/>
+  <dimension ref="A1:P78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" topLeftCell="F72" workbookViewId="0">
+      <selection activeCell="P78" sqref="P78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4607,7 +4674,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="99" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>81</v>
       </c>
@@ -7901,6 +7968,103 @@
         <v>57</v>
       </c>
       <c r="P76" s="58"/>
+    </row>
+    <row r="77" spans="1:16" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="83" t="s">
+        <v>457</v>
+      </c>
+      <c r="B77" s="83">
+        <v>3</v>
+      </c>
+      <c r="C77" s="85">
+        <v>45661</v>
+      </c>
+      <c r="D77" s="84" t="s">
+        <v>458</v>
+      </c>
+      <c r="E77" s="83">
+        <v>84</v>
+      </c>
+      <c r="F77" s="83" t="s">
+        <v>459</v>
+      </c>
+      <c r="G77" s="83" t="s">
+        <v>180</v>
+      </c>
+      <c r="H77" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="I77" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="J77" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="K77" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="L77" s="40" t="s">
+        <v>460</v>
+      </c>
+      <c r="M77" s="58" t="s">
+        <v>461</v>
+      </c>
+      <c r="N77" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="O77" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="P77" s="58" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="81" t="s">
+        <v>465</v>
+      </c>
+      <c r="B78" s="81">
+        <v>3</v>
+      </c>
+      <c r="C78" s="81" t="s">
+        <v>466</v>
+      </c>
+      <c r="D78" s="82" t="s">
+        <v>467</v>
+      </c>
+      <c r="E78" s="81">
+        <v>71</v>
+      </c>
+      <c r="F78" s="81" t="s">
+        <v>468</v>
+      </c>
+      <c r="G78" s="81" t="s">
+        <v>320</v>
+      </c>
+      <c r="H78" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="I78" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="J78" s="81" t="s">
+        <v>321</v>
+      </c>
+      <c r="K78" s="81" t="s">
+        <v>322</v>
+      </c>
+      <c r="L78" s="54" t="s">
+        <v>469</v>
+      </c>
+      <c r="M78" s="54" t="s">
+        <v>461</v>
+      </c>
+      <c r="N78" s="54" t="s">
+        <v>470</v>
+      </c>
+      <c r="O78" s="54" t="s">
+        <v>463</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:P66" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}"/>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0B985A-411B-41B9-AE2C-F2A5A803440A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9CE628-381A-4A8B-904D-6FC7E185E596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="470">
   <si>
     <t>아이디</t>
   </si>
@@ -3291,9 +3291,6 @@
   </si>
   <si>
     <t>dhsr*****</t>
-  </si>
-  <si>
-    <t>2024-12-29</t>
   </si>
   <si>
     <t>쿠팡에서 스피드랙 제품을 샀었는데 일부구성품 누락으로 인해서 결국 따로 추가구매를 할수밖에 없었네요..
@@ -3570,7 +3567,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3821,6 +3818,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4162,8 +4162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
   <dimension ref="A1:P78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F72" workbookViewId="0">
-      <selection activeCell="P78" sqref="P78"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8026,17 +8026,17 @@
       <c r="B78" s="81">
         <v>3</v>
       </c>
-      <c r="C78" s="81" t="s">
+      <c r="C78" s="86">
+        <v>45655</v>
+      </c>
+      <c r="D78" s="82" t="s">
         <v>466</v>
-      </c>
-      <c r="D78" s="82" t="s">
-        <v>467</v>
       </c>
       <c r="E78" s="81">
         <v>71</v>
       </c>
       <c r="F78" s="81" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G78" s="81" t="s">
         <v>320</v>
@@ -8054,13 +8054,13 @@
         <v>322</v>
       </c>
       <c r="L78" s="54" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="M78" s="54" t="s">
         <v>461</v>
       </c>
       <c r="N78" s="54" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="O78" s="54" t="s">
         <v>463</v>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9CE628-381A-4A8B-904D-6FC7E185E596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179C98AF-7FE4-4A4B-825F-C2ECA8AEEB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$81</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="499">
   <si>
     <t>아이디</t>
   </si>
@@ -3307,6 +3307,122 @@
     <t>누락</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>blis***</t>
+  </si>
+  <si>
+    <t>다용도j후크 이미지 새로 등록해주세요.
+이미지에 있는 내용보고 1개 세트 구입시 4개 오는 줄 알고 3개 구입했는데 진짜 3개 왔네요.... 배송비 또 써야겠어요.</t>
+  </si>
+  <si>
+    <t>상세페이지 오류 수정 완료.
+아웃바운드했으나 부재로, 추후 제품 출고 및 기프티콘 발송 예정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스 개선</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객지원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>isla*****</t>
+  </si>
+  <si>
+    <t>남는 공간에 딱 맞게 설치했습니다.
+조립도 쉽고 좋은데, 선반 모서리가 찌그러져서 왔네요.. 교환 귀찮아서 그냥 쓰려구요.</t>
+  </si>
+  <si>
+    <t>가로x깊이: 가로800x깊이400 / 높이: 1800(2.5단)</t>
+  </si>
+  <si>
+    <t>ksw5802</t>
+  </si>
+  <si>
+    <t>하 반품 귀찮아서 걍 씁니다~합판 엣지 끝부분도 날라가고 ..</t>
+  </si>
+  <si>
+    <t>홈던트하우스 드레스룸 조립식 철제 시스템행거 2colors
+추가상품 - 행거 단추가세트 1000x500(화이트) 홈던트하우스</t>
+  </si>
+  <si>
+    <t>아웃바운드하여 사과 후, 800*400 합판 2장 cs접수 완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">아웃바운드하여 사과 후, 1000*500 합판 2장 cs접수 완료 
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>파손</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dudf****</t>
+  </si>
+  <si>
+    <t>별하나도 아까운 서비스입니다
+부분 반품이 생겨서 반품비용 입금을해야 반품처리 된다라고해서 입금을 완료하고 20일이 된시점에도 화수도 안해가고 전화하면 연락 두절되고 화가나서 소비자원에 고발조치 한다라고문자보내니 그때야  먼저 전화오는거 있죠 ...
+베란다 선빈도 하나 더 주믄할려고 했다가 화가니서 다른 회사 제품으로 주문했어요
+암튼 서비스는 꽝입니다!!!</t>
+  </si>
+  <si>
+    <t>가로(폭): 1200 / 세로(깊이): 500 / 높이(mm): 1950(4단)</t>
+  </si>
+  <si>
+    <t>영업팀에서 거래처 확인 결과, 택배 영업소 측 일정으로 인해 지연된 것으로 확인. 아웃바운드 및 답글 통해 처리 완료된 것으로 확인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ehya*****</t>
+  </si>
+  <si>
+    <t>숙박업소 운영중이라 이불커버,침대커버 적재용으로 3개를 구입했습니다.
+철재힘이 안들어갑니다.
+무거운거 적재하면 상판 부러질것같아서 5키로 넘는거 적재할수가 없습니다.
+중간에 끼우는 보강대를 보내주셨는데 그건 그냥 고철입니다.
+아주 불필요합니다.
+이돈이면 다른제품 사는게 정신건강에 좋습니다.
+가장 중요한건 고객센터 대응 굉장히 불친절합니다.</t>
+  </si>
+  <si>
+    <t>가로(mm) x 세로(mm): 1500 x 600 / 전체높이(mm): 1500 / 단수(합판수량): 3단</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/anglenara/products/5158074630</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>영업팀 전달 완료. 해당 거래처와 상황 파악 후 조치 예정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객응대</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>영업</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -3316,7 +3432,7 @@
     <numFmt numFmtId="176" formatCode="_-[$₩-412]* #,##0_-;\-[$₩-412]* #,##0_-;_-[$₩-412]* \-??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3477,6 +3593,14 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Pretendard"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3559,15 +3683,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3823,10 +3950,17 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1" xr:uid="{32448DBE-013B-48AD-89E3-6A04A09F73A8}"/>
+    <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
@@ -4160,10 +4294,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
-  <dimension ref="A1:P78"/>
+  <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4173,7 +4307,7 @@
     <col min="9" max="9" width="28.6640625" customWidth="1"/>
     <col min="10" max="10" width="29" customWidth="1"/>
     <col min="11" max="11" width="8.88671875" style="54"/>
-    <col min="12" max="12" width="65.44140625" style="35" customWidth="1"/>
+    <col min="12" max="12" width="70.5546875" style="35" customWidth="1"/>
     <col min="13" max="14" width="13" style="54" customWidth="1"/>
     <col min="15" max="16" width="8.88671875" style="54"/>
   </cols>
@@ -8065,10 +8199,262 @@
       <c r="O78" s="54" t="s">
         <v>463</v>
       </c>
+      <c r="P78" s="54" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" s="32" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A79" s="43" t="s">
+        <v>470</v>
+      </c>
+      <c r="B79" s="44">
+        <v>3</v>
+      </c>
+      <c r="C79" s="79">
+        <v>45667</v>
+      </c>
+      <c r="D79" s="46" t="s">
+        <v>471</v>
+      </c>
+      <c r="E79" s="31">
+        <v>91</v>
+      </c>
+      <c r="F79" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="G79" s="87" t="s">
+        <v>320</v>
+      </c>
+      <c r="H79" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="I79" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="J79" s="58" t="s">
+        <v>321</v>
+      </c>
+      <c r="K79" s="58" t="s">
+        <v>322</v>
+      </c>
+      <c r="L79" s="57" t="s">
+        <v>472</v>
+      </c>
+      <c r="M79" s="70" t="s">
+        <v>346</v>
+      </c>
+      <c r="N79" s="58" t="s">
+        <v>473</v>
+      </c>
+      <c r="O79" s="58" t="s">
+        <v>474</v>
+      </c>
+      <c r="P79" s="58"/>
+    </row>
+    <row r="80" spans="1:16" ht="33" x14ac:dyDescent="0.25">
+      <c r="A80" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="B80" s="16">
+        <v>3</v>
+      </c>
+      <c r="C80" s="73">
+        <v>45668</v>
+      </c>
+      <c r="D80" s="18" t="s">
+        <v>476</v>
+      </c>
+      <c r="E80" s="18">
+        <v>68</v>
+      </c>
+      <c r="F80" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="G80" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H80" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="I80" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="J80" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="K80" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="L80" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="M80" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="N80" s="54" t="s">
+        <v>484</v>
+      </c>
+      <c r="O80" s="54" t="s">
+        <v>474</v>
+      </c>
+      <c r="P80" s="54" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" ht="33" x14ac:dyDescent="0.25">
+      <c r="A81" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="B81" s="16">
+        <v>1</v>
+      </c>
+      <c r="C81" s="73">
+        <v>45664</v>
+      </c>
+      <c r="D81" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="E81" s="18">
+        <v>34</v>
+      </c>
+      <c r="F81" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="G81" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="H81" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="I81" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="J81" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="K81" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="L81" s="36" t="s">
+        <v>482</v>
+      </c>
+      <c r="M81" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="N81" s="54" t="s">
+        <v>484</v>
+      </c>
+      <c r="O81" s="54" t="s">
+        <v>474</v>
+      </c>
+      <c r="P81" s="54" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="B82" s="16">
+        <v>1</v>
+      </c>
+      <c r="C82" s="73">
+        <v>45667</v>
+      </c>
+      <c r="D82" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="E82" s="18">
+        <v>199</v>
+      </c>
+      <c r="F82" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="G82" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H82" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="I82" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="J82" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="K82" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="L82" s="54" t="s">
+        <v>489</v>
+      </c>
+      <c r="M82" s="54" t="s">
+        <v>495</v>
+      </c>
+      <c r="N82" s="54" t="s">
+        <v>333</v>
+      </c>
+      <c r="O82" s="54" t="s">
+        <v>497</v>
+      </c>
+      <c r="P82" s="54" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="B83" s="16">
+        <v>1</v>
+      </c>
+      <c r="C83" s="73">
+        <v>45666</v>
+      </c>
+      <c r="D83" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="E83" s="18">
+        <v>190</v>
+      </c>
+      <c r="F83" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="G83" s="88" t="s">
+        <v>493</v>
+      </c>
+      <c r="H83" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="I83" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="J83" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="K83" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="L83" s="54" t="s">
+        <v>494</v>
+      </c>
+      <c r="M83" s="54" t="s">
+        <v>495</v>
+      </c>
+      <c r="N83" s="54" t="s">
+        <v>496</v>
+      </c>
+      <c r="O83" s="54" t="s">
+        <v>497</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P66" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}"/>
+  <autoFilter ref="A1:P81" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}"/>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G79" r:id="rId1" xr:uid="{A7346326-C933-4BE9-B9D5-D307D3E7BF06}"/>
+    <hyperlink ref="G83" r:id="rId2" xr:uid="{2E5E3DD6-31D7-49FC-A3C1-B42D9430D64C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179C98AF-7FE4-4A4B-825F-C2ECA8AEEB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8864F1A9-D183-4BCE-99AA-DDDCFC10DDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="507">
   <si>
     <t>아이디</t>
   </si>
@@ -3315,11 +3315,6 @@
 이미지에 있는 내용보고 1개 세트 구입시 4개 오는 줄 알고 3개 구입했는데 진짜 3개 왔네요.... 배송비 또 써야겠어요.</t>
   </si>
   <si>
-    <t>상세페이지 오류 수정 완료.
-아웃바운드했으나 부재로, 추후 제품 출고 및 기프티콘 발송 예정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>서비스 개선</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3421,6 +3416,47 @@
   </si>
   <si>
     <t>완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>isue****</t>
+  </si>
+  <si>
+    <t>집에 행거 이용중이라서 이번엔 선반 구입했습니다. 타공이 보이냐 안보이냐 뭐 이런 차이인거 같은데 사실 안보이는게 깔끔하긴 합니다. 
+옷장이나 수납장으로 하면 훨 깔끔한데 이사하는게 일이 많아 질꺼같아서 스피드랙을 선호하는데요. 
+이리저리 위치 옮길때도 편하고 좋아요. 
+단 망치질은 여전히 소리가 크다. 망치 두종류 써봤는데 다 똑같네요 ㅋ 
+엘플레이트를 사용하면 확실히 안정감이 있지만 그거 없으면 뭔가 불안하다. 
+요 두개 말곤 큰 단점이 없어요. 부가적인 악세사리도 잘 되어있어서 추가구매로 커튼봉 샀는데 완전 맘에드네요. 하나는 잡동사니 수납장 하나는 책장 처럼 사이즈 맞춰 구매했어요. 잘쓸께요!!
+참고로 엘플레이트 한개가 구멍이 안맞음 ㅠ
+그리고 꼭 한두개씩 심한 스크래치 있은 철판이 있네요;;</t>
+  </si>
+  <si>
+    <t>가로x깊이(설치시 여유공간확보): 가로500x깊이300 / 높이: 1800(2단)</t>
+  </si>
+  <si>
+    <t>배송</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>파손</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객지원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세페이지 오류 수정 진행 중.
+아웃바운드했으나 부재로, 추후 제품 출고 및 기프티콘 발송 예정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아웃바운드하여 L형 플레이트 조립 방법 설명 및 받침 CS 접수 완료</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4294,10 +4330,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
-  <dimension ref="A1:P83"/>
+  <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4808,7 +4844,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="99" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>81</v>
       </c>
@@ -8200,7 +8236,7 @@
         <v>463</v>
       </c>
       <c r="P78" s="54" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="79" spans="1:16" s="32" customFormat="1" ht="33" x14ac:dyDescent="0.25">
@@ -8238,22 +8274,22 @@
         <v>322</v>
       </c>
       <c r="L79" s="57" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="M79" s="70" t="s">
         <v>346</v>
       </c>
       <c r="N79" s="58" t="s">
+        <v>472</v>
+      </c>
+      <c r="O79" s="58" t="s">
         <v>473</v>
-      </c>
-      <c r="O79" s="58" t="s">
-        <v>474</v>
       </c>
       <c r="P79" s="58"/>
     </row>
     <row r="80" spans="1:16" ht="33" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B80" s="16">
         <v>3</v>
@@ -8262,13 +8298,13 @@
         <v>45668</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E80" s="18">
         <v>68</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G80" s="14" t="s">
         <v>20</v>
@@ -8286,24 +8322,24 @@
         <v>24</v>
       </c>
       <c r="L80" s="15" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="M80" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="N80" s="54" t="s">
         <v>483</v>
       </c>
-      <c r="N80" s="54" t="s">
+      <c r="O80" s="54" t="s">
+        <v>473</v>
+      </c>
+      <c r="P80" s="54" t="s">
         <v>484</v>
-      </c>
-      <c r="O80" s="54" t="s">
-        <v>474</v>
-      </c>
-      <c r="P80" s="54" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="81" spans="1:16" ht="33" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B81" s="16">
         <v>1</v>
@@ -8312,13 +8348,13 @@
         <v>45664</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E81" s="18">
         <v>34</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G81" s="14" t="s">
         <v>313</v>
@@ -8336,24 +8372,24 @@
         <v>34</v>
       </c>
       <c r="L81" s="36" t="s">
+        <v>481</v>
+      </c>
+      <c r="M81" s="15" t="s">
         <v>482</v>
       </c>
-      <c r="M81" s="15" t="s">
+      <c r="N81" s="54" t="s">
         <v>483</v>
       </c>
-      <c r="N81" s="54" t="s">
+      <c r="O81" s="54" t="s">
+        <v>473</v>
+      </c>
+      <c r="P81" s="54" t="s">
         <v>484</v>
-      </c>
-      <c r="O81" s="54" t="s">
-        <v>474</v>
-      </c>
-      <c r="P81" s="54" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="82" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B82" s="16">
         <v>1</v>
@@ -8362,13 +8398,13 @@
         <v>45667</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E82" s="18">
         <v>199</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G82" s="14" t="s">
         <v>95</v>
@@ -8386,24 +8422,24 @@
         <v>34</v>
       </c>
       <c r="L82" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="M82" s="54" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="N82" s="54" t="s">
         <v>333</v>
       </c>
       <c r="O82" s="54" t="s">
+        <v>496</v>
+      </c>
+      <c r="P82" s="54" t="s">
         <v>497</v>
-      </c>
-      <c r="P82" s="54" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="83" spans="1:16" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B83" s="16">
         <v>1</v>
@@ -8412,16 +8448,16 @@
         <v>45666</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E83" s="18">
         <v>190</v>
       </c>
       <c r="F83" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="G83" s="88" t="s">
         <v>492</v>
-      </c>
-      <c r="G83" s="88" t="s">
-        <v>493</v>
       </c>
       <c r="H83" s="54" t="s">
         <v>32</v>
@@ -8436,16 +8472,67 @@
         <v>34</v>
       </c>
       <c r="L83" s="54" t="s">
+        <v>493</v>
+      </c>
+      <c r="M83" s="54" t="s">
         <v>494</v>
       </c>
-      <c r="M83" s="54" t="s">
+      <c r="N83" s="54" t="s">
         <v>495</v>
       </c>
-      <c r="N83" s="54" t="s">
+      <c r="O83" s="54" t="s">
         <v>496</v>
       </c>
-      <c r="O83" s="54" t="s">
-        <v>497</v>
+    </row>
+    <row r="84" spans="1:16" s="15" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>498</v>
+      </c>
+      <c r="B84" s="10">
+        <v>5</v>
+      </c>
+      <c r="C84" s="74">
+        <v>45662</v>
+      </c>
+      <c r="D84" s="23" t="s">
+        <v>499</v>
+      </c>
+      <c r="E84" s="18">
+        <f t="shared" ref="E84" si="2">LEN(D84)</f>
+        <v>398</v>
+      </c>
+      <c r="F84" t="s">
+        <v>500</v>
+      </c>
+      <c r="G84" t="s">
+        <v>116</v>
+      </c>
+      <c r="H84" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="I84" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="J84" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="K84" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="L84" s="15" t="s">
+        <v>506</v>
+      </c>
+      <c r="M84" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="N84" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="O84" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="P84" s="15" t="s">
+        <v>504</v>
       </c>
     </row>
   </sheetData>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8864F1A9-D183-4BCE-99AA-DDDCFC10DDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C481007-9989-4C17-B2E9-AA09953A950A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
+    <workbookView xWindow="3885" yWindow="3045" windowWidth="19005" windowHeight="12045" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="519">
   <si>
     <t>아이디</t>
   </si>
@@ -3457,6 +3457,50 @@
   </si>
   <si>
     <t>아웃바운드하여 L형 플레이트 조립 방법 설명 및 받침 CS 접수 완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>he****</t>
+  </si>
+  <si>
+    <t>결합이 한군데가 잘안되요ㅠㅠ... 
+이동하면서 쓸거아니라서 그냥사용햐요</t>
+  </si>
+  <si>
+    <t>가로x깊이(설치시 여유공간확보): 가로900x깊이500 / 높이: 900(2단)</t>
+  </si>
+  <si>
+    <t>10****</t>
+  </si>
+  <si>
+    <t>주방 팬트리에 3개구입후 안방발코니에 구입하는데요., .역시나 상판은 정상적인게 하나도 없네요.속상하네요. 특히 모서리부분....까지고 벗겨지고 색상을 흰색으로 해서 설치하고싶었으나 이번에도 우드색이보이게 설치해야되네요....모서리 까져서 배송하는거 보완이 안될까요? 교환해도 어차피 까진거 올거같아 그냥 쓰지만 대책이 필요해보이네요......</t>
+  </si>
+  <si>
+    <t>가로x깊이: 가로600x깊이400 / 높이: 2100(2.5단)</t>
+  </si>
+  <si>
+    <t>아웃바운드하여 기둥 휘어짐으로 확인하여 배송 중 손상 가능 설명 및 사과 완료. 900 기둥 1개 재출고 접수 진행</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>파손</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객지원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아웃바운드했으나 부재중.
+추후 교환 처리 및 기프티콘 전송 예정</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3730,7 +3774,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3991,6 +4035,9 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4330,10 +4377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
-  <dimension ref="A1:P84"/>
+  <dimension ref="A1:P86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4844,7 +4891,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="99" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>81</v>
       </c>
@@ -8533,6 +8580,103 @@
       </c>
       <c r="P84" s="15" t="s">
         <v>504</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="58" t="s">
+        <v>507</v>
+      </c>
+      <c r="B85" s="89">
+        <v>1</v>
+      </c>
+      <c r="C85" s="79">
+        <v>45672</v>
+      </c>
+      <c r="D85" s="46" t="s">
+        <v>508</v>
+      </c>
+      <c r="E85" s="46">
+        <v>39</v>
+      </c>
+      <c r="F85" s="32" t="s">
+        <v>509</v>
+      </c>
+      <c r="G85" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="H85" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="I85" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="J85" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="K85" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="L85" s="70" t="s">
+        <v>513</v>
+      </c>
+      <c r="M85" s="70" t="s">
+        <v>514</v>
+      </c>
+      <c r="N85" s="70" t="s">
+        <v>515</v>
+      </c>
+      <c r="O85" s="70" t="s">
+        <v>516</v>
+      </c>
+      <c r="P85" s="70" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" s="15" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="53" t="s">
+        <v>510</v>
+      </c>
+      <c r="B86" s="16">
+        <v>5</v>
+      </c>
+      <c r="C86" s="73">
+        <v>45675</v>
+      </c>
+      <c r="D86" s="18" t="s">
+        <v>511</v>
+      </c>
+      <c r="E86" s="23">
+        <v>192</v>
+      </c>
+      <c r="F86" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="G86" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H86" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="I86" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="J86" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="K86" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="L86" s="18" t="s">
+        <v>518</v>
+      </c>
+      <c r="M86" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N86" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="O86" s="15" t="s">
+        <v>516</v>
       </c>
     </row>
   </sheetData>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C481007-9989-4C17-B2E9-AA09953A950A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1A106B-DA55-4778-9D10-32A42208A17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="3045" windowWidth="19005" windowHeight="12045" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="524">
   <si>
     <t>아이디</t>
   </si>
@@ -3501,6 +3501,24 @@
   <si>
     <t>아웃바운드했으나 부재중.
 추후 교환 처리 및 기프티콘 전송 예정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>boom*****</t>
+  </si>
+  <si>
+    <t>설치하기도쉬워요.
+다만 상판에 얼룩있는게 ㅜ아쉽네요</t>
+  </si>
+  <si>
+    <t>가로(설치시 여유공간확보): 900 / 깊이(mm): 500 / 높이(mm): 1800(기본2단)</t>
+  </si>
+  <si>
+    <t>아웃바운드하여 사용에 불편 드린점 사과 완료. 900 300 합판 재출고 접수 진행</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3682,7 +3700,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3698,6 +3716,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3774,7 +3798,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4038,6 +4062,18 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4377,10 +4413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
-  <dimension ref="A1:P86"/>
+  <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView tabSelected="1" topLeftCell="E76" workbookViewId="0">
+      <selection activeCell="L82" sqref="L82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4891,7 +4927,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="99" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>81</v>
       </c>
@@ -8320,19 +8356,21 @@
       <c r="K79" s="58" t="s">
         <v>322</v>
       </c>
-      <c r="L79" s="57" t="s">
+      <c r="L79" s="91" t="s">
         <v>505</v>
       </c>
-      <c r="M79" s="70" t="s">
+      <c r="M79" s="92" t="s">
         <v>346</v>
       </c>
-      <c r="N79" s="58" t="s">
+      <c r="N79" s="93" t="s">
         <v>472</v>
       </c>
       <c r="O79" s="58" t="s">
         <v>473</v>
       </c>
-      <c r="P79" s="58"/>
+      <c r="P79" s="58" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="80" spans="1:16" ht="33" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
@@ -8530,6 +8568,9 @@
       <c r="O83" s="54" t="s">
         <v>496</v>
       </c>
+      <c r="P83" s="54" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="84" spans="1:16" s="15" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -8677,6 +8718,59 @@
       </c>
       <c r="O86" s="15" t="s">
         <v>516</v>
+      </c>
+      <c r="P86" s="15" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" s="64" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="43" t="s">
+        <v>519</v>
+      </c>
+      <c r="B87" s="44">
+        <v>3</v>
+      </c>
+      <c r="C87" s="79">
+        <v>45693</v>
+      </c>
+      <c r="D87" s="90" t="s">
+        <v>520</v>
+      </c>
+      <c r="E87" s="64">
+        <v>28</v>
+      </c>
+      <c r="F87" s="43" t="s">
+        <v>521</v>
+      </c>
+      <c r="G87" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="H87" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="I87" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="J87" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="K87" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="L87" s="64" t="s">
+        <v>522</v>
+      </c>
+      <c r="M87" s="64" t="s">
+        <v>287</v>
+      </c>
+      <c r="N87" s="64" t="s">
+        <v>262</v>
+      </c>
+      <c r="O87" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="P87" s="64" t="s">
+        <v>523</v>
       </c>
     </row>
   </sheetData>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1A106B-DA55-4778-9D10-32A42208A17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD44554-B2EB-451C-BBFD-FD033DEDD182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="540">
   <si>
     <t>아이디</t>
   </si>
@@ -3519,6 +3519,64 @@
   </si>
   <si>
     <t>완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ids1***</t>
+  </si>
+  <si>
+    <t>안녕하세요.
+몇 달 전 스피드랙 4세트를 구매한 후 추가로 합판을 주문하였고, 어제 배송을 받았습니다. 그러나 포장을 확인한 결과, 내부에서 물건이 움직이는 소리가 들렸습니다. 기존 주문과 달리 별도의 포장이나 랩핑이 없어 제품이 이동한 것으로 보이며, 합판 중앙에 깊은 스크래치가 있었습니다. 이는 단순한 운송 과정의 문제가 아니라, 출고 당시 이미 품질에 이상이 있었을 가능성이 높다고 판단됩니다.
+특히, 다른 박스는 랩핑이 되어 있어 제품이 움직이지 않도록 보호된 반면, 해당 제품은 그렇지 않았던 점이 의문입니다. 혹시 반품이나 환불을 번거롭게 느껴 요청하지 않는 고객이 있을 거라 생각하고, 이에 대한 대응이 다소 안일했던 것은 아닌지 우려됩니다. 앞으로는 포장과 품질 관리에 더욱 신경 써주시면 감사하겠습니다.</t>
+  </si>
+  <si>
+    <t>추가상품명: 홈던트하우스 12T 선반 단추가세트 / 추가상품값: 700x400 (화이트)</t>
+  </si>
+  <si>
+    <t>2025-02-10</t>
+  </si>
+  <si>
+    <t>경량랙(MAX)</t>
+  </si>
+  <si>
+    <t>제품 자체는 만족하지만 여러개를 주문했는데 송장을 엉망으로 붙여서 보내주셨습니다…덕분에
+찾아서 맞추느라 힘들었네요..
+배송중 찌그러짐도 있었습니다.
+(2025-02-09 10:40:59 에 등록된 네이버 페이 구매평)</t>
+  </si>
+  <si>
+    <t>스피드랙 MAX 경량랙 철제선반 독립/연결형 전사이즈</t>
+  </si>
+  <si>
+    <t>https://speedrack.co.kr/product/detailSimulator.html?product_no=254</t>
+  </si>
+  <si>
+    <t>alsg******</t>
+  </si>
+  <si>
+    <t>한 면이 얼룩져서 왔어요. 귀찮아서 그냥 씁니다. 제품은 튼튼하고 좋아요</t>
+  </si>
+  <si>
+    <t>제품유형: 행거봉세트(봉1+받침2) / 사이즈: 800행거봉1개 x 400행거받침2개 / 색상: 받침백색</t>
+  </si>
+  <si>
+    <t>아웃바운드 하였으나 부재. 추후 부품 교환 혹은 기프티콘 전송 예정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>파손</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아웃바운드하여 포장 과정에 대한 설명 및 양해 부탁. 배송 중 파손된 선반 재출고 처리 완료</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3798,7 +3856,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4074,6 +4132,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4413,10 +4477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
-  <dimension ref="A1:P87"/>
+  <dimension ref="A1:P90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E76" workbookViewId="0">
-      <selection activeCell="L82" sqref="L82"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8773,6 +8837,150 @@
         <v>523</v>
       </c>
     </row>
+    <row r="88" spans="1:16" ht="165" x14ac:dyDescent="0.25">
+      <c r="A88" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="B88" s="16">
+        <v>3</v>
+      </c>
+      <c r="C88" s="73">
+        <v>45697</v>
+      </c>
+      <c r="D88" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="E88" s="12">
+        <v>405</v>
+      </c>
+      <c r="F88" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="G88" s="94" t="s">
+        <v>429</v>
+      </c>
+      <c r="H88" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="I88" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="J88" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="K88" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="L88" s="35" t="s">
+        <v>535</v>
+      </c>
+      <c r="M88" s="54" t="s">
+        <v>536</v>
+      </c>
+      <c r="N88" s="54" t="s">
+        <v>537</v>
+      </c>
+      <c r="O88" s="54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" ht="181.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B89" s="16">
+        <v>3</v>
+      </c>
+      <c r="C89" s="73" t="s">
+        <v>527</v>
+      </c>
+      <c r="D89" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="E89" s="12">
+        <v>128</v>
+      </c>
+      <c r="F89" s="14" t="s">
+        <v>530</v>
+      </c>
+      <c r="G89" s="94" t="s">
+        <v>531</v>
+      </c>
+      <c r="H89" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="I89" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="J89" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="K89" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="L89" s="35" t="s">
+        <v>539</v>
+      </c>
+      <c r="M89" s="54" t="s">
+        <v>536</v>
+      </c>
+      <c r="N89" s="54" t="s">
+        <v>537</v>
+      </c>
+      <c r="O89" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="P89" s="54" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="A90" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="B90" s="19">
+        <v>3</v>
+      </c>
+      <c r="C90" s="74">
+        <v>45699</v>
+      </c>
+      <c r="D90" s="95" t="s">
+        <v>533</v>
+      </c>
+      <c r="E90" s="12">
+        <v>40</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="G90" s="95" t="s">
+        <v>320</v>
+      </c>
+      <c r="H90" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="I90" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="J90" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="K90" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="L90" s="35" t="s">
+        <v>535</v>
+      </c>
+      <c r="M90" s="54" t="s">
+        <v>536</v>
+      </c>
+      <c r="N90" s="54" t="s">
+        <v>537</v>
+      </c>
+      <c r="O90" s="54" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:P81" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}"/>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD44554-B2EB-451C-BBFD-FD033DEDD182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DBEE10-ABD4-4699-9581-91B0F62ED12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="542">
   <si>
     <t>아이디</t>
   </si>
@@ -3577,6 +3577,14 @@
   </si>
   <si>
     <t>아웃바운드하여 포장 과정에 대한 설명 및 양해 부탁. 배송 중 파손된 선반 재출고 처리 완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아웃바운드 진행, 교환은 거부하여 사과 후 기프티콘 전송 완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4479,8 +4487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
   <dimension ref="A1:P90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" topLeftCell="D88" workbookViewId="0">
+      <selection activeCell="P90" sqref="P90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8872,7 +8880,7 @@
         <v>430</v>
       </c>
       <c r="L88" s="35" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="M88" s="54" t="s">
         <v>536</v>
@@ -8882,6 +8890,9 @@
       </c>
       <c r="O88" s="54" t="s">
         <v>57</v>
+      </c>
+      <c r="P88" s="54" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="89" spans="1:16" ht="181.5" x14ac:dyDescent="0.25">
@@ -8941,7 +8952,7 @@
       <c r="B90" s="19">
         <v>3</v>
       </c>
-      <c r="C90" s="74">
+      <c r="C90" s="73">
         <v>45699</v>
       </c>
       <c r="D90" s="95" t="s">

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DBEE10-ABD4-4699-9581-91B0F62ED12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0563F292-0DAC-490D-943A-23B7B8DC5B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
@@ -4487,8 +4487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
   <dimension ref="A1:P90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D88" workbookViewId="0">
-      <selection activeCell="P90" sqref="P90"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0563F292-0DAC-490D-943A-23B7B8DC5B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE56B3E9-E917-4A00-AFF6-B66750749D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
@@ -3864,7 +3864,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4144,8 +4144,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4488,7 +4500,7 @@
   <dimension ref="A1:P90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8846,10 +8858,10 @@
       </c>
     </row>
     <row r="88" spans="1:16" ht="165" x14ac:dyDescent="0.25">
-      <c r="A88" s="14" t="s">
+      <c r="A88" s="96" t="s">
         <v>524</v>
       </c>
-      <c r="B88" s="16">
+      <c r="B88" s="97">
         <v>3</v>
       </c>
       <c r="C88" s="73">
@@ -8896,10 +8908,10 @@
       </c>
     </row>
     <row r="89" spans="1:16" ht="181.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="14" t="s">
+      <c r="A89" s="96" t="s">
         <v>131</v>
       </c>
-      <c r="B89" s="16">
+      <c r="B89" s="97">
         <v>3</v>
       </c>
       <c r="C89" s="73" t="s">
@@ -8945,52 +8957,53 @@
         <v>538</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A90" s="13" t="s">
+    <row r="90" spans="1:16" s="32" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A90" s="98" t="s">
         <v>532</v>
       </c>
-      <c r="B90" s="19">
+      <c r="B90" s="99">
         <v>3</v>
       </c>
-      <c r="C90" s="73">
+      <c r="C90" s="72">
         <v>45699</v>
       </c>
-      <c r="D90" s="95" t="s">
+      <c r="D90" s="90" t="s">
         <v>533</v>
       </c>
-      <c r="E90" s="12">
+      <c r="E90" s="95">
         <v>40</v>
       </c>
-      <c r="F90" s="13" t="s">
+      <c r="F90" s="43" t="s">
         <v>534</v>
       </c>
-      <c r="G90" s="95" t="s">
+      <c r="G90" s="90" t="s">
         <v>320</v>
       </c>
-      <c r="H90" s="54" t="s">
+      <c r="H90" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="I90" s="54" t="s">
+      <c r="I90" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="J90" s="13" t="s">
+      <c r="J90" s="43" t="s">
         <v>321</v>
       </c>
-      <c r="K90" s="13" t="s">
+      <c r="K90" s="43" t="s">
         <v>322</v>
       </c>
-      <c r="L90" s="35" t="s">
+      <c r="L90" s="40" t="s">
         <v>535</v>
       </c>
-      <c r="M90" s="54" t="s">
+      <c r="M90" s="58" t="s">
         <v>536</v>
       </c>
-      <c r="N90" s="54" t="s">
+      <c r="N90" s="58" t="s">
         <v>537</v>
       </c>
-      <c r="O90" s="54" t="s">
+      <c r="O90" s="58" t="s">
         <v>57</v>
       </c>
+      <c r="P90" s="58"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:P81" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}"/>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE56B3E9-E917-4A00-AFF6-B66750749D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91F1497-DCB1-4C5E-BA79-484DBD2FE148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
@@ -3864,7 +3864,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4141,23 +4141,41 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4500,7 +4518,7 @@
   <dimension ref="A1:P90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8858,152 +8876,152 @@
       </c>
     </row>
     <row r="88" spans="1:16" ht="165" x14ac:dyDescent="0.25">
-      <c r="A88" s="96" t="s">
+      <c r="A88" s="94" t="s">
         <v>524</v>
       </c>
-      <c r="B88" s="97">
+      <c r="B88" s="16">
         <v>3</v>
       </c>
       <c r="C88" s="73">
         <v>45697</v>
       </c>
-      <c r="D88" s="18" t="s">
+      <c r="D88" s="96" t="s">
         <v>525</v>
       </c>
-      <c r="E88" s="12">
+      <c r="E88" s="97">
         <v>405</v>
       </c>
-      <c r="F88" s="14" t="s">
+      <c r="F88" s="94" t="s">
         <v>526</v>
       </c>
-      <c r="G88" s="94" t="s">
+      <c r="G88" s="98" t="s">
         <v>429</v>
       </c>
-      <c r="H88" s="53" t="s">
+      <c r="H88" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="I88" s="53" t="s">
+      <c r="I88" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="J88" s="14" t="s">
+      <c r="J88" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="K88" s="14" t="s">
+      <c r="K88" s="94" t="s">
         <v>430</v>
       </c>
-      <c r="L88" s="35" t="s">
+      <c r="L88" s="99" t="s">
         <v>540</v>
       </c>
-      <c r="M88" s="54" t="s">
+      <c r="M88" s="100" t="s">
         <v>536</v>
       </c>
-      <c r="N88" s="54" t="s">
+      <c r="N88" s="100" t="s">
         <v>537</v>
       </c>
-      <c r="O88" s="54" t="s">
+      <c r="O88" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="P88" s="54" t="s">
+      <c r="P88" s="100" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="89" spans="1:16" ht="181.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="96" t="s">
+      <c r="A89" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="B89" s="97">
+      <c r="B89" s="16">
         <v>3</v>
       </c>
       <c r="C89" s="73" t="s">
         <v>527</v>
       </c>
-      <c r="D89" s="18" t="s">
+      <c r="D89" s="96" t="s">
         <v>529</v>
       </c>
-      <c r="E89" s="12">
+      <c r="E89" s="97">
         <v>128</v>
       </c>
-      <c r="F89" s="14" t="s">
+      <c r="F89" s="94" t="s">
         <v>530</v>
       </c>
-      <c r="G89" s="94" t="s">
+      <c r="G89" s="98" t="s">
         <v>531</v>
       </c>
-      <c r="H89" s="53" t="s">
+      <c r="H89" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="I89" s="53" t="s">
+      <c r="I89" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="J89" s="14" t="s">
+      <c r="J89" s="94" t="s">
         <v>91</v>
       </c>
-      <c r="K89" s="14" t="s">
+      <c r="K89" s="94" t="s">
         <v>528</v>
       </c>
-      <c r="L89" s="35" t="s">
+      <c r="L89" s="99" t="s">
         <v>539</v>
       </c>
-      <c r="M89" s="54" t="s">
+      <c r="M89" s="100" t="s">
         <v>536</v>
       </c>
-      <c r="N89" s="54" t="s">
+      <c r="N89" s="100" t="s">
         <v>537</v>
       </c>
-      <c r="O89" s="54" t="s">
+      <c r="O89" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="P89" s="54" t="s">
+      <c r="P89" s="100" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="90" spans="1:16" s="32" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A90" s="98" t="s">
+      <c r="A90" s="101" t="s">
         <v>532</v>
       </c>
-      <c r="B90" s="99">
+      <c r="B90" s="44">
         <v>3</v>
       </c>
       <c r="C90" s="72">
         <v>45699</v>
       </c>
-      <c r="D90" s="90" t="s">
+      <c r="D90" s="102" t="s">
         <v>533</v>
       </c>
-      <c r="E90" s="95">
+      <c r="E90" s="103">
         <v>40</v>
       </c>
-      <c r="F90" s="43" t="s">
+      <c r="F90" s="101" t="s">
         <v>534</v>
       </c>
-      <c r="G90" s="90" t="s">
+      <c r="G90" s="102" t="s">
         <v>320</v>
       </c>
-      <c r="H90" s="58" t="s">
+      <c r="H90" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="I90" s="58" t="s">
+      <c r="I90" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="J90" s="43" t="s">
+      <c r="J90" s="101" t="s">
         <v>321</v>
       </c>
-      <c r="K90" s="43" t="s">
+      <c r="K90" s="101" t="s">
         <v>322</v>
       </c>
-      <c r="L90" s="40" t="s">
+      <c r="L90" s="105" t="s">
         <v>535</v>
       </c>
-      <c r="M90" s="58" t="s">
+      <c r="M90" s="104" t="s">
         <v>536</v>
       </c>
-      <c r="N90" s="58" t="s">
+      <c r="N90" s="104" t="s">
         <v>537</v>
       </c>
-      <c r="O90" s="58" t="s">
+      <c r="O90" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="P90" s="58"/>
+      <c r="P90" s="104"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:P81" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}"/>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91F1497-DCB1-4C5E-BA79-484DBD2FE148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95906BBB-5C7B-4B55-860E-458100323D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
@@ -3596,7 +3596,7 @@
     <numFmt numFmtId="176" formatCode="_-[$₩-412]* #,##0_-;\-[$₩-412]* #,##0_-;_-[$₩-412]* \-??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3765,6 +3765,12 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Pretendard"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -3864,7 +3870,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4141,41 +4147,38 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4517,11 +4520,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
   <dimension ref="A1:P90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="15.109375" style="20" customWidth="1"/>
     <col min="4" max="4" width="88" customWidth="1"/>
@@ -4533,7 +4536,7 @@
     <col min="15" max="16" width="8.88671875" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="9" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4583,7 +4586,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="15" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="15" customFormat="1" ht="409.5">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4633,7 +4636,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="15" customFormat="1" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="15" customFormat="1" ht="115.5">
       <c r="A3" s="14" t="s">
         <v>25</v>
       </c>
@@ -4683,7 +4686,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" s="15" customFormat="1" ht="31.5">
       <c r="A4" s="13" t="s">
         <v>35</v>
       </c>
@@ -4733,7 +4736,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="15" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="15" customFormat="1" ht="16.5">
       <c r="A5" s="14" t="s">
         <v>41</v>
       </c>
@@ -4781,7 +4784,7 @@
       </c>
       <c r="P5" s="36"/>
     </row>
-    <row r="6" spans="1:16" s="15" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" s="15" customFormat="1" ht="16.5">
       <c r="A6" s="13" t="s">
         <v>41</v>
       </c>
@@ -4829,7 +4832,7 @@
       </c>
       <c r="P6" s="35"/>
     </row>
-    <row r="7" spans="1:16" s="15" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="15" customFormat="1" ht="16.5">
       <c r="A7" s="14" t="s">
         <v>51</v>
       </c>
@@ -4879,7 +4882,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="32" customFormat="1" ht="231" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="32" customFormat="1" ht="231">
       <c r="A8" s="28" t="s">
         <v>63</v>
       </c>
@@ -4929,7 +4932,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="247.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="247.5">
       <c r="A9" s="14" t="s">
         <v>70</v>
       </c>
@@ -4979,7 +4982,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="82.5">
       <c r="A10" s="14" t="s">
         <v>75</v>
       </c>
@@ -5029,7 +5032,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="82.5">
       <c r="A11" s="14" t="s">
         <v>81</v>
       </c>
@@ -5079,7 +5082,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="33">
       <c r="A12" s="25" t="s">
         <v>86</v>
       </c>
@@ -5127,7 +5130,7 @@
       </c>
       <c r="P12" s="37"/>
     </row>
-    <row r="13" spans="1:16" ht="66" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="66">
       <c r="A13" s="14" t="s">
         <v>92</v>
       </c>
@@ -5177,7 +5180,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="16.5">
       <c r="A14" t="s">
         <v>100</v>
       </c>
@@ -5227,7 +5230,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="16.5">
       <c r="A15" s="14" t="s">
         <v>104</v>
       </c>
@@ -5277,7 +5280,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="32" customFormat="1" ht="99" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="32" customFormat="1" ht="99">
       <c r="A16" s="28" t="s">
         <v>113</v>
       </c>
@@ -5327,7 +5330,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="49.5">
       <c r="A17" s="13" t="s">
         <v>119</v>
       </c>
@@ -5377,7 +5380,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="99" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="99">
       <c r="A18" s="14" t="s">
         <v>124</v>
       </c>
@@ -5427,7 +5430,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="33">
       <c r="A19" s="25" t="s">
         <v>131</v>
       </c>
@@ -5477,7 +5480,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="33">
       <c r="A20" s="14" t="s">
         <v>136</v>
       </c>
@@ -5527,7 +5530,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="16.5">
       <c r="A21" s="25" t="s">
         <v>131</v>
       </c>
@@ -5577,7 +5580,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="66" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="66">
       <c r="A22" s="14" t="s">
         <v>145</v>
       </c>
@@ -5627,7 +5630,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="16.5">
       <c r="A23" s="14" t="s">
         <v>151</v>
       </c>
@@ -5677,7 +5680,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="31.5">
       <c r="A24" t="s">
         <v>157</v>
       </c>
@@ -5727,7 +5730,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="33">
       <c r="A25" s="14" t="s">
         <v>161</v>
       </c>
@@ -5777,7 +5780,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="16.5">
       <c r="A26" t="s">
         <v>166</v>
       </c>
@@ -5827,7 +5830,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" s="32" customFormat="1" ht="16.5">
       <c r="A27" s="28" t="s">
         <v>171</v>
       </c>
@@ -5877,7 +5880,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="132" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="132">
       <c r="A28" s="14" t="s">
         <v>177</v>
       </c>
@@ -5927,7 +5930,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="132" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="132">
       <c r="A29" s="14" t="s">
         <v>182</v>
       </c>
@@ -5977,7 +5980,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="82.5">
       <c r="A30" s="14" t="s">
         <v>186</v>
       </c>
@@ -6027,7 +6030,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="66" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="66">
       <c r="A31" s="25" t="s">
         <v>192</v>
       </c>
@@ -6075,7 +6078,7 @@
       </c>
       <c r="P31" s="35"/>
     </row>
-    <row r="32" spans="1:16" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="148.5">
       <c r="A32" s="14" t="s">
         <v>196</v>
       </c>
@@ -6125,7 +6128,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="82.5">
       <c r="A33" s="14" t="s">
         <v>201</v>
       </c>
@@ -6175,7 +6178,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="181.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="181.5">
       <c r="A34" s="25" t="s">
         <v>131</v>
       </c>
@@ -6225,7 +6228,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="33">
       <c r="A35" s="14" t="s">
         <v>212</v>
       </c>
@@ -6275,7 +6278,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="33">
       <c r="A36" s="14" t="s">
         <v>217</v>
       </c>
@@ -6325,7 +6328,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="32" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" s="32" customFormat="1" ht="75">
       <c r="A37" s="41" t="s">
         <v>222</v>
       </c>
@@ -6375,7 +6378,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="46.5">
       <c r="A38" s="25" t="s">
         <v>227</v>
       </c>
@@ -6425,7 +6428,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="75">
       <c r="A39" s="25" t="s">
         <v>131</v>
       </c>
@@ -6475,7 +6478,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="33" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" ht="33">
       <c r="A40" s="25" t="s">
         <v>131</v>
       </c>
@@ -6525,7 +6528,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="61.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="61.5">
       <c r="A41" s="25" t="s">
         <v>234</v>
       </c>
@@ -6575,7 +6578,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="33" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" ht="33">
       <c r="A42" s="25" t="s">
         <v>238</v>
       </c>
@@ -6625,7 +6628,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:16" s="32" customFormat="1" ht="64.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" s="32" customFormat="1" ht="64.5">
       <c r="A43" s="43" t="s">
         <v>256</v>
       </c>
@@ -6675,7 +6678,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" ht="82.5">
       <c r="A44" s="14" t="s">
         <v>263</v>
       </c>
@@ -6725,7 +6728,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" ht="49.5">
       <c r="A45" s="14" t="s">
         <v>267</v>
       </c>
@@ -6775,7 +6778,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="49.5">
       <c r="A46" s="14" t="s">
         <v>271</v>
       </c>
@@ -6825,7 +6828,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="49.5">
       <c r="A47" s="14" t="s">
         <v>275</v>
       </c>
@@ -6875,7 +6878,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="49.5">
       <c r="A48" s="14" t="s">
         <v>282</v>
       </c>
@@ -6925,7 +6928,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" ht="64.5">
       <c r="A49" s="13" t="s">
         <v>288</v>
       </c>
@@ -6975,7 +6978,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" ht="82.5">
       <c r="A50" s="14" t="s">
         <v>293</v>
       </c>
@@ -7025,7 +7028,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" ht="16.5">
       <c r="A51" s="14" t="s">
         <v>296</v>
       </c>
@@ -7073,7 +7076,7 @@
       </c>
       <c r="P51" s="36"/>
     </row>
-    <row r="52" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" ht="16.5">
       <c r="A52" s="14" t="s">
         <v>300</v>
       </c>
@@ -7121,7 +7124,7 @@
       </c>
       <c r="P52" s="36"/>
     </row>
-    <row r="53" spans="1:16" s="32" customFormat="1" ht="330" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" s="32" customFormat="1" ht="330">
       <c r="A53" s="28" t="s">
         <v>303</v>
       </c>
@@ -7171,7 +7174,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="93" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" ht="93">
       <c r="A54" s="13" t="s">
         <v>305</v>
       </c>
@@ -7221,7 +7224,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="99" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" ht="99">
       <c r="A55" s="14" t="s">
         <v>308</v>
       </c>
@@ -7271,7 +7274,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" ht="46.5">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -7319,7 +7322,7 @@
       </c>
       <c r="P56" s="9"/>
     </row>
-    <row r="57" spans="1:16" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" ht="49.5">
       <c r="A57" s="14" t="s">
         <v>311</v>
       </c>
@@ -7369,7 +7372,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="99" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" ht="99">
       <c r="A58" s="14" t="s">
         <v>315</v>
       </c>
@@ -7419,7 +7422,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="33" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" ht="33">
       <c r="A59" t="s">
         <v>318</v>
       </c>
@@ -7469,7 +7472,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" ht="16.5">
       <c r="A60" s="14" t="s">
         <v>323</v>
       </c>
@@ -7519,7 +7522,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="61" spans="1:16" s="32" customFormat="1" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" s="32" customFormat="1" ht="148.5">
       <c r="A61" s="28" t="s">
         <v>361</v>
       </c>
@@ -7569,7 +7572,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" ht="49.5">
       <c r="A62" s="66" t="s">
         <v>368</v>
       </c>
@@ -7619,7 +7622,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="33" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" ht="33">
       <c r="A63" s="14" t="s">
         <v>372</v>
       </c>
@@ -7669,7 +7672,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="64" spans="1:16" s="70" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" s="70" customFormat="1" ht="16.5">
       <c r="A64" s="28" t="s">
         <v>380</v>
       </c>
@@ -7720,7 +7723,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" ht="16.5">
       <c r="A65" t="s">
         <v>387</v>
       </c>
@@ -7771,7 +7774,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="66" spans="1:16" s="32" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" s="32" customFormat="1" ht="75">
       <c r="A66" s="32" t="s">
         <v>393</v>
       </c>
@@ -7821,7 +7824,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="67" spans="1:16" s="32" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" s="32" customFormat="1" ht="49.5">
       <c r="A67" s="28" t="s">
         <v>131</v>
       </c>
@@ -7872,7 +7875,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="68" spans="1:16" s="15" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" s="15" customFormat="1" ht="33">
       <c r="A68" s="14" t="s">
         <v>406</v>
       </c>
@@ -7923,7 +7926,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="69" spans="1:16" s="15" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" s="15" customFormat="1" ht="16.5">
       <c r="A69" s="14" t="s">
         <v>410</v>
       </c>
@@ -7974,7 +7977,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="70" spans="1:16" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" s="15" customFormat="1" ht="60">
       <c r="A70" t="s">
         <v>414</v>
       </c>
@@ -8025,7 +8028,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="71" spans="1:16" s="32" customFormat="1" ht="66" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" s="32" customFormat="1" ht="66">
       <c r="A71" s="28" t="s">
         <v>420</v>
       </c>
@@ -8076,7 +8079,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="33" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" ht="33">
       <c r="A72" s="14" t="s">
         <v>426</v>
       </c>
@@ -8126,7 +8129,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="180" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" ht="180">
       <c r="A73" s="25" t="s">
         <v>131</v>
       </c>
@@ -8176,7 +8179,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="74" spans="1:16" s="32" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" s="32" customFormat="1" ht="49.5">
       <c r="A74" s="70" t="s">
         <v>443</v>
       </c>
@@ -8226,7 +8229,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="75" spans="1:16" s="32" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" s="32" customFormat="1" ht="60">
       <c r="A75" s="58" t="s">
         <v>131</v>
       </c>
@@ -8276,7 +8279,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="76" spans="1:16" s="32" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" s="32" customFormat="1" ht="83.25" customHeight="1">
       <c r="A76" s="55" t="s">
         <v>447</v>
       </c>
@@ -8324,7 +8327,7 @@
       </c>
       <c r="P76" s="58"/>
     </row>
-    <row r="77" spans="1:16" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" s="32" customFormat="1" ht="30">
       <c r="A77" s="83" t="s">
         <v>457</v>
       </c>
@@ -8374,7 +8377,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" ht="30">
       <c r="A78" s="81" t="s">
         <v>465</v>
       </c>
@@ -8424,7 +8427,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="79" spans="1:16" s="32" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" s="32" customFormat="1" ht="33">
       <c r="A79" s="43" t="s">
         <v>470</v>
       </c>
@@ -8474,7 +8477,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="33" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" ht="33">
       <c r="A80" s="14" t="s">
         <v>474</v>
       </c>
@@ -8524,7 +8527,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="33" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" ht="33">
       <c r="A81" s="14" t="s">
         <v>477</v>
       </c>
@@ -8574,7 +8577,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" ht="82.5">
       <c r="A82" s="14" t="s">
         <v>485</v>
       </c>
@@ -8624,7 +8627,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" ht="115.5">
       <c r="A83" s="14" t="s">
         <v>489</v>
       </c>
@@ -8674,7 +8677,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="84" spans="1:16" s="15" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" s="15" customFormat="1" ht="180">
       <c r="A84" t="s">
         <v>498</v>
       </c>
@@ -8725,7 +8728,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="85" spans="1:16" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" s="70" customFormat="1" ht="30">
       <c r="A85" s="58" t="s">
         <v>507</v>
       </c>
@@ -8775,7 +8778,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="86" spans="1:16" s="15" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" s="15" customFormat="1" ht="49.5">
       <c r="A86" s="53" t="s">
         <v>510</v>
       </c>
@@ -8825,7 +8828,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="87" spans="1:16" s="64" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" s="64" customFormat="1" ht="30">
       <c r="A87" s="43" t="s">
         <v>519</v>
       </c>
@@ -8875,8 +8878,8 @@
         <v>523</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="165" x14ac:dyDescent="0.25">
-      <c r="A88" s="94" t="s">
+    <row r="88" spans="1:16" ht="165">
+      <c r="A88" s="14" t="s">
         <v>524</v>
       </c>
       <c r="B88" s="16">
@@ -8885,143 +8888,143 @@
       <c r="C88" s="73">
         <v>45697</v>
       </c>
-      <c r="D88" s="96" t="s">
+      <c r="D88" s="18" t="s">
         <v>525</v>
       </c>
-      <c r="E88" s="97">
+      <c r="E88" s="12">
         <v>405</v>
       </c>
-      <c r="F88" s="94" t="s">
+      <c r="F88" s="14" t="s">
         <v>526</v>
       </c>
-      <c r="G88" s="98" t="s">
+      <c r="G88" s="94" t="s">
         <v>429</v>
       </c>
-      <c r="H88" s="95" t="s">
+      <c r="H88" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="I88" s="95" t="s">
+      <c r="I88" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="J88" s="94" t="s">
+      <c r="J88" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="K88" s="94" t="s">
+      <c r="K88" s="14" t="s">
         <v>430</v>
       </c>
-      <c r="L88" s="99" t="s">
+      <c r="L88" s="35" t="s">
         <v>540</v>
       </c>
-      <c r="M88" s="100" t="s">
+      <c r="M88" s="54" t="s">
         <v>536</v>
       </c>
-      <c r="N88" s="100" t="s">
+      <c r="N88" s="54" t="s">
         <v>537</v>
       </c>
-      <c r="O88" s="100" t="s">
+      <c r="O88" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="P88" s="100" t="s">
+      <c r="P88" s="54" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="181.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="94" t="s">
+    <row r="89" spans="1:16" s="103" customFormat="1" ht="90">
+      <c r="A89" s="96" t="s">
+        <v>532</v>
+      </c>
+      <c r="B89" s="97">
+        <v>3</v>
+      </c>
+      <c r="C89" s="98">
+        <v>45699</v>
+      </c>
+      <c r="D89" s="99" t="s">
+        <v>533</v>
+      </c>
+      <c r="E89" s="100">
+        <v>40</v>
+      </c>
+      <c r="F89" s="96" t="s">
+        <v>534</v>
+      </c>
+      <c r="G89" s="99" t="s">
+        <v>320</v>
+      </c>
+      <c r="H89" s="101" t="s">
+        <v>32</v>
+      </c>
+      <c r="I89" s="101" t="s">
+        <v>22</v>
+      </c>
+      <c r="J89" s="96" t="s">
+        <v>321</v>
+      </c>
+      <c r="K89" s="96" t="s">
+        <v>322</v>
+      </c>
+      <c r="L89" s="102" t="s">
+        <v>535</v>
+      </c>
+      <c r="M89" s="101" t="s">
+        <v>536</v>
+      </c>
+      <c r="N89" s="101" t="s">
+        <v>537</v>
+      </c>
+      <c r="O89" s="101" t="s">
+        <v>57</v>
+      </c>
+      <c r="P89" s="101"/>
+    </row>
+    <row r="90" spans="1:16" s="32" customFormat="1" ht="181.5">
+      <c r="A90" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="B89" s="16">
+      <c r="B90" s="29">
         <v>3</v>
       </c>
-      <c r="C89" s="73" t="s">
+      <c r="C90" s="72" t="s">
         <v>527</v>
       </c>
-      <c r="D89" s="96" t="s">
+      <c r="D90" s="31" t="s">
         <v>529</v>
       </c>
-      <c r="E89" s="97">
+      <c r="E90" s="95">
         <v>128</v>
       </c>
-      <c r="F89" s="94" t="s">
+      <c r="F90" s="28" t="s">
         <v>530</v>
       </c>
-      <c r="G89" s="98" t="s">
+      <c r="G90" s="104" t="s">
         <v>531</v>
       </c>
-      <c r="H89" s="95" t="s">
+      <c r="H90" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="I89" s="95" t="s">
+      <c r="I90" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="J89" s="94" t="s">
+      <c r="J90" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="K89" s="94" t="s">
+      <c r="K90" s="28" t="s">
         <v>528</v>
       </c>
-      <c r="L89" s="99" t="s">
+      <c r="L90" s="40" t="s">
         <v>539</v>
       </c>
-      <c r="M89" s="100" t="s">
+      <c r="M90" s="58" t="s">
         <v>536</v>
       </c>
-      <c r="N89" s="100" t="s">
+      <c r="N90" s="58" t="s">
         <v>537</v>
       </c>
-      <c r="O89" s="100" t="s">
+      <c r="O90" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="P89" s="100" t="s">
+      <c r="P90" s="58" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="90" spans="1:16" s="32" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A90" s="101" t="s">
-        <v>532</v>
-      </c>
-      <c r="B90" s="44">
-        <v>3</v>
-      </c>
-      <c r="C90" s="72">
-        <v>45699</v>
-      </c>
-      <c r="D90" s="102" t="s">
-        <v>533</v>
-      </c>
-      <c r="E90" s="103">
-        <v>40</v>
-      </c>
-      <c r="F90" s="101" t="s">
-        <v>534</v>
-      </c>
-      <c r="G90" s="102" t="s">
-        <v>320</v>
-      </c>
-      <c r="H90" s="104" t="s">
-        <v>32</v>
-      </c>
-      <c r="I90" s="104" t="s">
-        <v>22</v>
-      </c>
-      <c r="J90" s="101" t="s">
-        <v>321</v>
-      </c>
-      <c r="K90" s="101" t="s">
-        <v>322</v>
-      </c>
-      <c r="L90" s="105" t="s">
-        <v>535</v>
-      </c>
-      <c r="M90" s="104" t="s">
-        <v>536</v>
-      </c>
-      <c r="N90" s="104" t="s">
-        <v>537</v>
-      </c>
-      <c r="O90" s="104" t="s">
-        <v>57</v>
-      </c>
-      <c r="P90" s="104"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:P81" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}"/>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95906BBB-5C7B-4B55-860E-458100323D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEC15C3-0521-49C7-974C-25319A8BDB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
@@ -3870,7 +3870,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4153,28 +4153,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4520,8 +4517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
   <dimension ref="A1:P90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8886,7 +8883,7 @@
         <v>3</v>
       </c>
       <c r="C88" s="73">
-        <v>45697</v>
+        <v>45698</v>
       </c>
       <c r="D88" s="18" t="s">
         <v>525</v>
@@ -8928,32 +8925,32 @@
         <v>541</v>
       </c>
     </row>
-    <row r="89" spans="1:16" s="103" customFormat="1" ht="90">
+    <row r="89" spans="1:16" s="102" customFormat="1" ht="90">
       <c r="A89" s="96" t="s">
         <v>532</v>
       </c>
       <c r="B89" s="97">
         <v>3</v>
       </c>
-      <c r="C89" s="98">
+      <c r="C89" s="73">
         <v>45699</v>
       </c>
-      <c r="D89" s="99" t="s">
+      <c r="D89" s="98" t="s">
         <v>533</v>
       </c>
-      <c r="E89" s="100">
+      <c r="E89" s="99">
         <v>40</v>
       </c>
       <c r="F89" s="96" t="s">
         <v>534</v>
       </c>
-      <c r="G89" s="99" t="s">
+      <c r="G89" s="98" t="s">
         <v>320</v>
       </c>
-      <c r="H89" s="101" t="s">
+      <c r="H89" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="I89" s="101" t="s">
+      <c r="I89" s="100" t="s">
         <v>22</v>
       </c>
       <c r="J89" s="96" t="s">
@@ -8962,19 +8959,19 @@
       <c r="K89" s="96" t="s">
         <v>322</v>
       </c>
-      <c r="L89" s="102" t="s">
+      <c r="L89" s="101" t="s">
         <v>535</v>
       </c>
-      <c r="M89" s="101" t="s">
+      <c r="M89" s="100" t="s">
         <v>536</v>
       </c>
-      <c r="N89" s="101" t="s">
+      <c r="N89" s="100" t="s">
         <v>537</v>
       </c>
-      <c r="O89" s="101" t="s">
+      <c r="O89" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="P89" s="101"/>
+      <c r="P89" s="100"/>
     </row>
     <row r="90" spans="1:16" s="32" customFormat="1" ht="181.5">
       <c r="A90" s="28" t="s">
@@ -8995,7 +8992,7 @@
       <c r="F90" s="28" t="s">
         <v>530</v>
       </c>
-      <c r="G90" s="104" t="s">
+      <c r="G90" s="103" t="s">
         <v>531</v>
       </c>
       <c r="H90" s="55" t="s">

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEC15C3-0521-49C7-974C-25319A8BDB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39B50AB-0E4F-4B58-8F94-DDFB6EDD517F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="541">
   <si>
     <t>아이디</t>
   </si>
@@ -3531,9 +3531,6 @@
   </si>
   <si>
     <t>추가상품명: 홈던트하우스 12T 선반 단추가세트 / 추가상품값: 700x400 (화이트)</t>
-  </si>
-  <si>
-    <t>2025-02-10</t>
   </si>
   <si>
     <t>경량랙(MAX)</t>
@@ -3870,7 +3867,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4176,6 +4173,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4518,7 +4518,7 @@
   <dimension ref="A1:P90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8882,7 +8882,7 @@
       <c r="B88" s="16">
         <v>3</v>
       </c>
-      <c r="C88" s="73">
+      <c r="C88" s="104">
         <v>45698</v>
       </c>
       <c r="D88" s="18" t="s">
@@ -8910,39 +8910,39 @@
         <v>430</v>
       </c>
       <c r="L88" s="35" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M88" s="54" t="s">
+        <v>535</v>
+      </c>
+      <c r="N88" s="54" t="s">
         <v>536</v>
-      </c>
-      <c r="N88" s="54" t="s">
-        <v>537</v>
       </c>
       <c r="O88" s="54" t="s">
         <v>57</v>
       </c>
       <c r="P88" s="54" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="89" spans="1:16" s="102" customFormat="1" ht="90">
       <c r="A89" s="96" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B89" s="97">
         <v>3</v>
       </c>
-      <c r="C89" s="73">
+      <c r="C89" s="104">
         <v>45699</v>
       </c>
       <c r="D89" s="98" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E89" s="99">
         <v>40</v>
       </c>
       <c r="F89" s="96" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G89" s="98" t="s">
         <v>320</v>
@@ -8960,13 +8960,13 @@
         <v>322</v>
       </c>
       <c r="L89" s="101" t="s">
+        <v>534</v>
+      </c>
+      <c r="M89" s="100" t="s">
         <v>535</v>
       </c>
-      <c r="M89" s="100" t="s">
+      <c r="N89" s="100" t="s">
         <v>536</v>
-      </c>
-      <c r="N89" s="100" t="s">
-        <v>537</v>
       </c>
       <c r="O89" s="100" t="s">
         <v>57</v>
@@ -8980,20 +8980,20 @@
       <c r="B90" s="29">
         <v>3</v>
       </c>
-      <c r="C90" s="72" t="s">
-        <v>527</v>
+      <c r="C90" s="79">
+        <v>45697</v>
       </c>
       <c r="D90" s="31" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E90" s="95">
         <v>128</v>
       </c>
       <c r="F90" s="28" t="s">
+        <v>529</v>
+      </c>
+      <c r="G90" s="103" t="s">
         <v>530</v>
-      </c>
-      <c r="G90" s="103" t="s">
-        <v>531</v>
       </c>
       <c r="H90" s="55" t="s">
         <v>32</v>
@@ -9005,22 +9005,22 @@
         <v>91</v>
       </c>
       <c r="K90" s="28" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="L90" s="40" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="M90" s="58" t="s">
+        <v>535</v>
+      </c>
+      <c r="N90" s="58" t="s">
         <v>536</v>
-      </c>
-      <c r="N90" s="58" t="s">
-        <v>537</v>
       </c>
       <c r="O90" s="58" t="s">
         <v>57</v>
       </c>
       <c r="P90" s="58" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
   </sheetData>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39B50AB-0E4F-4B58-8F94-DDFB6EDD517F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01928A12-9013-4495-A6AC-038E3F5B4BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
@@ -3577,11 +3577,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>아웃바운드 진행, 교환은 거부하여 사과 후 기프티콘 전송 완료</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아웃바운드하여 포장 과정에 대한 양해 부탁. 교환은 거부하여 사과 후 기프티콘 전송 완료</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3867,7 +3867,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4173,9 +4173,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4517,8 +4514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
   <dimension ref="A1:P90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView tabSelected="1" topLeftCell="D87" workbookViewId="0">
+      <selection activeCell="L88" sqref="L88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8882,7 +8879,7 @@
       <c r="B88" s="16">
         <v>3</v>
       </c>
-      <c r="C88" s="104">
+      <c r="C88" s="74">
         <v>45698</v>
       </c>
       <c r="D88" s="18" t="s">
@@ -8910,7 +8907,7 @@
         <v>430</v>
       </c>
       <c r="L88" s="35" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M88" s="54" t="s">
         <v>535</v>
@@ -8922,7 +8919,7 @@
         <v>57</v>
       </c>
       <c r="P88" s="54" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="89" spans="1:16" s="102" customFormat="1" ht="90">
@@ -8932,7 +8929,7 @@
       <c r="B89" s="97">
         <v>3</v>
       </c>
-      <c r="C89" s="104">
+      <c r="C89" s="74">
         <v>45699</v>
       </c>
       <c r="D89" s="98" t="s">

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01928A12-9013-4495-A6AC-038E3F5B4BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0AA193-E61E-4CC8-9849-DF833CE8FFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="561">
   <si>
     <t>아이디</t>
   </si>
@@ -3582,6 +3582,72 @@
   </si>
   <si>
     <t>아웃바운드하여 포장 과정에 대한 양해 부탁. 교환은 거부하여 사과 후 기프티콘 전송 완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>swim********</t>
+  </si>
+  <si>
+    <t>2025-02-20</t>
+  </si>
+  <si>
+    <t>sugy***</t>
+  </si>
+  <si>
+    <t>bnn_*****</t>
+  </si>
+  <si>
+    <t>2025-02-17</t>
+  </si>
+  <si>
+    <t>이번에 받은 거는 철 구조물 안쪽이 제대로 칠이 되지 않았어요…4개 전부다요ㅠㅠ 반품할까 했지만 귀찮아서 그냥 씁니다. 꼼꼼하게 검수 해주심 좋겠네요.</t>
+  </si>
+  <si>
+    <t>나무판에!여기저기 찍히고 불량인 부분이 있어요. 교환 시간 아까워서 그냥 쓰는데 참고하시라고 사진도 첨부합니다.</t>
+  </si>
+  <si>
+    <t>마감불량입니다.......</t>
+  </si>
+  <si>
+    <t>추가상품명: 홈던트하우스 9T 선반 단추가세트 / 추가상품값: 500x500(화이트)</t>
+  </si>
+  <si>
+    <t>가로x깊이(설치시 여유공간확보): 가로700x깊이400 / 높이: 600(2단)</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/estorehouse/products/691601700</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분: 경량랙(200kg) 독립형 / 가로x깊이(가로 외경 + 50mm): 가로900x깊이450 / 높이x단수: 높이1500x4단</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://brand.naver.com/speedrack/products/11359656208 </t>
+  </si>
+  <si>
+    <t>스피드랙MAX</t>
+  </si>
+  <si>
+    <t>경량랙</t>
+  </si>
+  <si>
+    <t>아웃바운드하였으나 부재로, 추후 제품 교환 혹은 기프티콘 발송 예정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아웃바운드하여 교환 안내 드렸으나 재설치가 어려워 거부. 교환 대신 기프티콘 발송 완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>파손</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3867,7 +3933,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4173,6 +4239,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4512,10 +4584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
-  <dimension ref="A1:P90"/>
+  <dimension ref="A1:P93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D87" workbookViewId="0">
-      <selection activeCell="L88" sqref="L88"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5026,7 +5098,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="82.5">
+    <row r="11" spans="1:16" ht="99">
       <c r="A11" s="14" t="s">
         <v>81</v>
       </c>
@@ -8968,7 +9040,9 @@
       <c r="O89" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="P89" s="100"/>
+      <c r="P89" s="100" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="90" spans="1:16" s="32" customFormat="1" ht="181.5">
       <c r="A90" s="28" t="s">
@@ -9018,6 +9092,156 @@
       </c>
       <c r="P90" s="58" t="s">
         <v>537</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" ht="37.5" customHeight="1">
+      <c r="A91" t="s">
+        <v>541</v>
+      </c>
+      <c r="B91">
+        <v>3</v>
+      </c>
+      <c r="C91" t="s">
+        <v>542</v>
+      </c>
+      <c r="D91" s="23" t="s">
+        <v>546</v>
+      </c>
+      <c r="E91">
+        <v>84</v>
+      </c>
+      <c r="F91" t="s">
+        <v>549</v>
+      </c>
+      <c r="G91" t="s">
+        <v>429</v>
+      </c>
+      <c r="H91" t="s">
+        <v>21</v>
+      </c>
+      <c r="I91" t="s">
+        <v>22</v>
+      </c>
+      <c r="J91" t="s">
+        <v>117</v>
+      </c>
+      <c r="K91" t="s">
+        <v>430</v>
+      </c>
+      <c r="L91" s="105" t="s">
+        <v>556</v>
+      </c>
+      <c r="M91" s="54" t="s">
+        <v>558</v>
+      </c>
+      <c r="N91" s="54" t="s">
+        <v>559</v>
+      </c>
+      <c r="O91" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="P91" s="54" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" ht="26.25" customHeight="1">
+      <c r="A92" t="s">
+        <v>543</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>542</v>
+      </c>
+      <c r="D92" s="23" t="s">
+        <v>547</v>
+      </c>
+      <c r="E92">
+        <v>62</v>
+      </c>
+      <c r="F92" t="s">
+        <v>550</v>
+      </c>
+      <c r="G92" s="104" t="s">
+        <v>551</v>
+      </c>
+      <c r="H92" t="s">
+        <v>32</v>
+      </c>
+      <c r="I92" t="s">
+        <v>22</v>
+      </c>
+      <c r="J92" t="s">
+        <v>117</v>
+      </c>
+      <c r="K92" t="s">
+        <v>34</v>
+      </c>
+      <c r="L92" s="105" t="s">
+        <v>556</v>
+      </c>
+      <c r="M92" s="54" t="s">
+        <v>558</v>
+      </c>
+      <c r="N92" s="54" t="s">
+        <v>559</v>
+      </c>
+      <c r="O92" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="P92" s="54" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" ht="26.25" customHeight="1">
+      <c r="A93" t="s">
+        <v>544</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+      <c r="C93" t="s">
+        <v>545</v>
+      </c>
+      <c r="D93" s="23" t="s">
+        <v>548</v>
+      </c>
+      <c r="E93">
+        <v>14</v>
+      </c>
+      <c r="F93" t="s">
+        <v>552</v>
+      </c>
+      <c r="G93" t="s">
+        <v>553</v>
+      </c>
+      <c r="H93" t="s">
+        <v>554</v>
+      </c>
+      <c r="I93" t="s">
+        <v>22</v>
+      </c>
+      <c r="J93" t="s">
+        <v>117</v>
+      </c>
+      <c r="K93" t="s">
+        <v>555</v>
+      </c>
+      <c r="L93" s="105" t="s">
+        <v>557</v>
+      </c>
+      <c r="M93" s="54" t="s">
+        <v>558</v>
+      </c>
+      <c r="N93" s="54" t="s">
+        <v>559</v>
+      </c>
+      <c r="O93" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="P93" s="54" t="s">
+        <v>560</v>
       </c>
     </row>
   </sheetData>
@@ -9026,6 +9250,7 @@
   <hyperlinks>
     <hyperlink ref="G79" r:id="rId1" xr:uid="{A7346326-C933-4BE9-B9D5-D307D3E7BF06}"/>
     <hyperlink ref="G83" r:id="rId2" xr:uid="{2E5E3DD6-31D7-49FC-A3C1-B42D9430D64C}"/>
+    <hyperlink ref="G92" r:id="rId3" xr:uid="{E94E4387-AC56-495F-9F5F-1179D1A59551}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0AA193-E61E-4CC8-9849-DF833CE8FFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256CF3BE-3170-465B-AC32-C830C9C5F760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="567">
   <si>
     <t>아이디</t>
   </si>
@@ -3650,6 +3650,27 @@
     <t>완료</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>yh55*****</t>
+  </si>
+  <si>
+    <t>2025-02-21</t>
+  </si>
+  <si>
+    <t>강판두께가 얇아서 잘 휘는데다 은근히 날카롭네요. 휜거 펴보겠다고 빼다가 손이 찢어졌습니다..</t>
+  </si>
+  <si>
+    <t>가로 x 깊이(설치시 여유공간확보): 가로1100 x 깊이500 / 높이mm: 높이1950 / 선반단수 / 행거봉: 2단 / 행거봉1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아웃바운드하였으나 부재로, 추후 상황 파악 및 치료비 안내, 기프티콘 발송 예정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조립 어려움</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -3659,7 +3680,7 @@
     <numFmt numFmtId="176" formatCode="_-[$₩-412]* #,##0_-;\-[$₩-412]* #,##0_-;_-[$₩-412]* \-??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3834,6 +3855,14 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Pretendard"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -3933,7 +3962,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4243,8 +4272,11 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4584,10 +4616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
-  <dimension ref="A1:P93"/>
+  <dimension ref="A1:P94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9128,7 +9160,7 @@
       <c r="K91" t="s">
         <v>430</v>
       </c>
-      <c r="L91" s="105" t="s">
+      <c r="L91" t="s">
         <v>556</v>
       </c>
       <c r="M91" s="54" t="s">
@@ -9178,7 +9210,7 @@
       <c r="K92" t="s">
         <v>34</v>
       </c>
-      <c r="L92" s="105" t="s">
+      <c r="L92" t="s">
         <v>556</v>
       </c>
       <c r="M92" s="54" t="s">
@@ -9228,7 +9260,7 @@
       <c r="K93" t="s">
         <v>555</v>
       </c>
-      <c r="L93" s="105" t="s">
+      <c r="L93" t="s">
         <v>557</v>
       </c>
       <c r="M93" s="54" t="s">
@@ -9243,6 +9275,54 @@
       <c r="P93" s="54" t="s">
         <v>560</v>
       </c>
+    </row>
+    <row r="94" spans="1:16" s="32" customFormat="1">
+      <c r="A94" s="105" t="s">
+        <v>561</v>
+      </c>
+      <c r="B94" s="105">
+        <v>2</v>
+      </c>
+      <c r="C94" s="105" t="s">
+        <v>562</v>
+      </c>
+      <c r="D94" s="106" t="s">
+        <v>563</v>
+      </c>
+      <c r="E94" s="105">
+        <v>52</v>
+      </c>
+      <c r="F94" s="105" t="s">
+        <v>564</v>
+      </c>
+      <c r="G94" s="105" t="s">
+        <v>107</v>
+      </c>
+      <c r="H94" s="105" t="s">
+        <v>21</v>
+      </c>
+      <c r="I94" s="105" t="s">
+        <v>22</v>
+      </c>
+      <c r="J94" s="105" t="s">
+        <v>108</v>
+      </c>
+      <c r="K94" s="105" t="s">
+        <v>109</v>
+      </c>
+      <c r="L94" s="40" t="s">
+        <v>565</v>
+      </c>
+      <c r="M94" s="58" t="s">
+        <v>358</v>
+      </c>
+      <c r="N94" s="58" t="s">
+        <v>566</v>
+      </c>
+      <c r="O94" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="P94" s="58"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:P81" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}"/>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256CF3BE-3170-465B-AC32-C830C9C5F760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A646814-28B9-4CE2-8F49-072DE9392EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="576">
   <si>
     <t>아이디</t>
   </si>
@@ -3664,11 +3664,51 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>아웃바운드하였으나 부재로, 추후 상황 파악 및 치료비 안내, 기프티콘 발송 예정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>조립 어려움</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>123d*******</t>
+  </si>
+  <si>
+    <t>조립시 부품들의 아구들이 거의 안맞아서
+고리부분을 일일히 펴야하는게 힘들었어요.
+연결형은 아직 조립 못해봤어요.
+독립형 하나 하는데 3시간걸렸어요.
+그리고 완전 조립 이전에 하판 상판 연결 다했는데  선반조립 이전에는 계속 잡고있어야 될듯해요.
+하판 상판이 기둥 무게를 못견뎌서 쓰려져서
+가게 유리 대문이 박살 났어요..</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분: 경량랙(200kg) 독립형 / 가로x깊이(가로 외경 + 50mm): 가로1200x깊이600 / 높이x단수: 높이2100x4단</t>
+  </si>
+  <si>
+    <t>mari******</t>
+  </si>
+  <si>
+    <t>부모님 집에 설치 후 제품 만족도가 높아서 재구매 합니다.
+설치 후  한 달 사용기로 후기 남기도록 하겠습니다.
+배송은 빨랐는데  모서리 부분 포장이 뜯긴 채로 받아서 제 마음 한 켠도 같이 뜯긴 기분입니다.   늦은 시간이라 층간소음도 걱정되고 해서... 제품 확인해보질 못하고  구매확정 눌러드립니다.
+주말에 설치해볼께요.</t>
+  </si>
+  <si>
+    <t>가로(설치시 여유공간확보): 1000 / 깊이(mm): 500 / 높이(mm): 1950(기본2단)</t>
+  </si>
+  <si>
+    <t>아웃바운드하였으나 부재중, 추후 연락하여 상황 파악 및 조치 취할 예정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아웃바운드 결과, 교환 원하지 않는다고 하셔서 네이버 포인트 기프티콘 지급</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">아웃바운드하여 치료비 및 위로금 전달 완료 </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3680,7 +3720,7 @@
     <numFmt numFmtId="176" formatCode="_-[$₩-412]* #,##0_-;\-[$₩-412]* #,##0_-;_-[$₩-412]* \-??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3863,6 +3903,14 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Pretendard"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -3962,7 +4010,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4277,6 +4325,30 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4616,10 +4688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
-  <dimension ref="A1:P94"/>
+  <dimension ref="A1:P96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9311,18 +9383,118 @@
         <v>109</v>
       </c>
       <c r="L94" s="40" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="M94" s="58" t="s">
         <v>358</v>
       </c>
       <c r="N94" s="58" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="O94" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="P94" s="58"/>
+      <c r="P94" s="58" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" s="114" customFormat="1" ht="105">
+      <c r="A95" s="109" t="s">
+        <v>566</v>
+      </c>
+      <c r="B95" s="110">
+        <v>3</v>
+      </c>
+      <c r="C95" s="111">
+        <v>45723</v>
+      </c>
+      <c r="D95" s="112" t="s">
+        <v>567</v>
+      </c>
+      <c r="E95" s="113">
+        <v>179</v>
+      </c>
+      <c r="F95" s="109" t="s">
+        <v>568</v>
+      </c>
+      <c r="G95" s="109" t="s">
+        <v>553</v>
+      </c>
+      <c r="H95" s="109" t="s">
+        <v>554</v>
+      </c>
+      <c r="I95" s="109" t="s">
+        <v>22</v>
+      </c>
+      <c r="J95" s="109" t="s">
+        <v>117</v>
+      </c>
+      <c r="K95" s="109" t="s">
+        <v>555</v>
+      </c>
+      <c r="L95" s="107" t="s">
+        <v>572</v>
+      </c>
+      <c r="M95" s="108" t="s">
+        <v>358</v>
+      </c>
+      <c r="N95" s="108" t="s">
+        <v>565</v>
+      </c>
+      <c r="O95" s="108" t="s">
+        <v>57</v>
+      </c>
+      <c r="P95" s="108"/>
+    </row>
+    <row r="96" spans="1:16" s="32" customFormat="1" ht="99">
+      <c r="A96" s="28" t="s">
+        <v>569</v>
+      </c>
+      <c r="B96" s="29">
+        <v>3</v>
+      </c>
+      <c r="C96" s="72">
+        <v>45721</v>
+      </c>
+      <c r="D96" s="31" t="s">
+        <v>570</v>
+      </c>
+      <c r="E96" s="90">
+        <v>183</v>
+      </c>
+      <c r="F96" s="28" t="s">
+        <v>571</v>
+      </c>
+      <c r="G96" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="H96" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I96" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="J96" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="K96" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="L96" s="70" t="s">
+        <v>573</v>
+      </c>
+      <c r="M96" s="58" t="s">
+        <v>364</v>
+      </c>
+      <c r="N96" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="O96" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="P96" s="58" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:P81" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}"/>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A646814-28B9-4CE2-8F49-072DE9392EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4264F15E-E5DE-4D84-95D4-03DB41D805AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
@@ -4010,7 +4010,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4326,28 +4326,13 @@
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="14" fontId="25" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4691,7 +4676,7 @@
   <dimension ref="A1:P96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5202,7 +5187,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="99">
+    <row r="11" spans="1:16" ht="82.5">
       <c r="A11" s="14" t="s">
         <v>81</v>
       </c>
@@ -9398,53 +9383,52 @@
         <v>574</v>
       </c>
     </row>
-    <row r="95" spans="1:16" s="114" customFormat="1" ht="105">
-      <c r="A95" s="109" t="s">
+    <row r="95" spans="1:16" ht="105">
+      <c r="A95" s="13" t="s">
         <v>566</v>
       </c>
-      <c r="B95" s="110">
+      <c r="B95" s="19">
         <v>3</v>
       </c>
-      <c r="C95" s="111">
+      <c r="C95" s="109">
         <v>45723</v>
       </c>
-      <c r="D95" s="112" t="s">
+      <c r="D95" s="107" t="s">
         <v>567</v>
       </c>
-      <c r="E95" s="113">
+      <c r="E95" s="108">
         <v>179</v>
       </c>
-      <c r="F95" s="109" t="s">
+      <c r="F95" s="13" t="s">
         <v>568</v>
       </c>
-      <c r="G95" s="109" t="s">
+      <c r="G95" s="13" t="s">
         <v>553</v>
       </c>
-      <c r="H95" s="109" t="s">
+      <c r="H95" s="13" t="s">
         <v>554</v>
       </c>
-      <c r="I95" s="109" t="s">
+      <c r="I95" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="J95" s="109" t="s">
+      <c r="J95" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="K95" s="109" t="s">
+      <c r="K95" s="13" t="s">
         <v>555</v>
       </c>
-      <c r="L95" s="107" t="s">
+      <c r="L95" s="15" t="s">
         <v>572</v>
       </c>
-      <c r="M95" s="108" t="s">
+      <c r="M95" s="54" t="s">
         <v>358</v>
       </c>
-      <c r="N95" s="108" t="s">
+      <c r="N95" s="54" t="s">
         <v>565</v>
       </c>
-      <c r="O95" s="108" t="s">
+      <c r="O95" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="P95" s="108"/>
     </row>
     <row r="96" spans="1:16" s="32" customFormat="1" ht="99">
       <c r="A96" s="28" t="s">

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4264F15E-E5DE-4D84-95D4-03DB41D805AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E540CD5-9BE9-4995-9477-26A1D577D0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
@@ -4010,7 +4010,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4332,8 +4332,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="25" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="25" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -9390,7 +9393,7 @@
       <c r="B95" s="19">
         <v>3</v>
       </c>
-      <c r="C95" s="109">
+      <c r="C95" s="110">
         <v>45723</v>
       </c>
       <c r="D95" s="107" t="s">
@@ -9437,7 +9440,7 @@
       <c r="B96" s="29">
         <v>3</v>
       </c>
-      <c r="C96" s="72">
+      <c r="C96" s="109">
         <v>45721</v>
       </c>
       <c r="D96" s="31" t="s">

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E540CD5-9BE9-4995-9477-26A1D577D0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C71687-10CF-4EB4-AAD3-D403986C6AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="577">
   <si>
     <t>아이디</t>
   </si>
@@ -3696,10 +3696,6 @@
     <t>가로(설치시 여유공간확보): 1000 / 깊이(mm): 500 / 높이(mm): 1950(기본2단)</t>
   </si>
   <si>
-    <t>아웃바운드하였으나 부재중, 추후 연락하여 상황 파악 및 조치 취할 예정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>아웃바운드 결과, 교환 원하지 않는다고 하셔서 네이버 포인트 기프티콘 지급</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3709,6 +3705,14 @@
   </si>
   <si>
     <t xml:space="preserve">아웃바운드하여 치료비 및 위로금 전달 완료 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아웃바운드하였으나 크게 다치지는 않았고 보상 원치 않아 상담 완료로 처리</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4335,7 +4339,7 @@
     <xf numFmtId="14" fontId="25" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4678,8 +4682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
   <dimension ref="A1:P96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView tabSelected="1" topLeftCell="E90" workbookViewId="0">
+      <selection activeCell="L95" sqref="L95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9371,7 +9375,7 @@
         <v>109</v>
       </c>
       <c r="L94" s="40" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="M94" s="58" t="s">
         <v>358</v>
@@ -9383,7 +9387,7 @@
         <v>57</v>
       </c>
       <c r="P94" s="58" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="95" spans="1:16" ht="105">
@@ -9421,7 +9425,7 @@
         <v>555</v>
       </c>
       <c r="L95" s="15" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="M95" s="54" t="s">
         <v>358</v>
@@ -9431,6 +9435,9 @@
       </c>
       <c r="O95" s="54" t="s">
         <v>57</v>
+      </c>
+      <c r="P95" s="54" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="96" spans="1:16" s="32" customFormat="1" ht="99">
@@ -9468,7 +9475,7 @@
         <v>34</v>
       </c>
       <c r="L96" s="70" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="M96" s="58" t="s">
         <v>364</v>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C71687-10CF-4EB4-AAD3-D403986C6AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE88AA42-697C-4E10-826B-70392402C590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="593">
   <si>
     <t>아이디</t>
   </si>
@@ -3713,6 +3713,66 @@
   </si>
   <si>
     <t>아웃바운드하였으나 크게 다치지는 않았고 보상 원치 않아 상담 완료로 처리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>skyh****</t>
+  </si>
+  <si>
+    <t>2025-03-11</t>
+  </si>
+  <si>
+    <t>프레임 하나는 까져서 왔고 와이프 한세트 저 한세트 주문해서 주말간 작업 다해서 정리하려했으나 동시에 주문한 물건이 배송되지 않음.
+같은 구성을 각각 주문했음해도 한세트는 2일 또 다른 세트는 5일이 걸림
+주말간 문의해서 일요일 출고를 약속했으나 실제로 출고되지 않고 하루 뒤인 월요일에 출고가 됨.
+이에 계획해둔 시간들이 통으로 날라감.
+클레임 대처에 안일한 회사인거같음.
+문제생기면 바로바로 처리 되지 않으니 타 구매자들도 주의가 필요해 보이네요</t>
+  </si>
+  <si>
+    <t>가로(폭)x세로(깊이)(mm): 1000x400 / 높이(mm): 1800 / 단수: 4단</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/speedrackstore/products/8806055789</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래처 확인 결과, 재고 부족으로 인한 배송이 원인으로 파악. 고객과의 아웃바운드 및 리뷰 답글 조치 완료로 확인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>so20******</t>
+  </si>
+  <si>
+    <t>2025-03-12</t>
+  </si>
+  <si>
+    <t>아무리 너무 해도 택배를 이딴 식으로 보내면 되겠습니까? 자 개 그지가 지워도 이딴 식으로 나누겠네요</t>
+  </si>
+  <si>
+    <t>가로(mm) x 깊이(mm): 1000 x 300 / 높이(mm): 600(일체형기둥) / 단수(합판갯수): 1단</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/nrshopping/products/5525598470</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>나라(추가2)</t>
+  </si>
+  <si>
+    <t>거래처 확인 결과, 배송 중 합판 파손이 원인. 합판 재출고 처리 및 답글 조치 완료로 확인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>영업</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4014,7 +4074,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4342,6 +4402,7 @@
     <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -4680,10 +4741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
-  <dimension ref="A1:P96"/>
+  <dimension ref="A1:P98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E90" workbookViewId="0">
-      <selection activeCell="L95" sqref="L95"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9490,6 +9551,106 @@
         <v>59</v>
       </c>
     </row>
+    <row r="97" spans="1:16" ht="150">
+      <c r="A97" s="25" t="s">
+        <v>577</v>
+      </c>
+      <c r="B97" s="25">
+        <v>1</v>
+      </c>
+      <c r="C97" s="25" t="s">
+        <v>578</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="E97" s="25">
+        <v>254</v>
+      </c>
+      <c r="F97" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="G97" s="111" t="s">
+        <v>581</v>
+      </c>
+      <c r="H97" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I97" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J97" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="K97" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="L97" s="35" t="s">
+        <v>582</v>
+      </c>
+      <c r="M97" s="54" t="s">
+        <v>583</v>
+      </c>
+      <c r="N97" s="54" t="s">
+        <v>333</v>
+      </c>
+      <c r="O97" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="P97" s="54" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
+      <c r="A98" s="25" t="s">
+        <v>585</v>
+      </c>
+      <c r="B98" s="25">
+        <v>1</v>
+      </c>
+      <c r="C98" s="25" t="s">
+        <v>586</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="E98" s="25">
+        <v>56</v>
+      </c>
+      <c r="F98" s="25" t="s">
+        <v>588</v>
+      </c>
+      <c r="G98" s="111" t="s">
+        <v>589</v>
+      </c>
+      <c r="H98" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I98" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J98" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="K98" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="L98" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="M98" s="54" t="s">
+        <v>583</v>
+      </c>
+      <c r="N98" s="54" t="s">
+        <v>333</v>
+      </c>
+      <c r="O98" s="54" t="s">
+        <v>592</v>
+      </c>
+      <c r="P98" s="54" t="s">
+        <v>584</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:P81" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}"/>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -9497,6 +9658,8 @@
     <hyperlink ref="G79" r:id="rId1" xr:uid="{A7346326-C933-4BE9-B9D5-D307D3E7BF06}"/>
     <hyperlink ref="G83" r:id="rId2" xr:uid="{2E5E3DD6-31D7-49FC-A3C1-B42D9430D64C}"/>
     <hyperlink ref="G92" r:id="rId3" xr:uid="{E94E4387-AC56-495F-9F5F-1179D1A59551}"/>
+    <hyperlink ref="G97" r:id="rId4" xr:uid="{7C834F20-8132-443C-BA20-B2249098F48E}"/>
+    <hyperlink ref="G98" r:id="rId5" xr:uid="{F5691DA7-EB9B-415E-A660-A3B178D300A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE88AA42-697C-4E10-826B-70392402C590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A2EA13-334C-48DC-BD90-CF859B41872A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="615">
   <si>
     <t>아이디</t>
   </si>
@@ -3773,6 +3773,99 @@
   </si>
   <si>
     <t>영업</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shir******</t>
+  </si>
+  <si>
+    <t>dohy******</t>
+  </si>
+  <si>
+    <t>eunh*****</t>
+  </si>
+  <si>
+    <t>tear*****</t>
+  </si>
+  <si>
+    <t>20만원 넘는 제품을 판매하면,구성품 제작시에 제대로 신경을 써야지.진짜 짜증나네요.
+두개의 걸림쇠가 동시에 걸려야 하는데,1개는 정상적으로 벌어진 상태로 오고,나머지 1개는 꽉 눌린 상태로 와서 어떻게든 끼워넣어볼려다가 실패. 할수없이 망치랑 정 역할 할만한 걸로 한참을 두들겨도 안됨.첨부한 첫번째 사진 보시면,10분을 낑낑 거리다가 열 받아서 찍은거임. 
+좌측 걸림쇠는 적절허게 벌어져서 바로 걸 수 있고,우측에 보이는건 꽉 눌려와서 걸리지 않다보니 계속 펼려고 생쇼를 했음.
+구성품 1개만 그렇다면 이해를 하겠음. 
+2번째 사진. 동일 모양과 동일 사이즈의 다른 부품. 걸림쇠 아래쪽 1개는 정상적으로 벌어져있어서 걸 수 있는데,위쪽은 완전히 판에 붙어서 벌어지지 않는 상태.
+저거 해결하느라 20분동안 생쇼하다가 안되서,옆 가게가서 공구 빌려서 펴서 걸수 있게 만드는데 성공.
+제가 지난10년간 네이버 리뷰 작성하면서 5점 만점을 안 준건 이번이 처음임. 저랑 와이프가 불량 제작으로 인해 불필요하게 20분 넘게 생고생했으면,그에 상응하는 리뷰는 받으셔야죠. 딱 3점 드리겠습니다.</t>
+  </si>
+  <si>
+    <t>생각보다 제품이 잘나온거같아서 괜찮았어요
+다만, 상품의 견고함이 좀 아쉬운게
+메쉬보드가 옆면에 1200 *600*1950
+짜리 행거에 500*600 주문 넘으라 하셔서 
+주문 넣었는데 잘 안맞아서 반품도 귀찮고해서
+그냥 저냥 쓰기로 했어요
+메쉬보드는 제품에 대한 개선이 길이 문제가
+필요하다고 봅니다</t>
+  </si>
+  <si>
+    <t>지난번에는 상처가 안나고 잘 배송이 와서 믿고 시켰는데 이번에는 상처가 나서 왔더라구요. 안보인다고 하지만 마음이 좋지는 않았습니다.</t>
+  </si>
+  <si>
+    <t>구매할때 중간보강대 가 있다고 써 있었는디 없었어요</t>
+  </si>
+  <si>
+    <t>구분: 중량랙(300kg) 독립형 / 가로x깊이(가로 외경 + 50mm): 가로1500x깊이600 / 높이x단수: 높이1800x3단</t>
+  </si>
+  <si>
+    <t>가로 x 깊이(설치시 여유공간확보): 가로1200 x 깊이600 / 높이mm: 높이1950 / 선반단수 / 행거봉: 3단 / 행거봉2</t>
+  </si>
+  <si>
+    <t>가로 x 깊이(설치시 여유공간확보): 가로400 x 깊이500 / 높이mm: 1800 / 단수 / 행거봉: 3단 / 2행거봉</t>
+  </si>
+  <si>
+    <t>https://brand.naver.com/speedrack/products/5190816313</t>
+  </si>
+  <si>
+    <t>가로x깊이(설치시 여유공간확보): 가로1500x깊이600 (보강대포함) / 높이: 2400(2단)</t>
+  </si>
+  <si>
+    <t>아웃바운드 하여 사과와 함께 상품 교환 및 네이버페이 
+쿠폰 전송 안내 도와드렸으나 거부하심. 
+추후 교환 필요하신 경우 연락 요청드린다고 안내</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>파손</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>물류</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>메쉬보드 브라켓을 메쉬망 끝 부분에 설치 시 
+조금 짧아 망이 고정되지 않는 부분으로 인한 리뷰로 확인.
+고객님께 아웃바운드하여 브라켓 설치방법 및 설치 예시 사진 첨부 완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아웃바운드하여 상품 교환 안내 드렸으나, 교환 거부로 인해
+커피쿠폰 전송 완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아웃바운드하였으나 부재로, 추후 누락 상품 발송 진행 예정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>누락</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4074,7 +4167,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4403,6 +4496,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -4741,10 +4843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
-  <dimension ref="A1:P98"/>
+  <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9651,6 +9753,203 @@
         <v>584</v>
       </c>
     </row>
+    <row r="99" spans="1:16" ht="198">
+      <c r="A99" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="B99" s="16">
+        <v>3</v>
+      </c>
+      <c r="C99" s="73">
+        <v>45735</v>
+      </c>
+      <c r="D99" s="18" t="s">
+        <v>597</v>
+      </c>
+      <c r="E99" s="112">
+        <v>554</v>
+      </c>
+      <c r="F99" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="G99" s="113" t="s">
+        <v>553</v>
+      </c>
+      <c r="H99" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="I99" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J99" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="K99" s="14" t="s">
+        <v>555</v>
+      </c>
+      <c r="L99" s="35" t="s">
+        <v>606</v>
+      </c>
+      <c r="M99" s="54" t="s">
+        <v>607</v>
+      </c>
+      <c r="N99" s="54" t="s">
+        <v>608</v>
+      </c>
+      <c r="O99" s="54" t="s">
+        <v>609</v>
+      </c>
+      <c r="P99" s="54" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" ht="120">
+      <c r="A100" s="13" t="s">
+        <v>594</v>
+      </c>
+      <c r="B100" s="19">
+        <v>3</v>
+      </c>
+      <c r="C100" s="74">
+        <v>45738</v>
+      </c>
+      <c r="D100" s="108" t="s">
+        <v>598</v>
+      </c>
+      <c r="E100" s="112">
+        <v>167</v>
+      </c>
+      <c r="F100" s="13" t="s">
+        <v>602</v>
+      </c>
+      <c r="G100" s="114" t="s">
+        <v>107</v>
+      </c>
+      <c r="H100" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I100" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J100" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="K100" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="L100" s="35" t="s">
+        <v>611</v>
+      </c>
+      <c r="M100" s="54" t="s">
+        <v>287</v>
+      </c>
+      <c r="N100" s="54" t="s">
+        <v>328</v>
+      </c>
+      <c r="O100" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="P100" s="54" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" ht="30">
+      <c r="A101" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="B101" s="19">
+        <v>3</v>
+      </c>
+      <c r="C101" s="74">
+        <v>45734</v>
+      </c>
+      <c r="D101" s="108" t="s">
+        <v>599</v>
+      </c>
+      <c r="E101" s="112">
+        <v>74</v>
+      </c>
+      <c r="F101" s="13" t="s">
+        <v>603</v>
+      </c>
+      <c r="G101" s="114" t="s">
+        <v>604</v>
+      </c>
+      <c r="H101" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I101" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="J101" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="K101" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="L101" s="35" t="s">
+        <v>612</v>
+      </c>
+      <c r="M101" s="54" t="s">
+        <v>607</v>
+      </c>
+      <c r="N101" s="54" t="s">
+        <v>608</v>
+      </c>
+      <c r="O101" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="P101" s="54" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" ht="16.5">
+      <c r="A102" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="B102" s="16">
+        <v>3</v>
+      </c>
+      <c r="C102" s="73">
+        <v>45736</v>
+      </c>
+      <c r="D102" s="18" t="s">
+        <v>600</v>
+      </c>
+      <c r="E102" s="112">
+        <v>28</v>
+      </c>
+      <c r="F102" s="14" t="s">
+        <v>605</v>
+      </c>
+      <c r="G102" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="H102" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I102" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J102" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="K102" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L102" s="35" t="s">
+        <v>613</v>
+      </c>
+      <c r="M102" s="54" t="s">
+        <v>607</v>
+      </c>
+      <c r="N102" s="54" t="s">
+        <v>614</v>
+      </c>
+      <c r="O102" s="54" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:P81" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}"/>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A2EA13-334C-48DC-BD90-CF859B41872A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D47F19-033D-495D-ABC3-34D7801DF13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="655">
   <si>
     <t>아이디</t>
   </si>
@@ -3866,6 +3866,145 @@
   </si>
   <si>
     <t>누락</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gcpr*****</t>
+  </si>
+  <si>
+    <t>2025-03-29</t>
+  </si>
+  <si>
+    <t>bboy****</t>
+  </si>
+  <si>
+    <t>2025-03-28</t>
+  </si>
+  <si>
+    <t>조항주</t>
+  </si>
+  <si>
+    <t>2025-03-27</t>
+  </si>
+  <si>
+    <t>icks*****</t>
+  </si>
+  <si>
+    <t>2025-03-25</t>
+  </si>
+  <si>
+    <t>keri*****</t>
+  </si>
+  <si>
+    <t>2025-03-24</t>
+  </si>
+  <si>
+    <t>yo****</t>
+  </si>
+  <si>
+    <t>가격에 비해 제품 마감이 너무 부실해요.. 구겨지고 찍히고 긁히고 오염되서 안닦이는 부분도 있고 잘 안보이는 부분은 도색도 대충 되어 있네요.. 도색이 다 까져서 철판 그대로 노출된 부분들도 좀 보이는데 습한 환경에서는 녹슬 우려가 있네요.. 
+다른것 보다 포장은 좀 보강 할 필요가 있을거 같습니다 다른 리뷰에서도 보면 포장이 너무 부실하다는 평가가 많은데요 저역시 아무런 완충재 없이 박스안에 선반 파츠들만 달랑 들어있더라구요 
+대응은 친절합니다.. 당연히 찍히고 긁히고 있으면 교환 해주신다고 하시죠.. 근데 중요한건 포장부실하다는 리뷰가 많은걸 보셨으먼 처음부터 박스 포장도 꼼꼼히 하고 마감도 신경쓰는게 고객 만족도 올리는 일이 아닌가 싶어요 사실상 이 무거운거를 언제 또 재포장 하고 교환하고 씁니까.. 그동안 나머지 자재들은 또 어디 보관하구요.. 저도 일단물건들 당장 보관할대도 없고 해서 선반 한단장도만 교환 하고 나머진 그냥 조립해서 사용했습니다.. 가족한테 추천해서 같이 샀는데 저보다 상태가 더 심각하네요... 추천한 제가 다 부끄러워서 얼굴을 들고 다닐수가 없네요</t>
+  </si>
+  <si>
+    <t>구분: 경량랙(200kg) 독립형 / 가로x깊이(가로 외경 + 50mm): 가로1500x깊이450 / 높이x단수: 높이1800x4단</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://brand.naver.com/speedrack/products/11359656208 </t>
+  </si>
+  <si>
+    <t>자잘하게 찍힌부분도 철판마다 꽤 있고 설명서는 구매한 제품이 아닌 다른 제품용 설명서가 들어있네요
+결합되는 걸쇠 부분이 편차가 있어서 결합이 제대로 안되서 고생했습니다
+어차피 물건 수납용이라 반품할정도 문제는 아니라서 쓸건데 여러모로 아쉽네요
+더 저렴했던 타사 제품 대비 여러모로 불만족스럽네요
+배송 받기전에는 추가 구매할까도 생각했지만 지금으로서는 더사고 싶지 않습니다
+유일한 장점은 깔끔한 디자인입니다</t>
+  </si>
+  <si>
+    <t>구분: 경량랙(200kg) 독립형 / 가로x깊이(가로 외경 + 50mm): 가로1200x깊이600 / 높이x단수: 높이1800x4단</t>
+  </si>
+  <si>
+    <t xml:space="preserve">아주 불만족스럽습니다. 판은 다 찌그러져서 도착하고, 제품이 파여져있거나, 더러운게 묻어있거나 전부 하자있는 부품들밖에 오지 않았습니다. 여러분 저처럼 피해보지 마시고, 다른 회사 제품 구매하시는걸 추천합니다. </t>
+  </si>
+  <si>
+    <t>구분: 연결형, 가로x깊이(가로 외경 +50mm 확보): 가로1200x깊이600, 높이x단수: 높이1800x4단</t>
+  </si>
+  <si>
+    <t>바퀴 하나가 휘어져서 배송되었네요. 반품하고 다시 물건 기다릴 시간이 없어서 대충 망치로 두드린후 사용해 봤으나 잘 안들어 갑니다. 겨우 넣었는데, 다시는 빼지 못할 것 같군요.</t>
+  </si>
+  <si>
+    <t>추가상품명: 홈던트하우스 조절좌 세트 / 추가상품값: 조절좌4개+브라켓4개</t>
+  </si>
+  <si>
+    <t>2.5칸에대해 정확하게 설명해주시지 그리고 전체구성보고 받침대하나 더시켜야된다라고 안내해줫으면 좋을탠대 조립하고나니 받침대 1개가부족합니다</t>
+  </si>
+  <si>
+    <t>가로x깊이: 가로900x깊이500 / 높이: 1800(2.5단)</t>
+  </si>
+  <si>
+    <t>https://brand.naver.com/speedrack/products/8320467804</t>
+  </si>
+  <si>
+    <t>판이 엉망인게 많지만
+반품교환 귀찮으니 그냥 씁니다</t>
+  </si>
+  <si>
+    <t>구분: 경량랙(200kg) 독립형 / 가로x깊이(가로 외경 + 50mm): 가로900x깊이450 / 높이x단수: 높이1800x4단</t>
+  </si>
+  <si>
+    <t>아웃바운드하여 선반 파손 확인 및 맞교환 진행 완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아웃바운드하였으나 사과 및 교환 안내 진행했으나 교환거부로 기프트콘 전송 안내. 커피 쿠폰 전송 완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>선반받침 파손으로 인해 부품 출고 완료, 커피쿠폰 거부</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>답글 작성하여 조치 진행</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>하단오픈형 구성 착오로 인한 리뷰, 답글 작성 조치 완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아웃바운드하여 파손 선반 재출고 진행 완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송</t>
+  </si>
+  <si>
+    <t>배송</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>파손</t>
+  </si>
+  <si>
+    <t>파손</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객지원</t>
+  </si>
+  <si>
+    <t>완료</t>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객지원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4167,7 +4306,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4504,6 +4643,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4843,10 +4985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
-  <dimension ref="A1:P102"/>
+  <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9949,6 +10091,309 @@
       <c r="O102" s="54" t="s">
         <v>57</v>
       </c>
+      <c r="P102" s="54" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" s="32" customFormat="1" ht="135">
+      <c r="A103" s="41" t="s">
+        <v>615</v>
+      </c>
+      <c r="B103" s="41">
+        <v>1</v>
+      </c>
+      <c r="C103" s="41" t="s">
+        <v>616</v>
+      </c>
+      <c r="D103" s="42" t="s">
+        <v>626</v>
+      </c>
+      <c r="E103" s="41">
+        <v>552</v>
+      </c>
+      <c r="F103" s="41" t="s">
+        <v>627</v>
+      </c>
+      <c r="G103" s="41" t="s">
+        <v>628</v>
+      </c>
+      <c r="H103" s="41" t="s">
+        <v>554</v>
+      </c>
+      <c r="I103" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="J103" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="K103" s="41" t="s">
+        <v>555</v>
+      </c>
+      <c r="L103" s="40" t="s">
+        <v>640</v>
+      </c>
+      <c r="M103" s="58" t="s">
+        <v>647</v>
+      </c>
+      <c r="N103" s="58" t="s">
+        <v>649</v>
+      </c>
+      <c r="O103" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="P103" s="58" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" ht="90">
+      <c r="A104" s="25" t="s">
+        <v>617</v>
+      </c>
+      <c r="B104" s="25">
+        <v>3</v>
+      </c>
+      <c r="C104" s="25" t="s">
+        <v>618</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="E104" s="25">
+        <v>226</v>
+      </c>
+      <c r="F104" s="25" t="s">
+        <v>630</v>
+      </c>
+      <c r="G104" s="25" t="s">
+        <v>628</v>
+      </c>
+      <c r="H104" s="25" t="s">
+        <v>554</v>
+      </c>
+      <c r="I104" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J104" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="K104" s="25" t="s">
+        <v>555</v>
+      </c>
+      <c r="L104" s="35" t="s">
+        <v>641</v>
+      </c>
+      <c r="M104" s="115" t="s">
+        <v>647</v>
+      </c>
+      <c r="N104" s="115" t="s">
+        <v>649</v>
+      </c>
+      <c r="O104" s="115" t="s">
+        <v>57</v>
+      </c>
+      <c r="P104" s="115" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" ht="30">
+      <c r="A105" s="25" t="s">
+        <v>619</v>
+      </c>
+      <c r="B105" s="25">
+        <v>1</v>
+      </c>
+      <c r="C105" s="25" t="s">
+        <v>620</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="E105" s="25">
+        <v>118</v>
+      </c>
+      <c r="F105" s="25" t="s">
+        <v>632</v>
+      </c>
+      <c r="G105" s="25" t="s">
+        <v>530</v>
+      </c>
+      <c r="H105" s="25" t="s">
+        <v>554</v>
+      </c>
+      <c r="I105" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="J105" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="K105" s="25" t="s">
+        <v>555</v>
+      </c>
+      <c r="L105" s="35" t="s">
+        <v>642</v>
+      </c>
+      <c r="M105" s="115" t="s">
+        <v>646</v>
+      </c>
+      <c r="N105" s="115" t="s">
+        <v>648</v>
+      </c>
+      <c r="O105" s="115" t="s">
+        <v>650</v>
+      </c>
+      <c r="P105" s="115" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" ht="30">
+      <c r="A106" s="25" t="s">
+        <v>621</v>
+      </c>
+      <c r="B106" s="25">
+        <v>3</v>
+      </c>
+      <c r="C106" s="25" t="s">
+        <v>622</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="E106" s="25">
+        <v>99</v>
+      </c>
+      <c r="F106" s="25" t="s">
+        <v>634</v>
+      </c>
+      <c r="G106" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="H106" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I106" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J106" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="K106" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="L106" s="35" t="s">
+        <v>643</v>
+      </c>
+      <c r="M106" s="115" t="s">
+        <v>647</v>
+      </c>
+      <c r="N106" s="115" t="s">
+        <v>649</v>
+      </c>
+      <c r="O106" s="115" t="s">
+        <v>57</v>
+      </c>
+      <c r="P106" s="115" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" ht="30">
+      <c r="A107" s="25" t="s">
+        <v>623</v>
+      </c>
+      <c r="B107" s="25">
+        <v>2</v>
+      </c>
+      <c r="C107" s="25" t="s">
+        <v>624</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="E107" s="25">
+        <v>77</v>
+      </c>
+      <c r="F107" s="25" t="s">
+        <v>636</v>
+      </c>
+      <c r="G107" s="25" t="s">
+        <v>637</v>
+      </c>
+      <c r="H107" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I107" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J107" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="K107" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="L107" s="35" t="s">
+        <v>644</v>
+      </c>
+      <c r="M107" s="115" t="s">
+        <v>654</v>
+      </c>
+      <c r="N107" s="115" t="s">
+        <v>333</v>
+      </c>
+      <c r="O107" s="115" t="s">
+        <v>57</v>
+      </c>
+      <c r="P107" s="115" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" ht="30">
+      <c r="A108" s="25" t="s">
+        <v>625</v>
+      </c>
+      <c r="B108" s="25">
+        <v>1</v>
+      </c>
+      <c r="C108" s="25" t="s">
+        <v>622</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="E108" s="25">
+        <v>28</v>
+      </c>
+      <c r="F108" s="25" t="s">
+        <v>639</v>
+      </c>
+      <c r="G108" s="25" t="s">
+        <v>628</v>
+      </c>
+      <c r="H108" s="25" t="s">
+        <v>554</v>
+      </c>
+      <c r="I108" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J108" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="K108" s="25" t="s">
+        <v>555</v>
+      </c>
+      <c r="L108" s="35" t="s">
+        <v>645</v>
+      </c>
+      <c r="M108" s="115" t="s">
+        <v>647</v>
+      </c>
+      <c r="N108" s="115" t="s">
+        <v>649</v>
+      </c>
+      <c r="O108" s="115" t="s">
+        <v>653</v>
+      </c>
+      <c r="P108" s="115" t="s">
+        <v>652</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:P81" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}"/>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D47F19-033D-495D-ABC3-34D7801DF13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AECFDF-ED8D-45BC-BE37-36521603E97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="662">
   <si>
     <t>아이디</t>
   </si>
@@ -4005,6 +4005,29 @@
   </si>
   <si>
     <t>서비스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>yoyo***</t>
+  </si>
+  <si>
+    <t>넹구투</t>
+  </si>
+  <si>
+    <t>약해요 결합도 정확히 안되고 다른거사세요</t>
+  </si>
+  <si>
+    <t>매우 아쉬워요</t>
+  </si>
+  <si>
+    <t>가로x깊이(설치시 여유공간확보): 가로1200x깊이500 / 높이: 1350(2단)</t>
+  </si>
+  <si>
+    <t>홈던트하우스 철제 선반 조립식 팬트리 앵글
+가로x깊이(설치시 여유공간확보): 홈던트하우스 1000x400 / 높이(프레임색상): 1050 2단 (화이트)</t>
+  </si>
+  <si>
+    <t>아웃바운드하였으나 부재. 추후 상황 파악 및 조치 예정</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4306,7 +4329,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4644,8 +4667,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4985,10 +5020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
-  <dimension ref="A1:P108"/>
+  <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10182,16 +10217,16 @@
       <c r="L104" s="35" t="s">
         <v>641</v>
       </c>
-      <c r="M104" s="115" t="s">
+      <c r="M104" s="54" t="s">
         <v>647</v>
       </c>
-      <c r="N104" s="115" t="s">
+      <c r="N104" s="54" t="s">
         <v>649</v>
       </c>
-      <c r="O104" s="115" t="s">
+      <c r="O104" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="P104" s="115" t="s">
+      <c r="P104" s="54" t="s">
         <v>652</v>
       </c>
     </row>
@@ -10232,16 +10267,16 @@
       <c r="L105" s="35" t="s">
         <v>642</v>
       </c>
-      <c r="M105" s="115" t="s">
+      <c r="M105" s="54" t="s">
         <v>646</v>
       </c>
-      <c r="N105" s="115" t="s">
+      <c r="N105" s="54" t="s">
         <v>648</v>
       </c>
-      <c r="O105" s="115" t="s">
+      <c r="O105" s="54" t="s">
         <v>650</v>
       </c>
-      <c r="P105" s="115" t="s">
+      <c r="P105" s="54" t="s">
         <v>651</v>
       </c>
     </row>
@@ -10282,16 +10317,16 @@
       <c r="L106" s="35" t="s">
         <v>643</v>
       </c>
-      <c r="M106" s="115" t="s">
+      <c r="M106" s="54" t="s">
         <v>647</v>
       </c>
-      <c r="N106" s="115" t="s">
+      <c r="N106" s="54" t="s">
         <v>649</v>
       </c>
-      <c r="O106" s="115" t="s">
+      <c r="O106" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="P106" s="115" t="s">
+      <c r="P106" s="54" t="s">
         <v>652</v>
       </c>
     </row>
@@ -10332,16 +10367,16 @@
       <c r="L107" s="35" t="s">
         <v>644</v>
       </c>
-      <c r="M107" s="115" t="s">
+      <c r="M107" s="54" t="s">
         <v>654</v>
       </c>
-      <c r="N107" s="115" t="s">
+      <c r="N107" s="54" t="s">
         <v>333</v>
       </c>
-      <c r="O107" s="115" t="s">
+      <c r="O107" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="P107" s="115" t="s">
+      <c r="P107" s="54" t="s">
         <v>652</v>
       </c>
     </row>
@@ -10382,17 +10417,117 @@
       <c r="L108" s="35" t="s">
         <v>645</v>
       </c>
-      <c r="M108" s="115" t="s">
+      <c r="M108" s="54" t="s">
         <v>647</v>
       </c>
-      <c r="N108" s="115" t="s">
+      <c r="N108" s="54" t="s">
         <v>649</v>
       </c>
-      <c r="O108" s="115" t="s">
+      <c r="O108" s="54" t="s">
         <v>653</v>
       </c>
-      <c r="P108" s="115" t="s">
+      <c r="P108" s="54" t="s">
         <v>652</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" s="32" customFormat="1" ht="16.5">
+      <c r="A109" s="115" t="s">
+        <v>655</v>
+      </c>
+      <c r="B109" s="116">
+        <v>1</v>
+      </c>
+      <c r="C109" s="77">
+        <v>45752</v>
+      </c>
+      <c r="D109" s="117" t="s">
+        <v>657</v>
+      </c>
+      <c r="E109" s="118">
+        <v>22</v>
+      </c>
+      <c r="F109" s="115" t="s">
+        <v>659</v>
+      </c>
+      <c r="G109" s="115" t="s">
+        <v>116</v>
+      </c>
+      <c r="H109" s="115" t="s">
+        <v>32</v>
+      </c>
+      <c r="I109" s="115" t="s">
+        <v>22</v>
+      </c>
+      <c r="J109" s="115" t="s">
+        <v>117</v>
+      </c>
+      <c r="K109" s="115" t="s">
+        <v>34</v>
+      </c>
+      <c r="L109" s="40" t="s">
+        <v>661</v>
+      </c>
+      <c r="M109" s="58" t="s">
+        <v>376</v>
+      </c>
+      <c r="N109" s="58" t="s">
+        <v>333</v>
+      </c>
+      <c r="O109" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="P109" s="58" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" ht="16.5">
+      <c r="A110" s="14" t="s">
+        <v>656</v>
+      </c>
+      <c r="B110" s="16">
+        <v>1</v>
+      </c>
+      <c r="C110" s="73">
+        <v>45748</v>
+      </c>
+      <c r="D110" s="18" t="s">
+        <v>658</v>
+      </c>
+      <c r="E110" s="19">
+        <v>7</v>
+      </c>
+      <c r="F110" s="14" t="s">
+        <v>660</v>
+      </c>
+      <c r="G110" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="H110" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I110" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="J110" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="K110" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L110" s="119" t="s">
+        <v>661</v>
+      </c>
+      <c r="M110" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="N110" s="54" t="s">
+        <v>333</v>
+      </c>
+      <c r="O110" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="P110" s="54" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AECFDF-ED8D-45BC-BE37-36521603E97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBFC392-92C4-4E53-8064-1AD66C397D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="662">
   <si>
     <t>아이디</t>
   </si>
@@ -4329,7 +4329,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4678,9 +4678,6 @@
     </xf>
     <xf numFmtId="177" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5022,8 +5019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
   <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109"/>
+    <sheetView tabSelected="1" topLeftCell="H101" workbookViewId="0">
+      <selection activeCell="P109" sqref="P109:P110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10476,9 +10473,7 @@
       <c r="O109" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="P109" s="58" t="s">
-        <v>59</v>
-      </c>
+      <c r="P109" s="58"/>
     </row>
     <row r="110" spans="1:16" ht="16.5">
       <c r="A110" s="14" t="s">
@@ -10514,7 +10509,7 @@
       <c r="K110" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="L110" s="119" t="s">
+      <c r="L110" s="35" t="s">
         <v>661</v>
       </c>
       <c r="M110" s="54" t="s">
@@ -10525,9 +10520,6 @@
       </c>
       <c r="O110" s="54" t="s">
         <v>57</v>
-      </c>
-      <c r="P110" s="54" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBFC392-92C4-4E53-8064-1AD66C397D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC5D53D-B4FA-4A5C-8E71-6EFE4961333C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="678">
   <si>
     <t>아이디</t>
   </si>
@@ -4028,6 +4028,81 @@
   </si>
   <si>
     <t>아웃바운드하였으나 부재. 추후 상황 파악 및 조치 예정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>melo****</t>
+  </si>
+  <si>
+    <t>강철중</t>
+  </si>
+  <si>
+    <t>2025-04-09</t>
+  </si>
+  <si>
+    <t>scen****</t>
+  </si>
+  <si>
+    <t>어떻게 이런 물건이 왔죠?
+기둥(높이)가 ㄱ자, 90도여야 하는데
+떡. 벌어진 걸로 와서 
+아귀가 도저히 맞지를 않더라고요. 
+헐렁한 정도가 아니라 공간이 휑하니 남아요 !
+이대로 조립이 된다 한들 내구성이 좋을까요?
+어항을, 생명을 위에 올리려고 샀는데 말이죠. 
+근데 물고기 둘 데가 없으니 불안합디다. 
+힘으로 제압해서 ㄱ자로 구부려놓고 조립했더니
+아니나 다를까 상판이 고정이 안 되네요? 
+미치겠어요? 
+제 물고기 여기 놔도 괜찮을까요? 이건 아닌 듯
+이런 곳과 가타부타 하기도 싫고
+애초에 하자 제품 왔으니 교환도 기대 안 되고요. 
+부속물품 다시 보낸다 한들 
+그거 재조립하며 낑낑댈 제 시간 아까워요. 
+그냥 어디 5만원돈 기부했다고 치고
+다른 데서 또 사야죠.. 불쌍한 우리 고기, 내 시간.</t>
+  </si>
+  <si>
+    <t>가로(설치시 여유공간확보): 400 / 깊이(mm) + 보강대 2개: 300 (+보강대 2개) / 높이(mm): 600(기본2단)</t>
+  </si>
+  <si>
+    <t>https://brand.naver.com/speedrack/products/10332254711</t>
+  </si>
+  <si>
+    <t>하얀색 바탕인데, 얼룩.
+모서리 눌려져서 이렇네요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈던트하우스 12T 선반 단추가: 가로900x깊이700 백색</t>
+  </si>
+  <si>
+    <t>https://speedrack.co.kr/product/detailSimulator.html?product_no=155</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>하단 오픈형이 좀 흔들거리는것 같아서 구매했는데 홈던트 하단오픈형에는 적용이 안되는 상품인것 같아요..ㅠㅠ 
+그 많은 링크를 다 들어가보기도 어렵고 어떤게 클릭했고 안했는지 헷갈리는데 구매방식이 좀 어렵습니다.. 
+잘못주문해서 받아봐야만 알게되는 시스템... 
+앞으로는 주문 잘 할것 같은데 처음 주문하는사람에게는 너무 어렵고 시간이 많이 들어요..</t>
+  </si>
+  <si>
+    <t>규격: 600mm / 색상: 백색</t>
+  </si>
+  <si>
+    <t>https://brand.naver.com/speedrack/products/6013129935</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>기둥 파손으로 확인되어 사과의 말씀과 배송 과정 설명, 기둥 재출고 완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아웃바운드하여 합판 상태 확인 후, 합판 2장에 대해 재출고 완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>보강대를 받침으로 오인하여 리뷰 작성, 보강대 부분환불 및 환불로 인한 리뷰 자동 블라인드 처리</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4329,7 +4404,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4677,6 +4752,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5017,10 +5104,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
-  <dimension ref="A1:P110"/>
+  <dimension ref="A1:P113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H101" workbookViewId="0">
-      <selection activeCell="P109" sqref="P109:P110"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="D113" sqref="D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10522,6 +10609,124 @@
         <v>57</v>
       </c>
     </row>
+    <row r="111" spans="1:16" s="32" customFormat="1" ht="250.5" customHeight="1">
+      <c r="A111" s="28" t="s">
+        <v>662</v>
+      </c>
+      <c r="B111" s="29">
+        <v>1</v>
+      </c>
+      <c r="C111" s="72">
+        <v>45753</v>
+      </c>
+      <c r="D111" s="31" t="s">
+        <v>666</v>
+      </c>
+      <c r="E111" s="122">
+        <v>400</v>
+      </c>
+      <c r="F111" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="G111" s="28" t="s">
+        <v>668</v>
+      </c>
+      <c r="H111" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="I111" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="J111" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="K111" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="L111" s="40" t="s">
+        <v>675</v>
+      </c>
+      <c r="M111" s="58"/>
+      <c r="N111" s="58"/>
+      <c r="O111" s="58"/>
+      <c r="P111" s="58"/>
+    </row>
+    <row r="112" spans="1:16" ht="30">
+      <c r="A112" t="s">
+        <v>663</v>
+      </c>
+      <c r="B112" s="10">
+        <v>1</v>
+      </c>
+      <c r="C112" s="50" t="s">
+        <v>664</v>
+      </c>
+      <c r="D112" s="23" t="s">
+        <v>669</v>
+      </c>
+      <c r="E112" s="119">
+        <v>28</v>
+      </c>
+      <c r="F112" t="s">
+        <v>670</v>
+      </c>
+      <c r="G112" s="120" t="s">
+        <v>671</v>
+      </c>
+      <c r="H112" t="s">
+        <v>21</v>
+      </c>
+      <c r="I112" t="s">
+        <v>90</v>
+      </c>
+      <c r="J112" t="s">
+        <v>91</v>
+      </c>
+      <c r="K112" t="s">
+        <v>48</v>
+      </c>
+      <c r="L112" s="35" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="82.5">
+      <c r="A113" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="B113" s="16">
+        <v>1</v>
+      </c>
+      <c r="C113" s="73">
+        <v>45754</v>
+      </c>
+      <c r="D113" s="18" t="s">
+        <v>672</v>
+      </c>
+      <c r="E113" s="119">
+        <v>196</v>
+      </c>
+      <c r="F113" s="14" t="s">
+        <v>673</v>
+      </c>
+      <c r="G113" s="121" t="s">
+        <v>674</v>
+      </c>
+      <c r="H113" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I113" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J113" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="K113" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L113" s="35" t="s">
+        <v>677</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:P81" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}"/>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -10531,6 +10736,8 @@
     <hyperlink ref="G92" r:id="rId3" xr:uid="{E94E4387-AC56-495F-9F5F-1179D1A59551}"/>
     <hyperlink ref="G97" r:id="rId4" xr:uid="{7C834F20-8132-443C-BA20-B2249098F48E}"/>
     <hyperlink ref="G98" r:id="rId5" xr:uid="{F5691DA7-EB9B-415E-A660-A3B178D300A2}"/>
+    <hyperlink ref="G113" r:id="rId6" xr:uid="{682AD21A-76B0-494A-9E26-9B3DE224E929}"/>
+    <hyperlink ref="G112" r:id="rId7" xr:uid="{3B7BEDB1-B41F-49F7-A285-DA411AD7DC8E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC5D53D-B4FA-4A5C-8E71-6EFE4961333C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1D1A7B-9712-4951-BF1B-EC657788BBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="677">
   <si>
     <t>아이디</t>
   </si>
@@ -4035,9 +4035,6 @@
   </si>
   <si>
     <t>강철중</t>
-  </si>
-  <si>
-    <t>2025-04-09</t>
   </si>
   <si>
     <t>scen****</t>
@@ -5107,7 +5104,7 @@
   <dimension ref="A1:P113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="D113" sqref="D113"/>
+      <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10620,16 +10617,16 @@
         <v>45753</v>
       </c>
       <c r="D111" s="31" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E111" s="122">
         <v>400</v>
       </c>
       <c r="F111" s="28" t="s">
+        <v>666</v>
+      </c>
+      <c r="G111" s="28" t="s">
         <v>667</v>
-      </c>
-      <c r="G111" s="28" t="s">
-        <v>668</v>
       </c>
       <c r="H111" s="28" t="s">
         <v>32</v>
@@ -10644,7 +10641,7 @@
         <v>34</v>
       </c>
       <c r="L111" s="40" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="M111" s="58"/>
       <c r="N111" s="58"/>
@@ -10658,20 +10655,20 @@
       <c r="B112" s="10">
         <v>1</v>
       </c>
-      <c r="C112" s="50" t="s">
-        <v>664</v>
+      <c r="C112" s="73">
+        <v>45756</v>
       </c>
       <c r="D112" s="23" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E112" s="119">
         <v>28</v>
       </c>
       <c r="F112" t="s">
+        <v>669</v>
+      </c>
+      <c r="G112" s="120" t="s">
         <v>670</v>
-      </c>
-      <c r="G112" s="120" t="s">
-        <v>671</v>
       </c>
       <c r="H112" t="s">
         <v>21</v>
@@ -10686,12 +10683,12 @@
         <v>48</v>
       </c>
       <c r="L112" s="35" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="82.5">
       <c r="A113" s="14" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B113" s="16">
         <v>1</v>
@@ -10700,16 +10697,16 @@
         <v>45754</v>
       </c>
       <c r="D113" s="18" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E113" s="119">
         <v>196</v>
       </c>
       <c r="F113" s="14" t="s">
+        <v>672</v>
+      </c>
+      <c r="G113" s="121" t="s">
         <v>673</v>
-      </c>
-      <c r="G113" s="121" t="s">
-        <v>674</v>
       </c>
       <c r="H113" s="14" t="s">
         <v>32</v>
@@ -10724,7 +10721,7 @@
         <v>48</v>
       </c>
       <c r="L113" s="35" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
   </sheetData>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1D1A7B-9712-4951-BF1B-EC657788BBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067CCF0A-AD19-46CB-AEE4-B9620D626089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="681">
   <si>
     <t>아이디</t>
   </si>
@@ -4099,7 +4099,23 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>보강대를 받침으로 오인하여 리뷰 작성, 보강대 부분환불 및 환불로 인한 리뷰 자동 블라인드 처리</t>
+    <t>완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>파손</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객지원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>보강대를 받침으로 오인하여 리뷰 작성, 보강대 부분환불 및 환불로 인한 리뷰 자동 블라인드 처리 / 브랜드 구분 명확화 개선 필요</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5103,8 +5119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
   <dimension ref="A1:P113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113"/>
+    <sheetView tabSelected="1" topLeftCell="H105" workbookViewId="0">
+      <selection activeCell="L113" sqref="L113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10557,7 +10573,9 @@
       <c r="O109" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="P109" s="58"/>
+      <c r="P109" s="58" t="s">
+        <v>676</v>
+      </c>
     </row>
     <row r="110" spans="1:16" ht="16.5">
       <c r="A110" s="14" t="s">
@@ -10605,6 +10623,9 @@
       <c r="O110" s="54" t="s">
         <v>57</v>
       </c>
+      <c r="P110" s="54" t="s">
+        <v>676</v>
+      </c>
     </row>
     <row r="111" spans="1:16" s="32" customFormat="1" ht="250.5" customHeight="1">
       <c r="A111" s="28" t="s">
@@ -10643,10 +10664,18 @@
       <c r="L111" s="40" t="s">
         <v>674</v>
       </c>
-      <c r="M111" s="58"/>
-      <c r="N111" s="58"/>
-      <c r="O111" s="58"/>
-      <c r="P111" s="58"/>
+      <c r="M111" s="58" t="s">
+        <v>677</v>
+      </c>
+      <c r="N111" s="58" t="s">
+        <v>678</v>
+      </c>
+      <c r="O111" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="P111" s="58" t="s">
+        <v>676</v>
+      </c>
     </row>
     <row r="112" spans="1:16" ht="30">
       <c r="A112" t="s">
@@ -10685,8 +10714,20 @@
       <c r="L112" s="35" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" ht="82.5">
+      <c r="M112" s="54" t="s">
+        <v>677</v>
+      </c>
+      <c r="N112" s="54" t="s">
+        <v>678</v>
+      </c>
+      <c r="O112" s="54" t="s">
+        <v>679</v>
+      </c>
+      <c r="P112" s="54" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" ht="82.5">
       <c r="A113" s="14" t="s">
         <v>664</v>
       </c>
@@ -10721,6 +10762,18 @@
         <v>48</v>
       </c>
       <c r="L113" s="35" t="s">
+        <v>680</v>
+      </c>
+      <c r="M113" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="N113" s="54" t="s">
+        <v>350</v>
+      </c>
+      <c r="O113" s="54" t="s">
+        <v>679</v>
+      </c>
+      <c r="P113" s="54" t="s">
         <v>676</v>
       </c>
     </row>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067CCF0A-AD19-46CB-AEE4-B9620D626089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F63DA20-10E1-4811-8C5F-73E785C8017D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="693">
   <si>
     <t>아이디</t>
   </si>
@@ -4116,6 +4116,61 @@
   </si>
   <si>
     <t>보강대를 받침으로 오인하여 리뷰 작성, 보강대 부분환불 및 환불로 인한 리뷰 자동 블라인드 처리 / 브랜드 구분 명확화 개선 필요</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jaeb******</t>
+  </si>
+  <si>
+    <t>what****</t>
+  </si>
+  <si>
+    <t>일단 상품 자체 만족도는 한 3점 됩니다. 
+정말 많이 찾아보고 후기도 좋고 해서 주문했습니다. 
+1200x600 으로 3개 시켰고 
+1차로 배송에서 문제입니다. 5층인데 1층에다가 두고 
+기사왈 : 배송비 얼마나 한다고 5층까지 가져다 놔요? 엘레베이터도 없고. 토시 하나 틀리지 않고 저렇게 얘기하셨고 
+업체에다가 얘기하라고 하셔서 남깁니다. 
+후.. 돈주고 물건 사면서 기분까지 나빠야 하는게 참
+뭐하네요. 
+쓰면서 굳이 또 기분 나쁜 얘기 적어어야 하나 싶어서 마무리 합니다. 
+1층에다가 두셔도 괜찮았습니다. 근데 말이 아다르고 어다릅니다. 그렇게 말씀하시니 참 물건 받으면서도 기분이 좋지 않았고 환불하려다가 참습니다.</t>
+  </si>
+  <si>
+    <t>가로 x 깊이(설치시 여유공간확보): 가로1200 x 깊이600 / 높이mm: 높이2100 / 선반단수 / 행거봉: 3단 / 행거봉2</t>
+  </si>
+  <si>
+    <t>창고선반같지않고 전면구멍없이 마감없이좋으나 제품발송시 철제는 비닐랩이라도감아서 발송했으면하네요 
+기둥 가로세로바 철제 온통기스투성이 
+새제품샀는데 중고제품받은기분</t>
+  </si>
+  <si>
+    <t>가로(설치시 여유공간확보): 600 / 깊이(mm): 400 / 높이(mm): 1050(기본2단)</t>
+  </si>
+  <si>
+    <t>아웃바운드하여 택배사 관련 불편 겪으신 점에 대한 사과 후 커피와 디저트 쿠폰 전송 완료.
+ 해당 건 물류팀 전달 완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아웃바운드하여 포장 및 배송 과정에 대한 설명, 사과 진행.
+프레임 전체 맞교환으로 처리 완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>파손</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>물류</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4417,7 +4472,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4778,6 +4833,27 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5117,10 +5193,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
-  <dimension ref="A1:P113"/>
+  <dimension ref="A1:P115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H105" workbookViewId="0">
-      <selection activeCell="L113" sqref="L113"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5631,7 +5707,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="82.5">
+    <row r="11" spans="1:16" ht="99">
       <c r="A11" s="14" t="s">
         <v>81</v>
       </c>
@@ -10775,6 +10851,106 @@
       </c>
       <c r="P113" s="54" t="s">
         <v>676</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" ht="181.5">
+      <c r="A114" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="B114" s="29">
+        <v>1</v>
+      </c>
+      <c r="C114" s="72">
+        <v>45761</v>
+      </c>
+      <c r="D114" s="31" t="s">
+        <v>683</v>
+      </c>
+      <c r="E114" s="118">
+        <v>352</v>
+      </c>
+      <c r="F114" s="28" t="s">
+        <v>684</v>
+      </c>
+      <c r="G114" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="H114" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I114" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="J114" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="K114" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="L114" s="40" t="s">
+        <v>687</v>
+      </c>
+      <c r="M114" s="58" t="s">
+        <v>689</v>
+      </c>
+      <c r="N114" s="58" t="s">
+        <v>690</v>
+      </c>
+      <c r="O114" s="58" t="s">
+        <v>691</v>
+      </c>
+      <c r="P114" s="58" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" ht="49.5">
+      <c r="A115" s="123" t="s">
+        <v>682</v>
+      </c>
+      <c r="B115" s="124">
+        <v>2</v>
+      </c>
+      <c r="C115" s="125">
+        <v>45765</v>
+      </c>
+      <c r="D115" s="128" t="s">
+        <v>685</v>
+      </c>
+      <c r="E115" s="126">
+        <v>90</v>
+      </c>
+      <c r="F115" s="127" t="s">
+        <v>686</v>
+      </c>
+      <c r="G115" s="127" t="s">
+        <v>180</v>
+      </c>
+      <c r="H115" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="I115" s="129" t="s">
+        <v>22</v>
+      </c>
+      <c r="J115" s="129" t="s">
+        <v>117</v>
+      </c>
+      <c r="K115" s="129" t="s">
+        <v>34</v>
+      </c>
+      <c r="L115" s="35" t="s">
+        <v>688</v>
+      </c>
+      <c r="M115" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="N115" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="O115" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="P115" s="54" t="s">
+        <v>692</v>
       </c>
     </row>
   </sheetData>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F63DA20-10E1-4811-8C5F-73E785C8017D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2577ADF-75F0-469D-8A44-5225FC0A07CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="701">
   <si>
     <t>아이디</t>
   </si>
@@ -4171,6 +4171,36 @@
   </si>
   <si>
     <t>완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tjsg*****</t>
+  </si>
+  <si>
+    <t>jun0******</t>
+  </si>
+  <si>
+    <t>여자혼자 저립하는데 문제 없어요.
+손이 다쳐서 하는데 별로 불편함은 없는데 
+합판이라고 해야하나?
+두개나 스크레치가 나서 교환하고픈데 귀찮아서 그냥 쓰고 있어요.
+ 사업자분은 그런부분까지 신경써주셨음 좋겠네요</t>
+  </si>
+  <si>
+    <t>가로 x 깊이(설치시 여유공간확보): 가로1000 x 깊이500 / 높이mm: 높이2100 / 선반단수 / 행거봉: 3단 / 행거봉2</t>
+  </si>
+  <si>
+    <t>조립하다 휘어버림. 생각보다 튼튼하진 않음</t>
+  </si>
+  <si>
+    <t>가로(설치시 여유공간확보): 900 / 깊이(mm): 300 / 높이(mm): 1050(기본2단)</t>
+  </si>
+  <si>
+    <t>아웃바운드하였으나 부재 중, 추후 연락하여 합판 교환 예정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아웃바운드하였으나 부재 중, 문제 부품 파악 후 교환 예정</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4472,7 +4502,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4834,26 +4864,11 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5193,10 +5208,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
-  <dimension ref="A1:P115"/>
+  <dimension ref="A1:P117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116"/>
+    <sheetView tabSelected="1" topLeftCell="E114" workbookViewId="0">
+      <selection activeCell="P117" sqref="P117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5707,7 +5722,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="99">
+    <row r="11" spans="1:16" ht="82.5">
       <c r="A11" s="14" t="s">
         <v>81</v>
       </c>
@@ -10904,37 +10919,37 @@
       </c>
     </row>
     <row r="115" spans="1:16" ht="49.5">
-      <c r="A115" s="123" t="s">
+      <c r="A115" s="66" t="s">
         <v>682</v>
       </c>
-      <c r="B115" s="124">
+      <c r="B115" s="67">
         <v>2</v>
       </c>
-      <c r="C115" s="125">
+      <c r="C115" s="123">
         <v>45765</v>
       </c>
-      <c r="D115" s="128" t="s">
+      <c r="D115" s="69" t="s">
         <v>685</v>
       </c>
-      <c r="E115" s="126">
+      <c r="E115" s="124">
         <v>90</v>
       </c>
-      <c r="F115" s="127" t="s">
+      <c r="F115" s="66" t="s">
         <v>686</v>
       </c>
-      <c r="G115" s="127" t="s">
+      <c r="G115" s="66" t="s">
         <v>180</v>
       </c>
-      <c r="H115" s="129" t="s">
+      <c r="H115" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="I115" s="129" t="s">
+      <c r="I115" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="J115" s="129" t="s">
+      <c r="J115" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="K115" s="129" t="s">
+      <c r="K115" s="66" t="s">
         <v>34</v>
       </c>
       <c r="L115" s="35" t="s">
@@ -10951,6 +10966,101 @@
       </c>
       <c r="P115" s="54" t="s">
         <v>692</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" s="32" customFormat="1" ht="82.5">
+      <c r="A116" s="70" t="s">
+        <v>693</v>
+      </c>
+      <c r="B116" s="76">
+        <v>3</v>
+      </c>
+      <c r="C116" s="77">
+        <v>45768</v>
+      </c>
+      <c r="D116" s="31" t="s">
+        <v>695</v>
+      </c>
+      <c r="E116" s="118">
+        <v>116</v>
+      </c>
+      <c r="F116" s="70" t="s">
+        <v>696</v>
+      </c>
+      <c r="G116" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="H116" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="I116" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="J116" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="K116" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="L116" s="40" t="s">
+        <v>699</v>
+      </c>
+      <c r="M116" s="58" t="s">
+        <v>646</v>
+      </c>
+      <c r="N116" s="58" t="s">
+        <v>648</v>
+      </c>
+      <c r="O116" s="58" t="s">
+        <v>650</v>
+      </c>
+      <c r="P116" s="58"/>
+    </row>
+    <row r="117" spans="1:16" ht="16.5">
+      <c r="A117" t="s">
+        <v>694</v>
+      </c>
+      <c r="B117" s="10">
+        <v>1</v>
+      </c>
+      <c r="C117" s="74">
+        <v>45767</v>
+      </c>
+      <c r="D117" s="23" t="s">
+        <v>697</v>
+      </c>
+      <c r="E117" s="124">
+        <v>23</v>
+      </c>
+      <c r="F117" t="s">
+        <v>698</v>
+      </c>
+      <c r="G117" t="s">
+        <v>180</v>
+      </c>
+      <c r="H117" t="s">
+        <v>21</v>
+      </c>
+      <c r="I117" t="s">
+        <v>22</v>
+      </c>
+      <c r="J117" t="s">
+        <v>117</v>
+      </c>
+      <c r="K117" t="s">
+        <v>34</v>
+      </c>
+      <c r="L117" s="35" t="s">
+        <v>700</v>
+      </c>
+      <c r="M117" s="54" t="s">
+        <v>358</v>
+      </c>
+      <c r="N117" s="54" t="s">
+        <v>565</v>
+      </c>
+      <c r="O117" s="54" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2577ADF-75F0-469D-8A44-5225FC0A07CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABA6B6C-1BB0-4A88-9E98-55727E443B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="720">
   <si>
     <t>아이디</t>
   </si>
@@ -4201,6 +4201,77 @@
   </si>
   <si>
     <t>아웃바운드하였으나 부재 중, 문제 부품 파악 후 교환 예정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dain*****</t>
+  </si>
+  <si>
+    <t>gomd****</t>
+  </si>
+  <si>
+    <t>pu****</t>
+  </si>
+  <si>
+    <t>당장 필요해서 그냥 쓰긴했지만 설명서가 이렇게 왔습니다. 제가 제 돈 주고 구매하는데 이런 설명서를 받아야하나요? 이곳에서는 첫구매인데 재구매의사 없습니다</t>
+  </si>
+  <si>
+    <t>가로x깊이: 가로600x깊이600 / 높이: 1200(2.5단)</t>
+  </si>
+  <si>
+    <t>블랙을 시키고 추가한 상판도 블랙인데 화이트 상판 4개주는건 소비자 이지메 하는거죠?
+귀찮아서 그냥 쓰지만 기분 나쁘니까 1점이나 드세요.</t>
+  </si>
+  <si>
+    <t>가로(설치시 여유공간확보): 600 / 깊이(mm): 600 / 높이(mm): 1050(기본2단)</t>
+  </si>
+  <si>
+    <t>구성품 누락 후 연락 안됨
+늦게 처리해줌
+품질도 서비스도 좋지않음
+재구매 생각없음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로x깊이(설치시 여유공간확보): 가로300x깊이300 / 높이: 1800 / 단수: 2단</t>
+  </si>
+  <si>
+    <t>https://brand.naver.com/speedrack/products/4831853679</t>
+  </si>
+  <si>
+    <t>아웃바운드하여 발생 원인 설명 및 사과 후, 커피 쿠폰 전송 완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아웃바운드하여 우드&amp;화이트 양면코팅합판 설명 진행, 혼동 가능성에 대해 사과 및 커피 쿠폰 전송 완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>연휴에 인입된 건으로 고객님께서 후크 사은품 추가 원하셔서 지급하는것으로 완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>파손</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객지원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>누락</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>합판</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5208,10 +5279,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
-  <dimension ref="A1:P117"/>
+  <dimension ref="A1:P120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E114" workbookViewId="0">
-      <selection activeCell="P117" sqref="P117"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5722,7 +5793,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="82.5">
+    <row r="11" spans="1:16" ht="99">
       <c r="A11" s="14" t="s">
         <v>81</v>
       </c>
@@ -11014,7 +11085,9 @@
       <c r="O116" s="58" t="s">
         <v>650</v>
       </c>
-      <c r="P116" s="58"/>
+      <c r="P116" s="58" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row r="117" spans="1:16" ht="16.5">
       <c r="A117" t="s">
@@ -11061,6 +11134,159 @@
       </c>
       <c r="O117" s="54" t="s">
         <v>57</v>
+      </c>
+      <c r="P117" s="54" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" s="32" customFormat="1" ht="30">
+      <c r="A118" s="32" t="s">
+        <v>701</v>
+      </c>
+      <c r="B118" s="89">
+        <v>1</v>
+      </c>
+      <c r="C118" s="79">
+        <v>45785</v>
+      </c>
+      <c r="D118" s="46" t="s">
+        <v>704</v>
+      </c>
+      <c r="E118" s="32">
+        <v>86</v>
+      </c>
+      <c r="F118" s="32" t="s">
+        <v>705</v>
+      </c>
+      <c r="G118" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H118" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I118" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J118" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="K118" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="L118" s="40" t="s">
+        <v>711</v>
+      </c>
+      <c r="M118" s="58" t="s">
+        <v>714</v>
+      </c>
+      <c r="N118" s="58" t="s">
+        <v>715</v>
+      </c>
+      <c r="O118" s="58" t="s">
+        <v>716</v>
+      </c>
+      <c r="P118" s="58" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" ht="30">
+      <c r="A119" t="s">
+        <v>702</v>
+      </c>
+      <c r="B119" s="10">
+        <v>1</v>
+      </c>
+      <c r="C119" s="74">
+        <v>45781</v>
+      </c>
+      <c r="D119" s="23" t="s">
+        <v>706</v>
+      </c>
+      <c r="E119">
+        <v>77</v>
+      </c>
+      <c r="F119" t="s">
+        <v>707</v>
+      </c>
+      <c r="G119" t="s">
+        <v>307</v>
+      </c>
+      <c r="H119" t="s">
+        <v>21</v>
+      </c>
+      <c r="I119" t="s">
+        <v>22</v>
+      </c>
+      <c r="J119" t="s">
+        <v>117</v>
+      </c>
+      <c r="K119" t="s">
+        <v>34</v>
+      </c>
+      <c r="L119" s="35" t="s">
+        <v>712</v>
+      </c>
+      <c r="M119" s="54" t="s">
+        <v>287</v>
+      </c>
+      <c r="N119" s="54" t="s">
+        <v>719</v>
+      </c>
+      <c r="O119" s="54" t="s">
+        <v>716</v>
+      </c>
+      <c r="P119" s="54" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" ht="60">
+      <c r="A120" t="s">
+        <v>703</v>
+      </c>
+      <c r="B120" s="10">
+        <v>1</v>
+      </c>
+      <c r="C120" s="74">
+        <v>45785</v>
+      </c>
+      <c r="D120" s="23" t="s">
+        <v>708</v>
+      </c>
+      <c r="E120" s="119">
+        <v>45</v>
+      </c>
+      <c r="F120" t="s">
+        <v>709</v>
+      </c>
+      <c r="G120" t="s">
+        <v>710</v>
+      </c>
+      <c r="H120" t="s">
+        <v>32</v>
+      </c>
+      <c r="I120" t="s">
+        <v>22</v>
+      </c>
+      <c r="J120" t="s">
+        <v>79</v>
+      </c>
+      <c r="K120" t="s">
+        <v>34</v>
+      </c>
+      <c r="L120" s="35" t="s">
+        <v>713</v>
+      </c>
+      <c r="M120" s="54" t="s">
+        <v>714</v>
+      </c>
+      <c r="N120" s="54" t="s">
+        <v>718</v>
+      </c>
+      <c r="O120" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="P120" s="54" t="s">
+        <v>717</v>
       </c>
     </row>
   </sheetData>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABA6B6C-1BB0-4A88-9E98-55727E443B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E8113D-028B-4A3C-A99A-A633FD54A29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="726">
   <si>
     <t>아이디</t>
   </si>
@@ -4272,6 +4272,27 @@
   </si>
   <si>
     <t>합판</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용묵</t>
+  </si>
+  <si>
+    <t>2025-05-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9T보단 12T가 더 좋습니다 안정적이구요!!! 그런데 제품 한개가 나무모양쪽 껍질이 살짝 까져서 왔습니다
+귀찮아서 그냥 씁니다.  모서리부분이여서 아쉽긴 합니다만 그냥 귀찮아서 사용합니다 </t>
+  </si>
+  <si>
+    <t>홈던트하우스 12T 선반 단추가: 가로1000x깊이400 백색</t>
+  </si>
+  <si>
+    <t>배송</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">아웃바운드하여 배송 중 파손 가능 설명 및 사과 후, 합판 1000*400 1장 재출고 처리 완료	</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5279,10 +5300,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
-  <dimension ref="A1:P120"/>
+  <dimension ref="A1:P121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView tabSelected="1" topLeftCell="E114" workbookViewId="0">
+      <selection activeCell="L122" sqref="L122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5793,7 +5814,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="99">
+    <row r="11" spans="1:16" ht="82.5">
       <c r="A11" s="14" t="s">
         <v>81</v>
       </c>
@@ -11288,6 +11309,54 @@
       <c r="P120" s="54" t="s">
         <v>717</v>
       </c>
+    </row>
+    <row r="121" spans="1:16" s="32" customFormat="1" ht="30">
+      <c r="A121" s="32" t="s">
+        <v>720</v>
+      </c>
+      <c r="B121" s="89">
+        <v>1</v>
+      </c>
+      <c r="C121" s="79" t="s">
+        <v>721</v>
+      </c>
+      <c r="D121" s="46" t="s">
+        <v>722</v>
+      </c>
+      <c r="E121" s="122">
+        <v>106</v>
+      </c>
+      <c r="F121" s="32" t="s">
+        <v>723</v>
+      </c>
+      <c r="G121" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="H121" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I121" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="J121" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="K121" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="L121" s="40" t="s">
+        <v>725</v>
+      </c>
+      <c r="M121" s="58" t="s">
+        <v>724</v>
+      </c>
+      <c r="N121" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="O121" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="P121" s="58"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:P81" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}"/>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E8113D-028B-4A3C-A99A-A633FD54A29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37A6CA8-CA29-466E-BF7E-1C9871B35FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="739">
   <si>
     <t>아이디</t>
   </si>
@@ -4293,6 +4293,58 @@
   </si>
   <si>
     <t xml:space="preserve">아웃바운드하여 배송 중 파손 가능 설명 및 사과 후, 합판 1000*400 1장 재출고 처리 완료	</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7602***</t>
+  </si>
+  <si>
+    <t>이번까지 3번째 구매입니다. 실망감이 큽니다.
+급한대로 그냥 손봐서 씁니다. 
+상판도 휘어진곳이 여러군대 있고 사진상에 충격을 받아 도장이 떨어져 나간부분이 발생됬습니다.
+배송에 문제 인지 생산에 문제인지는 제가 알수있는 방법은 없겠죠뭐... 
+무튼 결론은 이번엔 실망감이 크다는점</t>
+  </si>
+  <si>
+    <t>구분: 경량랙(200kg) 연결형 / 가로x깊이(가로 외경 + 50mm): 가로1200x깊이600 / 높이x단수: 높이1800x4단</t>
+  </si>
+  <si>
+    <t>thre*****</t>
+  </si>
+  <si>
+    <t>pape*******</t>
+  </si>
+  <si>
+    <t>기둥부분이 찌그러져있었는데 설치가 급해서 그냥 썻네요 스피드랙 5번째 설치인데 갈수록 제품이 점점 안좋아지는 듯합니다</t>
+  </si>
+  <si>
+    <t>가로x깊이(설치시 여유공간확보): 가로600x깊이500 / 높이: 1950(2단)</t>
+  </si>
+  <si>
+    <t>마감이랑 배송상태가 아쉬움
+프레임 안쪽은 도장 작업이 되다 말고
+배송 간에 프레임끼리 긁혔는지 도장이 까져있음</t>
+  </si>
+  <si>
+    <t>가로 x 깊이(설치시 여유공간확보): 가로1200 x 깊이500 / 높이mm: 높이2100 / 선반단수 / 행거봉: 3단 / 행거봉2</t>
+  </si>
+  <si>
+    <t>아웃바운드하여 선반 교환 안내 드렸으나 교환거부.
+커피쿠폰 전송완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>기둥교환 안내 드렸으나,
+전체 반품 후 재주문 하신다고 함
+무상반품으로 안내 완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아웃바운드하였으나 부재 중으로, 추후 제품 교환 혹은 기프티콘 발송 예정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4594,7 +4646,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4961,6 +5013,9 @@
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5300,10 +5355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
-  <dimension ref="A1:P121"/>
+  <dimension ref="A1:P124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E114" workbookViewId="0">
-      <selection activeCell="L122" sqref="L122"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11356,7 +11411,159 @@
       <c r="O121" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="P121" s="58"/>
+      <c r="P121" s="58" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" ht="30">
+      <c r="A122" t="s">
+        <v>726</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122" s="20">
+        <v>45805</v>
+      </c>
+      <c r="D122" t="s">
+        <v>727</v>
+      </c>
+      <c r="E122">
+        <v>160</v>
+      </c>
+      <c r="F122" t="s">
+        <v>728</v>
+      </c>
+      <c r="G122" t="s">
+        <v>628</v>
+      </c>
+      <c r="H122" t="s">
+        <v>554</v>
+      </c>
+      <c r="I122" t="s">
+        <v>22</v>
+      </c>
+      <c r="J122" t="s">
+        <v>117</v>
+      </c>
+      <c r="K122" s="54" t="s">
+        <v>555</v>
+      </c>
+      <c r="L122" s="35" t="s">
+        <v>735</v>
+      </c>
+      <c r="M122" s="125" t="s">
+        <v>364</v>
+      </c>
+      <c r="N122" s="125" t="s">
+        <v>85</v>
+      </c>
+      <c r="O122" s="125" t="s">
+        <v>57</v>
+      </c>
+      <c r="P122" s="54" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" ht="45">
+      <c r="A123" t="s">
+        <v>729</v>
+      </c>
+      <c r="B123">
+        <v>2</v>
+      </c>
+      <c r="C123" s="20">
+        <v>45806</v>
+      </c>
+      <c r="D123" t="s">
+        <v>731</v>
+      </c>
+      <c r="E123">
+        <v>65</v>
+      </c>
+      <c r="F123" t="s">
+        <v>732</v>
+      </c>
+      <c r="G123" t="s">
+        <v>116</v>
+      </c>
+      <c r="H123" t="s">
+        <v>32</v>
+      </c>
+      <c r="I123" t="s">
+        <v>22</v>
+      </c>
+      <c r="J123" t="s">
+        <v>117</v>
+      </c>
+      <c r="K123" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="L123" s="35" t="s">
+        <v>736</v>
+      </c>
+      <c r="M123" s="125" t="s">
+        <v>364</v>
+      </c>
+      <c r="N123" s="125" t="s">
+        <v>85</v>
+      </c>
+      <c r="O123" s="125" t="s">
+        <v>57</v>
+      </c>
+      <c r="P123" s="54" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16">
+      <c r="A124" t="s">
+        <v>730</v>
+      </c>
+      <c r="B124">
+        <v>3</v>
+      </c>
+      <c r="C124" s="20">
+        <v>45802</v>
+      </c>
+      <c r="D124" t="s">
+        <v>733</v>
+      </c>
+      <c r="E124">
+        <v>61</v>
+      </c>
+      <c r="F124" t="s">
+        <v>734</v>
+      </c>
+      <c r="G124" t="s">
+        <v>107</v>
+      </c>
+      <c r="H124" t="s">
+        <v>21</v>
+      </c>
+      <c r="I124" t="s">
+        <v>22</v>
+      </c>
+      <c r="J124" t="s">
+        <v>108</v>
+      </c>
+      <c r="K124" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="L124" s="35" t="s">
+        <v>737</v>
+      </c>
+      <c r="M124" s="125" t="s">
+        <v>364</v>
+      </c>
+      <c r="N124" s="125" t="s">
+        <v>85</v>
+      </c>
+      <c r="O124" s="125" t="s">
+        <v>57</v>
+      </c>
+      <c r="P124" s="54" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:P81" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}"/>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37A6CA8-CA29-466E-BF7E-1C9871B35FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED0428D-B45A-4B93-ACC8-CE5563D2BB6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="754">
   <si>
     <t>아이디</t>
   </si>
@@ -4345,6 +4345,62 @@
   </si>
   <si>
     <t>완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bamo******</t>
+  </si>
+  <si>
+    <t>seou****</t>
+  </si>
+  <si>
+    <t>mylo******</t>
+  </si>
+  <si>
+    <t>똑같은 제품 두 세트를 주문 했으면, 상식적으로 한 박스에 1set구성품을 넣지 않나요? 소비자가 편한 방식으로 포장을 해야지, 판매자가 넣기 편한 방식으로 포장을 합니까? 당연히 한 박스당 한 세트 구성품일거라 생각하고 조립했다가 다시 분해해 고생했습니다. 다리길이도 세트마다 긴것과 짧은것이 믹스던데요. 한박스엔 긴것 모조리 다른 박스 까보니 거기엔 짧은것 모조리, 이게 뭔가요? 여러번 꼈다뺐다 도장벗겨지고 난장판입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로x깊이: 가로700x깊이400 / 높이: 1350(2.5단)</t>
+  </si>
+  <si>
+    <t>기대하고 시켰는데 철제 부품들 다 조립하고 이제 선반 끼우려니까 저렇게 흠집이 다 나 있었어요 .. 
+이게 되게 작은데 추가로 시킨 선반들 모두 포함해서 총 5개가 다 저렇게 똑같이 상처 나있으니까 엄청 거슬리더라구요  ... 속상하네요 ..</t>
+  </si>
+  <si>
+    <t>가로x깊이(설치시 여유공간확보): 가로1100x깊이300 / 높이: 1950(2단)</t>
+  </si>
+  <si>
+    <t>도대체가 품질관리를 전혀 안하는건지 뭔지 제품상태가 엉망이다
+급해서 우선 쓰기는하지만
+다시는 구매 안할거다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로(설치시 여유공간확보): 900 / 깊이(mm): 500 / 높이(mm): 600(기본2단)</t>
+  </si>
+  <si>
+    <t>고객님께 파손 원인 설명 및 합판 파손으로 인한 전체 맞교환 접수 완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 의견</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>파손</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아웃바운드 하여 배송 중 파손으로 확인 완료, 교환 거부로 네이버페이 쿠폰 10,000원 전송완료</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4646,7 +4702,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5014,7 +5070,10 @@
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5355,10 +5414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
-  <dimension ref="A1:P124"/>
+  <dimension ref="A1:P127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11452,13 +11511,13 @@
       <c r="L122" s="35" t="s">
         <v>735</v>
       </c>
-      <c r="M122" s="125" t="s">
+      <c r="M122" s="54" t="s">
         <v>364</v>
       </c>
-      <c r="N122" s="125" t="s">
+      <c r="N122" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="O122" s="125" t="s">
+      <c r="O122" s="54" t="s">
         <v>57</v>
       </c>
       <c r="P122" s="54" t="s">
@@ -11502,13 +11561,13 @@
       <c r="L123" s="35" t="s">
         <v>736</v>
       </c>
-      <c r="M123" s="125" t="s">
+      <c r="M123" s="54" t="s">
         <v>364</v>
       </c>
-      <c r="N123" s="125" t="s">
+      <c r="N123" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="O123" s="125" t="s">
+      <c r="O123" s="54" t="s">
         <v>57</v>
       </c>
       <c r="P123" s="54" t="s">
@@ -11552,17 +11611,164 @@
       <c r="L124" s="35" t="s">
         <v>737</v>
       </c>
-      <c r="M124" s="125" t="s">
+      <c r="M124" s="54" t="s">
         <v>364</v>
       </c>
-      <c r="N124" s="125" t="s">
+      <c r="N124" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="O124" s="125" t="s">
+      <c r="O124" s="54" t="s">
         <v>57</v>
       </c>
       <c r="P124" s="54" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" ht="66">
+      <c r="A125" s="53" t="s">
+        <v>739</v>
+      </c>
+      <c r="B125" s="125">
+        <v>1</v>
+      </c>
+      <c r="C125" s="73">
+        <v>45821</v>
+      </c>
+      <c r="D125" s="36" t="s">
+        <v>742</v>
+      </c>
+      <c r="E125" s="124">
+        <v>238</v>
+      </c>
+      <c r="F125" s="53" t="s">
+        <v>743</v>
+      </c>
+      <c r="G125" s="53" t="s">
+        <v>637</v>
+      </c>
+      <c r="H125" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="I125" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="J125" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="K125" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="L125" s="35" t="s">
+        <v>737</v>
+      </c>
+      <c r="M125" s="54" t="s">
+        <v>750</v>
+      </c>
+      <c r="N125" s="54" t="s">
+        <v>350</v>
+      </c>
+      <c r="O125" s="54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16">
+      <c r="A126" t="s">
+        <v>740</v>
+      </c>
+      <c r="B126">
+        <v>2</v>
+      </c>
+      <c r="C126" s="50">
+        <v>45821</v>
+      </c>
+      <c r="D126" t="s">
+        <v>744</v>
+      </c>
+      <c r="E126">
+        <v>136</v>
+      </c>
+      <c r="F126" t="s">
+        <v>745</v>
+      </c>
+      <c r="G126" t="s">
+        <v>116</v>
+      </c>
+      <c r="H126" t="s">
+        <v>32</v>
+      </c>
+      <c r="I126" t="s">
+        <v>22</v>
+      </c>
+      <c r="J126" t="s">
+        <v>117</v>
+      </c>
+      <c r="K126" t="s">
+        <v>34</v>
+      </c>
+      <c r="L126" t="s">
+        <v>748</v>
+      </c>
+      <c r="M126" s="54" t="s">
+        <v>749</v>
+      </c>
+      <c r="N126" s="54" t="s">
+        <v>751</v>
+      </c>
+      <c r="O126" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="P126" s="54" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" ht="49.5">
+      <c r="A127" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="B127" s="126">
+        <v>1</v>
+      </c>
+      <c r="C127" s="123">
+        <v>45818</v>
+      </c>
+      <c r="D127" s="36" t="s">
+        <v>746</v>
+      </c>
+      <c r="E127" s="124">
+        <v>59</v>
+      </c>
+      <c r="F127" s="15" t="s">
+        <v>747</v>
+      </c>
+      <c r="G127" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="H127" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I127" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J127" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="K127" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L127" t="s">
+        <v>753</v>
+      </c>
+      <c r="M127" s="54" t="s">
+        <v>749</v>
+      </c>
+      <c r="N127" s="54" t="s">
+        <v>751</v>
+      </c>
+      <c r="O127" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="P127" s="54" t="s">
+        <v>752</v>
       </c>
     </row>
   </sheetData>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED0428D-B45A-4B93-ACC8-CE5563D2BB6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3A61EC-35AB-4328-A40D-C0541B376441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="772">
   <si>
     <t>아이디</t>
   </si>
@@ -4401,6 +4401,74 @@
   </si>
   <si>
     <t>아웃바운드 하여 배송 중 파손으로 확인 완료, 교환 거부로 네이버페이 쿠폰 10,000원 전송완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lemi***</t>
+  </si>
+  <si>
+    <t>2025-06-27</t>
+  </si>
+  <si>
+    <t>iam_****</t>
+  </si>
+  <si>
+    <t>2025-06-23</t>
+  </si>
+  <si>
+    <t>ql****</t>
+  </si>
+  <si>
+    <t>2025-06-25</t>
+  </si>
+  <si>
+    <t>벌써 5번째 재구매인데요 이번엔 스크래치와 찍힘 이물질 묻어있는 부분도 많았지만 무엇보다 한쪽이 찌르러졌는지 균형이 안맞아서 내려앉는쪽이 있고 해당 부분은 손으로 들어도 빠집니다. 다시 받기에도 애매하고 조립해서 빨리 사용해야해서 그냥 저냥 사용하는데요.
+다음엔 재구매 안하게 될거같아요..
+매번 포장이 부실해서 제품에 스트래치가있어도 그냥 썻었는데 이번엔 고정되는게 헐거워서 그냥 빠지니.. 이게 가격이 싼거도 아닌데 좀 그렇네요..</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레임 교환 안내차 연락 드렸으나 이미 설치를 끝낸상태로 교환 거부하여, 네이버페이 10,000원 교환권 전송완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로x깊이(설치시 여유공간확보): 가로600x깊이400 / 높이: 1800(2단)</t>
+  </si>
+  <si>
+    <t>가로(설치시 여유공간확보): 500 / 깊이(mm): 500 / 높이(mm): 1350(기본2단)</t>
+  </si>
+  <si>
+    <t>구분: 중량랙(300kg) 독립형 / 가로x깊이(가로 외경 + 50mm): 가로900x깊이450 / 높이x단수: 높이1800x4단</t>
+  </si>
+  <si>
+    <t>기둥이 단단하게 고정되지 않아서 박스 안에서 자기들끼리 부딪혀 절반 이상이 잔뜩 스크래치 난 상태로 왔고요. 교환 바로 해주셔서 감사하긴한데 교환으로 온 기둥들도 상태가 좋지는 않았습니다. 
+다시 교환해봤자 별다를게 없을 것 같아 저는 그냥 이 상태로 설치했지만 이런거 예민한 분들은 감안하고 주문하세요.</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>아웃바운드하였으나 교환 거부 및 커피쿠폰 거부하셔서 사과 후 안내 종료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">배송이 생각보다 빨라서 좋았어요.
+도장이 제대로 안 된 기둥과 눌려서 모서리 부분이 찢어진 선반을 하나씩 받았는데 빠르게 교환 상품 보내주신 것도 좋았습니다.
+랙이 꽤 흔들리는 것과 불량상품 회수가 일주일 가까이 안 되고 있는 게 신경이 쓰이네요..! </t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>아웃바운드하여 상황 파악 및 설명드렸으며, 택배사 측에 회수 추가 접수 완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>파손</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5414,10 +5482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
-  <dimension ref="A1:P127"/>
+  <dimension ref="A1:P130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5928,7 +5996,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="82.5">
+    <row r="11" spans="1:16" ht="99">
       <c r="A11" s="14" t="s">
         <v>81</v>
       </c>
@@ -9221,7 +9289,9 @@
       <c r="O76" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="P76" s="58"/>
+      <c r="P76" s="58" t="s">
+        <v>771</v>
+      </c>
     </row>
     <row r="77" spans="1:16" s="32" customFormat="1" ht="30">
       <c r="A77" s="83" t="s">
@@ -11670,6 +11740,9 @@
       <c r="O125" s="54" t="s">
         <v>57</v>
       </c>
+      <c r="P125" s="54" t="s">
+        <v>771</v>
+      </c>
     </row>
     <row r="126" spans="1:16">
       <c r="A126" t="s">
@@ -11769,6 +11842,156 @@
       </c>
       <c r="P127" s="54" t="s">
         <v>752</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" ht="75">
+      <c r="A128" s="25" t="s">
+        <v>754</v>
+      </c>
+      <c r="B128" s="25">
+        <v>3</v>
+      </c>
+      <c r="C128" s="25" t="s">
+        <v>755</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>760</v>
+      </c>
+      <c r="E128" s="25">
+        <v>243</v>
+      </c>
+      <c r="F128" s="25" t="s">
+        <v>762</v>
+      </c>
+      <c r="G128" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="H128" t="s">
+        <v>32</v>
+      </c>
+      <c r="I128" t="s">
+        <v>22</v>
+      </c>
+      <c r="J128" t="s">
+        <v>117</v>
+      </c>
+      <c r="K128" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="L128" s="35" t="s">
+        <v>761</v>
+      </c>
+      <c r="M128" s="54" t="s">
+        <v>769</v>
+      </c>
+      <c r="N128" s="54" t="s">
+        <v>770</v>
+      </c>
+      <c r="O128" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="P128" s="54" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" ht="45">
+      <c r="A129" s="25" t="s">
+        <v>756</v>
+      </c>
+      <c r="B129" s="25">
+        <v>3</v>
+      </c>
+      <c r="C129" s="25" t="s">
+        <v>757</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>765</v>
+      </c>
+      <c r="E129" s="25">
+        <v>169</v>
+      </c>
+      <c r="F129" s="25" t="s">
+        <v>763</v>
+      </c>
+      <c r="G129" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="H129" t="s">
+        <v>21</v>
+      </c>
+      <c r="I129" t="s">
+        <v>22</v>
+      </c>
+      <c r="J129" t="s">
+        <v>117</v>
+      </c>
+      <c r="K129" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="L129" s="35" t="s">
+        <v>766</v>
+      </c>
+      <c r="M129" s="54" t="s">
+        <v>769</v>
+      </c>
+      <c r="N129" s="54" t="s">
+        <v>770</v>
+      </c>
+      <c r="O129" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="P129" s="54" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" ht="45">
+      <c r="A130" s="25" t="s">
+        <v>758</v>
+      </c>
+      <c r="B130" s="25">
+        <v>3</v>
+      </c>
+      <c r="C130" s="25" t="s">
+        <v>759</v>
+      </c>
+      <c r="D130" s="11" t="s">
+        <v>767</v>
+      </c>
+      <c r="E130" s="25">
+        <v>140</v>
+      </c>
+      <c r="F130" s="25" t="s">
+        <v>764</v>
+      </c>
+      <c r="G130" s="25" t="s">
+        <v>628</v>
+      </c>
+      <c r="H130" t="s">
+        <v>554</v>
+      </c>
+      <c r="I130" t="s">
+        <v>22</v>
+      </c>
+      <c r="J130" t="s">
+        <v>117</v>
+      </c>
+      <c r="K130" s="54" t="s">
+        <v>555</v>
+      </c>
+      <c r="L130" s="35" t="s">
+        <v>768</v>
+      </c>
+      <c r="M130" s="54" t="s">
+        <v>769</v>
+      </c>
+      <c r="N130" s="54" t="s">
+        <v>351</v>
+      </c>
+      <c r="O130" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="P130" s="54" t="s">
+        <v>771</v>
       </c>
     </row>
   </sheetData>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3A61EC-35AB-4328-A40D-C0541B376441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24844550-1FE7-42E6-A016-BEA3F674926A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="784">
   <si>
     <t>아이디</t>
   </si>
@@ -4469,6 +4469,58 @@
   </si>
   <si>
     <t>완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>muho****</t>
+  </si>
+  <si>
+    <t>일단 조립하기가 너무 쉽고//
+여러가지를 검색해보고 최종적으로 선택했는데
+튼튼하고 안정적임//
+비키니옷장하고 행거하고 고민했는데,
+비키니 옷장 조립후를 찾아봤는데 뭔가 흐물흐물해서 맘에 안들었는데,
+역시 행거 선택하길 잘한듯//
+상판이 흠집이 나서 왔지만 귀찮아서 걍 사용
+추가 수납공간이 필요해서 하나 더 구입할까 고민중</t>
+  </si>
+  <si>
+    <t>가로 x 깊이(설치시 여유공간확보): 가로1000 x 깊이500 / 높이mm: 높이1800 / 선반단수 / 행거봉: 2단 / 행거봉1</t>
+  </si>
+  <si>
+    <t>아웃바운드하여 택배 배송 중 파손 가능성 설명 및 사과 말씀 전달, 1000*500 합판 1장 교환처리 완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gogo******</t>
+  </si>
+  <si>
+    <t>설치는 간편합니다.
+전반적인 마감이 좋지 않습니다.
+배송은 빠른편입니다.
+설명도 쉽게 되어 있습니다.
+마가이 까진부분, 연결바 끝이 휘어져서 조착해서 펴서 조립했습니다..</t>
+  </si>
+  <si>
+    <t>구분: 경량랙(200kg) 독립형 / 가로x깊이(가로 외경 + 50mm): 가로900x깊이300 / 높이x단수: 높이1800x4단</t>
+  </si>
+  <si>
+    <t>프레임 도장불량 및 파손으로 교환 안내 드렸으나 설치완료하여 교환 거부. 네이버페이 쿠폰 1만원 전송 완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tjrk*****</t>
+  </si>
+  <si>
+    <t>믿고사는 스피드랙
+배송중 합판모서리가 일부 뭉개졌는데 설치후에 안보이는곳이라 바로설치했습니다
+만족스러워요</t>
+  </si>
+  <si>
+    <t>가로(설치시 여유공간확보): 1000 / 깊이(mm): 300 / 높이(mm): 1950(기본2단)</t>
+  </si>
+  <si>
+    <t>아웃바운드하여 배송 중 파손에 대한 사과의 말씀 드렸으며, 1000*300 합판 1장 파손으로 맞교환 CS접수 완료.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5482,10 +5534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
-  <dimension ref="A1:P130"/>
+  <dimension ref="A1:P133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="B127" sqref="B127"/>
+      <selection activeCell="A131" sqref="A131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11994,6 +12046,156 @@
         <v>771</v>
       </c>
     </row>
+    <row r="131" spans="1:16" ht="120">
+      <c r="A131" t="s">
+        <v>772</v>
+      </c>
+      <c r="B131">
+        <v>5</v>
+      </c>
+      <c r="C131" s="20">
+        <v>45838</v>
+      </c>
+      <c r="D131" s="23" t="s">
+        <v>773</v>
+      </c>
+      <c r="E131">
+        <v>180</v>
+      </c>
+      <c r="F131" t="s">
+        <v>774</v>
+      </c>
+      <c r="G131" t="s">
+        <v>107</v>
+      </c>
+      <c r="H131" t="s">
+        <v>21</v>
+      </c>
+      <c r="I131" t="s">
+        <v>22</v>
+      </c>
+      <c r="J131" t="s">
+        <v>108</v>
+      </c>
+      <c r="K131" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="L131" s="35" t="s">
+        <v>775</v>
+      </c>
+      <c r="M131" s="54" t="s">
+        <v>364</v>
+      </c>
+      <c r="N131" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="O131" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="P131" s="54" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16">
+      <c r="A132" t="s">
+        <v>776</v>
+      </c>
+      <c r="B132">
+        <v>3</v>
+      </c>
+      <c r="C132" s="20">
+        <v>45839</v>
+      </c>
+      <c r="D132" t="s">
+        <v>777</v>
+      </c>
+      <c r="E132">
+        <v>95</v>
+      </c>
+      <c r="F132" t="s">
+        <v>778</v>
+      </c>
+      <c r="G132" t="s">
+        <v>628</v>
+      </c>
+      <c r="H132" t="s">
+        <v>554</v>
+      </c>
+      <c r="I132" t="s">
+        <v>22</v>
+      </c>
+      <c r="J132" t="s">
+        <v>117</v>
+      </c>
+      <c r="K132" s="54" t="s">
+        <v>555</v>
+      </c>
+      <c r="L132" s="35" t="s">
+        <v>779</v>
+      </c>
+      <c r="M132" s="54" t="s">
+        <v>364</v>
+      </c>
+      <c r="N132" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="O132" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="P132" s="54" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" ht="30">
+      <c r="A133" t="s">
+        <v>780</v>
+      </c>
+      <c r="B133">
+        <v>5</v>
+      </c>
+      <c r="C133" s="20">
+        <v>45838</v>
+      </c>
+      <c r="D133" t="s">
+        <v>781</v>
+      </c>
+      <c r="E133">
+        <v>58</v>
+      </c>
+      <c r="F133" t="s">
+        <v>782</v>
+      </c>
+      <c r="G133" t="s">
+        <v>180</v>
+      </c>
+      <c r="H133" t="s">
+        <v>21</v>
+      </c>
+      <c r="I133" t="s">
+        <v>22</v>
+      </c>
+      <c r="J133" t="s">
+        <v>117</v>
+      </c>
+      <c r="K133" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="L133" s="35" t="s">
+        <v>783</v>
+      </c>
+      <c r="M133" s="54" t="s">
+        <v>364</v>
+      </c>
+      <c r="N133" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="O133" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="P133" s="54" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:P81" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}"/>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/VOC조치내역.xlsx
+++ b/VOC조치내역.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24844550-1FE7-42E6-A016-BEA3F674926A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6FFD8A-BE5E-4A7C-871A-242AE6309BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{17D67A8D-EC46-4C19-BFFD-29762CD24106}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="798">
   <si>
     <t>아이디</t>
   </si>
@@ -4521,6 +4521,67 @@
   </si>
   <si>
     <t>아웃바운드하여 배송 중 파손에 대한 사과의 말씀 드렸으며, 1000*300 합판 1장 파손으로 맞교환 CS접수 완료.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nahi*****</t>
+  </si>
+  <si>
+    <t>9813***</t>
+  </si>
+  <si>
+    <t>ansd********</t>
+  </si>
+  <si>
+    <t>자취할때부터 스피드렉 잘 썼었는데 이번에 이사하면서 파충류 애들 사육장 크게 해주느라 무거운 유리장 올릴려고 고중량으로 나온 경량렉 사봤어용
+설치는 뭐 힘들지 않게 했고 설치하면서 50키로인 제가 올라가봐도 튼튼한 것 같더라구요.
+다만 배송중에 좀 눌렸는지, 상판 세개가 다 찍혀왔긴 했는데 저희는 교환 귀찮아해서 뒷면으로 놓고 쓰고 있어용
+상판이 튼튼한 것 같으면서도 눌르면 또 눌려져서 쵸큼 아리까리? 하지만, 자리잡으면 안정되겠죵</t>
+  </si>
+  <si>
+    <t>구분: 경량랙(200kg) 독립형 / 가로x깊이(가로 외경 + 50mm): 가로1200x깊이600 / 높이x단수: 높이1800x3단</t>
+  </si>
+  <si>
+    <t>지난번 구매시 품질에 만족하며 재구매를 했습니다
+배송자체는 빨랐으나, 제품 하자가 있더군요
+4단으로 구매 했고 그 중 2개 상단판 결합자체가 잘못된 제품을 받았습니다
+최상단  최하단 측은 따로 상단판 고정 도움 핀이 없어서 그냥 장착해서 사용합니다만
+기본적인 품질 검사도 없이 제품을 보내는게 아닌가 싶네요 
+재주문의사가 사라졌습니다
+절대 배송간에 부주의로 발생할수는 없는 불량입니다</t>
+  </si>
+  <si>
+    <t>구분: 경량랙(200kg) 독립형 / 가로x깊이(가로 외경 + 50mm): 가로1500x깊이600 / 높이x단수: 높이1500x4단</t>
+  </si>
+  <si>
+    <t>배송 컨디션 문제일까요?
+선반 고정 홈 부분 다 찌그러져서 직접 펴보겠다고
+피봤네요
+포장이든 배송이든 개선 필요합니다</t>
+  </si>
+  <si>
+    <t>가로(설치시 여유공간확보): 1200 / 깊이(mm): 600 / 높이(mm): 1950(기본2단)</t>
+  </si>
+  <si>
+    <t>톡톡 상담 시 교환 안내 드렸으나,
+교환 거부하여 사과의 말씀 후 상담 종료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아웃바운드하여 1500*600 선반 2개 파손으로 확인 완료.
+회수없이 1500*600 선반 2개 재출고 CS접수 완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>받침,보강대 파손으로 확인 완료. 억지로 펴서 사용하려다가 다치셨다고 하심. 별도 교환 원치 않으셔서, 신세계상품권 30,000원 전송완료</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5534,10 +5595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D3D7-F250-4F25-85FF-FE45BA34CF23}">
-  <dimension ref="A1:P133"/>
+  <dimension ref="A1:P136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="A131" sqref="A131"/>
+    <sheetView tabSelected="1" topLeftCell="G130" workbookViewId="0">
+      <selection activeCell="L135" sqref="L135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6048,7 +6109,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="99">
+    <row r="11" spans="1:16" ht="82.5">
       <c r="A11" s="14" t="s">
         <v>81</v>
       </c>
@@ -12194,6 +12255,156 @@
       </c>
       <c r="P133" s="54" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" ht="75">
+      <c r="A134" t="s">
+        <v>784</v>
+      </c>
+      <c r="B134">
+        <v>4</v>
+      </c>
+      <c r="C134" s="20">
+        <v>45845</v>
+      </c>
+      <c r="D134" s="23" t="s">
+        <v>787</v>
+      </c>
+      <c r="E134">
+        <v>243</v>
+      </c>
+      <c r="F134" t="s">
+        <v>788</v>
+      </c>
+      <c r="G134" t="s">
+        <v>628</v>
+      </c>
+      <c r="H134" t="s">
+        <v>554</v>
+      </c>
+      <c r="I134" t="s">
+        <v>22</v>
+      </c>
+      <c r="J134" t="s">
+        <v>117</v>
+      </c>
+      <c r="K134" s="54" t="s">
+        <v>555</v>
+      </c>
+      <c r="L134" s="35" t="s">
+        <v>793</v>
+      </c>
+      <c r="M134" s="54" t="s">
+        <v>794</v>
+      </c>
+      <c r="N134" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="O134" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="P134" s="54" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" ht="195">
+      <c r="A135" t="s">
+        <v>785</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135" s="20">
+        <v>45848</v>
+      </c>
+      <c r="D135" s="23" t="s">
+        <v>789</v>
+      </c>
+      <c r="E135">
+        <v>220</v>
+      </c>
+      <c r="F135" t="s">
+        <v>790</v>
+      </c>
+      <c r="G135" t="s">
+        <v>628</v>
+      </c>
+      <c r="H135" t="s">
+        <v>554</v>
+      </c>
+      <c r="I135" t="s">
+        <v>22</v>
+      </c>
+      <c r="J135" t="s">
+        <v>117</v>
+      </c>
+      <c r="K135" s="54" t="s">
+        <v>555</v>
+      </c>
+      <c r="L135" s="35" t="s">
+        <v>796</v>
+      </c>
+      <c r="M135" s="54" t="s">
+        <v>794</v>
+      </c>
+      <c r="N135" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="O135" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="P135" s="54" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" ht="60">
+      <c r="A136" t="s">
+        <v>786</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136" s="20">
+        <v>45848</v>
+      </c>
+      <c r="D136" s="23" t="s">
+        <v>791</v>
+      </c>
+      <c r="E136">
+        <v>65</v>
+      </c>
+      <c r="F136" t="s">
+        <v>792</v>
+      </c>
+      <c r="G136" t="s">
+        <v>307</v>
+      </c>
+      <c r="H136" t="s">
+        <v>21</v>
+      </c>
+      <c r="I136" t="s">
+        <v>22</v>
+      </c>
+      <c r="J136" t="s">
+        <v>117</v>
+      </c>
+      <c r="K136" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="L136" s="35" t="s">
+        <v>797</v>
+      </c>
+      <c r="M136" s="54" t="s">
+        <v>794</v>
+      </c>
+      <c r="N136" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="O136" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="P136" s="54" t="s">
+        <v>795</v>
       </c>
     </row>
   </sheetData>
